--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\User3\Work\Github\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AD496F-DAA6-4EE1-AD77-7ED08CDBF0F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="167">
   <si>
     <t>ID</t>
   </si>
@@ -490,13 +491,52 @@
   </si>
   <si>
     <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
+  </si>
+  <si>
+    <t>E-cigarette industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
+  </si>
+  <si>
+    <t>E-Cig industry</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
+  </si>
+  <si>
+    <t>Independent e-cigarette industry</t>
+  </si>
+  <si>
+    <t>Independent e-cigarette company</t>
+  </si>
+  <si>
+    <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+  </si>
+  <si>
+    <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,13 +569,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -544,30 +577,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -582,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -603,7 +629,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,23 +641,32 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,764 +1002,877 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="A26:XFD1346"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16" style="11" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="11"/>
-    <col min="13" max="13" width="18.42578125" style="11" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="11"/>
-    <col min="16" max="16" width="13.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="37.140625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="48.7109375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="16" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16" style="20" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="48.26953125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="44.1796875" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="20"/>
+    <col min="13" max="13" width="18.453125" style="20" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="20"/>
+    <col min="16" max="16" width="13.453125" style="20" customWidth="1"/>
+    <col min="17" max="17" width="37.1796875" style="20" customWidth="1"/>
+    <col min="18" max="18" width="48.7265625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="24.7265625" style="20" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12">
-        <v>1</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12">
-        <v>1</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12">
-        <v>1</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12">
-        <v>1</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12">
-        <v>1</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12">
-        <v>1</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15">
-        <v>1</v>
-      </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17">
+        <v>1</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:19" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="R16" s="16"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="S17" s="10"/>
+    </row>
+    <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="Q19" s="10"/>
+      <c r="S19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10" t="s">
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="12"/>
-    </row>
-    <row r="19" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="R22" s="16"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P23" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q19" s="12"/>
-      <c r="S19" s="12"/>
-    </row>
-    <row r="20" spans="1:19" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10" t="s">
+      <c r="Q23" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:19" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="R24" s="16"/>
+    </row>
+    <row r="25" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P25" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10" t="s">
+    <row r="26" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10" t="s">
+      <c r="Q26" s="10"/>
+      <c r="R26" s="16"/>
+    </row>
+    <row r="27" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:19" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="16"/>
+    </row>
+    <row r="28" spans="1:19" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="1:19" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="P29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="P26" s="10" t="s">
+      <c r="Q29" s="10"/>
+      <c r="R29" s="16"/>
+    </row>
+    <row r="30" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="16"/>
+      <c r="P30" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11">
-        <v>1</v>
-      </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="P28" s="10" t="s">
+    <row r="31" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="16"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20">
+        <v>1</v>
+      </c>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="16"/>
+      <c r="P32" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="P29" s="10" t="s">
+    <row r="33" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="16"/>
+      <c r="P33" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="P30" s="10" t="s">
+    <row r="34" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="16"/>
+      <c r="P34" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="P32" s="10" t="s">
+    <row r="35" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="16"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+    </row>
+    <row r="36" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="16"/>
+      <c r="P36" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="Q35" s="11"/>
-    </row>
-    <row r="36" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-    </row>
-    <row r="37" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-    </row>
-    <row r="38" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-    </row>
-    <row r="39" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-    </row>
-    <row r="41" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-    </row>
-    <row r="42" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13"/>
-    </row>
-    <row r="43" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-    </row>
-    <row r="44" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="R44" s="11"/>
-    </row>
-    <row r="45" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="Q45" s="11"/>
-    </row>
-    <row r="46" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-    </row>
-    <row r="49" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
+    <row r="37" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="16"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="38" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="16"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+    </row>
+    <row r="39" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="16"/>
+      <c r="Q39" s="20"/>
+    </row>
+    <row r="40" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="R48" s="20"/>
+    </row>
+    <row r="49" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="16"/>
+      <c r="Q49" s="20"/>
+    </row>
+    <row r="50" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="16"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+    </row>
+    <row r="51" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="16"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+    </row>
+    <row r="52" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+    </row>
+    <row r="53" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="16"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B54" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S2822">
-    <sortCondition ref="F2:F2822"/>
-    <sortCondition descending="1" ref="N2:N2822"/>
-    <sortCondition ref="B2:B2822"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2826">
+    <sortCondition ref="F2:F2826"/>
+    <sortCondition descending="1" ref="N2:N2826"/>
+    <sortCondition ref="B2:B2826"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1729,23 +1880,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -1759,7 +1910,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1921,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1795,7 +1946,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1806,7 +1957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -1820,7 +1971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -1831,7 +1982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -1842,7 +1993,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1853,7 +2004,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -1864,7 +2015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -1875,7 +2026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -1886,7 +2037,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -1897,7 +2048,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -1908,7 +2059,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>97</v>
       </c>
@@ -1919,7 +2070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -1930,7 +2081,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -1941,7 +2092,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
@@ -1952,7 +2103,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>144</v>
       </c>
@@ -1970,29 +2121,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2181,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2044,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2058,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2075,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2086,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2100,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2131,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2148,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -2168,14 +2319,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2183,19 +2334,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -2230,7 +2381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2241,7 +2392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2258,7 +2409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2275,7 +2426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2292,7 +2443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2309,7 +2460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2326,7 +2477,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2343,7 +2494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2360,7 +2511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2377,7 +2528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2394,7 +2545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2420,7 +2571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2446,7 +2597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2472,7 +2623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2498,7 +2649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2524,7 +2675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2550,7 +2701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2576,7 +2727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2602,7 +2753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2628,7 +2779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2654,7 +2805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2680,7 +2831,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2706,7 +2857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2732,7 +2883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2758,7 +2909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2784,7 +2935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2810,7 +2961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2836,7 +2987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2862,7 +3013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AD496F-DAA6-4EE1-AD77-7ED08CDBF0F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0259390-AC14-EF48-9E8B-21B636EE346B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="184">
   <si>
     <t>ID</t>
   </si>
@@ -530,13 +530,64 @@
   </si>
   <si>
     <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
+  </si>
+  <si>
+    <t>E-cigarette company</t>
+  </si>
+  <si>
+    <t>An e-cigarette industry that is eanged engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+  </si>
+  <si>
+    <t>DIscussed</t>
+  </si>
+  <si>
+    <t>E-cigarette retailer</t>
+  </si>
+  <si>
+    <t>E-Cig shop; E-cig Industry; E-Cig merchant</t>
+  </si>
+  <si>
+    <t>E-cigarette shop</t>
+  </si>
+  <si>
+    <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
+  </si>
+  <si>
+    <t>Tobacco Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An industry in which the product is tobacco. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An e-cigarette company that predominantly sells e-cigarettess, e-cigarette components or e-liquid to consumers in bricks and mortar shops. </t>
+  </si>
+  <si>
+    <t>E-liquid company</t>
+  </si>
+  <si>
+    <t>An e-cigarette company that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+  </si>
+  <si>
+    <t>Tobacco company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,19 +632,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -608,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -659,15 +715,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,37 +1075,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="20" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16" style="20" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="48.26953125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="44.1796875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="20"/>
-    <col min="13" max="13" width="18.453125" style="20" customWidth="1"/>
-    <col min="14" max="15" width="9.1796875" style="20"/>
-    <col min="16" max="16" width="13.453125" style="20" customWidth="1"/>
-    <col min="17" max="17" width="37.1796875" style="20" customWidth="1"/>
-    <col min="18" max="18" width="48.7265625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="24.7265625" style="20" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="20"/>
+    <col min="1" max="1" width="16" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="16" style="19" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="44.1640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="19"/>
+    <col min="13" max="13" width="18.5" style="19" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" style="19"/>
+    <col min="16" max="16" width="13.5" style="19" customWidth="1"/>
+    <col min="17" max="17" width="37.1640625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="48.6640625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" style="19" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="15" customFormat="1" ht="32">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1161,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>104</v>
@@ -1121,7 +1193,7 @@
       <c r="R2" s="16"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="B3" s="10" t="s">
         <v>107</v>
       </c>
@@ -1146,7 +1218,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B4" s="10" t="s">
         <v>108</v>
       </c>
@@ -1171,7 +1243,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B5" s="10" t="s">
         <v>109</v>
       </c>
@@ -1196,7 +1268,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B6" s="10" t="s">
         <v>110</v>
       </c>
@@ -1221,7 +1293,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="B7" s="10" t="s">
         <v>111</v>
       </c>
@@ -1248,7 +1320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B8" s="10" t="s">
         <v>113</v>
       </c>
@@ -1273,7 +1345,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="80">
       <c r="A9" s="11"/>
       <c r="B9" s="17" t="s">
         <v>4</v>
@@ -1314,7 +1386,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="A10" s="11"/>
       <c r="B10" s="17" t="s">
         <v>154</v>
@@ -1322,7 +1394,9 @@
       <c r="C10" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="12"/>
@@ -1339,199 +1413,342 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:19" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:19" s="21" customFormat="1" ht="16">
+      <c r="B11" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" s="13" customFormat="1" ht="32">
+      <c r="B12" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14">
-        <v>1</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="S11" s="14"/>
-    </row>
-    <row r="12" spans="1:19" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="N12" s="14">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="Q12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:19" s="24" customFormat="1" ht="16">
+      <c r="B13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" s="13" customFormat="1" ht="48">
+      <c r="B14" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
+      <c r="D14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="19" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14">
-        <v>1</v>
-      </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" s="13" customFormat="1" ht="16">
+      <c r="B15" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14">
+        <v>1</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="R15" s="18"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" s="20" customFormat="1" ht="32">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22">
+        <v>1</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P16" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="R13" s="19"/>
-    </row>
-    <row r="14" spans="1:19" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9" t="s">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" s="20" customFormat="1" ht="32">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22">
+        <v>1</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="1:19" s="20" customFormat="1" ht="32">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22">
+        <v>1</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" s="21" customFormat="1" ht="80">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22">
+        <v>1</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="11" customFormat="1" ht="48">
+      <c r="A20" s="12"/>
+      <c r="B20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G20" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+      <c r="P20" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" s="9" customFormat="1" ht="16">
+      <c r="B21" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S18" s="10"/>
-    </row>
-    <row r="19" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S20" s="10"/>
-    </row>
-    <row r="21" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>4</v>
@@ -1541,10 +1758,13 @@
       </c>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="A22" s="10"/>
       <c r="B22" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>4</v>
@@ -1555,9 +1775,9 @@
       <c r="R22" s="16"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B23" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>4</v>
@@ -1565,13 +1785,11 @@
       <c r="P23" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B24" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>4</v>
@@ -1579,26 +1797,24 @@
       <c r="P24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R24" s="16"/>
-    </row>
-    <row r="25" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B25" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="P25" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B26" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>4</v>
@@ -1606,13 +1822,11 @@
       <c r="P26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="27" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B27" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>4</v>
@@ -1620,35 +1834,25 @@
       <c r="P27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="16"/>
-    </row>
-    <row r="28" spans="1:19" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" s="9" customFormat="1" ht="16">
+      <c r="A28" s="10"/>
+      <c r="B28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
+      <c r="P28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R28" s="16"/>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B29" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>4</v>
@@ -1657,222 +1861,313 @@
         <v>102</v>
       </c>
       <c r="Q29" s="10"/>
-      <c r="R29" s="16"/>
-    </row>
-    <row r="30" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16"/>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" s="9" customFormat="1" ht="16">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="P30" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="16"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20">
-        <v>1</v>
-      </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-    </row>
-    <row r="32" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="16"/>
+      <c r="R30" s="16"/>
+    </row>
+    <row r="31" spans="1:19" s="9" customFormat="1" ht="32">
+      <c r="B31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="9" customFormat="1" ht="16">
+      <c r="A32" s="10"/>
+      <c r="B32" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="P32" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="16"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="16"/>
+    </row>
+    <row r="33" spans="1:18" s="9" customFormat="1" ht="16">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="P33" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="16"/>
-      <c r="P34" s="9" t="s">
+      <c r="Q33" s="10"/>
+      <c r="R33" s="16"/>
+    </row>
+    <row r="34" spans="1:18" s="9" customFormat="1" ht="48">
+      <c r="B34" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" s="9" customFormat="1" ht="16">
+      <c r="A35" s="10"/>
+      <c r="B35" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="16"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-    </row>
-    <row r="36" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q35" s="10"/>
+      <c r="R35" s="16"/>
+    </row>
+    <row r="36" spans="1:18" s="9" customFormat="1" ht="16">
       <c r="B36" s="16"/>
       <c r="P36" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" s="9" customFormat="1">
       <c r="B37" s="16"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-    </row>
-    <row r="38" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19">
+        <v>1</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="1:18" s="9" customFormat="1" ht="16">
       <c r="B38" s="16"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-    </row>
-    <row r="39" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P38" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="9" customFormat="1" ht="16">
       <c r="B39" s="16"/>
-      <c r="Q39" s="20"/>
-    </row>
-    <row r="40" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P39" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="9" customFormat="1" ht="16">
       <c r="B40" s="16"/>
-    </row>
-    <row r="41" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P40" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="9" customFormat="1">
       <c r="B41" s="16"/>
-    </row>
-    <row r="42" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+    </row>
+    <row r="42" spans="1:18" s="9" customFormat="1" ht="16">
       <c r="B42" s="16"/>
-    </row>
-    <row r="43" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P42" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="9" customFormat="1">
       <c r="B43" s="16"/>
-    </row>
-    <row r="44" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:18" s="9" customFormat="1">
       <c r="B44" s="16"/>
-    </row>
-    <row r="45" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:18" s="9" customFormat="1">
       <c r="B45" s="16"/>
-    </row>
-    <row r="46" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q45" s="19"/>
+    </row>
+    <row r="46" spans="1:18" s="9" customFormat="1">
       <c r="B46" s="16"/>
     </row>
-    <row r="47" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" s="9" customFormat="1">
       <c r="B47" s="16"/>
     </row>
-    <row r="48" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="16"/>
+    <row r="48" spans="1:18" s="9" customFormat="1">
       <c r="B48" s="16"/>
-      <c r="R48" s="20"/>
-    </row>
-    <row r="49" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:18" s="9" customFormat="1">
       <c r="B49" s="16"/>
-      <c r="Q49" s="20"/>
-    </row>
-    <row r="50" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:18" s="9" customFormat="1">
       <c r="B50" s="16"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-    </row>
-    <row r="51" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:18" s="9" customFormat="1">
       <c r="B51" s="16"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-    </row>
-    <row r="52" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="20"/>
+    </row>
+    <row r="52" spans="1:18" s="9" customFormat="1">
       <c r="B52" s="16"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-    </row>
-    <row r="53" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:18" s="9" customFormat="1">
       <c r="B53" s="16"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:18" s="9" customFormat="1">
+      <c r="A54" s="16"/>
       <c r="B54" s="16"/>
+      <c r="R54" s="19"/>
+    </row>
+    <row r="55" spans="1:18" s="9" customFormat="1">
+      <c r="B55" s="16"/>
+      <c r="Q55" s="19"/>
+    </row>
+    <row r="56" spans="1:18" s="9" customFormat="1">
+      <c r="B56" s="16"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+    </row>
+    <row r="57" spans="1:18" s="9" customFormat="1">
+      <c r="B57" s="16"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+    </row>
+    <row r="58" spans="1:18" s="9" customFormat="1">
+      <c r="A58" s="19"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+    </row>
+    <row r="59" spans="1:18" s="9" customFormat="1">
+      <c r="B59" s="16"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="B60" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2826">
-    <sortCondition ref="F2:F2826"/>
-    <sortCondition descending="1" ref="N2:N2826"/>
-    <sortCondition ref="B2:B2826"/>
+  <sortState ref="A2:S2832">
+    <sortCondition ref="F2:F2832"/>
+    <sortCondition descending="1" ref="N2:N2832"/>
+    <sortCondition ref="B2:B2832"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1887,16 +2182,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -1910,7 +2205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +2216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +2227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1946,7 +2241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1957,7 +2252,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -1971,7 +2266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -1982,7 +2277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -1993,7 +2288,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -2004,7 +2299,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -2015,7 +2310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -2026,7 +2321,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -2037,7 +2332,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -2048,7 +2343,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -2059,7 +2354,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="5" t="s">
         <v>97</v>
       </c>
@@ -2070,7 +2365,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -2081,7 +2376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -2092,7 +2387,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
@@ -2103,7 +2398,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="32">
       <c r="A19" s="5" t="s">
         <v>144</v>
       </c>
@@ -2128,22 +2423,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="48">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2195,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="48">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2209,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="48">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2226,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="48">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="48">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2251,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="48">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2268,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2282,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="48">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2299,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="42">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -2326,7 +2621,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2341,12 +2636,12 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="43.26953125" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -2381,7 +2676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2392,7 +2687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2409,7 +2704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2426,7 +2721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2443,7 +2738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2460,7 +2755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2477,7 +2772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2494,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2511,7 +2806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2528,7 +2823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2545,7 +2840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2571,7 +2866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2597,7 +2892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2623,7 +2918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2649,7 +2944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2675,7 +2970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2701,7 +2996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2727,7 +3022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2753,7 +3048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2779,7 +3074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2805,7 +3100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2831,7 +3126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2857,7 +3152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2883,7 +3178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2909,7 +3204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2935,7 +3230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2961,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2987,7 +3282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3013,7 +3308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0259390-AC14-EF48-9E8B-21B636EE346B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D2D6F2-035D-894C-B35A-60A263EBAFA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="189">
   <si>
     <t>ID</t>
   </si>
@@ -535,9 +535,6 @@
     <t>E-cigarette company</t>
   </si>
   <si>
-    <t>An e-cigarette industry that is eanged engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
-  </si>
-  <si>
     <t>DIscussed</t>
   </si>
   <si>
@@ -562,15 +559,9 @@
     <t xml:space="preserve">Organisation </t>
   </si>
   <si>
-    <t xml:space="preserve">An e-cigarette company that predominantly sells e-cigarettess, e-cigarette components or e-liquid to consumers in bricks and mortar shops. </t>
-  </si>
-  <si>
     <t>E-liquid company</t>
   </si>
   <si>
-    <t>An e-cigarette company that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
-  </si>
-  <si>
     <t>Tobacco company</t>
   </si>
   <si>
@@ -581,13 +572,37 @@
   </si>
   <si>
     <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+  </si>
+  <si>
+    <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
+  </si>
+  <si>
+    <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+  </si>
+  <si>
+    <t>E-cigarette organisation</t>
+  </si>
+  <si>
+    <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabis Industry </t>
+  </si>
+  <si>
+    <t>An industry in which the product is cannabis.</t>
+  </si>
+  <si>
+    <t>An industry in which the product relates to gambling activities.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +658,11 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -664,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -740,6 +760,25 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,15 +1117,15 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="64.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" style="19" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" style="19" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="16" style="19" customWidth="1"/>
@@ -1395,10 +1434,12 @@
         <v>155</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -1415,16 +1456,18 @@
     </row>
     <row r="11" spans="1:19" s="21" customFormat="1" ht="16">
       <c r="B11" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>175</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>157</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -1454,7 +1497,7 @@
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
@@ -1502,119 +1545,117 @@
       <c r="Q13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" s="13" customFormat="1" ht="48">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:19" s="24" customFormat="1" ht="48">
+      <c r="B14" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="18" t="s">
+      <c r="F14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14">
-        <v>1</v>
-      </c>
-      <c r="O14" s="14" t="s">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25">
+        <v>1</v>
+      </c>
+      <c r="O14" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:19" s="13" customFormat="1" ht="16">
-      <c r="B15" s="14" t="s">
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:19" s="27" customFormat="1" ht="16">
+      <c r="B15" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14">
-        <v>1</v>
-      </c>
-      <c r="O15" s="14" t="s">
+      <c r="C15" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28">
+        <v>1</v>
+      </c>
+      <c r="O15" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="P15" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="14"/>
-    </row>
-    <row r="16" spans="1:19" s="20" customFormat="1" ht="32">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="P15" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="30"/>
+      <c r="S15" s="28"/>
+    </row>
+    <row r="16" spans="1:19" s="27" customFormat="1" ht="32">
+      <c r="B16" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22">
-        <v>1</v>
-      </c>
-      <c r="O16" s="22" t="s">
+      <c r="F16" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28">
+        <v>1</v>
+      </c>
+      <c r="O16" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="P16" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="21"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="30"/>
     </row>
     <row r="17" spans="1:19" s="20" customFormat="1" ht="32">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>167</v>
@@ -1623,12 +1664,12 @@
         <v>103</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="22"/>
@@ -1650,19 +1691,19 @@
     <row r="18" spans="1:19" s="20" customFormat="1" ht="32">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>103</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -1687,27 +1728,27 @@
     <row r="19" spans="1:19" s="21" customFormat="1" ht="80">
       <c r="A19" s="22"/>
       <c r="B19" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>103</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -1740,7 +1781,7 @@
         <v>117</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="12"/>
       <c r="R20" s="18"/>
@@ -1954,27 +1995,55 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" s="9" customFormat="1" ht="16">
-      <c r="B36" s="16"/>
-      <c r="P36" s="9" t="s">
+    <row r="36" spans="1:18" s="32" customFormat="1" ht="16">
+      <c r="B36" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P36" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="9" customFormat="1">
-      <c r="B37" s="16"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19">
-        <v>1</v>
-      </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
+    <row r="37" spans="1:18" s="32" customFormat="1" ht="16">
+      <c r="B37" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33">
+        <v>1</v>
+      </c>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="38" spans="1:18" s="9" customFormat="1" ht="16">
       <c r="B38" s="16"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D2D6F2-035D-894C-B35A-60A263EBAFA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2EFEF5-694E-9E49-AEFC-C4EF985FA820}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="194">
   <si>
     <t>ID</t>
   </si>
@@ -595,14 +595,29 @@
     <t>An industry in which the product is cannabis.</t>
   </si>
   <si>
-    <t>An industry in which the product relates to gambling activities.</t>
+    <t>An industry in which the services provided relate to gambling activities/</t>
+  </si>
+  <si>
+    <t>Tobacco retail outlet</t>
+  </si>
+  <si>
+    <t>Tobacco retailer</t>
+  </si>
+  <si>
+    <t>A tobacco retailer that has a physical outlet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+  </si>
+  <si>
+    <t>Tobacconist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +678,13 @@
       <color theme="9"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -684,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -779,6 +801,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,11 +1140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1384,7 +1410,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" ht="80">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="64">
       <c r="A9" s="11"/>
       <c r="B9" s="17" t="s">
         <v>4</v>
@@ -1725,112 +1751,174 @@
       <c r="R18" s="23"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" s="21" customFormat="1" ht="80">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="1:19" s="27" customFormat="1" ht="80">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22" t="s">
+      <c r="F19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23" t="s">
+      <c r="I19" s="28"/>
+      <c r="J19" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22">
-        <v>1</v>
-      </c>
-      <c r="O19" s="22" t="s">
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28">
+        <v>1</v>
+      </c>
+      <c r="O19" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="P19" s="22" t="s">
+      <c r="P19" s="28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" ht="48">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:19" s="27" customFormat="1" ht="32">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="27" customFormat="1" ht="32">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28">
+        <v>1</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="34"/>
+    </row>
+    <row r="22" spans="1:19" s="27" customFormat="1" ht="32">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28">
+        <v>1</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="48">
+      <c r="A23" s="12"/>
+      <c r="B23" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C23" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="F23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P23" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" s="9" customFormat="1" ht="16">
-      <c r="B21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" s="9" customFormat="1" ht="32">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="10"/>
-    </row>
-    <row r="23" spans="1:19" s="9" customFormat="1" ht="16">
-      <c r="B23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S23" s="10"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B24" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>4</v>
@@ -1841,8 +1929,12 @@
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" s="9" customFormat="1" ht="16">
+      <c r="A25" s="10"/>
       <c r="B25" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>4</v>
@@ -1850,12 +1942,12 @@
       <c r="P25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="10"/>
+      <c r="R25" s="16"/>
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B26" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>4</v>
@@ -1867,7 +1959,7 @@
     </row>
     <row r="27" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B27" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>4</v>
@@ -1878,9 +1970,8 @@
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" s="9" customFormat="1" ht="16">
-      <c r="A28" s="10"/>
       <c r="B28" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>4</v>
@@ -1888,12 +1979,12 @@
       <c r="P28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R28" s="16"/>
+      <c r="Q28" s="10"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B29" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>4</v>
@@ -1901,13 +1992,11 @@
       <c r="P29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q29" s="10"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" s="9" customFormat="1" ht="16">
-      <c r="A30" s="10"/>
       <c r="B30" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>4</v>
@@ -1915,26 +2004,25 @@
       <c r="P30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R30" s="16"/>
-    </row>
-    <row r="31" spans="1:19" s="9" customFormat="1" ht="32">
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" s="9" customFormat="1" ht="16">
+      <c r="A31" s="10"/>
       <c r="B31" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="P31" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="R31" s="16"/>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" s="9" customFormat="1" ht="16">
-      <c r="A32" s="10"/>
       <c r="B32" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>4</v>
@@ -1943,12 +2031,12 @@
         <v>102</v>
       </c>
       <c r="Q32" s="10"/>
-      <c r="R32" s="16"/>
+      <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:18" s="9" customFormat="1" ht="16">
       <c r="A33" s="10"/>
       <c r="B33" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>4</v>
@@ -1956,35 +2044,26 @@
       <c r="P33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q33" s="10"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" s="9" customFormat="1" ht="48">
-      <c r="B34" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="10"/>
+    <row r="34" spans="1:18" s="9" customFormat="1" ht="32">
+      <c r="B34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="1:18" s="9" customFormat="1" ht="16">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>4</v>
@@ -1995,116 +2074,117 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" s="32" customFormat="1" ht="16">
-      <c r="B36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="O36" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="P36" s="32" t="s">
+    <row r="36" spans="1:18" s="9" customFormat="1" ht="16">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" s="32" customFormat="1" ht="16">
-      <c r="B37" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33">
-        <v>1</v>
-      </c>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="P37" s="33" t="s">
-        <v>102</v>
-      </c>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="16"/>
+    </row>
+    <row r="37" spans="1:18" s="9" customFormat="1" ht="48">
+      <c r="B37" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="1:18" s="9" customFormat="1" ht="16">
-      <c r="B38" s="16"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="P38" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" s="9" customFormat="1" ht="16">
-      <c r="B39" s="16"/>
-      <c r="P39" s="9" t="s">
+      <c r="Q38" s="10"/>
+      <c r="R38" s="16"/>
+    </row>
+    <row r="39" spans="1:18" s="32" customFormat="1" ht="16">
+      <c r="B39" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P39" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="9" customFormat="1" ht="16">
-      <c r="B40" s="16"/>
-      <c r="P40" s="9" t="s">
+    <row r="40" spans="1:18" s="32" customFormat="1" ht="16">
+      <c r="B40" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33">
+        <v>1</v>
+      </c>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="P40" s="33" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="9" customFormat="1">
       <c r="B41" s="16"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-    </row>
-    <row r="42" spans="1:18" s="9" customFormat="1" ht="16">
+    </row>
+    <row r="42" spans="1:18" s="9" customFormat="1">
       <c r="B42" s="16"/>
-      <c r="P42" s="9" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="43" spans="1:18" s="9" customFormat="1">
       <c r="B43" s="16"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
     </row>
     <row r="44" spans="1:18" s="9" customFormat="1">
       <c r="B44" s="16"/>
-      <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
@@ -2121,16 +2201,44 @@
     </row>
     <row r="45" spans="1:18" s="9" customFormat="1">
       <c r="B45" s="16"/>
-      <c r="Q45" s="19"/>
     </row>
     <row r="46" spans="1:18" s="9" customFormat="1">
       <c r="B46" s="16"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
     </row>
     <row r="47" spans="1:18" s="9" customFormat="1">
       <c r="B47" s="16"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
     </row>
     <row r="48" spans="1:18" s="9" customFormat="1">
       <c r="B48" s="16"/>
+      <c r="Q48" s="19"/>
     </row>
     <row r="49" spans="1:18" s="9" customFormat="1">
       <c r="B49" s="16"/>
@@ -2148,68 +2256,22 @@
       <c r="B53" s="16"/>
     </row>
     <row r="54" spans="1:18" s="9" customFormat="1">
-      <c r="A54" s="16"/>
       <c r="B54" s="16"/>
-      <c r="R54" s="19"/>
     </row>
     <row r="55" spans="1:18" s="9" customFormat="1">
       <c r="B55" s="16"/>
-      <c r="Q55" s="19"/>
     </row>
     <row r="56" spans="1:18" s="9" customFormat="1">
       <c r="B56" s="16"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
     </row>
     <row r="57" spans="1:18" s="9" customFormat="1">
+      <c r="A57" s="16"/>
       <c r="B57" s="16"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
     </row>
     <row r="58" spans="1:18" s="9" customFormat="1">
-      <c r="A58" s="19"/>
       <c r="B58" s="16"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
     </row>
     <row r="59" spans="1:18" s="9" customFormat="1">
       <c r="B59" s="16"/>
@@ -2227,16 +2289,71 @@
       <c r="N59" s="19"/>
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-    </row>
-    <row r="60" spans="1:18">
+    </row>
+    <row r="60" spans="1:18" s="9" customFormat="1">
       <c r="B60" s="16"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+    </row>
+    <row r="61" spans="1:18" s="9" customFormat="1">
+      <c r="A61" s="19"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+    </row>
+    <row r="62" spans="1:18" s="9" customFormat="1">
+      <c r="B62" s="16"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="B63" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S2832">
-    <sortCondition ref="F2:F2832"/>
-    <sortCondition descending="1" ref="N2:N2832"/>
-    <sortCondition ref="B2:B2832"/>
+  <sortState ref="A2:S2835">
+    <sortCondition ref="F2:F2835"/>
+    <sortCondition descending="1" ref="N2:N2835"/>
+    <sortCondition ref="B2:B2835"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2EFEF5-694E-9E49-AEFC-C4EF985FA820}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9672E9-A9D1-DC49-8DAC-F1A3B7B709C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -595,9 +595,6 @@
     <t>An industry in which the product is cannabis.</t>
   </si>
   <si>
-    <t>An industry in which the services provided relate to gambling activities/</t>
-  </si>
-  <si>
     <t>Tobacco retail outlet</t>
   </si>
   <si>
@@ -611,6 +608,33 @@
   </si>
   <si>
     <t>Tobacconist</t>
+  </si>
+  <si>
+    <t>An industry in which the services provided relate to gambling activities.</t>
+  </si>
+  <si>
+    <t>Philip Morris International</t>
+  </si>
+  <si>
+    <t>https://www.pmi.com/company-information</t>
+  </si>
+  <si>
+    <t>PMI</t>
+  </si>
+  <si>
+    <t>A tobacco company based in Switzerland with the business identification number CHE-105.950.151.</t>
+  </si>
+  <si>
+    <t>British American Tobacco P.L.C.</t>
+  </si>
+  <si>
+    <t>A tobacco company based in London with the company number 03407696.</t>
+  </si>
+  <si>
+    <t>https://www.bat.com/group/sites/uk__9d9kcy.nsf/vwPagesWebLive/DO89KHEK</t>
+  </si>
+  <si>
+    <t>BAT</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1168,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1792,10 +1816,10 @@
     <row r="20" spans="1:19" s="27" customFormat="1" ht="32">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>177</v>
@@ -1824,13 +1848,13 @@
     <row r="21" spans="1:19" s="27" customFormat="1" ht="32">
       <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>189</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>190</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>103</v>
@@ -1860,13 +1884,13 @@
     <row r="22" spans="1:19" s="27" customFormat="1" ht="32">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>103</v>
@@ -2149,7 +2173,7 @@
         <v>185</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>157</v>
@@ -2174,11 +2198,57 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="9" customFormat="1">
-      <c r="B41" s="16"/>
-    </row>
-    <row r="42" spans="1:18" s="9" customFormat="1">
-      <c r="B42" s="16"/>
+    <row r="41" spans="1:18" s="32" customFormat="1" ht="32">
+      <c r="B41" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="O41" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P41" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="32" customFormat="1" ht="32">
+      <c r="B42" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="O42" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P42" s="32" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="1:18" s="9" customFormat="1">
       <c r="B43" s="16"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9672E9-A9D1-DC49-8DAC-F1A3B7B709C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F2D421-F8B9-1C41-8F3F-4BF9B2E2DAF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="206">
   <si>
     <t>ID</t>
   </si>
@@ -586,9 +586,6 @@
     <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gambling </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cannabis Industry </t>
   </si>
   <si>
@@ -635,6 +632,21 @@
   </si>
   <si>
     <t>BAT</t>
+  </si>
+  <si>
+    <t>Retailer of product</t>
+  </si>
+  <si>
+    <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+  </si>
+  <si>
+    <t>Gambling industry</t>
+  </si>
+  <si>
+    <t>Supplier of product</t>
+  </si>
+  <si>
+    <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1179,8 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1582,7 +1594,9 @@
         <v>156</v>
       </c>
       <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -1816,10 +1830,10 @@
     <row r="20" spans="1:19" s="27" customFormat="1" ht="32">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>177</v>
@@ -1848,13 +1862,13 @@
     <row r="21" spans="1:19" s="27" customFormat="1" ht="32">
       <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>188</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>189</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>103</v>
@@ -1884,13 +1898,13 @@
     <row r="22" spans="1:19" s="27" customFormat="1" ht="32">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>103</v>
@@ -2057,7 +2071,7 @@
       <c r="Q32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:18" s="9" customFormat="1" ht="16">
+    <row r="33" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A33" s="10"/>
       <c r="B33" s="9" t="s">
         <v>128</v>
@@ -2070,7 +2084,7 @@
       </c>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" s="9" customFormat="1" ht="32">
+    <row r="34" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="B34" s="9" t="s">
         <v>129</v>
       </c>
@@ -2084,7 +2098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="9" customFormat="1" ht="16">
+    <row r="35" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
         <v>131</v>
@@ -2098,7 +2112,7 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" s="9" customFormat="1" ht="16">
+    <row r="36" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A36" s="10"/>
       <c r="B36" s="9" t="s">
         <v>132</v>
@@ -2112,7 +2126,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" s="9" customFormat="1" ht="48">
+    <row r="37" spans="1:19" s="9" customFormat="1" ht="48">
       <c r="B37" s="19" t="s">
         <v>57</v>
       </c>
@@ -2134,7 +2148,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="1:18" s="9" customFormat="1" ht="16">
+    <row r="38" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
         <v>133</v>
@@ -2148,12 +2162,12 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:18" s="32" customFormat="1" ht="16">
+    <row r="39" spans="1:19" s="32" customFormat="1" ht="16">
       <c r="B39" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>186</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>187</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>157</v>
@@ -2168,12 +2182,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="32" customFormat="1" ht="16">
+    <row r="40" spans="1:19" s="32" customFormat="1" ht="16">
       <c r="B40" s="23" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>157</v>
@@ -2198,12 +2212,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="32" customFormat="1" ht="32">
+    <row r="41" spans="1:19" s="32" customFormat="1" ht="32">
       <c r="B41" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>177</v>
@@ -2212,10 +2226,13 @@
         <v>4</v>
       </c>
       <c r="G41" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="I41" s="32" t="s">
-        <v>196</v>
+      <c r="N41" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="O41" s="32" t="s">
         <v>160</v>
@@ -2224,12 +2241,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="32" customFormat="1" ht="32">
+    <row r="42" spans="1:19" s="32" customFormat="1" ht="32">
       <c r="B42" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>199</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>177</v>
@@ -2238,10 +2255,13 @@
         <v>4</v>
       </c>
       <c r="G42" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="I42" s="32" t="s">
-        <v>201</v>
+      <c r="N42" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="O42" s="32" t="s">
         <v>160</v>
@@ -2250,29 +2270,64 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="9" customFormat="1">
-      <c r="B43" s="16"/>
-    </row>
-    <row r="44" spans="1:18" s="9" customFormat="1">
-      <c r="B44" s="16"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-    </row>
-    <row r="45" spans="1:18" s="9" customFormat="1">
+    <row r="43" spans="1:19" s="21" customFormat="1" ht="32">
+      <c r="B43" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P43" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="22"/>
+    </row>
+    <row r="44" spans="1:19" s="21" customFormat="1" ht="32">
+      <c r="A44" s="22"/>
+      <c r="B44" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q44" s="22"/>
+    </row>
+    <row r="45" spans="1:19" s="9" customFormat="1">
       <c r="B45" s="16"/>
     </row>
-    <row r="46" spans="1:18" s="9" customFormat="1">
+    <row r="46" spans="1:19" s="9" customFormat="1">
       <c r="B46" s="16"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -2289,7 +2344,7 @@
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
     </row>
-    <row r="47" spans="1:18" s="9" customFormat="1">
+    <row r="47" spans="1:19" s="9" customFormat="1">
       <c r="B47" s="16"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -2306,7 +2361,7 @@
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
     </row>
-    <row r="48" spans="1:18" s="9" customFormat="1">
+    <row r="48" spans="1:19" s="9" customFormat="1">
       <c r="B48" s="16"/>
       <c r="Q48" s="19"/>
     </row>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F2D421-F8B9-1C41-8F3F-4BF9B2E2DAF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0AD955-448A-C54D-98E6-3384214D861E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="209">
   <si>
     <t>ID</t>
   </si>
@@ -647,6 +647,15 @@
   </si>
   <si>
     <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
+  </si>
+  <si>
+    <t>Convenience store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+  </si>
+  <si>
+    <t>Company</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1188,8 @@
   <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2324,8 +2333,38 @@
       </c>
       <c r="Q44" s="22"/>
     </row>
-    <row r="45" spans="1:19" s="9" customFormat="1">
-      <c r="B45" s="16"/>
+    <row r="45" spans="1:19" s="21" customFormat="1" ht="16">
+      <c r="A45" s="33"/>
+      <c r="B45" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22">
+        <v>1</v>
+      </c>
+      <c r="O45" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P45" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="S45" s="22"/>
     </row>
     <row r="46" spans="1:19" s="9" customFormat="1">
       <c r="B46" s="16"/>
@@ -2489,7 +2528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0AD955-448A-C54D-98E6-3384214D861E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7336D2-315E-8A4A-8031-EA036EF08C97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Proposed</t>
   </si>
   <si>
-    <t>Independent continuant</t>
-  </si>
-  <si>
     <t>Bloomberg Philanthropies</t>
   </si>
   <si>
@@ -656,6 +653,12 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role </t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1192,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1268,22 +1271,22 @@
         <v>100</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="32">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>4</v>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="3" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="B3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="4" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1355,7 +1358,7 @@
     </row>
     <row r="5" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -1380,7 +1383,7 @@
     </row>
     <row r="6" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="7" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1416,7 +1419,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="10"/>
@@ -1432,7 +1435,7 @@
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1461,13 +1464,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>4</v>
@@ -1476,7 +1479,7 @@
         <v>60</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>61</v>
@@ -1490,7 +1493,7 @@
       </c>
       <c r="O9" s="17"/>
       <c r="P9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="11"/>
@@ -1499,15 +1502,17 @@
     <row r="10" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="A10" s="11"/>
       <c r="B10" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>155</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="17"/>
+        <v>174</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="F10" s="17" t="s">
         <v>4</v>
       </c>
@@ -1527,15 +1532,17 @@
     </row>
     <row r="11" spans="1:19" s="21" customFormat="1" ht="16">
       <c r="B11" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>174</v>
-      </c>
       <c r="D11" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="22"/>
+        <v>156</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1555,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P11" s="22" t="s">
         <v>102</v>
@@ -1558,24 +1565,26 @@
     </row>
     <row r="12" spans="1:19" s="13" customFormat="1" ht="32">
       <c r="B12" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="F12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -1584,25 +1593,27 @@
         <v>1</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="S12" s="14"/>
     </row>
     <row r="13" spans="1:19" s="24" customFormat="1" ht="16">
       <c r="B13" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="25"/>
+        <v>155</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>209</v>
+      </c>
       <c r="F13" s="25" t="s">
         <v>4</v>
       </c>
@@ -1620,16 +1631,16 @@
     </row>
     <row r="14" spans="1:19" s="24" customFormat="1" ht="48">
       <c r="B14" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>4</v>
@@ -1638,7 +1649,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
@@ -1647,24 +1658,26 @@
         <v>1</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="B15" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>208</v>
+      </c>
       <c r="F15" s="28" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>102</v>
@@ -1687,18 +1700,18 @@
       <c r="R15" s="30"/>
       <c r="S15" s="28"/>
     </row>
-    <row r="16" spans="1:19" s="27" customFormat="1" ht="32">
+    <row r="16" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="B16" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>4</v>
@@ -1714,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P16" s="28" t="s">
         <v>102</v>
@@ -1725,16 +1738,16 @@
     <row r="17" spans="1:19" s="20" customFormat="1" ht="32">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>4</v>
@@ -1742,7 +1755,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="22"/>
@@ -1752,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>102</v>
@@ -1761,19 +1774,19 @@
       <c r="R17" s="23"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" s="20" customFormat="1" ht="32">
+    <row r="18" spans="1:19" s="20" customFormat="1" ht="16">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>4</v>
@@ -1789,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P18" s="22" t="s">
         <v>102</v>
@@ -1801,27 +1814,27 @@
     <row r="19" spans="1:19" s="27" customFormat="1" ht="80">
       <c r="A19" s="28"/>
       <c r="B19" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>178</v>
-      </c>
       <c r="D19" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
@@ -1830,25 +1843,25 @@
         <v>1</v>
       </c>
       <c r="O19" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P19" s="28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="27" customFormat="1" ht="32">
+    <row r="20" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>4</v>
@@ -1862,25 +1875,25 @@
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P20" s="28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="27" customFormat="1" ht="32">
+    <row r="21" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>188</v>
-      </c>
       <c r="E21" s="28" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F21" s="28" t="s">
         <v>4</v>
@@ -1896,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P21" s="28" t="s">
         <v>102</v>
@@ -1904,19 +1917,19 @@
       <c r="Q21" s="28"/>
       <c r="R21" s="34"/>
     </row>
-    <row r="22" spans="1:19" s="27" customFormat="1" ht="32">
+    <row r="22" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>4</v>
@@ -1932,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P22" s="28" t="s">
         <v>102</v>
@@ -1942,22 +1955,25 @@
     <row r="23" spans="1:19" s="11" customFormat="1" ht="48">
       <c r="A23" s="12"/>
       <c r="B23" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="D23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="P23" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="12"/>
       <c r="R23" s="18"/>
@@ -1965,7 +1981,7 @@
     </row>
     <row r="24" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B24" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>4</v>
@@ -1978,10 +1994,10 @@
     <row r="25" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A25" s="10"/>
       <c r="B25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>4</v>
@@ -1994,7 +2010,7 @@
     </row>
     <row r="26" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B26" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>4</v>
@@ -2006,7 +2022,7 @@
     </row>
     <row r="27" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B27" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>4</v>
@@ -2018,7 +2034,7 @@
     </row>
     <row r="28" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B28" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>4</v>
@@ -2031,7 +2047,7 @@
     </row>
     <row r="29" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B29" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>4</v>
@@ -2043,7 +2059,7 @@
     </row>
     <row r="30" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B30" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>4</v>
@@ -2056,7 +2072,7 @@
     <row r="31" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A31" s="10"/>
       <c r="B31" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>4</v>
@@ -2069,7 +2085,7 @@
     </row>
     <row r="32" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>4</v>
@@ -2083,7 +2099,7 @@
     <row r="33" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A33" s="10"/>
       <c r="B33" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>4</v>
@@ -2095,13 +2111,13 @@
     </row>
     <row r="34" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="B34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="P34" s="9" t="s">
         <v>102</v>
@@ -2110,7 +2126,7 @@
     <row r="35" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>4</v>
@@ -2124,7 +2140,7 @@
     <row r="36" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A36" s="10"/>
       <c r="B36" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>4</v>
@@ -2160,7 +2176,7 @@
     <row r="38" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>4</v>
@@ -2173,19 +2189,19 @@
     </row>
     <row r="39" spans="1:19" s="32" customFormat="1" ht="16">
       <c r="B39" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>186</v>
-      </c>
       <c r="D39" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="32" t="s">
         <v>4</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P39" s="32" t="s">
         <v>102</v>
@@ -2193,13 +2209,13 @@
     </row>
     <row r="40" spans="1:19" s="32" customFormat="1" ht="16">
       <c r="B40" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>4</v>
@@ -2215,7 +2231,7 @@
       <c r="M40" s="33"/>
       <c r="N40" s="33"/>
       <c r="O40" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P40" s="33" t="s">
         <v>102</v>
@@ -2223,28 +2239,28 @@
     </row>
     <row r="41" spans="1:19" s="32" customFormat="1" ht="32">
       <c r="B41" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="32" t="s">
+      <c r="I41" s="32" t="s">
         <v>194</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>195</v>
       </c>
       <c r="N41" s="32" t="s">
         <v>101</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P41" s="32" t="s">
         <v>102</v>
@@ -2252,28 +2268,28 @@
     </row>
     <row r="42" spans="1:19" s="32" customFormat="1" ht="32">
       <c r="B42" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="D42" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="32" t="s">
+      <c r="I42" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>200</v>
       </c>
       <c r="N42" s="32" t="s">
         <v>101</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P42" s="32" t="s">
         <v>102</v>
@@ -2281,13 +2297,13 @@
     </row>
     <row r="43" spans="1:19" s="21" customFormat="1" ht="32">
       <c r="B43" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>202</v>
-      </c>
       <c r="D43" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22" t="s">
@@ -2302,7 +2318,7 @@
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P43" s="22" t="s">
         <v>102</v>
@@ -2314,19 +2330,19 @@
     <row r="44" spans="1:19" s="21" customFormat="1" ht="32">
       <c r="A44" s="22"/>
       <c r="B44" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>205</v>
-      </c>
       <c r="D44" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>4</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P44" s="21" t="s">
         <v>102</v>
@@ -2336,13 +2352,13 @@
     <row r="45" spans="1:19" s="21" customFormat="1" ht="16">
       <c r="A45" s="33"/>
       <c r="B45" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="D45" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22" t="s">
@@ -2359,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P45" s="22" t="s">
         <v>102</v>
@@ -2563,7 +2579,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" ht="32">
@@ -2585,7 +2601,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>76</v>
@@ -2635,7 +2651,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" ht="16">
@@ -2668,7 +2684,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="16">
@@ -2679,7 +2695,7 @@
         <v>92</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="32">
@@ -2709,10 +2725,10 @@
         <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16">
@@ -2720,10 +2736,10 @@
         <v>98</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
@@ -2731,10 +2747,10 @@
         <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
@@ -2742,21 +2758,21 @@
         <v>100</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32">
       <c r="A19" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2834,7 +2850,7 @@
         <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7336D2-315E-8A4A-8031-EA036EF08C97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4ADBF-807F-C448-8EB9-02669D84DB8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="212">
   <si>
     <t>ID</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t xml:space="preserve">Role </t>
+  </si>
+  <si>
+    <t>Marketer of product</t>
+  </si>
+  <si>
+    <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
   </si>
 </sst>
 </file>
@@ -1188,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2096,7 +2102,7 @@
       <c r="Q32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A33" s="10"/>
       <c r="B33" s="9" t="s">
         <v>127</v>
@@ -2109,7 +2115,7 @@
       </c>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:19" s="9" customFormat="1" ht="32">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="32">
       <c r="B34" s="9" t="s">
         <v>128</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
         <v>130</v>
@@ -2137,7 +2143,7 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A36" s="10"/>
       <c r="B36" s="9" t="s">
         <v>131</v>
@@ -2151,7 +2157,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:19" s="9" customFormat="1" ht="48">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="48">
       <c r="B37" s="19" t="s">
         <v>57</v>
       </c>
@@ -2173,7 +2179,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
         <v>132</v>
@@ -2187,7 +2193,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:19" s="32" customFormat="1" ht="16">
+    <row r="39" spans="1:20" s="32" customFormat="1" ht="16">
       <c r="B39" s="23" t="s">
         <v>184</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="32" customFormat="1" ht="16">
+    <row r="40" spans="1:20" s="32" customFormat="1" ht="16">
       <c r="B40" s="23" t="s">
         <v>202</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="32" customFormat="1" ht="32">
+    <row r="41" spans="1:20" s="32" customFormat="1" ht="32">
       <c r="B41" s="23" t="s">
         <v>192</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="32" customFormat="1" ht="32">
+    <row r="42" spans="1:20" s="32" customFormat="1" ht="32">
       <c r="B42" s="23" t="s">
         <v>196</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="21" customFormat="1" ht="32">
+    <row r="43" spans="1:20" s="21" customFormat="1" ht="32">
       <c r="B43" s="22" t="s">
         <v>200</v>
       </c>
@@ -2327,7 +2333,7 @@
       <c r="R43" s="33"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" s="21" customFormat="1" ht="32">
+    <row r="44" spans="1:20" s="21" customFormat="1" ht="32">
       <c r="A44" s="22"/>
       <c r="B44" s="21" t="s">
         <v>203</v>
@@ -2349,7 +2355,7 @@
       </c>
       <c r="Q44" s="22"/>
     </row>
-    <row r="45" spans="1:19" s="21" customFormat="1" ht="16">
+    <row r="45" spans="1:20" s="21" customFormat="1" ht="16">
       <c r="A45" s="33"/>
       <c r="B45" s="22" t="s">
         <v>205</v>
@@ -2382,24 +2388,32 @@
       </c>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" s="9" customFormat="1">
-      <c r="B46" s="16"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-    </row>
-    <row r="47" spans="1:19" s="9" customFormat="1">
+    <row r="46" spans="1:20" s="21" customFormat="1" ht="32">
+      <c r="A46" s="22"/>
+      <c r="B46" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="P46" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="T46" s="22"/>
+    </row>
+    <row r="47" spans="1:20" s="9" customFormat="1">
       <c r="B47" s="16"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -2416,7 +2430,7 @@
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
     </row>
-    <row r="48" spans="1:19" s="9" customFormat="1">
+    <row r="48" spans="1:20" s="9" customFormat="1">
       <c r="B48" s="16"/>
       <c r="Q48" s="19"/>
     </row>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4ADBF-807F-C448-8EB9-02669D84DB8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBDDB3F-0205-44C5-AD9F-AA7AEAB4A793}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -665,6 +665,18 @@
   </si>
   <si>
     <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+  </si>
+  <si>
+    <t>Organisation aggregate</t>
+  </si>
+  <si>
+    <t>Oragnisation aggregate</t>
+  </si>
+  <si>
+    <t>Object aggregate</t>
+  </si>
+  <si>
+    <t>An aggregate of organisations.</t>
   </si>
 </sst>
 </file>
@@ -1194,37 +1206,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="77.6328125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="19" customWidth="1"/>
     <col min="6" max="6" width="16" style="19" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="19" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="44.1640625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="19"/>
-    <col min="13" max="13" width="18.5" style="19" customWidth="1"/>
-    <col min="14" max="15" width="9.1640625" style="19"/>
-    <col min="16" max="16" width="13.5" style="19" customWidth="1"/>
-    <col min="17" max="17" width="37.1640625" style="19" customWidth="1"/>
-    <col min="18" max="18" width="48.6640625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" style="19" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="19"/>
+    <col min="7" max="7" width="35.453125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="48.36328125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.6328125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="44.1796875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="19"/>
+    <col min="13" max="13" width="18.453125" style="19" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="19"/>
+    <col min="16" max="16" width="13.453125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="37.1796875" style="19" customWidth="1"/>
+    <col min="18" max="18" width="48.6328125" style="19" customWidth="1"/>
+    <col min="19" max="19" width="24.6328125" style="19" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" ht="32">
+    <row r="1" spans="1:19" s="15" customFormat="1" ht="29">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1292,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="2" spans="1:19" s="9" customFormat="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>103</v>
@@ -1312,7 +1324,7 @@
       <c r="R2" s="16"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="32">
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="29">
       <c r="B3" s="10" t="s">
         <v>106</v>
       </c>
@@ -1337,7 +1349,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="4" spans="1:19" s="9" customFormat="1">
       <c r="B4" s="10" t="s">
         <v>107</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="5" spans="1:19" s="9" customFormat="1">
       <c r="B5" s="10" t="s">
         <v>108</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="6" spans="1:19" s="9" customFormat="1">
       <c r="B6" s="10" t="s">
         <v>109</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="32">
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="29">
       <c r="B7" s="10" t="s">
         <v>110</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="8" spans="1:19" s="9" customFormat="1">
       <c r="B8" s="10" t="s">
         <v>112</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" ht="64">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="72.5">
       <c r="A9" s="11"/>
       <c r="B9" s="17" t="s">
         <v>4</v>
@@ -1505,23 +1517,19 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:19" s="9" customFormat="1" ht="32">
+    <row r="10" spans="1:19" s="9" customFormat="1">
       <c r="A10" s="11"/>
       <c r="B10" s="17" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>4</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="12"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -1536,117 +1544,120 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:19" s="21" customFormat="1" ht="16">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="29">
+      <c r="A11" s="11"/>
+      <c r="B11" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" s="21" customFormat="1">
+      <c r="B12" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22" t="s">
+      <c r="F12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P12" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
-    </row>
-    <row r="12" spans="1:19" s="13" customFormat="1" ht="32">
-      <c r="B12" s="14" t="s">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" s="13" customFormat="1" ht="43.5">
+      <c r="B13" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
+      <c r="F13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14">
-        <v>1</v>
-      </c>
-      <c r="O12" s="14" t="s">
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P13" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="Q12" s="14"/>
-      <c r="S12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" s="24" customFormat="1" ht="16">
-      <c r="B13" s="25" t="s">
+      <c r="Q13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" s="24" customFormat="1" ht="14">
+      <c r="B14" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C14" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D14" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>209</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="1:19" s="24" customFormat="1" ht="48">
-      <c r="B14" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>208</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>4</v>
@@ -1654,64 +1665,57 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="25">
-        <v>1</v>
-      </c>
-      <c r="O14" s="25" t="s">
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" s="24" customFormat="1" ht="42">
+      <c r="B15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25">
+        <v>1</v>
+      </c>
+      <c r="O15" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="P15" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="1:19" s="27" customFormat="1" ht="16">
-      <c r="B15" s="28" t="s">
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:19" s="27" customFormat="1" ht="14">
+      <c r="B16" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C16" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28">
-        <v>1</v>
-      </c>
-      <c r="O15" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="28"/>
-    </row>
-    <row r="16" spans="1:19" s="27" customFormat="1" ht="16">
-      <c r="B16" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>183</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>182</v>
@@ -1738,58 +1742,54 @@
       <c r="P16" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="28"/>
       <c r="R16" s="30"/>
-    </row>
-    <row r="17" spans="1:19" s="20" customFormat="1" ht="32">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="1:19" s="27" customFormat="1" ht="14">
+      <c r="B17" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22">
-        <v>1</v>
-      </c>
-      <c r="O17" s="22" t="s">
+      <c r="F17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28">
+        <v>1</v>
+      </c>
+      <c r="O17" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="P17" s="22" t="s">
+      <c r="P17" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="21"/>
-    </row>
-    <row r="18" spans="1:19" s="20" customFormat="1" ht="16">
+      <c r="Q17" s="28"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:19" s="20" customFormat="1" ht="29">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>208</v>
@@ -1799,7 +1799,9 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="J18" s="23"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -1817,54 +1819,53 @@
       <c r="R18" s="23"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" s="27" customFormat="1" ht="80">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="28" t="s">
+    <row r="19" spans="1:19" s="20" customFormat="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28">
-        <v>1</v>
-      </c>
-      <c r="O19" s="28" t="s">
+      <c r="F19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22">
+        <v>1</v>
+      </c>
+      <c r="O19" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="P19" s="28" t="s">
+      <c r="P19" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" s="27" customFormat="1" ht="16">
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="21"/>
+    </row>
+    <row r="20" spans="1:19" s="27" customFormat="1" ht="84">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>208</v>
@@ -1873,13 +1874,19 @@
         <v>4</v>
       </c>
       <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="28" t="s">
+        <v>178</v>
+      </c>
       <c r="I20" s="28"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="28">
+        <v>1</v>
+      </c>
       <c r="O20" s="28" t="s">
         <v>159</v>
       </c>
@@ -1887,16 +1894,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="27" customFormat="1" ht="16">
+    <row r="21" spans="1:19" s="27" customFormat="1" ht="14">
       <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>208</v>
@@ -1911,22 +1918,18 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="28">
-        <v>1</v>
-      </c>
+      <c r="N21" s="28"/>
       <c r="O21" s="28" t="s">
         <v>159</v>
       </c>
       <c r="P21" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="34"/>
-    </row>
-    <row r="22" spans="1:19" s="27" customFormat="1" ht="16">
+    </row>
+    <row r="22" spans="1:19" s="27" customFormat="1" ht="14">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>188</v>
@@ -1957,53 +1960,73 @@
         <v>102</v>
       </c>
       <c r="Q22" s="28"/>
-    </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="48">
-      <c r="A23" s="12"/>
-      <c r="B23" s="35" t="s">
+      <c r="R22" s="34"/>
+    </row>
+    <row r="23" spans="1:19" s="27" customFormat="1" ht="14">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28">
+        <v>1</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="43.5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C24" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="F24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P24" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="12"/>
-    </row>
-    <row r="24" spans="1:19" s="9" customFormat="1" ht="16">
-      <c r="B24" s="9" t="s">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" s="9" customFormat="1">
+      <c r="B25" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" s="9" customFormat="1" ht="16">
-      <c r="A25" s="10"/>
-      <c r="B25" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>4</v>
@@ -2011,12 +2034,15 @@
       <c r="P25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R25" s="16"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="26" spans="1:19" s="9" customFormat="1" ht="29">
+      <c r="A26" s="10"/>
       <c r="B26" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>4</v>
@@ -2024,11 +2050,12 @@
       <c r="P26" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="R26" s="16"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="27" spans="1:19" s="9" customFormat="1">
       <c r="B27" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>4</v>
@@ -2038,9 +2065,9 @@
       </c>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="28" spans="1:19" s="9" customFormat="1">
       <c r="B28" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>4</v>
@@ -2048,12 +2075,11 @@
       <c r="P28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="29" spans="1:19" s="9" customFormat="1">
       <c r="B29" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>4</v>
@@ -2061,11 +2087,12 @@
       <c r="P29" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="Q29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="30" spans="1:19" s="9" customFormat="1">
       <c r="B30" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>4</v>
@@ -2075,10 +2102,9 @@
       </c>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" s="9" customFormat="1" ht="16">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:19" s="9" customFormat="1">
       <c r="B31" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>4</v>
@@ -2086,12 +2112,12 @@
       <c r="P31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="16"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="32" spans="1:19" s="9" customFormat="1">
+      <c r="A32" s="10"/>
       <c r="B32" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>4</v>
@@ -2099,13 +2125,12 @@
       <c r="P32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q32" s="10"/>
+      <c r="R32" s="16"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:20" s="9" customFormat="1">
       <c r="B33" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>4</v>
@@ -2113,40 +2138,40 @@
       <c r="P33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R33" s="16"/>
-    </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="32">
+      <c r="Q33" s="10"/>
+      <c r="S33" s="10"/>
+    </row>
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="29">
+      <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="P34" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="A35" s="10"/>
+      <c r="R34" s="16"/>
+    </row>
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="29">
       <c r="B35" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>4</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="P35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="16"/>
-    </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16">
+    </row>
+    <row r="36" spans="1:20" s="9" customFormat="1">
       <c r="A36" s="10"/>
       <c r="B36" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>4</v>
@@ -2157,127 +2182,112 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="48">
-      <c r="B37" s="19" t="s">
+    <row r="37" spans="1:20" s="9" customFormat="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="16"/>
+    </row>
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="43.5">
+      <c r="B38" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:20" s="9" customFormat="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="9" t="s">
+      <c r="F39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P39" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="16"/>
-    </row>
-    <row r="39" spans="1:20" s="32" customFormat="1" ht="16">
-      <c r="B39" s="23" t="s">
+      <c r="Q39" s="10"/>
+      <c r="R39" s="16"/>
+    </row>
+    <row r="40" spans="1:20" s="32" customFormat="1">
+      <c r="B40" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C40" s="32" t="s">
         <v>185</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="O39" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="P39" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="32" customFormat="1" ht="16">
-      <c r="B40" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>191</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33">
-        <v>1</v>
-      </c>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33" t="s">
+      <c r="F40" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="P40" s="33" t="s">
+      <c r="P40" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="32" customFormat="1" ht="32">
+    <row r="41" spans="1:20" s="32" customFormat="1">
       <c r="B41" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33">
+        <v>1</v>
+      </c>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="P41" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="32" customFormat="1" ht="29">
+      <c r="B42" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C42" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="N41" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="O41" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="P41" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="32" customFormat="1" ht="32">
-      <c r="B42" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>197</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>176</v>
@@ -2286,10 +2296,10 @@
         <v>4</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N42" s="32" t="s">
         <v>101</v>
@@ -2301,141 +2311,167 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="21" customFormat="1" ht="32">
-      <c r="B43" s="22" t="s">
+    <row r="43" spans="1:20" s="32" customFormat="1" ht="29">
+      <c r="B43" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="N43" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="O43" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="P43" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="21" customFormat="1" ht="29">
+      <c r="B44" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22" t="s">
+      <c r="E44" s="22"/>
+      <c r="F44" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="P43" s="22" t="s">
+      <c r="P44" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="22"/>
-    </row>
-    <row r="44" spans="1:20" s="21" customFormat="1" ht="32">
-      <c r="A44" s="22"/>
-      <c r="B44" s="21" t="s">
+      <c r="Q44" s="22"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="22"/>
+    </row>
+    <row r="45" spans="1:20" s="21" customFormat="1" ht="29">
+      <c r="A45" s="22"/>
+      <c r="B45" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D45" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="21" t="s">
+      <c r="F45" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="P44" s="21" t="s">
+      <c r="P45" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="Q44" s="22"/>
-    </row>
-    <row r="45" spans="1:20" s="21" customFormat="1" ht="16">
-      <c r="A45" s="33"/>
-      <c r="B45" s="22" t="s">
+      <c r="Q45" s="22"/>
+    </row>
+    <row r="46" spans="1:20" s="21" customFormat="1">
+      <c r="A46" s="33"/>
+      <c r="B46" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D46" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22">
-        <v>1</v>
-      </c>
-      <c r="O45" s="22" t="s">
+      <c r="E46" s="22"/>
+      <c r="F46" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22">
+        <v>1</v>
+      </c>
+      <c r="O46" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="P45" s="22" t="s">
+      <c r="P46" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="S45" s="22"/>
-    </row>
-    <row r="46" spans="1:20" s="21" customFormat="1" ht="32">
-      <c r="A46" s="22"/>
-      <c r="B46" s="21" t="s">
+      <c r="S46" s="22"/>
+    </row>
+    <row r="47" spans="1:20" s="21" customFormat="1" ht="43.5">
+      <c r="A47" s="22"/>
+      <c r="B47" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D47" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="21" t="s">
+      <c r="F47" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="O46" s="21" t="s">
+      <c r="O47" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="P46" s="21" t="s">
+      <c r="P47" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="T46" s="22"/>
-    </row>
-    <row r="47" spans="1:20" s="9" customFormat="1">
-      <c r="B47" s="16"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
+      <c r="T47" s="22"/>
     </row>
     <row r="48" spans="1:20" s="9" customFormat="1">
       <c r="B48" s="16"/>
-      <c r="Q48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
     </row>
     <row r="49" spans="1:18" s="9" customFormat="1">
       <c r="B49" s="16"/>
+      <c r="Q49" s="19"/>
     </row>
     <row r="50" spans="1:18" s="9" customFormat="1">
       <c r="B50" s="16"/>
@@ -2459,30 +2495,16 @@
       <c r="B56" s="16"/>
     </row>
     <row r="57" spans="1:18" s="9" customFormat="1">
-      <c r="A57" s="16"/>
       <c r="B57" s="16"/>
-      <c r="R57" s="19"/>
     </row>
     <row r="58" spans="1:18" s="9" customFormat="1">
+      <c r="A58" s="16"/>
       <c r="B58" s="16"/>
-      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
     </row>
     <row r="59" spans="1:18" s="9" customFormat="1">
       <c r="B59" s="16"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
     </row>
     <row r="60" spans="1:18" s="9" customFormat="1">
       <c r="B60" s="16"/>
@@ -2500,10 +2522,8 @@
       <c r="N60" s="19"/>
       <c r="O60" s="19"/>
       <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
     </row>
     <row r="61" spans="1:18" s="9" customFormat="1">
-      <c r="A61" s="19"/>
       <c r="B61" s="16"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -2520,9 +2540,9 @@
       <c r="O61" s="19"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
     </row>
     <row r="62" spans="1:18" s="9" customFormat="1">
+      <c r="A62" s="19"/>
       <c r="B62" s="16"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -2539,15 +2559,34 @@
       <c r="O62" s="19"/>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="R62" s="19"/>
+    </row>
+    <row r="63" spans="1:18" s="9" customFormat="1">
       <c r="B63" s="16"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="B64" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S2835">
-    <sortCondition ref="F2:F2835"/>
-    <sortCondition descending="1" ref="N2:N2835"/>
-    <sortCondition ref="B2:B2835"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2836">
+    <sortCondition ref="F2:F2836"/>
+    <sortCondition descending="1" ref="N2:N2836"/>
+    <sortCondition ref="B2:B2836"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2562,16 +2601,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="16">
+    <row r="1" spans="1:4" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -2585,7 +2624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="48">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +2635,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2607,7 +2646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="64">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="58">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2621,7 +2660,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -2632,7 +2671,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -2646,7 +2685,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -2657,7 +2696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -2668,7 +2707,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" ht="16">
+    <row r="9" spans="1:4" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -2679,7 +2718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -2690,7 +2729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -2701,7 +2740,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="16">
+    <row r="12" spans="1:4" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -2712,7 +2751,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -2723,7 +2762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="48">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="58">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -2734,7 +2773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:4" ht="29">
       <c r="A15" s="5" t="s">
         <v>97</v>
       </c>
@@ -2745,7 +2784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -2756,7 +2795,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -2767,7 +2806,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
@@ -2778,7 +2817,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32">
+    <row r="19" spans="1:3" ht="29">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -2803,22 +2842,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="16">
+    <row r="1" spans="1:12" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48">
+    <row r="2" spans="1:12" ht="43.5">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2870,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48">
+    <row r="3" spans="1:12" ht="58">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2884,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="48">
+    <row r="4" spans="1:12" ht="43.5">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2901,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48">
+    <row r="5" spans="1:12" ht="58">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2912,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48">
+    <row r="6" spans="1:12" ht="43.5">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2926,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48">
+    <row r="7" spans="1:12" ht="43.5">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2943,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16">
+    <row r="8" spans="1:12">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2957,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48">
+    <row r="9" spans="1:12" ht="43.5">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
@@ -2974,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42">
+    <row r="10" spans="1:12" ht="40.5">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -3001,7 +3040,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3016,9 +3055,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBDDB3F-0205-44C5-AD9F-AA7AEAB4A793}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CEC57A-7C37-1C4F-87F9-44DB5890D96F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="224">
   <si>
     <t>ID</t>
   </si>
@@ -677,6 +677,30 @@
   </si>
   <si>
     <t>An aggregate of organisations.</t>
+  </si>
+  <si>
+    <t>Cannabis retail outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabis retailer </t>
+  </si>
+  <si>
+    <t>Cannabis retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabis company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabis industry </t>
   </si>
 </sst>
 </file>
@@ -1208,35 +1232,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="77.6328125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="16" style="19" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="48.36328125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.6328125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="44.1796875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="19"/>
-    <col min="13" max="13" width="18.453125" style="19" customWidth="1"/>
-    <col min="14" max="15" width="9.1796875" style="19"/>
-    <col min="16" max="16" width="13.453125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="37.1796875" style="19" customWidth="1"/>
-    <col min="18" max="18" width="48.6328125" style="19" customWidth="1"/>
-    <col min="19" max="19" width="24.6328125" style="19" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="19"/>
+    <col min="7" max="7" width="35.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="44.1640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="19"/>
+    <col min="13" max="13" width="18.5" style="19" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" style="19"/>
+    <col min="16" max="16" width="13.5" style="19" customWidth="1"/>
+    <col min="17" max="17" width="37.1640625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="48.6640625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" style="19" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" ht="29">
+    <row r="1" spans="1:19" s="15" customFormat="1" ht="32">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1316,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1">
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>103</v>
@@ -1324,7 +1348,7 @@
       <c r="R2" s="16"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="29">
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="B3" s="10" t="s">
         <v>106</v>
       </c>
@@ -1349,7 +1373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="9" customFormat="1">
+    <row r="4" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B4" s="10" t="s">
         <v>107</v>
       </c>
@@ -1374,7 +1398,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="9" customFormat="1">
+    <row r="5" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B5" s="10" t="s">
         <v>108</v>
       </c>
@@ -1399,7 +1423,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="9" customFormat="1">
+    <row r="6" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B6" s="10" t="s">
         <v>109</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="29">
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="B7" s="10" t="s">
         <v>110</v>
       </c>
@@ -1451,7 +1475,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="9" customFormat="1">
+    <row r="8" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B8" s="10" t="s">
         <v>112</v>
       </c>
@@ -1476,7 +1500,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" ht="72.5">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="64">
       <c r="A9" s="11"/>
       <c r="B9" s="17" t="s">
         <v>4</v>
@@ -1517,7 +1541,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:19" s="9" customFormat="1">
+    <row r="10" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A10" s="11"/>
       <c r="B10" s="17" t="s">
         <v>213</v>
@@ -1544,7 +1568,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:19" s="9" customFormat="1" ht="29">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="A11" s="11"/>
       <c r="B11" s="17" t="s">
         <v>153</v>
@@ -1575,7 +1599,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="1:19" s="21" customFormat="1">
+    <row r="12" spans="1:19" s="21" customFormat="1" ht="16">
       <c r="B12" s="22" t="s">
         <v>172</v>
       </c>
@@ -1608,7 +1632,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" ht="43.5">
+    <row r="13" spans="1:19" s="13" customFormat="1" ht="32">
       <c r="B13" s="14" t="s">
         <v>155</v>
       </c>
@@ -1646,7 +1670,7 @@
       <c r="Q13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" s="24" customFormat="1" ht="14">
+    <row r="14" spans="1:19" s="24" customFormat="1" ht="16">
       <c r="B14" s="25" t="s">
         <v>161</v>
       </c>
@@ -1674,7 +1698,7 @@
       <c r="Q14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" s="24" customFormat="1" ht="42">
+    <row r="15" spans="1:19" s="24" customFormat="1" ht="48">
       <c r="B15" s="25" t="s">
         <v>162</v>
       </c>
@@ -1710,7 +1734,7 @@
       </c>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="1:19" s="27" customFormat="1" ht="14">
+    <row r="16" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="B16" s="28" t="s">
         <v>166</v>
       </c>
@@ -1745,7 +1769,7 @@
       <c r="R16" s="30"/>
       <c r="S16" s="28"/>
     </row>
-    <row r="17" spans="1:19" s="27" customFormat="1" ht="14">
+    <row r="17" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="B17" s="28" t="s">
         <v>175</v>
       </c>
@@ -1780,7 +1804,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="30"/>
     </row>
-    <row r="18" spans="1:19" s="20" customFormat="1" ht="29">
+    <row r="18" spans="1:19" s="20" customFormat="1" ht="32">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
         <v>168</v>
@@ -1819,7 +1843,7 @@
       <c r="R18" s="23"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" s="20" customFormat="1">
+    <row r="19" spans="1:19" s="20" customFormat="1" ht="16">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
         <v>170</v>
@@ -1856,7 +1880,7 @@
       <c r="R19" s="23"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" s="27" customFormat="1" ht="84">
+    <row r="20" spans="1:19" s="27" customFormat="1" ht="80">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
         <v>176</v>
@@ -1894,7 +1918,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="27" customFormat="1" ht="14">
+    <row r="21" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
         <v>187</v>
@@ -1926,7 +1950,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="27" customFormat="1" ht="14">
+    <row r="22" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
         <v>186</v>
@@ -1962,7 +1986,7 @@
       <c r="Q22" s="28"/>
       <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="1:19" s="27" customFormat="1" ht="14">
+    <row r="23" spans="1:19" s="27" customFormat="1" ht="16">
       <c r="A23" s="28"/>
       <c r="B23" s="29" t="s">
         <v>190</v>
@@ -1997,7 +2021,7 @@
       </c>
       <c r="Q23" s="28"/>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="43.5">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="48">
       <c r="A24" s="12"/>
       <c r="B24" s="35" t="s">
         <v>113</v>
@@ -2024,7 +2048,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" s="9" customFormat="1">
+    <row r="25" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B25" s="9" t="s">
         <v>117</v>
       </c>
@@ -2036,7 +2060,7 @@
       </c>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="9" customFormat="1" ht="29">
+    <row r="26" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A26" s="10"/>
       <c r="B26" s="9" t="s">
         <v>118</v>
@@ -2053,7 +2077,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" s="9" customFormat="1">
+    <row r="27" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B27" s="9" t="s">
         <v>120</v>
       </c>
@@ -2065,7 +2089,7 @@
       </c>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="9" customFormat="1">
+    <row r="28" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B28" s="9" t="s">
         <v>121</v>
       </c>
@@ -2077,7 +2101,7 @@
       </c>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" s="9" customFormat="1">
+    <row r="29" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B29" s="9" t="s">
         <v>122</v>
       </c>
@@ -2090,7 +2114,7 @@
       <c r="Q29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" s="9" customFormat="1">
+    <row r="30" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B30" s="9" t="s">
         <v>123</v>
       </c>
@@ -2102,7 +2126,7 @@
       </c>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" s="9" customFormat="1">
+    <row r="31" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="B31" s="9" t="s">
         <v>124</v>
       </c>
@@ -2114,7 +2138,7 @@
       </c>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" s="9" customFormat="1">
+    <row r="32" spans="1:19" s="9" customFormat="1" ht="16">
       <c r="A32" s="10"/>
       <c r="B32" s="9" t="s">
         <v>125</v>
@@ -2128,7 +2152,7 @@
       <c r="R32" s="16"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B33" s="9" t="s">
         <v>126</v>
       </c>
@@ -2141,7 +2165,7 @@
       <c r="Q33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="29">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
         <v>127</v>
@@ -2154,7 +2178,7 @@
       </c>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="29">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="32">
       <c r="B35" s="9" t="s">
         <v>128</v>
       </c>
@@ -2168,7 +2192,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A36" s="10"/>
       <c r="B36" s="9" t="s">
         <v>130</v>
@@ -2182,7 +2206,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A37" s="10"/>
       <c r="B37" s="9" t="s">
         <v>131</v>
@@ -2196,7 +2220,7 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="43.5">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="48">
       <c r="B38" s="19" t="s">
         <v>57</v>
       </c>
@@ -2218,7 +2242,7 @@
       <c r="P38" s="19"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A39" s="10"/>
       <c r="B39" s="9" t="s">
         <v>132</v>
@@ -2232,7 +2256,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:20" s="32" customFormat="1">
+    <row r="40" spans="1:20" s="32" customFormat="1" ht="16">
       <c r="B40" s="23" t="s">
         <v>184</v>
       </c>
@@ -2252,7 +2276,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="32" customFormat="1">
+    <row r="41" spans="1:20" s="32" customFormat="1" ht="16">
       <c r="B41" s="23" t="s">
         <v>202</v>
       </c>
@@ -2282,7 +2306,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="32" customFormat="1" ht="29">
+    <row r="42" spans="1:20" s="32" customFormat="1" ht="32">
       <c r="B42" s="23" t="s">
         <v>192</v>
       </c>
@@ -2311,7 +2335,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="32" customFormat="1" ht="29">
+    <row r="43" spans="1:20" s="32" customFormat="1" ht="32">
       <c r="B43" s="23" t="s">
         <v>196</v>
       </c>
@@ -2340,7 +2364,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="21" customFormat="1" ht="29">
+    <row r="44" spans="1:20" s="21" customFormat="1" ht="32">
       <c r="B44" s="22" t="s">
         <v>200</v>
       </c>
@@ -2372,7 +2396,7 @@
       <c r="R44" s="33"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:20" s="21" customFormat="1" ht="29">
+    <row r="45" spans="1:20" s="21" customFormat="1" ht="32">
       <c r="A45" s="22"/>
       <c r="B45" s="21" t="s">
         <v>203</v>
@@ -2394,7 +2418,7 @@
       </c>
       <c r="Q45" s="22"/>
     </row>
-    <row r="46" spans="1:20" s="21" customFormat="1">
+    <row r="46" spans="1:20" s="21" customFormat="1" ht="16">
       <c r="A46" s="33"/>
       <c r="B46" s="22" t="s">
         <v>205</v>
@@ -2427,7 +2451,7 @@
       </c>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" ht="43.5">
+    <row r="47" spans="1:20" s="21" customFormat="1" ht="32">
       <c r="A47" s="22"/>
       <c r="B47" s="21" t="s">
         <v>210</v>
@@ -2452,29 +2476,66 @@
       </c>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1">
-      <c r="B48" s="16"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-    </row>
-    <row r="49" spans="1:18" s="9" customFormat="1">
-      <c r="B49" s="16"/>
-      <c r="Q49" s="19"/>
-    </row>
-    <row r="50" spans="1:18" s="9" customFormat="1">
-      <c r="B50" s="16"/>
+    <row r="48" spans="1:20" s="21" customFormat="1" ht="16">
+      <c r="B48" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="P48" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="32" customFormat="1" ht="16">
+      <c r="B49" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="P49" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q49" s="33"/>
+    </row>
+    <row r="50" spans="1:18" s="32" customFormat="1" ht="16">
+      <c r="B50" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="P50" s="32" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="51" spans="1:18" s="9" customFormat="1">
       <c r="B51" s="16"/>
@@ -2583,7 +2644,7 @@
       <c r="B64" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2836">
+  <sortState ref="A2:S2836">
     <sortCondition ref="F2:F2836"/>
     <sortCondition descending="1" ref="N2:N2836"/>
     <sortCondition ref="B2:B2836"/>
@@ -2601,16 +2662,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -2624,7 +2685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2696,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2646,7 +2707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="58">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2660,7 +2721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -2671,7 +2732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -2685,7 +2746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -2696,7 +2757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -2707,7 +2768,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -2718,7 +2779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -2729,7 +2790,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -2740,7 +2801,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -2751,7 +2812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -2762,7 +2823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="58">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -2773,7 +2834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="5" t="s">
         <v>97</v>
       </c>
@@ -2784,7 +2845,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -2795,7 +2856,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -2806,7 +2867,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
@@ -2817,7 +2878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29">
+    <row r="19" spans="1:3" ht="32">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -2842,22 +2903,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.36328125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.36328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +2956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5">
+    <row r="2" spans="1:12" ht="48">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2909,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58">
+    <row r="3" spans="1:12" ht="48">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2923,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5">
+    <row r="4" spans="1:12" ht="48">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2940,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58">
+    <row r="5" spans="1:12" ht="48">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2951,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5">
+    <row r="6" spans="1:12" ht="48">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2965,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5">
+    <row r="7" spans="1:12" ht="48">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2982,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="16">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -2996,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.5">
+    <row r="9" spans="1:12" ht="48">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3013,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5">
+    <row r="10" spans="1:12" ht="42">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -3040,7 +3101,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3055,9 +3116,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="43.36328125" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CEC57A-7C37-1C4F-87F9-44DB5890D96F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34241969-3FE1-428D-A2DF-0D89C8509385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -1233,34 +1233,34 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="77.6328125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="19" customWidth="1"/>
     <col min="6" max="6" width="16" style="19" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="19" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="44.1640625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="19"/>
-    <col min="13" max="13" width="18.5" style="19" customWidth="1"/>
-    <col min="14" max="15" width="9.1640625" style="19"/>
-    <col min="16" max="16" width="13.5" style="19" customWidth="1"/>
-    <col min="17" max="17" width="37.1640625" style="19" customWidth="1"/>
-    <col min="18" max="18" width="48.6640625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" style="19" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="19"/>
+    <col min="7" max="7" width="35.453125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="48.36328125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.6328125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="44.1796875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="19"/>
+    <col min="13" max="13" width="18.453125" style="19" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="19"/>
+    <col min="16" max="16" width="13.453125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="37.1796875" style="19" customWidth="1"/>
+    <col min="18" max="18" width="48.6328125" style="19" customWidth="1"/>
+    <col min="19" max="19" width="24.6328125" style="19" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" ht="32">
+    <row r="1" spans="1:19" s="15" customFormat="1" ht="29">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="2" spans="1:19" s="9" customFormat="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>103</v>
@@ -1348,7 +1348,7 @@
       <c r="R2" s="16"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="32">
+    <row r="3" spans="1:19" s="9" customFormat="1" ht="29">
       <c r="B3" s="10" t="s">
         <v>106</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="4" spans="1:19" s="9" customFormat="1">
       <c r="B4" s="10" t="s">
         <v>107</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="5" spans="1:19" s="9" customFormat="1">
       <c r="B5" s="10" t="s">
         <v>108</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="6" spans="1:19" s="9" customFormat="1">
       <c r="B6" s="10" t="s">
         <v>109</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="32">
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="29">
       <c r="B7" s="10" t="s">
         <v>110</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="8" spans="1:19" s="9" customFormat="1">
       <c r="B8" s="10" t="s">
         <v>112</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" ht="64">
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="72.5">
       <c r="A9" s="11"/>
       <c r="B9" s="17" t="s">
         <v>4</v>
@@ -1541,7 +1541,7 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="10" spans="1:19" s="9" customFormat="1">
       <c r="A10" s="11"/>
       <c r="B10" s="17" t="s">
         <v>213</v>
@@ -1568,7 +1568,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:19" s="9" customFormat="1" ht="32">
+    <row r="11" spans="1:19" s="9" customFormat="1" ht="29">
       <c r="A11" s="11"/>
       <c r="B11" s="17" t="s">
         <v>153</v>
@@ -1599,7 +1599,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="1:19" s="21" customFormat="1" ht="16">
+    <row r="12" spans="1:19" s="21" customFormat="1">
       <c r="B12" s="22" t="s">
         <v>172</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" ht="32">
+    <row r="13" spans="1:19" s="13" customFormat="1" ht="43.5">
       <c r="B13" s="14" t="s">
         <v>155</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="Q13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" s="24" customFormat="1" ht="16">
+    <row r="14" spans="1:19" s="24" customFormat="1" ht="14">
       <c r="B14" s="25" t="s">
         <v>161</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="Q14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" s="24" customFormat="1" ht="48">
+    <row r="15" spans="1:19" s="24" customFormat="1" ht="42">
       <c r="B15" s="25" t="s">
         <v>162</v>
       </c>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="1:19" s="27" customFormat="1" ht="16">
+    <row r="16" spans="1:19" s="27" customFormat="1" ht="14">
       <c r="B16" s="28" t="s">
         <v>166</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="R16" s="30"/>
       <c r="S16" s="28"/>
     </row>
-    <row r="17" spans="1:19" s="27" customFormat="1" ht="16">
+    <row r="17" spans="1:19" s="27" customFormat="1" ht="14">
       <c r="B17" s="28" t="s">
         <v>175</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="30"/>
     </row>
-    <row r="18" spans="1:19" s="20" customFormat="1" ht="32">
+    <row r="18" spans="1:19" s="20" customFormat="1" ht="29">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
         <v>168</v>
@@ -1843,7 +1843,7 @@
       <c r="R18" s="23"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" s="20" customFormat="1" ht="16">
+    <row r="19" spans="1:19" s="20" customFormat="1">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
         <v>170</v>
@@ -1880,7 +1880,7 @@
       <c r="R19" s="23"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" s="27" customFormat="1" ht="80">
+    <row r="20" spans="1:19" s="27" customFormat="1" ht="84">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
         <v>176</v>
@@ -1918,7 +1918,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="27" customFormat="1" ht="16">
+    <row r="21" spans="1:19" s="27" customFormat="1" ht="14">
       <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
         <v>187</v>
@@ -1950,7 +1950,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="27" customFormat="1" ht="16">
+    <row r="22" spans="1:19" s="27" customFormat="1" ht="14">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
         <v>186</v>
@@ -1986,7 +1986,7 @@
       <c r="Q22" s="28"/>
       <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="1:19" s="27" customFormat="1" ht="16">
+    <row r="23" spans="1:19" s="27" customFormat="1" ht="14">
       <c r="A23" s="28"/>
       <c r="B23" s="29" t="s">
         <v>190</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="Q23" s="28"/>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="48">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="43.5">
       <c r="A24" s="12"/>
       <c r="B24" s="35" t="s">
         <v>113</v>
@@ -2048,7 +2048,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="25" spans="1:19" s="9" customFormat="1">
       <c r="B25" s="9" t="s">
         <v>117</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="26" spans="1:19" s="9" customFormat="1" ht="29">
       <c r="A26" s="10"/>
       <c r="B26" s="9" t="s">
         <v>118</v>
@@ -2077,7 +2077,7 @@
       <c r="R26" s="16"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="27" spans="1:19" s="9" customFormat="1">
       <c r="B27" s="9" t="s">
         <v>120</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="28" spans="1:19" s="9" customFormat="1">
       <c r="B28" s="9" t="s">
         <v>121</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="29" spans="1:19" s="9" customFormat="1">
       <c r="B29" s="9" t="s">
         <v>122</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="Q29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="30" spans="1:19" s="9" customFormat="1">
       <c r="B30" s="9" t="s">
         <v>123</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="31" spans="1:19" s="9" customFormat="1">
       <c r="B31" s="9" t="s">
         <v>124</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" s="9" customFormat="1" ht="16">
+    <row r="32" spans="1:19" s="9" customFormat="1">
       <c r="A32" s="10"/>
       <c r="B32" s="9" t="s">
         <v>125</v>
@@ -2152,7 +2152,7 @@
       <c r="R32" s="16"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16">
+    <row r="33" spans="1:20" s="9" customFormat="1">
       <c r="B33" s="9" t="s">
         <v>126</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="Q33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="29">
       <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
         <v>127</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="32">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="29">
       <c r="B35" s="9" t="s">
         <v>128</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16">
+    <row r="36" spans="1:20" s="9" customFormat="1">
       <c r="A36" s="10"/>
       <c r="B36" s="9" t="s">
         <v>130</v>
@@ -2206,7 +2206,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16">
+    <row r="37" spans="1:20" s="9" customFormat="1">
       <c r="A37" s="10"/>
       <c r="B37" s="9" t="s">
         <v>131</v>
@@ -2220,7 +2220,7 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="48">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="43.5">
       <c r="B38" s="19" t="s">
         <v>57</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="P38" s="19"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16">
+    <row r="39" spans="1:20" s="9" customFormat="1">
       <c r="A39" s="10"/>
       <c r="B39" s="9" t="s">
         <v>132</v>
@@ -2256,7 +2256,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:20" s="32" customFormat="1" ht="16">
+    <row r="40" spans="1:20" s="32" customFormat="1">
       <c r="B40" s="23" t="s">
         <v>184</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="32" customFormat="1" ht="16">
+    <row r="41" spans="1:20" s="32" customFormat="1">
       <c r="B41" s="23" t="s">
         <v>202</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="32" customFormat="1" ht="32">
+    <row r="42" spans="1:20" s="32" customFormat="1" ht="29">
       <c r="B42" s="23" t="s">
         <v>192</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="32" customFormat="1" ht="32">
+    <row r="43" spans="1:20" s="32" customFormat="1" ht="29">
       <c r="B43" s="23" t="s">
         <v>196</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="21" customFormat="1" ht="32">
+    <row r="44" spans="1:20" s="21" customFormat="1" ht="29">
       <c r="B44" s="22" t="s">
         <v>200</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="R44" s="33"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:20" s="21" customFormat="1" ht="32">
+    <row r="45" spans="1:20" s="21" customFormat="1" ht="29">
       <c r="A45" s="22"/>
       <c r="B45" s="21" t="s">
         <v>203</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="Q45" s="22"/>
     </row>
-    <row r="46" spans="1:20" s="21" customFormat="1" ht="16">
+    <row r="46" spans="1:20" s="21" customFormat="1">
       <c r="A46" s="33"/>
       <c r="B46" s="22" t="s">
         <v>205</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" ht="32">
+    <row r="47" spans="1:20" s="21" customFormat="1" ht="43.5">
       <c r="A47" s="22"/>
       <c r="B47" s="21" t="s">
         <v>210</v>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:20" s="21" customFormat="1" ht="16">
+    <row r="48" spans="1:20" s="21" customFormat="1">
       <c r="B48" s="21" t="s">
         <v>216</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="32" customFormat="1" ht="16">
+    <row r="49" spans="1:18" s="32" customFormat="1">
       <c r="B49" s="23" t="s">
         <v>218</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="Q49" s="33"/>
     </row>
-    <row r="50" spans="1:18" s="32" customFormat="1" ht="16">
+    <row r="50" spans="1:18" s="32" customFormat="1">
       <c r="B50" s="23" t="s">
         <v>221</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="B64" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S2836">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2836">
     <sortCondition ref="F2:F2836"/>
     <sortCondition descending="1" ref="N2:N2836"/>
     <sortCondition ref="B2:B2836"/>
@@ -2662,16 +2662,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="16">
+    <row r="1" spans="1:4" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="48">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="64">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="58">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" ht="16">
+    <row r="9" spans="1:4" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="16">
+    <row r="12" spans="1:4" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="29">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="48">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="58">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:4" ht="29">
       <c r="A15" s="5" t="s">
         <v>97</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32">
+    <row r="19" spans="1:3" ht="29">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -2903,22 +2903,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="16">
+    <row r="1" spans="1:12" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48">
+    <row r="2" spans="1:12" ht="43.5">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48">
+    <row r="3" spans="1:12" ht="58">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="48">
+    <row r="4" spans="1:12" ht="43.5">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48">
+    <row r="5" spans="1:12" ht="58">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48">
+    <row r="6" spans="1:12" ht="43.5">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48">
+    <row r="7" spans="1:12" ht="43.5">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16">
+    <row r="8" spans="1:12">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48">
+    <row r="9" spans="1:12" ht="43.5">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42">
+    <row r="10" spans="1:12" ht="40.5">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -3101,7 +3101,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3116,9 +3116,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34241969-3FE1-428D-A2DF-0D89C8509385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FC4416-5E01-ED47-B219-E1C9723E8534}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -701,6 +701,18 @@
   </si>
   <si>
     <t xml:space="preserve">Cannabis industry </t>
+  </si>
+  <si>
+    <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Government agency</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -1230,37 +1242,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="77.6328125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="16" style="19" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="48.36328125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.6328125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="44.1796875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="19"/>
-    <col min="13" max="13" width="18.453125" style="19" customWidth="1"/>
-    <col min="14" max="15" width="9.1796875" style="19"/>
-    <col min="16" max="16" width="13.453125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="37.1796875" style="19" customWidth="1"/>
-    <col min="18" max="18" width="48.6328125" style="19" customWidth="1"/>
-    <col min="19" max="19" width="24.6328125" style="19" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="19"/>
+    <col min="2" max="2" width="30.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" style="19" customWidth="1"/>
+    <col min="4" max="5" width="23.83203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="19" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="19" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="19"/>
+    <col min="14" max="14" width="18.5" style="19" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="19"/>
+    <col min="17" max="17" width="13.5" style="19" customWidth="1"/>
+    <col min="18" max="18" width="37.1640625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="48.6640625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" style="19" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" ht="29">
+    <row r="1" spans="1:20" s="15" customFormat="1" ht="32">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1274,49 +1286,52 @@
         <v>55</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>103</v>
@@ -1327,180 +1342,195 @@
       <c r="D2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="10"/>
-    </row>
-    <row r="3" spans="1:19" s="9" customFormat="1" ht="29">
+      <c r="Q2" s="10"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="32">
       <c r="B3" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="9" customFormat="1">
-      <c r="B4" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B4" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10">
-        <v>1</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="9" customFormat="1">
+      <c r="C4" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B5" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="10">
-        <v>1</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="9" customFormat="1">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B6" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10">
-        <v>1</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="29">
+      <c r="N6" s="10"/>
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="32">
       <c r="B7" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="10">
-        <v>1</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="9" customFormat="1">
+      <c r="N7" s="10"/>
+      <c r="O7" s="10">
+        <v>1</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B8" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="10">
-        <v>1</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="9" customFormat="1" ht="72.5">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="64">
       <c r="A9" s="11"/>
       <c r="B9" s="17" t="s">
         <v>4</v>
@@ -1511,37 +1541,38 @@
       <c r="D9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="J9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="17">
-        <v>1</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="11" t="s">
+      <c r="N9" s="17"/>
+      <c r="O9" s="17">
+        <v>1</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="11"/>
+      <c r="R9" s="12"/>
       <c r="S9" s="11"/>
-    </row>
-    <row r="10" spans="1:19" s="9" customFormat="1">
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A10" s="11"/>
       <c r="B10" s="17" t="s">
         <v>213</v>
@@ -1554,8 +1585,8 @@
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1563,12 +1594,13 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="11"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
       <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="1:19" s="9" customFormat="1" ht="29">
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="32">
       <c r="A11" s="11"/>
       <c r="B11" s="17" t="s">
         <v>153</v>
@@ -1579,14 +1611,14 @@
       <c r="D11" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -1594,12 +1626,13 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="11"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
       <c r="S11" s="11"/>
-    </row>
-    <row r="12" spans="1:19" s="21" customFormat="1">
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" s="21" customFormat="1" ht="16">
       <c r="B12" s="22" t="s">
         <v>172</v>
       </c>
@@ -1609,30 +1642,31 @@
       <c r="D12" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="22"/>
+      <c r="P12" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="P12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" ht="43.5">
+      <c r="Q12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:20" s="13" customFormat="1" ht="32">
       <c r="B13" s="14" t="s">
         <v>155</v>
       </c>
@@ -1642,35 +1676,36 @@
       <c r="D13" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="G13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="14">
-        <v>1</v>
-      </c>
-      <c r="O13" s="14" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="P13" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="Q13" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="S13" s="14"/>
-    </row>
-    <row r="14" spans="1:19" s="24" customFormat="1" ht="14">
+      <c r="R13" s="14"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" s="24" customFormat="1" ht="16">
       <c r="B14" s="25" t="s">
         <v>161</v>
       </c>
@@ -1680,25 +1715,26 @@
       <c r="D14" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="J14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
-      <c r="S14" s="25"/>
-    </row>
-    <row r="15" spans="1:19" s="24" customFormat="1" ht="42">
+      <c r="R14" s="25"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" s="24" customFormat="1" ht="48">
       <c r="B15" s="25" t="s">
         <v>162</v>
       </c>
@@ -1708,33 +1744,34 @@
       <c r="D15" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="25" t="s">
+        <v>4</v>
+      </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="25">
-        <v>1</v>
-      </c>
-      <c r="O15" s="25" t="s">
+      <c r="N15" s="25"/>
+      <c r="O15" s="25">
+        <v>1</v>
+      </c>
+      <c r="P15" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="Q15" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="R15" s="31"/>
-    </row>
-    <row r="16" spans="1:19" s="27" customFormat="1" ht="14">
+      <c r="S15" s="31"/>
+    </row>
+    <row r="16" spans="1:20" s="27" customFormat="1" ht="16">
       <c r="B16" s="28" t="s">
         <v>166</v>
       </c>
@@ -1744,32 +1781,33 @@
       <c r="D16" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="28" t="s">
+        <v>4</v>
+      </c>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="28">
-        <v>1</v>
-      </c>
-      <c r="O16" s="28" t="s">
+      <c r="N16" s="28"/>
+      <c r="O16" s="28">
+        <v>1</v>
+      </c>
+      <c r="P16" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="R16" s="30"/>
-      <c r="S16" s="28"/>
-    </row>
-    <row r="17" spans="1:19" s="27" customFormat="1" ht="14">
+      <c r="Q16" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" s="30"/>
+      <c r="T16" s="28"/>
+    </row>
+    <row r="17" spans="1:20" s="27" customFormat="1" ht="16">
       <c r="B17" s="28" t="s">
         <v>175</v>
       </c>
@@ -1779,32 +1817,33 @@
       <c r="D17" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="28" t="s">
+        <v>4</v>
+      </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="28">
-        <v>1</v>
-      </c>
-      <c r="O17" s="28" t="s">
+      <c r="N17" s="28"/>
+      <c r="O17" s="28">
+        <v>1</v>
+      </c>
+      <c r="P17" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="P17" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="1:19" s="20" customFormat="1" ht="29">
+      <c r="Q17" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="S17" s="30"/>
+    </row>
+    <row r="18" spans="1:20" s="20" customFormat="1" ht="32">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
         <v>168</v>
@@ -1815,35 +1854,36 @@
       <c r="D18" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="22">
-        <v>1</v>
-      </c>
-      <c r="O18" s="22" t="s">
+      <c r="N18" s="22"/>
+      <c r="O18" s="22">
+        <v>1</v>
+      </c>
+      <c r="P18" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="P18" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="21"/>
-    </row>
-    <row r="19" spans="1:19" s="20" customFormat="1">
+      <c r="Q18" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="16">
       <c r="A19" s="21"/>
       <c r="B19" s="22" t="s">
         <v>170</v>
@@ -1854,33 +1894,34 @@
       <c r="D19" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="22">
-        <v>1</v>
-      </c>
-      <c r="O19" s="22" t="s">
+      <c r="N19" s="22"/>
+      <c r="O19" s="22">
+        <v>1</v>
+      </c>
+      <c r="P19" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="P19" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="21"/>
-    </row>
-    <row r="20" spans="1:19" s="27" customFormat="1" ht="84">
+      <c r="Q19" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="1:20" s="27" customFormat="1" ht="80">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
         <v>176</v>
@@ -1891,34 +1932,35 @@
       <c r="D20" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="28"/>
+      <c r="K20" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="28">
-        <v>1</v>
-      </c>
-      <c r="O20" s="28" t="s">
+      <c r="N20" s="28"/>
+      <c r="O20" s="28">
+        <v>1</v>
+      </c>
+      <c r="P20" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="P20" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="27" customFormat="1" ht="14">
+      <c r="Q20" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="27" customFormat="1" ht="16">
       <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
         <v>187</v>
@@ -1929,28 +1971,29 @@
       <c r="D21" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="28" t="s">
+        <v>4</v>
+      </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
-      <c r="O21" s="28" t="s">
+      <c r="O21" s="28"/>
+      <c r="P21" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="P21" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="27" customFormat="1" ht="14">
+      <c r="Q21" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="27" customFormat="1" ht="16">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
         <v>186</v>
@@ -1961,32 +2004,33 @@
       <c r="D22" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="28" t="s">
+        <v>4</v>
+      </c>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="28">
-        <v>1</v>
-      </c>
-      <c r="O22" s="28" t="s">
+      <c r="N22" s="28"/>
+      <c r="O22" s="28">
+        <v>1</v>
+      </c>
+      <c r="P22" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="34"/>
-    </row>
-    <row r="23" spans="1:19" s="27" customFormat="1" ht="14">
+      <c r="Q22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="28"/>
+      <c r="S22" s="34"/>
+    </row>
+    <row r="23" spans="1:20" s="27" customFormat="1" ht="16">
       <c r="A23" s="28"/>
       <c r="B23" s="29" t="s">
         <v>190</v>
@@ -1997,31 +2041,32 @@
       <c r="D23" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="28" t="s">
+        <v>4</v>
+      </c>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="28">
-        <v>1</v>
-      </c>
-      <c r="O23" s="28" t="s">
+      <c r="N23" s="28"/>
+      <c r="O23" s="28">
+        <v>1</v>
+      </c>
+      <c r="P23" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="P23" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q23" s="28"/>
-    </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="43.5">
+      <c r="Q23" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="28"/>
+    </row>
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="48">
       <c r="A24" s="12"/>
       <c r="B24" s="35" t="s">
         <v>113</v>
@@ -2032,35 +2077,35 @@
       <c r="D24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>4</v>
-      </c>
       <c r="G24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="Q24" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="12"/>
-    </row>
-    <row r="25" spans="1:19" s="9" customFormat="1">
+      <c r="R24" s="12"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B25" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" s="9" customFormat="1" ht="29">
+      <c r="G25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A26" s="10"/>
       <c r="B26" s="9" t="s">
         <v>118</v>
@@ -2068,169 +2113,169 @@
       <c r="C26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R26" s="16"/>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" s="9" customFormat="1">
+      <c r="G26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B27" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" s="9" customFormat="1">
+      <c r="G27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B28" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" s="9" customFormat="1">
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q29" s="10"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" s="9" customFormat="1">
+      <c r="G29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R29" s="10"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B30" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" s="9" customFormat="1">
+      <c r="G30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="B31" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" s="9" customFormat="1">
+      <c r="G31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16">
       <c r="A32" s="10"/>
       <c r="B32" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R32" s="16"/>
-      <c r="S32" s="10"/>
-    </row>
-    <row r="33" spans="1:20" s="9" customFormat="1">
+      <c r="G32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S32" s="16"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="1:21" s="9" customFormat="1" ht="16">
       <c r="B33" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q33" s="10"/>
-      <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="29">
+      <c r="G33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R33" s="10"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="1:21" s="9" customFormat="1" ht="16">
       <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R34" s="16"/>
-    </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="29">
+      <c r="G34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S34" s="16"/>
+    </row>
+    <row r="35" spans="1:21" s="9" customFormat="1" ht="32">
       <c r="B35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="9" t="s">
+      <c r="G35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="P35" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="9" customFormat="1">
+      <c r="Q35" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="9" customFormat="1" ht="16">
       <c r="A36" s="10"/>
       <c r="B36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P36" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="16"/>
-    </row>
-    <row r="37" spans="1:20" s="9" customFormat="1">
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R36" s="10"/>
+      <c r="S36" s="16"/>
+    </row>
+    <row r="37" spans="1:21" s="9" customFormat="1" ht="16">
       <c r="A37" s="10"/>
       <c r="B37" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="16"/>
-    </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="43.5">
+      <c r="G37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R37" s="10"/>
+      <c r="S37" s="16"/>
+    </row>
+    <row r="38" spans="1:21" s="9" customFormat="1" ht="48">
       <c r="B38" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
@@ -2240,23 +2285,24 @@
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="1:20" s="9" customFormat="1">
+      <c r="Q38" s="19"/>
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="1:21" s="9" customFormat="1" ht="16">
       <c r="A39" s="10"/>
       <c r="B39" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P39" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="16"/>
-    </row>
-    <row r="40" spans="1:20" s="32" customFormat="1">
+      <c r="G39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R39" s="10"/>
+      <c r="S39" s="16"/>
+    </row>
+    <row r="40" spans="1:21" s="32" customFormat="1" ht="16">
       <c r="B40" s="23" t="s">
         <v>184</v>
       </c>
@@ -2266,17 +2312,17 @@
       <c r="D40" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="O40" s="32" t="s">
+      <c r="G40" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="P40" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" s="32" customFormat="1">
+      <c r="Q40" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="32" customFormat="1" ht="16">
       <c r="B41" s="23" t="s">
         <v>202</v>
       </c>
@@ -2286,27 +2332,27 @@
       <c r="D41" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="33"/>
+      <c r="G41" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="33"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
-      <c r="L41" s="33">
-        <v>1</v>
-      </c>
-      <c r="M41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33">
+        <v>1</v>
+      </c>
       <c r="N41" s="33"/>
-      <c r="O41" s="33" t="s">
+      <c r="O41" s="33"/>
+      <c r="P41" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="P41" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="32" customFormat="1" ht="29">
+      <c r="Q41" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="32" customFormat="1" ht="32">
       <c r="B42" s="23" t="s">
         <v>192</v>
       </c>
@@ -2316,26 +2362,26 @@
       <c r="D42" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="32" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="J42" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="N42" s="32" t="s">
+      <c r="O42" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="O42" s="32" t="s">
+      <c r="P42" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="P42" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" s="32" customFormat="1" ht="29">
+      <c r="Q42" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="32" customFormat="1" ht="32">
       <c r="B43" s="23" t="s">
         <v>196</v>
       </c>
@@ -2345,26 +2391,26 @@
       <c r="D43" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="32" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="J43" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="N43" s="32" t="s">
+      <c r="O43" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="O43" s="32" t="s">
+      <c r="P43" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="P43" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" s="21" customFormat="1" ht="29">
+      <c r="Q43" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="21" customFormat="1" ht="32">
       <c r="B44" s="22" t="s">
         <v>200</v>
       </c>
@@ -2375,28 +2421,29 @@
         <v>174</v>
       </c>
       <c r="E44" s="22"/>
-      <c r="F44" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
-      <c r="O44" s="22" t="s">
+      <c r="O44" s="22"/>
+      <c r="P44" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="P44" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="22"/>
-    </row>
-    <row r="45" spans="1:20" s="21" customFormat="1" ht="29">
+      <c r="Q44" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="R44" s="22"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="22"/>
+    </row>
+    <row r="45" spans="1:21" s="21" customFormat="1" ht="32">
       <c r="A45" s="22"/>
       <c r="B45" s="21" t="s">
         <v>203</v>
@@ -2407,18 +2454,18 @@
       <c r="D45" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="21" t="s">
+      <c r="G45" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="P45" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q45" s="22"/>
-    </row>
-    <row r="46" spans="1:20" s="21" customFormat="1">
+      <c r="Q45" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R45" s="22"/>
+    </row>
+    <row r="46" spans="1:21" s="21" customFormat="1" ht="16">
       <c r="A46" s="33"/>
       <c r="B46" s="22" t="s">
         <v>205</v>
@@ -2430,28 +2477,29 @@
         <v>207</v>
       </c>
       <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
-      <c r="N46" s="22">
-        <v>1</v>
-      </c>
-      <c r="O46" s="22" t="s">
+      <c r="N46" s="22"/>
+      <c r="O46" s="22">
+        <v>1</v>
+      </c>
+      <c r="P46" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="P46" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="S46" s="22"/>
-    </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" ht="43.5">
+      <c r="Q46" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="T46" s="22"/>
+    </row>
+    <row r="47" spans="1:21" s="21" customFormat="1" ht="32">
       <c r="A47" s="22"/>
       <c r="B47" s="21" t="s">
         <v>210</v>
@@ -2462,21 +2510,21 @@
       <c r="D47" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F47" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="21" t="s">
+      <c r="G47" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="O47" s="21" t="s">
+      <c r="P47" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="P47" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="T47" s="22"/>
-    </row>
-    <row r="48" spans="1:20" s="21" customFormat="1">
+      <c r="Q47" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U47" s="22"/>
+    </row>
+    <row r="48" spans="1:21" s="21" customFormat="1" ht="16">
       <c r="B48" s="21" t="s">
         <v>216</v>
       </c>
@@ -2486,17 +2534,17 @@
       <c r="D48" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="21" t="s">
+      <c r="G48" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="P48" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="32" customFormat="1">
+      <c r="Q48" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="32" customFormat="1" ht="16">
       <c r="B49" s="23" t="s">
         <v>218</v>
       </c>
@@ -2506,18 +2554,18 @@
       <c r="D49" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="32" t="s">
+      <c r="G49" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="P49" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q49" s="33"/>
-    </row>
-    <row r="50" spans="1:18" s="32" customFormat="1">
+      <c r="Q49" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R49" s="33"/>
+    </row>
+    <row r="50" spans="1:19" s="32" customFormat="1" ht="16">
       <c r="B50" s="23" t="s">
         <v>221</v>
       </c>
@@ -2527,47 +2575,47 @@
       <c r="D50" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="F50" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="O50" s="32" t="s">
+      <c r="G50" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P50" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="P50" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="9" customFormat="1">
+      <c r="Q50" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="9" customFormat="1">
       <c r="B51" s="16"/>
     </row>
-    <row r="52" spans="1:18" s="9" customFormat="1">
+    <row r="52" spans="1:19" s="9" customFormat="1">
       <c r="B52" s="16"/>
     </row>
-    <row r="53" spans="1:18" s="9" customFormat="1">
+    <row r="53" spans="1:19" s="9" customFormat="1">
       <c r="B53" s="16"/>
     </row>
-    <row r="54" spans="1:18" s="9" customFormat="1">
+    <row r="54" spans="1:19" s="9" customFormat="1">
       <c r="B54" s="16"/>
     </row>
-    <row r="55" spans="1:18" s="9" customFormat="1">
+    <row r="55" spans="1:19" s="9" customFormat="1">
       <c r="B55" s="16"/>
     </row>
-    <row r="56" spans="1:18" s="9" customFormat="1">
+    <row r="56" spans="1:19" s="9" customFormat="1">
       <c r="B56" s="16"/>
     </row>
-    <row r="57" spans="1:18" s="9" customFormat="1">
+    <row r="57" spans="1:19" s="9" customFormat="1">
       <c r="B57" s="16"/>
     </row>
-    <row r="58" spans="1:18" s="9" customFormat="1">
+    <row r="58" spans="1:19" s="9" customFormat="1">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
-      <c r="R58" s="19"/>
-    </row>
-    <row r="59" spans="1:18" s="9" customFormat="1">
+      <c r="S58" s="19"/>
+    </row>
+    <row r="59" spans="1:19" s="9" customFormat="1">
       <c r="B59" s="16"/>
-      <c r="Q59" s="19"/>
-    </row>
-    <row r="60" spans="1:18" s="9" customFormat="1">
+      <c r="R59" s="19"/>
+    </row>
+    <row r="60" spans="1:19" s="9" customFormat="1">
       <c r="B60" s="16"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
@@ -2583,8 +2631,9 @@
       <c r="N60" s="19"/>
       <c r="O60" s="19"/>
       <c r="P60" s="19"/>
-    </row>
-    <row r="61" spans="1:18" s="9" customFormat="1">
+      <c r="Q60" s="19"/>
+    </row>
+    <row r="61" spans="1:19" s="9" customFormat="1">
       <c r="B61" s="16"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -2601,8 +2650,9 @@
       <c r="O61" s="19"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
-    </row>
-    <row r="62" spans="1:18" s="9" customFormat="1">
+      <c r="R61" s="19"/>
+    </row>
+    <row r="62" spans="1:19" s="9" customFormat="1">
       <c r="A62" s="19"/>
       <c r="B62" s="16"/>
       <c r="C62" s="19"/>
@@ -2621,8 +2671,9 @@
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
-    </row>
-    <row r="63" spans="1:18" s="9" customFormat="1">
+      <c r="S62" s="19"/>
+    </row>
+    <row r="63" spans="1:19" s="9" customFormat="1">
       <c r="B63" s="16"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -2639,14 +2690,15 @@
       <c r="O63" s="19"/>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="R63" s="19"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="B64" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2836">
-    <sortCondition ref="F2:F2836"/>
-    <sortCondition descending="1" ref="N2:N2836"/>
+  <sortState ref="A2:T2836">
+    <sortCondition ref="G2:G2836"/>
+    <sortCondition descending="1" ref="O2:O2836"/>
     <sortCondition ref="B2:B2836"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2662,16 +2714,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -2685,7 +2737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2748,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2707,7 +2759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="58">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2721,7 +2773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -2732,7 +2784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -2746,7 +2798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -2757,7 +2809,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -2768,7 +2820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -2779,7 +2831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -2790,7 +2842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -2801,7 +2853,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -2812,7 +2864,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="29">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -2823,7 +2875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="58">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -2834,7 +2886,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="5" t="s">
         <v>97</v>
       </c>
@@ -2845,7 +2897,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -2856,7 +2908,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -2867,7 +2919,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
@@ -2878,7 +2930,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29">
+    <row r="19" spans="1:3" ht="32">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -2903,22 +2955,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.36328125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.36328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +3008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5">
+    <row r="2" spans="1:12" ht="48">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2970,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58">
+    <row r="3" spans="1:12" ht="48">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5">
+    <row r="4" spans="1:12" ht="48">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3001,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58">
+    <row r="5" spans="1:12" ht="48">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3012,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5">
+    <row r="6" spans="1:12" ht="48">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3026,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5">
+    <row r="7" spans="1:12" ht="48">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3043,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="16">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -3057,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.5">
+    <row r="9" spans="1:12" ht="48">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3074,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5">
+    <row r="10" spans="1:12" ht="42">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -3101,7 +3153,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3116,9 +3168,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="43.36328125" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FC4416-5E01-ED47-B219-E1C9723E8534}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA3E8B6-F744-1A43-BC71-C89442CA5313}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="231">
   <si>
     <t>ID</t>
   </si>
@@ -427,9 +427,6 @@
     <t>The American Cancer Society</t>
   </si>
   <si>
-    <t>US Food and Drug Administration</t>
-  </si>
-  <si>
     <t>BFO</t>
   </si>
   <si>
@@ -713,6 +710,18 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>A governmental organisation set up for a purpose.</t>
+  </si>
+  <si>
+    <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
+  </si>
+  <si>
+    <t>The US government agency that has responsibility for health protection.</t>
+  </si>
+  <si>
+    <t>CDC</t>
   </si>
 </sst>
 </file>
@@ -808,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -907,6 +916,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,11 +1254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1286,7 +1298,7 @@
         <v>55</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>56</v>
@@ -1328,110 +1340,100 @@
         <v>100</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="48">
+      <c r="A2" s="12"/>
+      <c r="B2" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="B3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="10"/>
-    </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="32">
-      <c r="B3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10">
-        <v>1</v>
-      </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16">
-      <c r="B4" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="B5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
@@ -1442,430 +1444,331 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="10">
-        <v>1</v>
+      <c r="O5" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="P5" s="10"/>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="10"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="32">
+      <c r="A6" s="32"/>
+      <c r="B6" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q6" s="32" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="B6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10">
-        <v>1</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10" t="s">
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+    </row>
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="B7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="32">
-      <c r="B7" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10">
-        <v>1</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10" t="s">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="B8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="B8" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10">
-        <v>1</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10" t="s">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="B9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="64">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17">
-        <v>1</v>
-      </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="11"/>
+      <c r="R9" s="10"/>
       <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="B11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" s="21" customFormat="1" ht="16">
+      <c r="A12" s="32"/>
+      <c r="B12" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+    </row>
+    <row r="13" spans="1:20" s="13" customFormat="1" ht="16">
+      <c r="A13" s="32"/>
+      <c r="B13" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" s="24" customFormat="1" ht="16">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="32">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="16">
-      <c r="B12" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q12" s="22" t="s">
+      <c r="C14" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
-    </row>
-    <row r="13" spans="1:20" s="13" customFormat="1" ht="32">
-      <c r="B13" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="14" t="s">
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" s="24" customFormat="1" ht="16">
+      <c r="A15" s="32"/>
+      <c r="B15" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14">
-        <v>1</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="R13" s="14"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="1:20" s="24" customFormat="1" ht="16">
-      <c r="B14" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="T14" s="25"/>
-    </row>
-    <row r="15" spans="1:20" s="24" customFormat="1" ht="48">
-      <c r="B15" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="Q15" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="33"/>
+      <c r="S15" s="32"/>
+    </row>
+    <row r="16" spans="1:20" s="24" customFormat="1" ht="16">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q16" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25">
-        <v>1</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q15" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="1:20" s="27" customFormat="1" ht="16">
-      <c r="B16" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28">
-        <v>1</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q16" s="28" t="s">
+      <c r="R16" s="11"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="25"/>
+    </row>
+    <row r="17" spans="1:20" s="27" customFormat="1" ht="16">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="30"/>
-      <c r="T16" s="28"/>
-    </row>
-    <row r="17" spans="1:20" s="27" customFormat="1" ht="16">
-      <c r="B17" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28">
-        <v>1</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q17" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="30"/>
-    </row>
-    <row r="18" spans="1:20" s="20" customFormat="1" ht="32">
-      <c r="A18" s="21"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" s="20" customFormat="1" ht="16">
+      <c r="A18" s="33"/>
       <c r="B18" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>171</v>
+        <v>204</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
-        <v>208</v>
-      </c>
+      <c r="F18" s="22"/>
       <c r="G18" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="22" t="s">
-        <v>169</v>
-      </c>
+      <c r="J18" s="22"/>
       <c r="K18" s="23"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
@@ -1874,176 +1777,183 @@
         <v>1</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
       <c r="T18" s="21"/>
     </row>
     <row r="19" spans="1:20" s="20" customFormat="1" ht="16">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28">
+        <v>1</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q19" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" s="27"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="1:20" s="27" customFormat="1" ht="32">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
+        <v>1</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="13"/>
+    </row>
+    <row r="21" spans="1:20" s="27" customFormat="1" ht="32">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="22" t="s">
+      <c r="D21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22">
-        <v>1</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q19" s="22" t="s">
+      <c r="K21" s="23"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22">
+        <v>1</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q21" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="21"/>
-    </row>
-    <row r="20" spans="1:20" s="27" customFormat="1" ht="80">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="30" t="s">
+      <c r="R21" s="22"/>
+      <c r="S21" s="23"/>
+    </row>
+    <row r="22" spans="1:20" s="27" customFormat="1" ht="16">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28">
-        <v>1</v>
-      </c>
-      <c r="P20" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q20" s="28" t="s">
+      <c r="D22" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" s="27" customFormat="1" ht="16">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q21" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="27" customFormat="1" ht="16">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28">
-        <v>1</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="34"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:20" s="27" customFormat="1" ht="16">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29" t="s">
-        <v>190</v>
+      <c r="B23" s="28" t="s">
+        <v>174</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>4</v>
@@ -2059,109 +1969,230 @@
         <v>1</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="28" t="s">
         <v>102</v>
       </c>
       <c r="R23" s="28"/>
-    </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="48">
-      <c r="A24" s="12"/>
-      <c r="B24" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="S23" s="30"/>
+    </row>
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="32">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12">
+        <v>1</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="A26" s="32"/>
+      <c r="B26" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33">
+        <v>1</v>
+      </c>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="160">
+      <c r="B27" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17">
+        <v>1</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="48">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25">
+        <v>1</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="R28" s="24"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="R24" s="12"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="B25" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="B27" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="B28" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="B29" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R29" s="10"/>
+      <c r="G29" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="24"/>
       <c r="T29" s="10"/>
     </row>
     <row r="30" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="A30" s="10"/>
       <c r="B30" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>4</v>
@@ -2169,424 +2200,658 @@
       <c r="Q30" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="S30" s="16"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="B31" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="9" t="s">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="32">
+      <c r="A31" s="11"/>
+      <c r="B31" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16">
+      <c r="B32" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10">
+        <v>1</v>
+      </c>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="9" t="s">
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="1:21" s="9" customFormat="1" ht="32">
+      <c r="A33" s="22"/>
+      <c r="B33" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q33" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="1:21" s="9" customFormat="1" ht="16">
-      <c r="B33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="9" t="s">
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="1:21" s="9" customFormat="1" ht="16">
+      <c r="B34" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10">
+        <v>1</v>
+      </c>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="R33" s="10"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="16">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="9" t="s">
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="1:21" s="9" customFormat="1" ht="32">
+      <c r="B35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10">
+        <v>1</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="S34" s="16"/>
-    </row>
-    <row r="35" spans="1:21" s="9" customFormat="1" ht="32">
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="36" spans="1:21" s="9" customFormat="1" ht="16">
+      <c r="B36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10">
+        <v>1</v>
+      </c>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="9" customFormat="1" ht="16">
+      <c r="A37" s="11"/>
+      <c r="B37" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:21" s="9" customFormat="1" ht="64">
+      <c r="A38" s="11"/>
+      <c r="B38" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17">
+        <v>1</v>
+      </c>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="R38" s="12"/>
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:21" s="9" customFormat="1" ht="32">
+      <c r="B39" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="9" t="s">
+      <c r="G39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="9" customFormat="1" ht="16">
-      <c r="A36" s="10"/>
-      <c r="B36" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R36" s="10"/>
-      <c r="S36" s="16"/>
-    </row>
-    <row r="37" spans="1:21" s="9" customFormat="1" ht="16">
-      <c r="A37" s="10"/>
-      <c r="B37" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R37" s="10"/>
-      <c r="S37" s="16"/>
-    </row>
-    <row r="38" spans="1:21" s="9" customFormat="1" ht="48">
-      <c r="B38" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="10"/>
-    </row>
-    <row r="39" spans="1:21" s="9" customFormat="1" ht="16">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="Q39" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="R39" s="10"/>
-      <c r="S39" s="16"/>
-    </row>
-    <row r="40" spans="1:21" s="32" customFormat="1" ht="16">
+    </row>
+    <row r="40" spans="1:21" s="9" customFormat="1" ht="32">
+      <c r="A40" s="32"/>
       <c r="B40" s="23" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>156</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="32" t="s">
         <v>4</v>
       </c>
+      <c r="H40" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="P40" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q40" s="32" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" s="32" customFormat="1" ht="16">
-      <c r="B41" s="23" t="s">
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+    </row>
+    <row r="41" spans="1:21" s="32" customFormat="1" ht="32">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q41" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="R41" s="22"/>
+      <c r="S41" s="33"/>
+    </row>
+    <row r="42" spans="1:21" s="32" customFormat="1" ht="16">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R42" s="10"/>
+      <c r="S42" s="16"/>
+    </row>
+    <row r="43" spans="1:21" s="32" customFormat="1" ht="32">
+      <c r="A43" s="22"/>
+      <c r="B43" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33">
-        <v>1</v>
-      </c>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q41" s="33" t="s">
+      <c r="C43" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q43" s="21" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" s="32" customFormat="1" ht="32">
-      <c r="B42" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="32" t="s">
+      <c r="R43" s="22"/>
+      <c r="S43" s="21"/>
+    </row>
+    <row r="44" spans="1:21" s="32" customFormat="1" ht="16">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R44" s="10"/>
+      <c r="S44" s="16"/>
+    </row>
+    <row r="45" spans="1:21" s="21" customFormat="1" ht="48">
+      <c r="A45" s="9"/>
+      <c r="B45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="22"/>
+    </row>
+    <row r="46" spans="1:21" s="21" customFormat="1" ht="80">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="G42" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="O42" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="P42" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q42" s="32" t="s">
+      <c r="D46" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" s="28"/>
+      <c r="K46" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28">
+        <v>1</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q46" s="28" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" s="32" customFormat="1" ht="32">
-      <c r="B43" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="O43" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="P43" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q43" s="32" t="s">
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+    </row>
+    <row r="47" spans="1:21" s="21" customFormat="1" ht="16">
+      <c r="B47" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q47" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" s="21" customFormat="1" ht="32">
-      <c r="B44" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q44" s="22" t="s">
+      <c r="R47" s="22"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="22"/>
+    </row>
+    <row r="48" spans="1:21" s="21" customFormat="1" ht="16">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28">
+        <v>1</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q48" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="R44" s="22"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="22"/>
-    </row>
-    <row r="45" spans="1:21" s="21" customFormat="1" ht="32">
-      <c r="A45" s="22"/>
-      <c r="B45" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q45" s="21" t="s">
+      <c r="R48" s="28"/>
+      <c r="S48" s="34"/>
+      <c r="U48" s="22"/>
+    </row>
+    <row r="49" spans="1:19" s="21" customFormat="1" ht="16">
+      <c r="A49" s="28"/>
+      <c r="B49" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q49" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="R45" s="22"/>
-    </row>
-    <row r="46" spans="1:21" s="21" customFormat="1" ht="16">
-      <c r="A46" s="33"/>
-      <c r="B46" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="22" t="s">
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+    </row>
+    <row r="50" spans="1:19" s="32" customFormat="1" ht="16">
+      <c r="A50" s="28"/>
+      <c r="B50" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22">
-        <v>1</v>
-      </c>
-      <c r="P46" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q46" s="22" t="s">
+      <c r="G50" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28">
+        <v>1</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q50" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="T46" s="22"/>
-    </row>
-    <row r="47" spans="1:21" s="21" customFormat="1" ht="32">
-      <c r="A47" s="22"/>
-      <c r="B47" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="P47" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q47" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="U47" s="22"/>
-    </row>
-    <row r="48" spans="1:21" s="21" customFormat="1" ht="16">
-      <c r="B48" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q48" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="32" customFormat="1" ht="16">
-      <c r="B49" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q49" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="R49" s="33"/>
-    </row>
-    <row r="50" spans="1:19" s="32" customFormat="1" ht="16">
-      <c r="B50" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="P50" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q50" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="9" customFormat="1">
-      <c r="B51" s="16"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="27"/>
+    </row>
+    <row r="51" spans="1:19" s="32" customFormat="1">
+      <c r="A51" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="16"/>
     </row>
     <row r="52" spans="1:19" s="9" customFormat="1">
       <c r="B52" s="16"/>
@@ -2607,31 +2872,16 @@
       <c r="B57" s="16"/>
     </row>
     <row r="58" spans="1:19" s="9" customFormat="1">
-      <c r="A58" s="16"/>
       <c r="B58" s="16"/>
-      <c r="S58" s="19"/>
     </row>
     <row r="59" spans="1:19" s="9" customFormat="1">
+      <c r="A59" s="16"/>
       <c r="B59" s="16"/>
-      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
     </row>
     <row r="60" spans="1:19" s="9" customFormat="1">
       <c r="B60" s="16"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
     </row>
     <row r="61" spans="1:19" s="9" customFormat="1">
       <c r="B61" s="16"/>
@@ -2650,10 +2900,8 @@
       <c r="O61" s="19"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
     </row>
     <row r="62" spans="1:19" s="9" customFormat="1">
-      <c r="A62" s="19"/>
       <c r="B62" s="16"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -2671,9 +2919,9 @@
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
     </row>
     <row r="63" spans="1:19" s="9" customFormat="1">
+      <c r="A63" s="19"/>
       <c r="B63" s="16"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -2691,15 +2939,33 @@
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="S63" s="19"/>
+    </row>
+    <row r="64" spans="1:19" s="9" customFormat="1">
       <c r="B64" s="16"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="A2:T2836">
-    <sortCondition ref="G2:G2836"/>
-    <sortCondition descending="1" ref="O2:O2836"/>
-    <sortCondition ref="B2:B2836"/>
+  <sortState ref="A2:S65">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2745,7 +3011,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" ht="32">
@@ -2767,7 +3033,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>76</v>
@@ -2817,7 +3083,7 @@
         <v>86</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" ht="16">
@@ -2850,7 +3116,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" ht="16">
@@ -2861,7 +3127,7 @@
         <v>92</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="32">
@@ -2891,10 +3157,10 @@
         <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16">
@@ -2902,10 +3168,10 @@
         <v>98</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
@@ -2913,10 +3179,10 @@
         <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
@@ -2924,21 +3190,21 @@
         <v>100</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32">
       <c r="A19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +3282,7 @@
         <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6060" yWindow="-15620" windowWidth="25600" windowHeight="14660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Links" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -123,9 +123,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -134,15 +131,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -167,9 +155,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -535,2410 +520,2388 @@
   <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" style="19" min="1" max="1"/>
-    <col width="30.5" customWidth="1" style="19" min="2" max="2"/>
-    <col width="77.6640625" customWidth="1" style="19" min="3" max="3"/>
-    <col width="23.83203125" customWidth="1" style="19" min="4" max="5"/>
-    <col width="17.83203125" customWidth="1" style="19" min="6" max="6"/>
-    <col width="16" customWidth="1" style="19" min="7" max="7"/>
-    <col width="35.5" customWidth="1" style="19" min="8" max="8"/>
-    <col width="48.33203125" customWidth="1" style="19" min="9" max="9"/>
-    <col width="23.5" customWidth="1" style="19" min="10" max="10"/>
-    <col width="29.6640625" customWidth="1" style="19" min="11" max="11"/>
-    <col width="44.1640625" customWidth="1" style="19" min="12" max="12"/>
-    <col width="9.1640625" customWidth="1" style="19" min="13" max="13"/>
-    <col width="18.5" customWidth="1" style="19" min="14" max="14"/>
-    <col width="9.1640625" customWidth="1" style="19" min="15" max="16"/>
-    <col width="13.5" customWidth="1" style="19" min="17" max="17"/>
-    <col width="37.1640625" customWidth="1" style="19" min="18" max="18"/>
-    <col width="48.6640625" customWidth="1" style="19" min="19" max="19"/>
-    <col width="24.6640625" customWidth="1" style="19" min="20" max="20"/>
-    <col width="9.1640625" customWidth="1" style="19" min="21" max="16384"/>
+    <col width="16" customWidth="1" style="15" min="1" max="1"/>
+    <col width="30.5" customWidth="1" style="15" min="2" max="2"/>
+    <col width="77.6640625" customWidth="1" style="15" min="3" max="3"/>
+    <col width="23.83203125" customWidth="1" style="15" min="4" max="5"/>
+    <col width="17.83203125" customWidth="1" style="15" min="6" max="6"/>
+    <col width="16" customWidth="1" style="15" min="7" max="7"/>
+    <col width="35.5" customWidth="1" style="15" min="8" max="8"/>
+    <col width="48.33203125" customWidth="1" style="15" min="9" max="9"/>
+    <col width="23.5" customWidth="1" style="15" min="10" max="10"/>
+    <col width="29.6640625" customWidth="1" style="15" min="11" max="11"/>
+    <col width="44.1640625" customWidth="1" style="15" min="12" max="12"/>
+    <col width="9.1640625" customWidth="1" style="15" min="13" max="13"/>
+    <col width="18.5" customWidth="1" style="15" min="14" max="14"/>
+    <col width="9.1640625" customWidth="1" style="15" min="15" max="16"/>
+    <col width="13.5" customWidth="1" style="15" min="17" max="17"/>
+    <col width="37.1640625" customWidth="1" style="15" min="18" max="18"/>
+    <col width="48.6640625" customWidth="1" style="15" min="19" max="19"/>
+    <col width="24.6640625" customWidth="1" style="15" min="20" max="20"/>
+    <col width="9.1640625" customWidth="1" style="15" min="21" max="21"/>
+    <col width="9.1640625" customWidth="1" style="15" min="22" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customFormat="1" customHeight="1" s="15">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="32" customFormat="1" customHeight="1" s="11">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Parent</t>
         </is>
       </c>
-      <c r="E1" s="15" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="F1" s="15" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>BFO entity</t>
         </is>
       </c>
-      <c r="G1" s="15" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>AO sub-ontology</t>
         </is>
       </c>
-      <c r="H1" s="15" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>Definition source</t>
         </is>
       </c>
-      <c r="I1" s="15" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="J1" s="15" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="K1" s="15" t="inlineStr">
+      <c r="K1" s="11" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="L1" s="15" t="inlineStr">
+      <c r="L1" s="11" t="inlineStr">
         <is>
           <t>Examples of usage</t>
         </is>
       </c>
-      <c r="M1" s="15" t="inlineStr">
+      <c r="M1" s="11" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="N1" s="15" t="inlineStr">
+      <c r="N1" s="11" t="inlineStr">
         <is>
           <t>Fuzzy set</t>
         </is>
       </c>
-      <c r="O1" s="8" t="inlineStr">
+      <c r="O1" s="7" t="inlineStr">
         <is>
           <t>E-CigO</t>
         </is>
       </c>
-      <c r="P1" s="8" t="inlineStr">
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>Proposer</t>
         </is>
       </c>
-      <c r="Q1" s="8" t="inlineStr">
+      <c r="Q1" s="7" t="inlineStr">
         <is>
           <t>Curation status</t>
         </is>
       </c>
-      <c r="R1" s="8" t="inlineStr">
+      <c r="R1" s="7" t="inlineStr">
         <is>
           <t>Why fuzzy</t>
         </is>
       </c>
-      <c r="S1" s="15" t="inlineStr">
+      <c r="S1" s="11" t="inlineStr">
         <is>
           <t>Cross reference</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="48" customFormat="1" customHeight="1" s="20">
-      <c r="A2" s="14" t="inlineStr">
+    <row r="2" ht="48" customFormat="1" customHeight="1" s="16">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>ADDICTO:0000411</t>
         </is>
       </c>
-      <c r="B2" s="35" t="inlineStr">
+      <c r="B2" s="30" t="inlineStr">
         <is>
           <t>Alcohol Industy</t>
         </is>
       </c>
-      <c r="C2" s="35" t="inlineStr">
+      <c r="C2" s="30" t="inlineStr">
         <is>
           <t>An aggregate of organizations that manufacture or market alcoholic beverages.</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
-        <is>
-          <t>Manufacturing industry</t>
-        </is>
-      </c>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Industry </t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="n"/>
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="G2" s="13" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H2" s="13" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H2" s="9" t="inlineStr">
         <is>
           <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
         </is>
       </c>
-      <c r="I2" s="13" t="n"/>
-      <c r="J2" s="13" t="n"/>
-      <c r="K2" s="13" t="n"/>
-      <c r="L2" s="13" t="n"/>
-      <c r="M2" s="13" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="13" t="n"/>
-      <c r="P2" s="13" t="n"/>
-      <c r="Q2" s="13" t="inlineStr">
+      <c r="I2" s="9" t="n"/>
+      <c r="J2" s="9" t="n"/>
+      <c r="K2" s="9" t="n"/>
+      <c r="L2" s="9" t="n"/>
+      <c r="M2" s="9" t="n"/>
+      <c r="N2" s="9" t="n"/>
+      <c r="O2" s="9" t="n"/>
+      <c r="P2" s="9" t="n"/>
+      <c r="Q2" s="9" t="inlineStr">
         <is>
           <t>DIscussed</t>
         </is>
       </c>
-      <c r="R2" s="14" t="n"/>
-      <c r="S2" s="18" t="n"/>
-      <c r="T2" s="10" t="n"/>
-    </row>
-    <row r="3" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="B3" s="20" t="inlineStr">
+      <c r="R2" s="10" t="n"/>
+      <c r="S2" s="14" t="n"/>
+      <c r="T2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="Q3" s="20" t="inlineStr">
+      <c r="G3" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="Q3" s="16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="20" t="inlineStr">
+    <row r="4" ht="16" customFormat="1" customHeight="1" s="9">
+      <c r="A4" s="8" t="n"/>
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>Analytical laboratory</t>
         </is>
       </c>
-      <c r="C4" s="20" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D4" s="20" t="n"/>
-      <c r="E4" s="20" t="n"/>
-      <c r="F4" s="20" t="n"/>
-      <c r="G4" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H4" s="20" t="n"/>
-      <c r="I4" s="20" t="n"/>
-      <c r="J4" s="20" t="n"/>
-      <c r="K4" s="20" t="n"/>
-      <c r="L4" s="20" t="n"/>
-      <c r="M4" s="20" t="n"/>
-      <c r="N4" s="20" t="n"/>
-      <c r="O4" s="20" t="n"/>
-      <c r="P4" s="20" t="n"/>
-      <c r="Q4" s="20" t="inlineStr">
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="16" t="n"/>
+      <c r="J4" s="16" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" s="16" t="n"/>
+      <c r="M4" s="16" t="n"/>
+      <c r="N4" s="16" t="n"/>
+      <c r="O4" s="16" t="n"/>
+      <c r="P4" s="16" t="n"/>
+      <c r="Q4" s="16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R4" s="20" t="n"/>
-      <c r="S4" s="16" t="n"/>
-    </row>
-    <row r="5" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="R4" s="16" t="n"/>
+      <c r="S4" s="12" t="n"/>
+    </row>
+    <row r="5" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>ADDICTO:0000412</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Bloomberg Philanthropies</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>A foundation based in the US with the company number xxxx.</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t>Foundation</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="n"/>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H5" s="10" t="n"/>
-      <c r="I5" s="10" t="n"/>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="16" t="n"/>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="10" t="n"/>
-      <c r="N5" s="10" t="n"/>
-      <c r="O5" s="10" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="n"/>
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="8" t="n"/>
+      <c r="K5" s="12" t="n"/>
+      <c r="L5" s="8" t="n"/>
+      <c r="M5" s="8" t="n"/>
+      <c r="N5" s="8" t="n"/>
+      <c r="O5" s="8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" s="10" t="n"/>
-      <c r="Q5" s="10" t="n"/>
-      <c r="S5" s="16" t="n"/>
-    </row>
-    <row r="6" ht="32" customFormat="1" customHeight="1" s="20">
-      <c r="A6" s="32" t="inlineStr">
+      <c r="P5" s="8" t="n"/>
+      <c r="Q5" s="8" t="n"/>
+      <c r="S5" s="12" t="n"/>
+    </row>
+    <row r="6" ht="32" customFormat="1" customHeight="1" s="16">
+      <c r="A6" s="27" t="inlineStr">
         <is>
           <t>ADDICTO:0000413</t>
         </is>
       </c>
-      <c r="B6" s="23" t="inlineStr">
+      <c r="B6" s="18" t="inlineStr">
         <is>
           <t>British American Tobacco P.L.C.</t>
         </is>
       </c>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="C6" s="27" t="inlineStr">
         <is>
           <t>A tobacco company based in London with the company number 03407696.</t>
         </is>
       </c>
-      <c r="D6" s="32" t="inlineStr">
+      <c r="D6" s="27" t="inlineStr">
         <is>
           <t>Tobacco company</t>
         </is>
       </c>
-      <c r="E6" s="32" t="n"/>
-      <c r="F6" s="32" t="n"/>
-      <c r="G6" s="32" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H6" s="32" t="inlineStr">
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="27" t="n"/>
+      <c r="G6" s="27" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H6" s="27" t="inlineStr">
         <is>
           <t>https://www.bat.com/group/sites/uk__9d9kcy.nsf/vwPagesWebLive/DO89KHEK</t>
         </is>
       </c>
-      <c r="I6" s="32" t="n"/>
-      <c r="J6" s="32" t="inlineStr">
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="27" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="K6" s="32" t="n"/>
-      <c r="L6" s="32" t="n"/>
-      <c r="M6" s="32" t="n"/>
-      <c r="N6" s="32" t="n"/>
-      <c r="O6" s="32" t="inlineStr">
+      <c r="K6" s="27" t="n"/>
+      <c r="L6" s="27" t="n"/>
+      <c r="M6" s="27" t="n"/>
+      <c r="N6" s="27" t="n"/>
+      <c r="O6" s="27" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" s="32" t="inlineStr">
+      <c r="P6" s="27" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q6" s="32" t="inlineStr">
+      <c r="Q6" s="27" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R6" s="32" t="n"/>
-      <c r="S6" s="32" t="n"/>
-    </row>
-    <row r="7" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="B7" s="20" t="inlineStr">
+      <c r="R6" s="27" t="n"/>
+      <c r="S6" s="27" t="n"/>
+    </row>
+    <row r="7" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="G7" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="Q7" s="20" t="inlineStr">
+      <c r="G7" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="Q7" s="16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="B8" s="20" t="inlineStr">
+    <row r="8" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="G8" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="Q8" s="20" t="inlineStr">
+      <c r="G8" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="Q8" s="16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="B9" s="20" t="inlineStr">
+    <row r="9" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>Cancer prevention organization</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="Q9" s="20" t="inlineStr">
+      <c r="G9" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="Q9" s="16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R9" s="10" t="n"/>
-      <c r="T9" s="13" t="n"/>
-    </row>
-    <row r="10" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="B10" s="20" t="inlineStr">
+      <c r="R9" s="8" t="n"/>
+      <c r="T9" s="9" t="n"/>
+    </row>
+    <row r="10" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>Cancer Research UK</t>
         </is>
       </c>
-      <c r="G10" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="Q10" s="20" t="inlineStr">
+      <c r="G10" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="Q10" s="16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T10" s="13" t="n"/>
-    </row>
-    <row r="11" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="B11" s="20" t="inlineStr">
+      <c r="T10" s="9" t="n"/>
+    </row>
+    <row r="11" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="B11" s="16" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="G11" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="Q11" s="20" t="inlineStr">
+      <c r="G11" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="Q11" s="16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T11" s="13" t="n"/>
-    </row>
-    <row r="12" ht="16" customFormat="1" customHeight="1" s="32">
-      <c r="A12" s="32" t="inlineStr">
+      <c r="T11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="16" customFormat="1" customHeight="1" s="27">
+      <c r="A12" s="27" t="inlineStr">
         <is>
           <t>ADDICTO:0000414</t>
         </is>
       </c>
-      <c r="B12" s="23" t="inlineStr">
+      <c r="B12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Cannabis company </t>
         </is>
       </c>
-      <c r="C12" s="29" t="inlineStr">
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D12" s="32" t="inlineStr">
+      <c r="D12" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Cannabis industry </t>
         </is>
       </c>
-      <c r="E12" s="32" t="n"/>
-      <c r="F12" s="32" t="n"/>
-      <c r="G12" s="32" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H12" s="32" t="n"/>
-      <c r="I12" s="32" t="n"/>
-      <c r="J12" s="32" t="n"/>
-      <c r="K12" s="32" t="n"/>
-      <c r="L12" s="32" t="n"/>
-      <c r="M12" s="32" t="n"/>
-      <c r="N12" s="32" t="n"/>
-      <c r="O12" s="32" t="n"/>
-      <c r="P12" s="32" t="inlineStr">
+      <c r="G12" s="27" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="P12" s="27" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q12" s="32" t="inlineStr">
+      <c r="Q12" s="27" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R12" s="32" t="n"/>
-      <c r="S12" s="32" t="n"/>
-    </row>
-    <row r="13" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A13" s="32" t="inlineStr">
+    </row>
+    <row r="13" ht="16" customFormat="1" customHeight="1" s="9">
+      <c r="A13" s="27" t="inlineStr">
         <is>
           <t>ADDICTO:0000415</t>
         </is>
       </c>
-      <c r="B13" s="23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cannabis Industry </t>
-        </is>
-      </c>
-      <c r="C13" s="32" t="inlineStr">
+      <c r="B13" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cannabis industry </t>
+        </is>
+      </c>
+      <c r="C13" s="27" t="inlineStr">
         <is>
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
-      <c r="D13" s="32" t="inlineStr">
+      <c r="D13" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Industry </t>
         </is>
       </c>
-      <c r="E13" s="32" t="n"/>
-      <c r="F13" s="32" t="n"/>
-      <c r="G13" s="32" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H13" s="32" t="n"/>
-      <c r="I13" s="32" t="n"/>
-      <c r="J13" s="32" t="n"/>
-      <c r="K13" s="32" t="n"/>
-      <c r="L13" s="32" t="n"/>
-      <c r="M13" s="32" t="n"/>
-      <c r="N13" s="32" t="n"/>
-      <c r="O13" s="32" t="n"/>
-      <c r="P13" s="32" t="inlineStr">
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q13" s="32" t="inlineStr">
+      <c r="Q13" s="27" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R13" s="32" t="n"/>
-      <c r="S13" s="32" t="n"/>
-      <c r="T13" s="14" t="n"/>
-    </row>
-    <row r="14" ht="16" customFormat="1" customHeight="1" s="24">
-      <c r="A14" s="32" t="inlineStr">
+      <c r="R13" s="27" t="n"/>
+      <c r="S13" s="27" t="n"/>
+      <c r="T13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="16" customFormat="1" customHeight="1" s="19">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>ADDICTO:0000416</t>
         </is>
       </c>
-      <c r="B14" s="32" t="inlineStr">
+      <c r="B14" s="27" t="inlineStr">
         <is>
           <t>Cannabis retail outlet</t>
         </is>
       </c>
-      <c r="C14" s="32" t="inlineStr">
+      <c r="C14" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D14" s="32" t="inlineStr">
+      <c r="D14" s="27" t="inlineStr">
         <is>
           <t>Cannabis retailer</t>
         </is>
       </c>
-      <c r="E14" s="32" t="n"/>
-      <c r="F14" s="32" t="n"/>
-      <c r="G14" s="32" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H14" s="32" t="n"/>
-      <c r="I14" s="32" t="n"/>
-      <c r="J14" s="32" t="n"/>
-      <c r="K14" s="32" t="n"/>
-      <c r="L14" s="32" t="n"/>
-      <c r="M14" s="32" t="n"/>
-      <c r="N14" s="32" t="n"/>
-      <c r="O14" s="32" t="n"/>
-      <c r="P14" s="32" t="inlineStr">
+      <c r="E14" s="27" t="n"/>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H14" s="27" t="n"/>
+      <c r="I14" s="27" t="n"/>
+      <c r="J14" s="27" t="n"/>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="27" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q14" s="32" t="inlineStr">
+      <c r="Q14" s="27" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R14" s="32" t="n"/>
-      <c r="S14" s="32" t="n"/>
-      <c r="T14" s="25" t="n"/>
-    </row>
-    <row r="15" ht="16" customFormat="1" customHeight="1" s="24">
-      <c r="A15" s="32" t="inlineStr">
+      <c r="R14" s="27" t="n"/>
+      <c r="S14" s="27" t="n"/>
+      <c r="T14" s="20" t="n"/>
+    </row>
+    <row r="15" ht="16" customFormat="1" customHeight="1" s="19">
+      <c r="A15" s="27" t="inlineStr">
         <is>
           <t>ADDICTO:0000417</t>
         </is>
       </c>
-      <c r="B15" s="23" t="inlineStr">
+      <c r="B15" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Cannabis retailer </t>
         </is>
       </c>
-      <c r="C15" s="29" t="inlineStr">
+      <c r="C15" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D15" s="32" t="inlineStr">
+      <c r="D15" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">Cannabis company </t>
         </is>
       </c>
-      <c r="E15" s="32" t="n"/>
-      <c r="F15" s="32" t="n"/>
-      <c r="G15" s="32" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H15" s="32" t="n"/>
-      <c r="I15" s="32" t="n"/>
-      <c r="J15" s="32" t="n"/>
-      <c r="K15" s="32" t="n"/>
-      <c r="L15" s="32" t="n"/>
-      <c r="M15" s="32" t="n"/>
-      <c r="N15" s="32" t="n"/>
-      <c r="O15" s="32" t="n"/>
-      <c r="P15" s="32" t="inlineStr">
+      <c r="E15" s="27" t="n"/>
+      <c r="F15" s="27" t="n"/>
+      <c r="G15" s="27" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H15" s="27" t="n"/>
+      <c r="I15" s="27" t="n"/>
+      <c r="J15" s="27" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q15" s="32" t="inlineStr">
+      <c r="Q15" s="27" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R15" s="33" t="n"/>
-      <c r="S15" s="32" t="n"/>
-    </row>
-    <row r="16" ht="16" customFormat="1" customHeight="1" s="24">
-      <c r="A16" s="14" t="n"/>
-      <c r="B16" s="13" t="inlineStr">
+      <c r="R15" s="28" t="n"/>
+      <c r="S15" s="27" t="n"/>
+    </row>
+    <row r="16" ht="16" customFormat="1" customHeight="1" s="19">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>Centers for Disease Control</t>
         </is>
       </c>
-      <c r="C16" s="13" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="inlineStr">
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Government agency</t>
         </is>
       </c>
-      <c r="F16" s="13" t="inlineStr">
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="G16" s="13" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H16" s="13" t="n"/>
-      <c r="I16" s="13" t="n"/>
-      <c r="J16" s="13" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="9" t="n"/>
+      <c r="J16" s="9" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="K16" s="13" t="n"/>
-      <c r="L16" s="13" t="n"/>
-      <c r="M16" s="13" t="n"/>
-      <c r="N16" s="13" t="n"/>
-      <c r="O16" s="13" t="inlineStr">
+      <c r="K16" s="9" t="n"/>
+      <c r="L16" s="9" t="n"/>
+      <c r="M16" s="9" t="n"/>
+      <c r="N16" s="9" t="n"/>
+      <c r="O16" s="9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P16" s="13" t="inlineStr">
+      <c r="P16" s="9" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="Q16" s="13" t="inlineStr">
+      <c r="Q16" s="9" t="inlineStr">
         <is>
           <t>DIscussed</t>
         </is>
       </c>
-      <c r="R16" s="13" t="n"/>
-      <c r="S16" s="18" t="n"/>
-      <c r="T16" s="25" t="n"/>
-    </row>
-    <row r="17" ht="16" customFormat="1" customHeight="1" s="27">
-      <c r="A17" s="20" t="n"/>
-      <c r="B17" s="20" t="inlineStr">
+      <c r="R16" s="9" t="n"/>
+      <c r="S16" s="14" t="n"/>
+      <c r="T16" s="20" t="n"/>
+    </row>
+    <row r="17" ht="16" customFormat="1" customHeight="1" s="22">
+      <c r="A17" s="16" t="n"/>
+      <c r="B17" s="16" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C17" s="20" t="n"/>
-      <c r="D17" s="20" t="n"/>
-      <c r="E17" s="20" t="n"/>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H17" s="20" t="n"/>
-      <c r="I17" s="20" t="n"/>
-      <c r="J17" s="20" t="n"/>
-      <c r="K17" s="20" t="n"/>
-      <c r="L17" s="20" t="n"/>
-      <c r="M17" s="20" t="n"/>
-      <c r="N17" s="20" t="n"/>
-      <c r="O17" s="20" t="n"/>
-      <c r="P17" s="20" t="n"/>
-      <c r="Q17" s="20" t="inlineStr">
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n"/>
+      <c r="F17" s="16" t="n"/>
+      <c r="G17" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
+      <c r="J17" s="16" t="n"/>
+      <c r="K17" s="16" t="n"/>
+      <c r="L17" s="16" t="n"/>
+      <c r="M17" s="16" t="n"/>
+      <c r="N17" s="16" t="n"/>
+      <c r="O17" s="16" t="n"/>
+      <c r="P17" s="16" t="n"/>
+      <c r="Q17" s="16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R17" s="10" t="n"/>
-      <c r="S17" s="20" t="n"/>
-    </row>
-    <row r="18" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="A18" s="33" t="inlineStr">
+      <c r="R17" s="8" t="n"/>
+      <c r="S17" s="16" t="n"/>
+    </row>
+    <row r="18" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="A18" s="28" t="inlineStr">
         <is>
           <t>ADDICTO:0000418</t>
         </is>
       </c>
-      <c r="B18" s="22" t="inlineStr">
+      <c r="B18" s="17" t="inlineStr">
         <is>
           <t>Convenience store</t>
         </is>
       </c>
-      <c r="C18" s="32" t="inlineStr">
+      <c r="C18" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D18" s="22" t="inlineStr">
+      <c r="D18" s="17" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="E18" s="22" t="n"/>
-      <c r="F18" s="22" t="n"/>
-      <c r="G18" s="22" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H18" s="22" t="n"/>
-      <c r="I18" s="22" t="n"/>
-      <c r="J18" s="22" t="n"/>
-      <c r="K18" s="23" t="n"/>
-      <c r="L18" s="22" t="n"/>
-      <c r="M18" s="22" t="n"/>
-      <c r="N18" s="22" t="n"/>
-      <c r="O18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="22" t="inlineStr">
+      <c r="E18" s="17" t="n"/>
+      <c r="F18" s="17" t="n"/>
+      <c r="G18" s="17" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H18" s="17" t="n"/>
+      <c r="I18" s="17" t="n"/>
+      <c r="J18" s="17" t="n"/>
+      <c r="K18" s="18" t="n"/>
+      <c r="L18" s="17" t="n"/>
+      <c r="M18" s="17" t="n"/>
+      <c r="N18" s="17" t="n"/>
+      <c r="O18" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="17" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q18" s="22" t="inlineStr">
+      <c r="Q18" s="17" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R18" s="32" t="n"/>
-      <c r="S18" s="32" t="n"/>
-      <c r="T18" s="32" t="n"/>
-    </row>
-    <row r="19" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="A19" s="27" t="inlineStr">
+      <c r="R18" s="27" t="n"/>
+      <c r="S18" s="27" t="n"/>
+      <c r="T18" s="27" t="n"/>
+    </row>
+    <row r="19" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="A19" s="22" t="inlineStr">
         <is>
           <t>ADDICTO:0000419</t>
         </is>
       </c>
-      <c r="B19" s="28" t="inlineStr">
+      <c r="B19" s="23" t="inlineStr">
         <is>
           <t>E-cigarette company</t>
         </is>
       </c>
-      <c r="C19" s="29" t="inlineStr">
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D19" s="28" t="inlineStr">
+      <c r="D19" s="23" t="inlineStr">
+        <is>
+          <t>E-cigarette industry</t>
+        </is>
+      </c>
+      <c r="E19" s="23" t="n"/>
+      <c r="F19" s="23" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G19" s="23" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H19" s="23" t="n"/>
+      <c r="I19" s="23" t="n"/>
+      <c r="J19" s="23" t="n"/>
+      <c r="K19" s="25" t="n"/>
+      <c r="L19" s="23" t="n"/>
+      <c r="M19" s="23" t="n"/>
+      <c r="N19" s="23" t="n"/>
+      <c r="O19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="23" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q19" s="23" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R19" s="22" t="n"/>
+      <c r="S19" s="25" t="n"/>
+      <c r="T19" s="27" t="n"/>
+    </row>
+    <row r="20" ht="32" customFormat="1" customHeight="1" s="22">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000420</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>E-cigarette industry</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
+        </is>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Industry </t>
+        </is>
+      </c>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="G20" s="10" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
+        </is>
+      </c>
+      <c r="J20" s="10" t="inlineStr">
+        <is>
+          <t>E-Cig industry</t>
+        </is>
+      </c>
+      <c r="K20" s="9" t="n"/>
+      <c r="L20" s="10" t="n"/>
+      <c r="M20" s="10" t="n"/>
+      <c r="N20" s="10" t="n"/>
+      <c r="O20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="10" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q20" s="10" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R20" s="10" t="n"/>
+      <c r="S20" s="9" t="n"/>
+    </row>
+    <row r="21" ht="32" customFormat="1" customHeight="1" s="22">
+      <c r="A21" s="27" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000421</t>
+        </is>
+      </c>
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>E-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="C21" s="17" t="inlineStr">
+        <is>
+          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
+        </is>
+      </c>
+      <c r="D21" s="17" t="inlineStr">
+        <is>
+          <t>E-cigarette company</t>
+        </is>
+      </c>
+      <c r="E21" s="17" t="n"/>
+      <c r="F21" s="17" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G21" s="17" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H21" s="17" t="n"/>
+      <c r="I21" s="17" t="n"/>
+      <c r="J21" s="17" t="inlineStr">
+        <is>
+          <t>E-Cig shop; E-cig Industry; E-Cig merchant</t>
+        </is>
+      </c>
+      <c r="K21" s="18" t="n"/>
+      <c r="L21" s="17" t="n"/>
+      <c r="M21" s="17" t="n"/>
+      <c r="N21" s="17" t="n"/>
+      <c r="O21" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="17" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q21" s="17" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R21" s="17" t="n"/>
+      <c r="S21" s="18" t="n"/>
+    </row>
+    <row r="22" ht="16" customFormat="1" customHeight="1" s="22">
+      <c r="A22" s="27" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000422</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="inlineStr">
+        <is>
+          <t>E-cigarette shop</t>
+        </is>
+      </c>
+      <c r="C22" s="17" t="inlineStr">
+        <is>
+          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D22" s="17" t="inlineStr">
+        <is>
+          <t>E-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="E22" s="17" t="n"/>
+      <c r="F22" s="17" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G22" s="17" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H22" s="17" t="n"/>
+      <c r="I22" s="17" t="n"/>
+      <c r="J22" s="17" t="n"/>
+      <c r="K22" s="18" t="n"/>
+      <c r="L22" s="17" t="n"/>
+      <c r="M22" s="17" t="n"/>
+      <c r="N22" s="17" t="n"/>
+      <c r="O22" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="17" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q22" s="17" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R22" s="17" t="n"/>
+      <c r="S22" s="18" t="n"/>
+    </row>
+    <row r="23" ht="16" customFormat="1" customHeight="1" s="22">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000423</t>
+        </is>
+      </c>
+      <c r="B23" s="23" t="inlineStr">
+        <is>
+          <t>E-liquid company</t>
+        </is>
+      </c>
+      <c r="C23" s="24" t="inlineStr">
+        <is>
+          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+        </is>
+      </c>
+      <c r="D23" s="23" t="inlineStr">
         <is>
           <t>E-cigarette organisation</t>
         </is>
       </c>
-      <c r="E19" s="28" t="n"/>
-      <c r="F19" s="28" t="inlineStr">
+      <c r="E23" s="23" t="n"/>
+      <c r="F23" s="23" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="G19" s="28" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H19" s="28" t="n"/>
-      <c r="I19" s="28" t="n"/>
-      <c r="J19" s="28" t="n"/>
-      <c r="K19" s="30" t="n"/>
-      <c r="L19" s="28" t="n"/>
-      <c r="M19" s="28" t="n"/>
-      <c r="N19" s="28" t="n"/>
-      <c r="O19" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="28" t="inlineStr">
+      <c r="G23" s="23" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H23" s="23" t="n"/>
+      <c r="I23" s="23" t="n"/>
+      <c r="J23" s="23" t="n"/>
+      <c r="K23" s="25" t="n"/>
+      <c r="L23" s="23" t="n"/>
+      <c r="M23" s="23" t="n"/>
+      <c r="N23" s="23" t="n"/>
+      <c r="O23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="23" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q19" s="28" t="inlineStr">
+      <c r="Q23" s="23" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R19" s="27" t="n"/>
-      <c r="S19" s="30" t="n"/>
-      <c r="T19" s="32" t="n"/>
-    </row>
-    <row r="20" ht="32" customFormat="1" customHeight="1" s="27">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000420</t>
-        </is>
-      </c>
-      <c r="B20" s="14" t="inlineStr">
+      <c r="R23" s="23" t="n"/>
+      <c r="S23" s="25" t="n"/>
+    </row>
+    <row r="24" ht="32" customFormat="1" customHeight="1" s="9">
+      <c r="A24" s="16" t="n"/>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>European Medicines Monitoring Agency</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n"/>
+      <c r="D24" s="8" t="n"/>
+      <c r="E24" s="8" t="n"/>
+      <c r="F24" s="8" t="n"/>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H24" s="8" t="n"/>
+      <c r="I24" s="8" t="n"/>
+      <c r="J24" s="8" t="n"/>
+      <c r="K24" s="12" t="n"/>
+      <c r="L24" s="8" t="n"/>
+      <c r="M24" s="8" t="n"/>
+      <c r="N24" s="8" t="n"/>
+      <c r="O24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="8" t="n"/>
+      <c r="Q24" s="8" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R24" s="16" t="n"/>
+      <c r="S24" s="16" t="n"/>
+      <c r="T24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="A25" s="9" t="n"/>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t>Food and Drug Administration</t>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>Government agency</t>
+        </is>
+      </c>
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G25" s="10" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H25" s="10" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="10" t="n"/>
+      <c r="K25" s="14" t="n"/>
+      <c r="L25" s="10" t="n"/>
+      <c r="M25" s="10" t="n"/>
+      <c r="N25" s="10" t="n"/>
+      <c r="O25" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="10" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="Q25" s="10" t="inlineStr">
+        <is>
+          <t>DIscussed</t>
+        </is>
+      </c>
+      <c r="R25" s="9" t="n"/>
+      <c r="S25" s="9" t="n"/>
+      <c r="T25" s="8" t="n"/>
+    </row>
+    <row r="26" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="A26" s="27" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000424</t>
+        </is>
+      </c>
+      <c r="B26" s="18" t="inlineStr">
+        <is>
+          <t>Gambling industry</t>
+        </is>
+      </c>
+      <c r="C26" s="27" t="inlineStr">
+        <is>
+          <t>An industry in which the services provided relate to gambling activities.</t>
+        </is>
+      </c>
+      <c r="D26" s="27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Industry </t>
+        </is>
+      </c>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="28" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H26" s="28" t="n"/>
+      <c r="I26" s="18" t="n"/>
+      <c r="J26" s="28" t="n"/>
+      <c r="K26" s="28" t="n"/>
+      <c r="L26" s="28" t="n"/>
+      <c r="M26" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="28" t="n"/>
+      <c r="O26" s="28" t="n"/>
+      <c r="P26" s="28" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q26" s="28" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R26" s="27" t="n"/>
+      <c r="S26" s="27" t="n"/>
+      <c r="T26" s="8" t="n"/>
+    </row>
+    <row r="27" ht="160" customFormat="1" customHeight="1" s="9">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000425</t>
+        </is>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Government agency</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
+        <is>
+          <t>A governmental organisation set up for a purpose.</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organisation </t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H27" s="13" t="n"/>
+      <c r="I27" s="14" t="n"/>
+      <c r="J27" s="13" t="n"/>
+      <c r="K27" s="31" t="inlineStr">
+        <is>
+          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
+        </is>
+      </c>
+      <c r="L27" s="13" t="n"/>
+      <c r="M27" s="13" t="n"/>
+      <c r="N27" s="13" t="n"/>
+      <c r="O27" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="13" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="Q27" s="13" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="48" customFormat="1" customHeight="1" s="16">
+      <c r="A28" s="19" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000426</t>
+        </is>
+      </c>
+      <c r="B28" s="20" t="inlineStr">
+        <is>
+          <t>Independent e-cigarette company</t>
+        </is>
+      </c>
+      <c r="C28" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>E-cigarette company</t>
+        </is>
+      </c>
+      <c r="E28" s="20" t="n"/>
+      <c r="F28" s="20" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G28" s="20" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H28" s="20" t="n"/>
+      <c r="I28" s="20" t="n"/>
+      <c r="J28" s="20" t="n"/>
+      <c r="K28" s="26" t="inlineStr">
+        <is>
+          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+        </is>
+      </c>
+      <c r="L28" s="20" t="n"/>
+      <c r="M28" s="20" t="n"/>
+      <c r="N28" s="20" t="n"/>
+      <c r="O28" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="20" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q28" s="20" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R28" s="19" t="n"/>
+      <c r="S28" s="26" t="n"/>
+      <c r="T28" s="8" t="n"/>
+    </row>
+    <row r="29" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="A29" s="19" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000427</t>
+        </is>
+      </c>
+      <c r="B29" s="20" t="inlineStr">
+        <is>
+          <t>Independent e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="C29" s="21" t="inlineStr">
+        <is>
+          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
+        </is>
+      </c>
+      <c r="D29" s="20" t="inlineStr">
         <is>
           <t>E-cigarette industry</t>
         </is>
       </c>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
-        </is>
-      </c>
-      <c r="D20" s="14" t="inlineStr">
+      <c r="E29" s="20" t="n"/>
+      <c r="F29" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="G29" s="20" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H29" s="20" t="n"/>
+      <c r="I29" s="20" t="n"/>
+      <c r="J29" s="20" t="n"/>
+      <c r="K29" s="19" t="n"/>
+      <c r="L29" s="20" t="n"/>
+      <c r="M29" s="20" t="n"/>
+      <c r="N29" s="20" t="n"/>
+      <c r="O29" s="20" t="n"/>
+      <c r="P29" s="20" t="n"/>
+      <c r="Q29" s="20" t="n"/>
+      <c r="R29" s="20" t="n"/>
+      <c r="S29" s="19" t="n"/>
+      <c r="T29" s="8" t="n"/>
+    </row>
+    <row r="30" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="16" t="inlineStr">
+        <is>
+          <t>Independent legal advisory institution</t>
+        </is>
+      </c>
+      <c r="G30" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="Q30" s="16" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S30" s="12" t="n"/>
+      <c r="T30" s="8" t="n"/>
+    </row>
+    <row r="31" ht="32" customFormat="1" customHeight="1" s="16">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000428</t>
+        </is>
+      </c>
+      <c r="B31" s="13" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="C31" s="13" t="inlineStr">
+        <is>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
+        </is>
+      </c>
+      <c r="D31" s="13" t="inlineStr">
+        <is>
+          <t>Organisation aggregate</t>
+        </is>
+      </c>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G31" s="13" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H31" s="10" t="n"/>
+      <c r="I31" s="13" t="n"/>
+      <c r="J31" s="13" t="n"/>
+      <c r="K31" s="13" t="n"/>
+      <c r="L31" s="13" t="n"/>
+      <c r="M31" s="13" t="n"/>
+      <c r="N31" s="13" t="n"/>
+      <c r="O31" s="13" t="n"/>
+      <c r="P31" s="13" t="n"/>
+      <c r="Q31" s="9" t="n"/>
+      <c r="R31" s="10" t="n"/>
+      <c r="S31" s="9" t="n"/>
+      <c r="T31" s="8" t="n"/>
+    </row>
+    <row r="32" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Irish Cancer Society</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="8" t="n"/>
+      <c r="E32" s="8" t="n"/>
+      <c r="F32" s="8" t="n"/>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H32" s="8" t="n"/>
+      <c r="I32" s="8" t="n"/>
+      <c r="J32" s="8" t="n"/>
+      <c r="K32" s="12" t="n"/>
+      <c r="L32" s="8" t="n"/>
+      <c r="M32" s="8" t="n"/>
+      <c r="N32" s="8" t="n"/>
+      <c r="O32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="8" t="n"/>
+      <c r="Q32" s="8" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T32" s="8" t="n"/>
+    </row>
+    <row r="33" ht="32" customFormat="1" customHeight="1" s="16">
+      <c r="A33" s="17" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000429</t>
+        </is>
+      </c>
+      <c r="B33" s="27" t="inlineStr">
+        <is>
+          <t>Marketer of product</t>
+        </is>
+      </c>
+      <c r="C33" s="27" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+        </is>
+      </c>
+      <c r="D33" s="27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organisation </t>
+        </is>
+      </c>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="27" t="n"/>
+      <c r="J33" s="27" t="n"/>
+      <c r="K33" s="27" t="n"/>
+      <c r="L33" s="27" t="n"/>
+      <c r="M33" s="27" t="n"/>
+      <c r="N33" s="27" t="n"/>
+      <c r="O33" s="27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P33" s="27" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q33" s="27" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R33" s="27" t="n"/>
+      <c r="S33" s="27" t="n"/>
+      <c r="T33" s="8" t="n"/>
+    </row>
+    <row r="34" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>National Health Service</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n"/>
+      <c r="D34" s="8" t="n"/>
+      <c r="E34" s="8" t="n"/>
+      <c r="F34" s="8" t="n"/>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H34" s="8" t="n"/>
+      <c r="I34" s="8" t="n"/>
+      <c r="J34" s="8" t="n"/>
+      <c r="K34" s="12" t="n"/>
+      <c r="L34" s="8" t="n"/>
+      <c r="M34" s="8" t="n"/>
+      <c r="N34" s="8" t="n"/>
+      <c r="O34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="8" t="n"/>
+      <c r="Q34" s="8" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T34" s="8" t="n"/>
+    </row>
+    <row r="35" ht="32" customFormat="1" customHeight="1" s="16">
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>National Institute for Health and Care Excellence</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n"/>
+      <c r="D35" s="8" t="n"/>
+      <c r="E35" s="8" t="n"/>
+      <c r="F35" s="8" t="n"/>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H35" s="8" t="n"/>
+      <c r="I35" s="8" t="n"/>
+      <c r="J35" s="8" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="K35" s="12" t="n"/>
+      <c r="L35" s="8" t="n"/>
+      <c r="M35" s="8" t="n"/>
+      <c r="N35" s="8" t="n"/>
+      <c r="O35" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="8" t="n"/>
+      <c r="Q35" s="8" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>NIHR</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n"/>
+      <c r="D36" s="8" t="n"/>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H36" s="8" t="n"/>
+      <c r="I36" s="8" t="n"/>
+      <c r="J36" s="8" t="n"/>
+      <c r="K36" s="12" t="n"/>
+      <c r="L36" s="8" t="n"/>
+      <c r="M36" s="8" t="n"/>
+      <c r="N36" s="8" t="n"/>
+      <c r="O36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="8" t="n"/>
+      <c r="Q36" s="8" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="16" customFormat="1" customHeight="1" s="16">
+      <c r="A37" s="9" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000430</t>
+        </is>
+      </c>
+      <c r="B37" s="13" t="inlineStr">
+        <is>
+          <t>Organisation aggregate</t>
+        </is>
+      </c>
+      <c r="C37" s="13" t="inlineStr">
+        <is>
+          <t>An aggregate of organisations.</t>
+        </is>
+      </c>
+      <c r="D37" s="13" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="E37" s="13" t="n"/>
+      <c r="F37" s="13" t="n"/>
+      <c r="G37" s="13" t="n"/>
+      <c r="H37" s="10" t="n"/>
+      <c r="I37" s="13" t="n"/>
+      <c r="J37" s="13" t="n"/>
+      <c r="K37" s="13" t="n"/>
+      <c r="L37" s="13" t="n"/>
+      <c r="M37" s="13" t="n"/>
+      <c r="N37" s="13" t="n"/>
+      <c r="O37" s="13" t="n"/>
+      <c r="P37" s="13" t="n"/>
+      <c r="Q37" s="9" t="n"/>
+      <c r="R37" s="10" t="n"/>
+      <c r="S37" s="9" t="n"/>
+    </row>
+    <row r="38" ht="64" customFormat="1" customHeight="1" s="16">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000431</t>
+        </is>
+      </c>
+      <c r="B38" s="13" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="C38" s="13" t="inlineStr">
+        <is>
+          <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="D38" s="13" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="E38" s="13" t="n"/>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G38" s="13" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H38" s="10" t="inlineStr">
+        <is>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="I38" s="13" t="inlineStr">
+        <is>
+          <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
+        </is>
+      </c>
+      <c r="J38" s="13" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="K38" s="13" t="n"/>
+      <c r="L38" s="13" t="n"/>
+      <c r="M38" s="13" t="n"/>
+      <c r="N38" s="13" t="n"/>
+      <c r="O38" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" s="13" t="n"/>
+      <c r="Q38" s="9" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="R38" s="10" t="n"/>
+      <c r="S38" s="9" t="n"/>
+    </row>
+    <row r="39" ht="32" customFormat="1" customHeight="1" s="16">
+      <c r="B39" s="16" t="inlineStr">
+        <is>
+          <t>Organization for Economic Co-operaion and Development</t>
+        </is>
+      </c>
+      <c r="G39" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="J39" s="16" t="inlineStr">
+        <is>
+          <t>OECD</t>
+        </is>
+      </c>
+      <c r="Q39" s="16" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="32" customFormat="1" customHeight="1" s="16">
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000432</t>
+        </is>
+      </c>
+      <c r="B40" s="18" t="inlineStr">
+        <is>
+          <t>Philip Morris International</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>A tobacco company based in Switzerland with the business identification number CHE-105.950.151.</t>
+        </is>
+      </c>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>Tobacco company</t>
+        </is>
+      </c>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H40" s="27" t="inlineStr">
+        <is>
+          <t>https://www.pmi.com/company-information</t>
+        </is>
+      </c>
+      <c r="I40" s="27" t="n"/>
+      <c r="J40" s="27" t="inlineStr">
+        <is>
+          <t>PMI</t>
+        </is>
+      </c>
+      <c r="K40" s="27" t="n"/>
+      <c r="L40" s="27" t="n"/>
+      <c r="M40" s="27" t="n"/>
+      <c r="N40" s="27" t="n"/>
+      <c r="O40" s="27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P40" s="27" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q40" s="27" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R40" s="27" t="n"/>
+      <c r="S40" s="27" t="n"/>
+    </row>
+    <row r="41" ht="32" customFormat="1" customHeight="1" s="27">
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000433</t>
+        </is>
+      </c>
+      <c r="B41" s="17" t="inlineStr">
+        <is>
+          <t>Retailer of product</t>
+        </is>
+      </c>
+      <c r="C41" s="17" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
+      <c r="D41" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organisation </t>
+        </is>
+      </c>
+      <c r="E41" s="17" t="n"/>
+      <c r="F41" s="17" t="n"/>
+      <c r="G41" s="17" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H41" s="17" t="n"/>
+      <c r="I41" s="17" t="n"/>
+      <c r="J41" s="17" t="n"/>
+      <c r="K41" s="18" t="n"/>
+      <c r="L41" s="17" t="n"/>
+      <c r="M41" s="17" t="n"/>
+      <c r="N41" s="17" t="n"/>
+      <c r="O41" s="17" t="n"/>
+      <c r="P41" s="17" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q41" s="17" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R41" s="17" t="n"/>
+      <c r="S41" s="28" t="n"/>
+    </row>
+    <row r="42" ht="16" customFormat="1" customHeight="1" s="27">
+      <c r="A42" s="8" t="n"/>
+      <c r="B42" s="16" t="inlineStr">
+        <is>
+          <t>Statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C42" s="16" t="n"/>
+      <c r="D42" s="16" t="n"/>
+      <c r="E42" s="16" t="n"/>
+      <c r="F42" s="16" t="n"/>
+      <c r="G42" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H42" s="16" t="n"/>
+      <c r="I42" s="16" t="n"/>
+      <c r="J42" s="16" t="n"/>
+      <c r="K42" s="16" t="n"/>
+      <c r="L42" s="16" t="n"/>
+      <c r="M42" s="16" t="n"/>
+      <c r="N42" s="16" t="n"/>
+      <c r="O42" s="16" t="n"/>
+      <c r="P42" s="16" t="n"/>
+      <c r="Q42" s="16" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R42" s="8" t="n"/>
+      <c r="S42" s="12" t="n"/>
+    </row>
+    <row r="43" ht="32" customFormat="1" customHeight="1" s="27">
+      <c r="A43" s="17" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000434</t>
+        </is>
+      </c>
+      <c r="B43" s="27" t="inlineStr">
+        <is>
+          <t>Supplier of product</t>
+        </is>
+      </c>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
+        </is>
+      </c>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organisation </t>
+        </is>
+      </c>
+      <c r="G43" s="27" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="P43" s="27" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q43" s="27" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R43" s="17" t="n"/>
+    </row>
+    <row r="44" ht="16" customFormat="1" customHeight="1" s="27">
+      <c r="A44" s="8" t="n"/>
+      <c r="B44" s="16" t="inlineStr">
+        <is>
+          <t>The American Cancer Society</t>
+        </is>
+      </c>
+      <c r="C44" s="16" t="n"/>
+      <c r="D44" s="16" t="n"/>
+      <c r="E44" s="16" t="n"/>
+      <c r="F44" s="16" t="n"/>
+      <c r="G44" s="16" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H44" s="16" t="n"/>
+      <c r="I44" s="16" t="n"/>
+      <c r="J44" s="16" t="n"/>
+      <c r="K44" s="16" t="n"/>
+      <c r="L44" s="16" t="n"/>
+      <c r="M44" s="16" t="n"/>
+      <c r="N44" s="16" t="n"/>
+      <c r="O44" s="16" t="n"/>
+      <c r="P44" s="16" t="n"/>
+      <c r="Q44" s="16" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R44" s="8" t="n"/>
+      <c r="S44" s="12" t="n"/>
+    </row>
+    <row r="45" ht="48" customFormat="1" customHeight="1" s="27">
+      <c r="A45" s="16" t="n"/>
+      <c r="B45" s="15" t="inlineStr">
+        <is>
+          <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
+        </is>
+      </c>
+      <c r="C45" s="15" t="n"/>
+      <c r="D45" s="15" t="n"/>
+      <c r="E45" s="15" t="n"/>
+      <c r="F45" s="15" t="n"/>
+      <c r="G45" s="15" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H45" s="15" t="n"/>
+      <c r="I45" s="15" t="n"/>
+      <c r="J45" s="15" t="n"/>
+      <c r="K45" s="15" t="n"/>
+      <c r="L45" s="15" t="n"/>
+      <c r="M45" s="15" t="n"/>
+      <c r="N45" s="15" t="n"/>
+      <c r="O45" s="15" t="n"/>
+      <c r="P45" s="15" t="n"/>
+      <c r="Q45" s="15" t="n"/>
+      <c r="R45" s="8" t="n"/>
+      <c r="S45" s="16" t="n"/>
+      <c r="T45" s="17" t="n"/>
+    </row>
+    <row r="46" ht="80" customFormat="1" customHeight="1" s="27">
+      <c r="A46" s="23" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000435</t>
+        </is>
+      </c>
+      <c r="B46" s="24" t="inlineStr">
+        <is>
+          <t>Tobacco company</t>
+        </is>
+      </c>
+      <c r="C46" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+        </is>
+      </c>
+      <c r="D46" s="23" t="inlineStr">
+        <is>
+          <t>Tobacco Industry</t>
+        </is>
+      </c>
+      <c r="E46" s="23" t="n"/>
+      <c r="F46" s="23" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="G46" s="23" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H46" s="23" t="n"/>
+      <c r="I46" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J46" s="23" t="n"/>
+      <c r="K46" s="25" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
+      <c r="L46" s="23" t="n"/>
+      <c r="M46" s="23" t="n"/>
+      <c r="N46" s="23" t="n"/>
+      <c r="O46" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="23" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="Q46" s="23" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R46" s="22" t="n"/>
+      <c r="S46" s="22" t="n"/>
+    </row>
+    <row r="47" ht="16" customFormat="1" customHeight="1" s="27">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000436</t>
+        </is>
+      </c>
+      <c r="B47" s="17" t="inlineStr">
+        <is>
+          <t>Tobacco Industry</t>
+        </is>
+      </c>
+      <c r="C47" s="27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+        </is>
+      </c>
+      <c r="D47" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">Industry </t>
         </is>
       </c>
-      <c r="E20" s="14" t="n"/>
-      <c r="F20" s="14" t="inlineStr">
+      <c r="E47" s="17" t="n"/>
+      <c r="F47" s="17" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="G20" s="14" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H20" s="14" t="n"/>
-      <c r="I20" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
-        </is>
-      </c>
-      <c r="J20" s="14" t="inlineStr">
-        <is>
-          <t>E-Cig industry</t>
-        </is>
-      </c>
-      <c r="K20" s="13" t="n"/>
-      <c r="L20" s="14" t="n"/>
-      <c r="M20" s="14" t="n"/>
-      <c r="N20" s="14" t="n"/>
-      <c r="O20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="14" t="inlineStr">
+      <c r="G47" s="17" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H47" s="17" t="n"/>
+      <c r="I47" s="17" t="n"/>
+      <c r="J47" s="17" t="n"/>
+      <c r="K47" s="18" t="n"/>
+      <c r="L47" s="17" t="n"/>
+      <c r="M47" s="17" t="n"/>
+      <c r="N47" s="17" t="n"/>
+      <c r="O47" s="17" t="n"/>
+      <c r="P47" s="17" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q20" s="14" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R20" s="14" t="n"/>
-      <c r="S20" s="13" t="n"/>
-    </row>
-    <row r="21" ht="32" customFormat="1" customHeight="1" s="27">
-      <c r="A21" s="32" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000421</t>
-        </is>
-      </c>
-      <c r="B21" s="22" t="inlineStr">
-        <is>
-          <t>E-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="C21" s="22" t="inlineStr">
-        <is>
-          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
-        </is>
-      </c>
-      <c r="D21" s="22" t="inlineStr">
-        <is>
-          <t>E-cigarette company</t>
-        </is>
-      </c>
-      <c r="E21" s="22" t="n"/>
-      <c r="F21" s="22" t="inlineStr">
+      <c r="Q47" s="17" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R47" s="17" t="n"/>
+      <c r="S47" s="18" t="n"/>
+      <c r="T47" s="17" t="n"/>
+    </row>
+    <row r="48" ht="16" customFormat="1" customHeight="1" s="27">
+      <c r="A48" s="23" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000437</t>
+        </is>
+      </c>
+      <c r="B48" s="24" t="inlineStr">
+        <is>
+          <t>Tobacco retail outlet</t>
+        </is>
+      </c>
+      <c r="C48" s="24" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D48" s="23" t="inlineStr">
+        <is>
+          <t>Tobacco retailer</t>
+        </is>
+      </c>
+      <c r="E48" s="23" t="n"/>
+      <c r="F48" s="23" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="G21" s="22" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H21" s="22" t="n"/>
-      <c r="I21" s="22" t="n"/>
-      <c r="J21" s="22" t="inlineStr">
-        <is>
-          <t>E-Cig shop; E-cig Industry; E-Cig merchant</t>
-        </is>
-      </c>
-      <c r="K21" s="23" t="n"/>
-      <c r="L21" s="22" t="n"/>
-      <c r="M21" s="22" t="n"/>
-      <c r="N21" s="22" t="n"/>
-      <c r="O21" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="22" t="inlineStr">
+      <c r="G48" s="23" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H48" s="23" t="n"/>
+      <c r="I48" s="23" t="n"/>
+      <c r="J48" s="23" t="n"/>
+      <c r="K48" s="25" t="n"/>
+      <c r="L48" s="23" t="n"/>
+      <c r="M48" s="23" t="n"/>
+      <c r="N48" s="23" t="n"/>
+      <c r="O48" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="23" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q21" s="22" t="inlineStr">
+      <c r="Q48" s="23" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R21" s="22" t="n"/>
-      <c r="S21" s="23" t="n"/>
-    </row>
-    <row r="22" ht="16" customFormat="1" customHeight="1" s="27">
-      <c r="A22" s="32" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000422</t>
-        </is>
-      </c>
-      <c r="B22" s="22" t="inlineStr">
-        <is>
-          <t>E-cigarette shop</t>
-        </is>
-      </c>
-      <c r="C22" s="22" t="inlineStr">
-        <is>
-          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>E-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="E22" s="22" t="n"/>
-      <c r="F22" s="22" t="inlineStr">
+      <c r="R48" s="23" t="n"/>
+      <c r="S48" s="29" t="n"/>
+      <c r="U48" s="17" t="n"/>
+    </row>
+    <row r="49" ht="16" customFormat="1" customHeight="1" s="27">
+      <c r="A49" s="23" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000438</t>
+        </is>
+      </c>
+      <c r="B49" s="24" t="inlineStr">
+        <is>
+          <t>Tobacco retailer</t>
+        </is>
+      </c>
+      <c r="C49" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+        </is>
+      </c>
+      <c r="D49" s="23" t="inlineStr">
+        <is>
+          <t>Tobacco company</t>
+        </is>
+      </c>
+      <c r="E49" s="23" t="n"/>
+      <c r="F49" s="23" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="G22" s="22" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H22" s="22" t="n"/>
-      <c r="I22" s="22" t="n"/>
-      <c r="J22" s="22" t="n"/>
-      <c r="K22" s="23" t="n"/>
-      <c r="L22" s="22" t="n"/>
-      <c r="M22" s="22" t="n"/>
-      <c r="N22" s="22" t="n"/>
-      <c r="O22" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="22" t="inlineStr">
+      <c r="G49" s="23" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H49" s="23" t="n"/>
+      <c r="I49" s="23" t="n"/>
+      <c r="J49" s="23" t="n"/>
+      <c r="K49" s="25" t="n"/>
+      <c r="L49" s="23" t="n"/>
+      <c r="M49" s="23" t="n"/>
+      <c r="N49" s="23" t="n"/>
+      <c r="O49" s="23" t="n"/>
+      <c r="P49" s="23" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q22" s="22" t="inlineStr">
+      <c r="Q49" s="23" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R22" s="22" t="n"/>
-      <c r="S22" s="23" t="n"/>
-    </row>
-    <row r="23" ht="16" customFormat="1" customHeight="1" s="27">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000423</t>
-        </is>
-      </c>
-      <c r="B23" s="28" t="inlineStr">
-        <is>
-          <t>E-liquid company</t>
-        </is>
-      </c>
-      <c r="C23" s="29" t="inlineStr">
-        <is>
-          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
-        </is>
-      </c>
-      <c r="D23" s="28" t="inlineStr">
-        <is>
-          <t>E-cigarette organisation</t>
-        </is>
-      </c>
-      <c r="E23" s="28" t="n"/>
-      <c r="F23" s="28" t="inlineStr">
+      <c r="R49" s="22" t="n"/>
+      <c r="S49" s="22" t="n"/>
+    </row>
+    <row r="50" ht="16" customFormat="1" customHeight="1" s="27">
+      <c r="A50" s="23" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B50" s="24" t="inlineStr">
+        <is>
+          <t>Tobacconist</t>
+        </is>
+      </c>
+      <c r="C50" s="24" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D50" s="23" t="inlineStr">
+        <is>
+          <t>Tobacco retailer</t>
+        </is>
+      </c>
+      <c r="E50" s="23" t="n"/>
+      <c r="F50" s="23" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="G23" s="28" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H23" s="28" t="n"/>
-      <c r="I23" s="28" t="n"/>
-      <c r="J23" s="28" t="n"/>
-      <c r="K23" s="30" t="n"/>
-      <c r="L23" s="28" t="n"/>
-      <c r="M23" s="28" t="n"/>
-      <c r="N23" s="28" t="n"/>
-      <c r="O23" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="28" t="inlineStr">
+      <c r="G50" s="23" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H50" s="23" t="n"/>
+      <c r="I50" s="23" t="n"/>
+      <c r="J50" s="23" t="n"/>
+      <c r="K50" s="25" t="n"/>
+      <c r="L50" s="23" t="n"/>
+      <c r="M50" s="23" t="n"/>
+      <c r="N50" s="23" t="n"/>
+      <c r="O50" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="23" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="Q23" s="28" t="inlineStr">
+      <c r="Q50" s="23" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R23" s="28" t="n"/>
-      <c r="S23" s="30" t="n"/>
-    </row>
-    <row r="24" ht="32" customFormat="1" customHeight="1" s="13">
-      <c r="A24" s="20" t="n"/>
-      <c r="B24" s="10" t="inlineStr">
-        <is>
-          <t>European Medicines Monitoring Agency</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="10" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="10" t="n"/>
-      <c r="G24" s="10" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H24" s="10" t="n"/>
-      <c r="I24" s="10" t="n"/>
-      <c r="J24" s="10" t="n"/>
-      <c r="K24" s="16" t="n"/>
-      <c r="L24" s="10" t="n"/>
-      <c r="M24" s="10" t="n"/>
-      <c r="N24" s="10" t="n"/>
-      <c r="O24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="10" t="n"/>
-      <c r="Q24" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R24" s="20" t="n"/>
-      <c r="S24" s="20" t="n"/>
-      <c r="T24" s="14" t="n"/>
-    </row>
-    <row r="25" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="A25" s="13" t="n"/>
-      <c r="B25" s="14" t="inlineStr">
-        <is>
-          <t>Food and Drug Administration</t>
-        </is>
-      </c>
-      <c r="C25" s="14" t="inlineStr">
-        <is>
-          <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="14" t="inlineStr">
-        <is>
-          <t>Government agency</t>
-        </is>
-      </c>
-      <c r="F25" s="14" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="G25" s="14" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H25" s="14" t="n"/>
-      <c r="I25" s="14" t="n"/>
-      <c r="J25" s="14" t="n"/>
-      <c r="K25" s="18" t="n"/>
-      <c r="L25" s="14" t="n"/>
-      <c r="M25" s="14" t="n"/>
-      <c r="N25" s="14" t="n"/>
-      <c r="O25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="14" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="Q25" s="14" t="inlineStr">
-        <is>
-          <t>DIscussed</t>
-        </is>
-      </c>
-      <c r="R25" s="13" t="n"/>
-      <c r="S25" s="13" t="n"/>
-      <c r="T25" s="10" t="n"/>
-    </row>
-    <row r="26" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="A26" s="32" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000424</t>
-        </is>
-      </c>
-      <c r="B26" s="23" t="inlineStr">
-        <is>
-          <t>Gambling industry</t>
-        </is>
-      </c>
-      <c r="C26" s="32" t="inlineStr">
-        <is>
-          <t>An industry in which the services provided relate to gambling activities.</t>
-        </is>
-      </c>
-      <c r="D26" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Industry </t>
-        </is>
-      </c>
-      <c r="E26" s="32" t="n"/>
-      <c r="F26" s="32" t="n"/>
-      <c r="G26" s="33" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H26" s="33" t="n"/>
-      <c r="I26" s="23" t="n"/>
-      <c r="J26" s="33" t="n"/>
-      <c r="K26" s="33" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q26" s="33" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R26" s="32" t="n"/>
-      <c r="S26" s="32" t="n"/>
-      <c r="T26" s="10" t="n"/>
-    </row>
-    <row r="27" ht="160" customFormat="1" customHeight="1" s="13">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000425</t>
-        </is>
-      </c>
-      <c r="B27" s="18" t="inlineStr">
-        <is>
-          <t>Government agency</t>
-        </is>
-      </c>
-      <c r="C27" s="13" t="inlineStr">
-        <is>
-          <t>A governmental organisation set up for a purpose.</t>
-        </is>
-      </c>
-      <c r="D27" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Organisation </t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="G27" s="17" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H27" s="17" t="n"/>
-      <c r="I27" s="18" t="n"/>
-      <c r="J27" s="17" t="n"/>
-      <c r="K27" s="36" t="inlineStr">
-        <is>
-          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
-        </is>
-      </c>
-      <c r="L27" s="17" t="n"/>
-      <c r="M27" s="17" t="n"/>
-      <c r="N27" s="17" t="n"/>
-      <c r="O27" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="17" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="Q27" s="17" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T27" s="14" t="n"/>
-    </row>
-    <row r="28" ht="48" customFormat="1" customHeight="1" s="20">
-      <c r="A28" s="24" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000426</t>
-        </is>
-      </c>
-      <c r="B28" s="25" t="inlineStr">
-        <is>
-          <t>Independent e-cigarette company</t>
-        </is>
-      </c>
-      <c r="C28" s="26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
-        </is>
-      </c>
-      <c r="D28" s="25" t="inlineStr">
-        <is>
-          <t>E-cigarette company</t>
-        </is>
-      </c>
-      <c r="E28" s="25" t="n"/>
-      <c r="F28" s="25" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="G28" s="25" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H28" s="25" t="n"/>
-      <c r="I28" s="25" t="n"/>
-      <c r="J28" s="25" t="n"/>
-      <c r="K28" s="31" t="inlineStr">
-        <is>
-          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
-        </is>
-      </c>
-      <c r="L28" s="25" t="n"/>
-      <c r="M28" s="25" t="n"/>
-      <c r="N28" s="25" t="n"/>
-      <c r="O28" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="25" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q28" s="25" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R28" s="24" t="n"/>
-      <c r="S28" s="31" t="n"/>
-      <c r="T28" s="10" t="n"/>
-    </row>
-    <row r="29" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="A29" s="24" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000427</t>
-        </is>
-      </c>
-      <c r="B29" s="25" t="inlineStr">
-        <is>
-          <t>Independent e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C29" s="26" t="inlineStr">
-        <is>
-          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
-        </is>
-      </c>
-      <c r="D29" s="25" t="inlineStr">
-        <is>
-          <t>E-cigarette industry</t>
-        </is>
-      </c>
-      <c r="E29" s="25" t="n"/>
-      <c r="F29" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="G29" s="25" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H29" s="25" t="n"/>
-      <c r="I29" s="25" t="n"/>
-      <c r="J29" s="25" t="n"/>
-      <c r="K29" s="24" t="n"/>
-      <c r="L29" s="25" t="n"/>
-      <c r="M29" s="25" t="n"/>
-      <c r="N29" s="25" t="n"/>
-      <c r="O29" s="25" t="n"/>
-      <c r="P29" s="25" t="n"/>
-      <c r="Q29" s="25" t="n"/>
-      <c r="R29" s="25" t="n"/>
-      <c r="S29" s="24" t="n"/>
-      <c r="T29" s="10" t="n"/>
-    </row>
-    <row r="30" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="A30" s="10" t="n"/>
-      <c r="B30" s="20" t="inlineStr">
-        <is>
-          <t>Independent legal advisory institution</t>
-        </is>
-      </c>
-      <c r="G30" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="Q30" s="20" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S30" s="16" t="n"/>
-      <c r="T30" s="10" t="n"/>
-    </row>
-    <row r="31" ht="32" customFormat="1" customHeight="1" s="20">
-      <c r="A31" s="13" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000428</t>
-        </is>
-      </c>
-      <c r="B31" s="17" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="C31" s="17" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
-        </is>
-      </c>
-      <c r="D31" s="17" t="inlineStr">
-        <is>
-          <t>Organisation aggregate</t>
-        </is>
-      </c>
-      <c r="E31" s="17" t="n"/>
-      <c r="F31" s="17" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="G31" s="17" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H31" s="14" t="n"/>
-      <c r="I31" s="17" t="n"/>
-      <c r="J31" s="17" t="n"/>
-      <c r="K31" s="17" t="n"/>
-      <c r="L31" s="17" t="n"/>
-      <c r="M31" s="17" t="n"/>
-      <c r="N31" s="17" t="n"/>
-      <c r="O31" s="17" t="n"/>
-      <c r="P31" s="17" t="n"/>
-      <c r="Q31" s="13" t="n"/>
-      <c r="R31" s="14" t="n"/>
-      <c r="S31" s="13" t="n"/>
-      <c r="T31" s="10" t="n"/>
-    </row>
-    <row r="32" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="B32" s="10" t="inlineStr">
-        <is>
-          <t>Irish Cancer Society</t>
-        </is>
-      </c>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="10" t="n"/>
-      <c r="E32" s="10" t="n"/>
-      <c r="F32" s="10" t="n"/>
-      <c r="G32" s="10" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H32" s="10" t="n"/>
-      <c r="I32" s="10" t="n"/>
-      <c r="J32" s="10" t="n"/>
-      <c r="K32" s="16" t="n"/>
-      <c r="L32" s="10" t="n"/>
-      <c r="M32" s="10" t="n"/>
-      <c r="N32" s="10" t="n"/>
-      <c r="O32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" s="10" t="n"/>
-      <c r="Q32" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T32" s="10" t="n"/>
-    </row>
-    <row r="33" ht="32" customFormat="1" customHeight="1" s="20">
-      <c r="A33" s="22" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000429</t>
-        </is>
-      </c>
-      <c r="B33" s="32" t="inlineStr">
-        <is>
-          <t>Marketer of product</t>
-        </is>
-      </c>
-      <c r="C33" s="32" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
-        </is>
-      </c>
-      <c r="D33" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Organisation </t>
-        </is>
-      </c>
-      <c r="E33" s="32" t="n"/>
-      <c r="F33" s="32" t="n"/>
-      <c r="G33" s="32" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H33" s="32" t="n"/>
-      <c r="I33" s="32" t="n"/>
-      <c r="J33" s="32" t="n"/>
-      <c r="K33" s="32" t="n"/>
-      <c r="L33" s="32" t="n"/>
-      <c r="M33" s="32" t="n"/>
-      <c r="N33" s="32" t="n"/>
-      <c r="O33" s="32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P33" s="32" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q33" s="32" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R33" s="32" t="n"/>
-      <c r="S33" s="32" t="n"/>
-      <c r="T33" s="10" t="n"/>
-    </row>
-    <row r="34" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="B34" s="10" t="inlineStr">
-        <is>
-          <t>National Health Service</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="n"/>
-      <c r="D34" s="10" t="n"/>
-      <c r="E34" s="10" t="n"/>
-      <c r="F34" s="10" t="n"/>
-      <c r="G34" s="10" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H34" s="10" t="n"/>
-      <c r="I34" s="10" t="n"/>
-      <c r="J34" s="10" t="n"/>
-      <c r="K34" s="16" t="n"/>
-      <c r="L34" s="10" t="n"/>
-      <c r="M34" s="10" t="n"/>
-      <c r="N34" s="10" t="n"/>
-      <c r="O34" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="10" t="n"/>
-      <c r="Q34" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T34" s="10" t="n"/>
-    </row>
-    <row r="35" ht="32" customFormat="1" customHeight="1" s="20">
-      <c r="B35" s="10" t="inlineStr">
-        <is>
-          <t>National Institute for Health and Care Excellence</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="n"/>
-      <c r="D35" s="10" t="n"/>
-      <c r="E35" s="10" t="n"/>
-      <c r="F35" s="10" t="n"/>
-      <c r="G35" s="10" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H35" s="10" t="n"/>
-      <c r="I35" s="10" t="n"/>
-      <c r="J35" s="10" t="inlineStr">
-        <is>
-          <t>NICE</t>
-        </is>
-      </c>
-      <c r="K35" s="16" t="n"/>
-      <c r="L35" s="10" t="n"/>
-      <c r="M35" s="10" t="n"/>
-      <c r="N35" s="10" t="n"/>
-      <c r="O35" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="10" t="n"/>
-      <c r="Q35" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="B36" s="10" t="inlineStr">
-        <is>
-          <t>NIHR</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="n"/>
-      <c r="D36" s="10" t="n"/>
-      <c r="E36" s="10" t="n"/>
-      <c r="F36" s="10" t="n"/>
-      <c r="G36" s="10" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H36" s="10" t="n"/>
-      <c r="I36" s="10" t="n"/>
-      <c r="J36" s="10" t="n"/>
-      <c r="K36" s="16" t="n"/>
-      <c r="L36" s="10" t="n"/>
-      <c r="M36" s="10" t="n"/>
-      <c r="N36" s="10" t="n"/>
-      <c r="O36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="10" t="n"/>
-      <c r="Q36" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="16" customFormat="1" customHeight="1" s="20">
-      <c r="A37" s="13" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000430</t>
-        </is>
-      </c>
-      <c r="B37" s="17" t="inlineStr">
-        <is>
-          <t>Oragnisation aggregate</t>
-        </is>
-      </c>
-      <c r="C37" s="17" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations.</t>
-        </is>
-      </c>
-      <c r="D37" s="17" t="inlineStr">
-        <is>
-          <t>Object aggregate</t>
-        </is>
-      </c>
-      <c r="E37" s="17" t="n"/>
-      <c r="F37" s="17" t="n"/>
-      <c r="G37" s="17" t="n"/>
-      <c r="H37" s="14" t="n"/>
-      <c r="I37" s="17" t="n"/>
-      <c r="J37" s="17" t="n"/>
-      <c r="K37" s="17" t="n"/>
-      <c r="L37" s="17" t="n"/>
-      <c r="M37" s="17" t="n"/>
-      <c r="N37" s="17" t="n"/>
-      <c r="O37" s="17" t="n"/>
-      <c r="P37" s="17" t="n"/>
-      <c r="Q37" s="13" t="n"/>
-      <c r="R37" s="14" t="n"/>
-      <c r="S37" s="13" t="n"/>
-    </row>
-    <row r="38" ht="64" customFormat="1" customHeight="1" s="20">
-      <c r="A38" s="13" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000431</t>
-        </is>
-      </c>
-      <c r="B38" s="17" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="C38" s="17" t="inlineStr">
-        <is>
-          <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="D38" s="17" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
-      <c r="E38" s="17" t="n"/>
-      <c r="F38" s="17" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="G38" s="17" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H38" s="14" t="inlineStr">
-        <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="I38" s="17" t="inlineStr">
-        <is>
-          <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
-        </is>
-      </c>
-      <c r="J38" s="17" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="K38" s="17" t="n"/>
-      <c r="L38" s="17" t="n"/>
-      <c r="M38" s="17" t="n"/>
-      <c r="N38" s="17" t="n"/>
-      <c r="O38" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="17" t="n"/>
-      <c r="Q38" s="13" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R38" s="14" t="n"/>
-      <c r="S38" s="13" t="n"/>
-    </row>
-    <row r="39" ht="32" customFormat="1" customHeight="1" s="20">
-      <c r="B39" s="20" t="inlineStr">
-        <is>
-          <t>Organization for Economic Co-operaion and Development</t>
-        </is>
-      </c>
-      <c r="G39" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="J39" s="20" t="inlineStr">
-        <is>
-          <t>OECD</t>
-        </is>
-      </c>
-      <c r="Q39" s="20" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="32" customFormat="1" customHeight="1" s="20">
-      <c r="A40" s="32" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000432</t>
-        </is>
-      </c>
-      <c r="B40" s="23" t="inlineStr">
-        <is>
-          <t>Philip Morris International</t>
-        </is>
-      </c>
-      <c r="C40" s="32" t="inlineStr">
-        <is>
-          <t>A tobacco company based in Switzerland with the business identification number CHE-105.950.151.</t>
-        </is>
-      </c>
-      <c r="D40" s="32" t="inlineStr">
-        <is>
-          <t>Tobacco company</t>
-        </is>
-      </c>
-      <c r="E40" s="32" t="n"/>
-      <c r="F40" s="32" t="n"/>
-      <c r="G40" s="32" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H40" s="32" t="inlineStr">
-        <is>
-          <t>https://www.pmi.com/company-information</t>
-        </is>
-      </c>
-      <c r="I40" s="32" t="n"/>
-      <c r="J40" s="32" t="inlineStr">
-        <is>
-          <t>PMI</t>
-        </is>
-      </c>
-      <c r="K40" s="32" t="n"/>
-      <c r="L40" s="32" t="n"/>
-      <c r="M40" s="32" t="n"/>
-      <c r="N40" s="32" t="n"/>
-      <c r="O40" s="32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P40" s="32" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q40" s="32" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R40" s="32" t="n"/>
-      <c r="S40" s="32" t="n"/>
-    </row>
-    <row r="41" ht="32" customFormat="1" customHeight="1" s="32">
-      <c r="A41" s="32" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
-      <c r="B41" s="22" t="inlineStr">
-        <is>
-          <t>Retailer of product</t>
-        </is>
-      </c>
-      <c r="C41" s="22" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
-      <c r="D41" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Organisation </t>
-        </is>
-      </c>
-      <c r="E41" s="22" t="n"/>
-      <c r="F41" s="22" t="n"/>
-      <c r="G41" s="22" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H41" s="22" t="n"/>
-      <c r="I41" s="22" t="n"/>
-      <c r="J41" s="22" t="n"/>
-      <c r="K41" s="23" t="n"/>
-      <c r="L41" s="22" t="n"/>
-      <c r="M41" s="22" t="n"/>
-      <c r="N41" s="22" t="n"/>
-      <c r="O41" s="22" t="n"/>
-      <c r="P41" s="22" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q41" s="22" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R41" s="22" t="n"/>
-      <c r="S41" s="33" t="n"/>
-    </row>
-    <row r="42" ht="16" customFormat="1" customHeight="1" s="32">
-      <c r="A42" s="10" t="n"/>
-      <c r="B42" s="20" t="inlineStr">
-        <is>
-          <t>Statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C42" s="20" t="n"/>
-      <c r="D42" s="20" t="n"/>
-      <c r="E42" s="20" t="n"/>
-      <c r="F42" s="20" t="n"/>
-      <c r="G42" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H42" s="20" t="n"/>
-      <c r="I42" s="20" t="n"/>
-      <c r="J42" s="20" t="n"/>
-      <c r="K42" s="20" t="n"/>
-      <c r="L42" s="20" t="n"/>
-      <c r="M42" s="20" t="n"/>
-      <c r="N42" s="20" t="n"/>
-      <c r="O42" s="20" t="n"/>
-      <c r="P42" s="20" t="n"/>
-      <c r="Q42" s="20" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R42" s="10" t="n"/>
-      <c r="S42" s="16" t="n"/>
-    </row>
-    <row r="43" ht="32" customFormat="1" customHeight="1" s="32">
-      <c r="A43" s="22" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
-      <c r="B43" s="32" t="inlineStr">
-        <is>
-          <t>Supplier of product</t>
-        </is>
-      </c>
-      <c r="C43" s="32" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
-      <c r="D43" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Organisation </t>
-        </is>
-      </c>
-      <c r="E43" s="32" t="n"/>
-      <c r="F43" s="32" t="n"/>
-      <c r="G43" s="32" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H43" s="32" t="n"/>
-      <c r="I43" s="32" t="n"/>
-      <c r="J43" s="32" t="n"/>
-      <c r="K43" s="32" t="n"/>
-      <c r="L43" s="32" t="n"/>
-      <c r="M43" s="32" t="n"/>
-      <c r="N43" s="32" t="n"/>
-      <c r="O43" s="32" t="n"/>
-      <c r="P43" s="32" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q43" s="32" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R43" s="22" t="n"/>
-      <c r="S43" s="32" t="n"/>
-    </row>
-    <row r="44" ht="16" customFormat="1" customHeight="1" s="32">
-      <c r="A44" s="10" t="n"/>
-      <c r="B44" s="20" t="inlineStr">
-        <is>
-          <t>The American Cancer Society</t>
-        </is>
-      </c>
-      <c r="C44" s="20" t="n"/>
-      <c r="D44" s="20" t="n"/>
-      <c r="E44" s="20" t="n"/>
-      <c r="F44" s="20" t="n"/>
-      <c r="G44" s="20" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H44" s="20" t="n"/>
-      <c r="I44" s="20" t="n"/>
-      <c r="J44" s="20" t="n"/>
-      <c r="K44" s="20" t="n"/>
-      <c r="L44" s="20" t="n"/>
-      <c r="M44" s="20" t="n"/>
-      <c r="N44" s="20" t="n"/>
-      <c r="O44" s="20" t="n"/>
-      <c r="P44" s="20" t="n"/>
-      <c r="Q44" s="20" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R44" s="10" t="n"/>
-      <c r="S44" s="16" t="n"/>
-    </row>
-    <row r="45" ht="48" customFormat="1" customHeight="1" s="32">
-      <c r="A45" s="20" t="n"/>
-      <c r="B45" s="19" t="inlineStr">
-        <is>
-          <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
-        </is>
-      </c>
-      <c r="C45" s="19" t="n"/>
-      <c r="D45" s="19" t="n"/>
-      <c r="E45" s="19" t="n"/>
-      <c r="F45" s="19" t="n"/>
-      <c r="G45" s="19" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H45" s="19" t="n"/>
-      <c r="I45" s="19" t="n"/>
-      <c r="J45" s="19" t="n"/>
-      <c r="K45" s="19" t="n"/>
-      <c r="L45" s="19" t="n"/>
-      <c r="M45" s="19" t="n"/>
-      <c r="N45" s="19" t="n"/>
-      <c r="O45" s="19" t="n"/>
-      <c r="P45" s="19" t="n"/>
-      <c r="Q45" s="19" t="n"/>
-      <c r="R45" s="10" t="n"/>
-      <c r="S45" s="20" t="n"/>
-      <c r="T45" s="22" t="n"/>
-    </row>
-    <row r="46" ht="80" customFormat="1" customHeight="1" s="32">
-      <c r="A46" s="28" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000435</t>
-        </is>
-      </c>
-      <c r="B46" s="29" t="inlineStr">
-        <is>
-          <t>Tobacco company</t>
-        </is>
-      </c>
-      <c r="C46" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
-        </is>
-      </c>
-      <c r="D46" s="28" t="inlineStr">
-        <is>
-          <t>Tobacco Industry</t>
-        </is>
-      </c>
-      <c r="E46" s="28" t="n"/>
-      <c r="F46" s="28" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="G46" s="28" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H46" s="28" t="n"/>
-      <c r="I46" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J46" s="28" t="n"/>
-      <c r="K46" s="30" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
-      <c r="L46" s="28" t="n"/>
-      <c r="M46" s="28" t="n"/>
-      <c r="N46" s="28" t="n"/>
-      <c r="O46" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="28" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q46" s="28" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R46" s="27" t="n"/>
-      <c r="S46" s="27" t="n"/>
-    </row>
-    <row r="47" ht="16" customFormat="1" customHeight="1" s="32">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000436</t>
-        </is>
-      </c>
-      <c r="B47" s="22" t="inlineStr">
-        <is>
-          <t>Tobacco Industry</t>
-        </is>
-      </c>
-      <c r="C47" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
-        </is>
-      </c>
-      <c r="D47" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Industry </t>
-        </is>
-      </c>
-      <c r="E47" s="22" t="n"/>
-      <c r="F47" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="G47" s="22" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H47" s="22" t="n"/>
-      <c r="I47" s="22" t="n"/>
-      <c r="J47" s="22" t="n"/>
-      <c r="K47" s="23" t="n"/>
-      <c r="L47" s="22" t="n"/>
-      <c r="M47" s="22" t="n"/>
-      <c r="N47" s="22" t="n"/>
-      <c r="O47" s="22" t="n"/>
-      <c r="P47" s="22" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q47" s="22" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R47" s="22" t="n"/>
-      <c r="S47" s="23" t="n"/>
-      <c r="T47" s="22" t="n"/>
-    </row>
-    <row r="48" ht="16" customFormat="1" customHeight="1" s="32">
-      <c r="A48" s="28" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000437</t>
-        </is>
-      </c>
-      <c r="B48" s="29" t="inlineStr">
-        <is>
-          <t>Tobacco retail outlet</t>
-        </is>
-      </c>
-      <c r="C48" s="29" t="inlineStr">
-        <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
-        </is>
-      </c>
-      <c r="D48" s="28" t="inlineStr">
-        <is>
-          <t>Tobacco retailer</t>
-        </is>
-      </c>
-      <c r="E48" s="28" t="n"/>
-      <c r="F48" s="28" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="G48" s="28" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H48" s="28" t="n"/>
-      <c r="I48" s="28" t="n"/>
-      <c r="J48" s="28" t="n"/>
-      <c r="K48" s="30" t="n"/>
-      <c r="L48" s="28" t="n"/>
-      <c r="M48" s="28" t="n"/>
-      <c r="N48" s="28" t="n"/>
-      <c r="O48" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="28" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q48" s="28" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R48" s="28" t="n"/>
-      <c r="S48" s="34" t="n"/>
-      <c r="U48" s="22" t="n"/>
-    </row>
-    <row r="49" ht="16" customFormat="1" customHeight="1" s="32">
-      <c r="A49" s="28" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000438</t>
-        </is>
-      </c>
-      <c r="B49" s="29" t="inlineStr">
-        <is>
-          <t>Tobacco retailer</t>
-        </is>
-      </c>
-      <c r="C49" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
-        </is>
-      </c>
-      <c r="D49" s="28" t="inlineStr">
-        <is>
-          <t>Tobacco company</t>
-        </is>
-      </c>
-      <c r="E49" s="28" t="n"/>
-      <c r="F49" s="28" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="G49" s="28" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H49" s="28" t="n"/>
-      <c r="I49" s="28" t="n"/>
-      <c r="J49" s="28" t="n"/>
-      <c r="K49" s="30" t="n"/>
-      <c r="L49" s="28" t="n"/>
-      <c r="M49" s="28" t="n"/>
-      <c r="N49" s="28" t="n"/>
-      <c r="O49" s="28" t="n"/>
-      <c r="P49" s="28" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q49" s="28" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R49" s="27" t="n"/>
-      <c r="S49" s="27" t="n"/>
-    </row>
-    <row r="50" ht="16" customFormat="1" customHeight="1" s="32">
-      <c r="A50" s="28" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000439</t>
-        </is>
-      </c>
-      <c r="B50" s="29" t="inlineStr">
-        <is>
-          <t>Tobacconist</t>
-        </is>
-      </c>
-      <c r="C50" s="29" t="inlineStr">
-        <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
-        </is>
-      </c>
-      <c r="D50" s="28" t="inlineStr">
-        <is>
-          <t>Tobacco retailer</t>
-        </is>
-      </c>
-      <c r="E50" s="28" t="n"/>
-      <c r="F50" s="28" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="G50" s="28" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="H50" s="28" t="n"/>
-      <c r="I50" s="28" t="n"/>
-      <c r="J50" s="28" t="n"/>
-      <c r="K50" s="30" t="n"/>
-      <c r="L50" s="28" t="n"/>
-      <c r="M50" s="28" t="n"/>
-      <c r="N50" s="28" t="n"/>
-      <c r="O50" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="28" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="Q50" s="28" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R50" s="28" t="n"/>
-      <c r="S50" s="27" t="n"/>
-    </row>
-    <row r="51" customFormat="1" s="32">
-      <c r="A51" s="10" t="n"/>
-      <c r="B51" s="20" t="n"/>
-      <c r="C51" s="20" t="n"/>
-      <c r="D51" s="20" t="n"/>
-      <c r="E51" s="20" t="n"/>
-      <c r="F51" s="20" t="n"/>
-      <c r="G51" s="20" t="n"/>
-      <c r="H51" s="20" t="n"/>
-      <c r="I51" s="20" t="n"/>
-      <c r="J51" s="20" t="n"/>
-      <c r="K51" s="20" t="n"/>
-      <c r="L51" s="20" t="n"/>
-      <c r="M51" s="20" t="n"/>
-      <c r="N51" s="20" t="n"/>
-      <c r="O51" s="20" t="n"/>
-      <c r="P51" s="20" t="n"/>
-      <c r="Q51" s="20" t="n"/>
-      <c r="R51" s="10" t="n"/>
-      <c r="S51" s="16" t="n"/>
-    </row>
-    <row r="52" customFormat="1" s="20">
-      <c r="B52" s="16" t="n"/>
-    </row>
-    <row r="53" customFormat="1" s="20">
-      <c r="B53" s="16" t="n"/>
-    </row>
-    <row r="54" customFormat="1" s="20">
-      <c r="B54" s="16" t="n"/>
-    </row>
-    <row r="55" customFormat="1" s="20">
-      <c r="B55" s="16" t="n"/>
-    </row>
-    <row r="56" customFormat="1" s="20">
-      <c r="B56" s="16" t="n"/>
-    </row>
-    <row r="57" customFormat="1" s="20">
-      <c r="B57" s="16" t="n"/>
-    </row>
-    <row r="58" customFormat="1" s="20">
-      <c r="B58" s="16" t="n"/>
-    </row>
-    <row r="59" customFormat="1" s="20">
-      <c r="A59" s="16" t="n"/>
-      <c r="B59" s="16" t="n"/>
-      <c r="S59" s="19" t="n"/>
-    </row>
-    <row r="60" customFormat="1" s="20">
-      <c r="B60" s="16" t="n"/>
-      <c r="R60" s="19" t="n"/>
-    </row>
-    <row r="61" customFormat="1" s="20">
-      <c r="B61" s="16" t="n"/>
-      <c r="C61" s="19" t="n"/>
-      <c r="D61" s="19" t="n"/>
-      <c r="E61" s="19" t="n"/>
-      <c r="F61" s="19" t="n"/>
-      <c r="G61" s="19" t="n"/>
-      <c r="H61" s="19" t="n"/>
-      <c r="I61" s="19" t="n"/>
-      <c r="J61" s="19" t="n"/>
-      <c r="K61" s="19" t="n"/>
-      <c r="L61" s="19" t="n"/>
-      <c r="M61" s="19" t="n"/>
-      <c r="N61" s="19" t="n"/>
-      <c r="O61" s="19" t="n"/>
-      <c r="P61" s="19" t="n"/>
-      <c r="Q61" s="19" t="n"/>
-    </row>
-    <row r="62" customFormat="1" s="20">
-      <c r="B62" s="16" t="n"/>
-      <c r="C62" s="19" t="n"/>
-      <c r="D62" s="19" t="n"/>
-      <c r="E62" s="19" t="n"/>
-      <c r="F62" s="19" t="n"/>
-      <c r="G62" s="19" t="n"/>
-      <c r="H62" s="19" t="n"/>
-      <c r="I62" s="19" t="n"/>
-      <c r="J62" s="19" t="n"/>
-      <c r="K62" s="19" t="n"/>
-      <c r="L62" s="19" t="n"/>
-      <c r="M62" s="19" t="n"/>
-      <c r="N62" s="19" t="n"/>
-      <c r="O62" s="19" t="n"/>
-      <c r="P62" s="19" t="n"/>
-      <c r="Q62" s="19" t="n"/>
-      <c r="R62" s="19" t="n"/>
-    </row>
-    <row r="63" customFormat="1" s="20">
-      <c r="A63" s="19" t="n"/>
-      <c r="B63" s="16" t="n"/>
-      <c r="C63" s="19" t="n"/>
-      <c r="D63" s="19" t="n"/>
-      <c r="E63" s="19" t="n"/>
-      <c r="F63" s="19" t="n"/>
-      <c r="G63" s="19" t="n"/>
-      <c r="H63" s="19" t="n"/>
-      <c r="I63" s="19" t="n"/>
-      <c r="J63" s="19" t="n"/>
-      <c r="K63" s="19" t="n"/>
-      <c r="L63" s="19" t="n"/>
-      <c r="M63" s="19" t="n"/>
-      <c r="N63" s="19" t="n"/>
-      <c r="O63" s="19" t="n"/>
-      <c r="P63" s="19" t="n"/>
-      <c r="Q63" s="19" t="n"/>
-      <c r="R63" s="19" t="n"/>
-      <c r="S63" s="19" t="n"/>
-    </row>
-    <row r="64" customFormat="1" s="20">
-      <c r="B64" s="16" t="n"/>
-      <c r="C64" s="19" t="n"/>
-      <c r="D64" s="19" t="n"/>
-      <c r="E64" s="19" t="n"/>
-      <c r="F64" s="19" t="n"/>
-      <c r="G64" s="19" t="n"/>
-      <c r="H64" s="19" t="n"/>
-      <c r="I64" s="19" t="n"/>
-      <c r="J64" s="19" t="n"/>
-      <c r="K64" s="19" t="n"/>
-      <c r="L64" s="19" t="n"/>
-      <c r="M64" s="19" t="n"/>
-      <c r="N64" s="19" t="n"/>
-      <c r="O64" s="19" t="n"/>
-      <c r="P64" s="19" t="n"/>
-      <c r="Q64" s="19" t="n"/>
-      <c r="R64" s="19" t="n"/>
+      <c r="R50" s="23" t="n"/>
+      <c r="S50" s="22" t="n"/>
+    </row>
+    <row r="51" customFormat="1" s="27">
+      <c r="A51" s="8" t="n"/>
+      <c r="B51" s="16" t="n"/>
+      <c r="C51" s="16" t="n"/>
+      <c r="D51" s="16" t="n"/>
+      <c r="E51" s="16" t="n"/>
+      <c r="F51" s="16" t="n"/>
+      <c r="G51" s="16" t="n"/>
+      <c r="H51" s="16" t="n"/>
+      <c r="I51" s="16" t="n"/>
+      <c r="J51" s="16" t="n"/>
+      <c r="K51" s="16" t="n"/>
+      <c r="L51" s="16" t="n"/>
+      <c r="M51" s="16" t="n"/>
+      <c r="N51" s="16" t="n"/>
+      <c r="O51" s="16" t="n"/>
+      <c r="P51" s="16" t="n"/>
+      <c r="Q51" s="16" t="n"/>
+      <c r="R51" s="8" t="n"/>
+      <c r="S51" s="12" t="n"/>
+    </row>
+    <row r="52" customFormat="1" s="16">
+      <c r="B52" s="12" t="n"/>
+    </row>
+    <row r="53" customFormat="1" s="16">
+      <c r="B53" s="12" t="n"/>
+    </row>
+    <row r="54" customFormat="1" s="16">
+      <c r="B54" s="12" t="n"/>
+    </row>
+    <row r="55" customFormat="1" s="16">
+      <c r="B55" s="12" t="n"/>
+    </row>
+    <row r="56" customFormat="1" s="16">
+      <c r="B56" s="12" t="n"/>
+    </row>
+    <row r="57" customFormat="1" s="16">
+      <c r="B57" s="12" t="n"/>
+    </row>
+    <row r="58" customFormat="1" s="16">
+      <c r="B58" s="12" t="n"/>
+    </row>
+    <row r="59" customFormat="1" s="16">
+      <c r="A59" s="12" t="n"/>
+      <c r="B59" s="12" t="n"/>
+      <c r="S59" s="15" t="n"/>
+    </row>
+    <row r="60" customFormat="1" s="16">
+      <c r="B60" s="12" t="n"/>
+      <c r="R60" s="15" t="n"/>
+    </row>
+    <row r="61" customFormat="1" s="16">
+      <c r="B61" s="12" t="n"/>
+      <c r="C61" s="15" t="n"/>
+      <c r="D61" s="15" t="n"/>
+      <c r="E61" s="15" t="n"/>
+      <c r="F61" s="15" t="n"/>
+      <c r="G61" s="15" t="n"/>
+      <c r="H61" s="15" t="n"/>
+      <c r="I61" s="15" t="n"/>
+      <c r="J61" s="15" t="n"/>
+      <c r="K61" s="15" t="n"/>
+      <c r="L61" s="15" t="n"/>
+      <c r="M61" s="15" t="n"/>
+      <c r="N61" s="15" t="n"/>
+      <c r="O61" s="15" t="n"/>
+      <c r="P61" s="15" t="n"/>
+      <c r="Q61" s="15" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="16">
+      <c r="B62" s="12" t="n"/>
+      <c r="C62" s="15" t="n"/>
+      <c r="D62" s="15" t="n"/>
+      <c r="E62" s="15" t="n"/>
+      <c r="F62" s="15" t="n"/>
+      <c r="G62" s="15" t="n"/>
+      <c r="H62" s="15" t="n"/>
+      <c r="I62" s="15" t="n"/>
+      <c r="J62" s="15" t="n"/>
+      <c r="K62" s="15" t="n"/>
+      <c r="L62" s="15" t="n"/>
+      <c r="M62" s="15" t="n"/>
+      <c r="N62" s="15" t="n"/>
+      <c r="O62" s="15" t="n"/>
+      <c r="P62" s="15" t="n"/>
+      <c r="Q62" s="15" t="n"/>
+      <c r="R62" s="15" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="16">
+      <c r="A63" s="15" t="n"/>
+      <c r="B63" s="12" t="n"/>
+      <c r="C63" s="15" t="n"/>
+      <c r="D63" s="15" t="n"/>
+      <c r="E63" s="15" t="n"/>
+      <c r="F63" s="15" t="n"/>
+      <c r="G63" s="15" t="n"/>
+      <c r="H63" s="15" t="n"/>
+      <c r="I63" s="15" t="n"/>
+      <c r="J63" s="15" t="n"/>
+      <c r="K63" s="15" t="n"/>
+      <c r="L63" s="15" t="n"/>
+      <c r="M63" s="15" t="n"/>
+      <c r="N63" s="15" t="n"/>
+      <c r="O63" s="15" t="n"/>
+      <c r="P63" s="15" t="n"/>
+      <c r="Q63" s="15" t="n"/>
+      <c r="R63" s="15" t="n"/>
+      <c r="S63" s="15" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="16">
+      <c r="B64" s="12" t="n"/>
+      <c r="C64" s="15" t="n"/>
+      <c r="D64" s="15" t="n"/>
+      <c r="E64" s="15" t="n"/>
+      <c r="F64" s="15" t="n"/>
+      <c r="G64" s="15" t="n"/>
+      <c r="H64" s="15" t="n"/>
+      <c r="I64" s="15" t="n"/>
+      <c r="J64" s="15" t="n"/>
+      <c r="K64" s="15" t="n"/>
+      <c r="L64" s="15" t="n"/>
+      <c r="M64" s="15" t="n"/>
+      <c r="N64" s="15" t="n"/>
+      <c r="O64" s="15" t="n"/>
+      <c r="P64" s="15" t="n"/>
+      <c r="Q64" s="15" t="n"/>
+      <c r="R64" s="15" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="16" t="n"/>
+      <c r="B65" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2960,346 +2923,347 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col width="27.1640625" customWidth="1" style="5" min="1" max="1"/>
-    <col width="50.5" customWidth="1" style="5" min="2" max="2"/>
-    <col width="93" customWidth="1" style="5" min="3" max="3"/>
-    <col width="45.1640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="9.1640625" customWidth="1" style="5" min="5" max="16384"/>
+    <col width="27.1640625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="50.5" customWidth="1" style="4" min="2" max="2"/>
+    <col width="93" customWidth="1" style="4" min="3" max="3"/>
+    <col width="45.1640625" customWidth="1" style="4" min="4" max="4"/>
+    <col width="9.1640625" customWidth="1" style="4" min="5" max="5"/>
+    <col width="9.1640625" customWidth="1" style="4" min="6" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customFormat="1" customHeight="1" s="6">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="16" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Column heading</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Instructions for completion</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Further information</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="48" customFormat="1" customHeight="1" s="5">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="48" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Unique identifier for the entity.</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>If this has an entry, the entity in its entirety is imported from an external ontology. The entry gives the ontology, a colon, then the ID from within that ontology. Addiction Ontology IDs will be generated using a system to generate unique IDs.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="32" customFormat="1" customHeight="1" s="5">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="32" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>A word or phrase signifying the entity.</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Labels should be as self-explanatory as possible and rely as little as possible on context to descern what they refer to. This will often mean using combinations of words rather than single words.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="64" customFormat="1" customHeight="1" s="5">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="64" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>A phrase that aims to uniquely and unambiguously pick out a specific entity or class of entity (a specific type of thing) regardless of how that entity is usually referred to in language.</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Should be written in the form: [Parent class] that [distinguishing characteristics] or similar. Follow instructions in 'Further information' field. If the entity is imported from another ontology repeat the definition from that ontology. If an entity definition is being used from another ontology but the entity is not being used in its entirety, either verbatim or modified, show the entity ID in the source field.</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.qeios.com/read/article/468 </t>
         </is>
       </c>
     </row>
-    <row r="5" ht="32" customFormat="1" customHeight="1" s="5">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="32" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Parent</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>The label of the entity that is the immediate parent class of the entity in question.</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>A parent class (also called 'super class') is the next one up in a taxonomy. If the parent class is drawn from another ontology, use the label from that ontology and then the entity ID from that ontology.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="32" customFormat="1" customHeight="1" s="5">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="32" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>BFO entity</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>The label of the entity in Basic Formal Ontology (BFO) that is the upper level class to which the entity in question belongs.</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Use the lowest BFO entity label that applies.</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>https://drive.google.com/file/d/1TPxyNR4MRZwEca8O3NMRvDvFOnL28-RO/view?usp=sharing</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="32" customFormat="1" customHeight="1" s="5">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="32" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>AO sub-ontology</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>One of eight sub-ontologies that make up AddictO that this entity belongs to.</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>These are: Human being, Population, Human behaviour (and within this Product use behaviour), Product, Organisation, Environmental system, Intervention, Research activity</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="32" customFormat="1" customHeight="1" s="5">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="32" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Definition source</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>The URL for a definition source, if the definition has been drawn from a source such as a dictionary that is not another ontology.</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>If the source is an ontology then put the ID of the entity in the IDA field. If it is another source give a URL to that source.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="16" customFormat="1" customHeight="1" s="5">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Any comments that help to explain the choices made. </t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Use this column if an external definition has been used but it has been modified for this ontology.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="32" customFormat="1" customHeight="1" s="5">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="32" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Labels that could be used instead of the one chosen for this entity.</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>If there is more than one, use semi-colon to separate them.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="32" customFormat="1" customHeight="1" s="5">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="32" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>An elaboration of the defition to help people understand.</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Give any explanations thayt will help users to distinguish this class from related classes, including stating what is not included if it helps.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="16" customFormat="1" customHeight="1" s="5">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Examples of usage</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Examples of use of the entity in a sentence.</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Give examples of usage.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="32" customFormat="1" customHeight="1" s="5">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="32" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Has a 1 only if the entty is one of the eight upper level entities in this ontology.</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Leave blank.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="48" customFormat="1" customHeight="1" s="5">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="14" ht="48" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>Fuzzy set</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>A fuzzy set is one that does not have clear boundaries e.g. adolescence, addiction.</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Put a 1 in this field if this is a fuzzy set. Fuzzy sets are most often ones that turn a quantity into a category. Applies when the definition includes an undefined quantity. e.g. 'Addiction' is a fuzzy set because the definition refers to 'significant harm' and 'strong motovation' in which 'significant' and 'strong' refer to quantities without setting fixed boundaries.</t>
         </is>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>E-CigO</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Whether the entity is to be included in the E-Cigarette ontology.</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Enter 1 if this entity belongs in the E-Cigarette ontology. Otherwise leave blank.</t>
         </is>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Proposer</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Initials of whoever is proposing this entity.</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>This will be used when we have a potentially large number of people contributing.</t>
         </is>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>Curation status</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>The status the the entity has in terms of the approval process.</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Options are: Proposed, Discussed, Under review, Approved</t>
         </is>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>Why fuzzy</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Why this entity is considered to be a fuzzy set.</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Explain the basis for the decision to regard this as a fuzzy set.</t>
         </is>
       </c>
     </row>
     <row r="19" ht="32" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>The ID or URI of an equivalent or near entity that is not included in this ontology.</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Enter an ontology entoty ID or a URI.</t>
         </is>
@@ -3335,66 +3299,67 @@
     <col width="25.5" customWidth="1" style="1" min="10" max="10"/>
     <col width="17.33203125" customWidth="1" style="1" min="11" max="11"/>
     <col width="18.33203125" customWidth="1" style="1" min="12" max="12"/>
-    <col width="9.1640625" customWidth="1" style="1" min="13" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="1" min="13" max="13"/>
+    <col width="9.1640625" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customFormat="1" customHeight="1" s="6">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="16" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Parent relation</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Definition source</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Domain</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Range</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>Examples of usage</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>Used in upper level</t>
         </is>
@@ -3629,58 +3594,58 @@
     <col width="43.33203125" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="7">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" customFormat="1" s="6">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Shape Library</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Page ID</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Contained By</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Line Source</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Line Destination</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Source Arrow</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Destination Arrow</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Text Area 1</t>
         </is>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3004B3E4-0F69-BE41-A3EA-A97027DE4EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879134D3-3846-A649-9929-3689CFC465FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="500" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Definition</t>
   </si>
   <si>
+    <t>Definition source</t>
+  </si>
+  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -43,46 +46,49 @@
     <t>AO sub-ontology</t>
   </si>
   <si>
-    <t>Definition source</t>
-  </si>
-  <si>
     <t>Curator note</t>
   </si>
   <si>
     <t>Synonyms</t>
   </si>
   <si>
+    <t>Cross reference</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
     <t>Examples of usage</t>
   </si>
   <si>
+    <t>E-CigO</t>
+  </si>
+  <si>
     <t>Fuzzy set</t>
   </si>
   <si>
-    <t>E-CigO</t>
+    <t>Why fuzzy</t>
+  </si>
+  <si>
+    <t>Curator</t>
   </si>
   <si>
     <t>Curation status</t>
   </si>
   <si>
-    <t>Why fuzzy</t>
-  </si>
-  <si>
-    <t>Cross reference</t>
+    <t>To be reviewed by</t>
   </si>
   <si>
     <t>ADDICTO:0000411</t>
   </si>
   <si>
-    <t>Alcohol Industy</t>
-  </si>
-  <si>
     <t>An aggregate of organizations that manufacture or market alcoholic beverages.</t>
   </si>
   <si>
-    <t xml:space="preserve">Industry </t>
+    <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industry </t>
   </si>
   <si>
     <t>Role</t>
@@ -91,415 +97,412 @@
     <t>Organisation</t>
   </si>
   <si>
-    <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
+    <t>Discussed</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>analytical laboratory</t>
+  </si>
+  <si>
+    <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000412</t>
+  </si>
+  <si>
+    <t>A foundation based in the US with the company number xxxx.</t>
+  </si>
+  <si>
+    <t>organisation</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000413</t>
+  </si>
+  <si>
+    <t>A tobacco company based in London with the company number 03407696.</t>
+  </si>
+  <si>
+    <t>https://www.bat.com/group/sites/uk__9d9kcy.nsf/vwPagesWebLive/DO89KHEK</t>
+  </si>
+  <si>
+    <t>tobacco company</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>cancer prevention organization</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis industry </t>
+  </si>
+  <si>
+    <t>ADDICTO:0000415</t>
+  </si>
+  <si>
+    <t>An industry in which the product is cannabis.</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000416</t>
+  </si>
+  <si>
+    <t>cannabis retail outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
+  </si>
+  <si>
+    <t>cannabis retailer</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis retailer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
+  </si>
+  <si>
+    <t>The US government agency that has responsibility for health protection.</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000418</t>
+  </si>
+  <si>
+    <t>convenience store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000419</t>
+  </si>
+  <si>
+    <t>e-cigarette company</t>
+  </si>
+  <si>
+    <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+  </si>
+  <si>
+    <t>e-cigarette industry</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000420</t>
+  </si>
+  <si>
+    <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
+  </si>
+  <si>
+    <t>E-Cig industry</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000421</t>
+  </si>
+  <si>
+    <t>e-cigarette retailer</t>
+  </si>
+  <si>
+    <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
+  </si>
+  <si>
+    <t>E-Cig shop; E-cig Industry; E-Cig merchant</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000422</t>
+  </si>
+  <si>
+    <t>e-cigarette shop</t>
+  </si>
+  <si>
+    <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000423</t>
+  </si>
+  <si>
+    <t>e-liquid company</t>
+  </si>
+  <si>
+    <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+  </si>
+  <si>
+    <t>e-cigarette organisation</t>
+  </si>
+  <si>
+    <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000424</t>
+  </si>
+  <si>
+    <t>gambling industry</t>
+  </si>
+  <si>
+    <t>An industry in which the services provided relate to gambling activities.</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000425</t>
+  </si>
+  <si>
+    <t>government agency</t>
+  </si>
+  <si>
+    <t>A governmental organisation set up for a purpose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organisation </t>
+  </si>
+  <si>
+    <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000426</t>
+  </si>
+  <si>
+    <t>independent e-cigarette company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+  </si>
+  <si>
+    <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000427</t>
+  </si>
+  <si>
+    <t>independent e-cigarette industry</t>
+  </si>
+  <si>
+    <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
+  </si>
+  <si>
+    <t>independent legal advisory institution</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000428</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
+  </si>
+  <si>
+    <t>organisation aggregate</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000429</t>
+  </si>
+  <si>
+    <t>marketer of product</t>
+  </si>
+  <si>
+    <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000430</t>
+  </si>
+  <si>
+    <t>An aggregate of organisations.</t>
+  </si>
+  <si>
+    <t>object aggregate</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000431</t>
+  </si>
+  <si>
+    <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+  </si>
+  <si>
+    <t>OBI:0000245</t>
+  </si>
+  <si>
+    <t>material entity</t>
+  </si>
+  <si>
+    <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000432</t>
+  </si>
+  <si>
+    <t>A tobacco company based in Switzerland with the business identification number CHE-105.950.151.</t>
+  </si>
+  <si>
+    <t>https://www.pmi.com/company-information</t>
+  </si>
+  <si>
+    <t>PMI</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000433</t>
+  </si>
+  <si>
+    <t>retailer of product</t>
+  </si>
+  <si>
+    <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+  </si>
+  <si>
+    <t>statutory child protection agency</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000434</t>
+  </si>
+  <si>
+    <t>supplier of product</t>
+  </si>
+  <si>
+    <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+  </si>
+  <si>
+    <t>tobacco Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An industry in which the product is tobacco. </t>
+  </si>
+  <si>
+    <t>ADDICTO:0000437</t>
+  </si>
+  <si>
+    <t>tobacco retail outlet</t>
+  </si>
+  <si>
+    <t>A tobacco retailer that has a physical outlet.</t>
+  </si>
+  <si>
+    <t>tobacco retailer</t>
+  </si>
+  <si>
+    <t>ADDICTO:0000438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+  </si>
+  <si>
+    <t>ADDICTO:0000439</t>
+  </si>
+  <si>
+    <t>tobacconist</t>
+  </si>
+  <si>
+    <t>alcohol industy</t>
   </si>
   <si>
     <t>American Cancer Society</t>
   </si>
   <si>
-    <t>Proposed</t>
-  </si>
-  <si>
-    <t>Analytical laboratory</t>
-  </si>
-  <si>
-    <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000412</t>
-  </si>
-  <si>
     <t>Bloomberg Philanthropies</t>
   </si>
   <si>
-    <t>A foundation based in the US with the company number xxxx.</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000413</t>
-  </si>
-  <si>
     <t>British American Tobacco P.L.C.</t>
   </si>
   <si>
-    <t>A tobacco company based in London with the company number 03407696.</t>
-  </si>
-  <si>
-    <t>Tobacco company</t>
-  </si>
-  <si>
-    <t>https://www.bat.com/group/sites/uk__9d9kcy.nsf/vwPagesWebLive/DO89KHEK</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>Canadian Cancer Society</t>
   </si>
   <si>
     <t>Cancer Council Australia</t>
   </si>
   <si>
-    <t>Cancer prevention organization</t>
-  </si>
-  <si>
     <t>Cancer Research UK</t>
   </si>
   <si>
     <t>Cancer Society New Zealand</t>
   </si>
   <si>
-    <t>ADDICTO:0000414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannabis company </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannabis industry </t>
-  </si>
-  <si>
-    <t>ADDICTO:0000415</t>
-  </si>
-  <si>
-    <t>An industry in which the product is cannabis.</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000416</t>
-  </si>
-  <si>
-    <t>Cannabis retail outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
-  </si>
-  <si>
-    <t>Cannabis retailer</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannabis retailer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
-  </si>
-  <si>
     <t>Centers for Disease Control</t>
   </si>
   <si>
-    <t>The US government agency that has responsibility for health protection.</t>
-  </si>
-  <si>
-    <t>Government agency</t>
-  </si>
-  <si>
-    <t>CDC</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Christchurch Health</t>
   </si>
   <si>
-    <t>ADDICTO:0000418</t>
-  </si>
-  <si>
-    <t>Convenience store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000419</t>
-  </si>
-  <si>
-    <t>E-cigarette company</t>
-  </si>
-  <si>
-    <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
-  </si>
-  <si>
-    <t>E-cigarette industry</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000420</t>
-  </si>
-  <si>
-    <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
-  </si>
-  <si>
-    <t>E-Cig industry</t>
-  </si>
-  <si>
-    <t>Discussed</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000421</t>
-  </si>
-  <si>
-    <t>E-cigarette retailer</t>
-  </si>
-  <si>
-    <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
-  </si>
-  <si>
-    <t>E-Cig shop; E-cig Industry; E-Cig merchant</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000422</t>
-  </si>
-  <si>
-    <t>E-cigarette shop</t>
-  </si>
-  <si>
-    <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000423</t>
-  </si>
-  <si>
-    <t>E-liquid company</t>
-  </si>
-  <si>
-    <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
-  </si>
-  <si>
-    <t>E-cigarette organisation</t>
-  </si>
-  <si>
     <t>European Medicines Monitoring Agency</t>
   </si>
   <si>
     <t>Food and Drug Administration</t>
   </si>
   <si>
-    <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000424</t>
-  </si>
-  <si>
-    <t>Gambling industry</t>
-  </si>
-  <si>
-    <t>An industry in which the services provided relate to gambling activities.</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000425</t>
-  </si>
-  <si>
-    <t>A governmental organisation set up for a purpose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisation </t>
-  </si>
-  <si>
-    <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000426</t>
-  </si>
-  <si>
-    <t>Independent e-cigarette company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
-  </si>
-  <si>
-    <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000427</t>
-  </si>
-  <si>
-    <t>Independent e-cigarette industry</t>
-  </si>
-  <si>
-    <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
-  </si>
-  <si>
-    <t>Independent legal advisory institution</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000428</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
-  </si>
-  <si>
-    <t>Organisation aggregate</t>
-  </si>
-  <si>
     <t>Irish Cancer Society</t>
   </si>
   <si>
-    <t>ADDICTO:0000429</t>
-  </si>
-  <si>
-    <t>Marketer of product</t>
-  </si>
-  <si>
-    <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
-  </si>
-  <si>
     <t>National Health Service</t>
   </si>
   <si>
     <t>National Institute for Health and Care Excellence</t>
   </si>
   <si>
-    <t>NICE</t>
-  </si>
-  <si>
     <t>NIHR</t>
   </si>
   <si>
-    <t>ADDICTO:0000430</t>
-  </si>
-  <si>
-    <t>An aggregate of organisations.</t>
-  </si>
-  <si>
-    <t>object aggregate</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000431</t>
-  </si>
-  <si>
-    <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-  </si>
-  <si>
-    <t>material entity</t>
-  </si>
-  <si>
-    <t>OBI:0000245</t>
-  </si>
-  <si>
-    <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>Organization for Economic Co-operaion and Development</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000432</t>
-  </si>
-  <si>
     <t>Philip Morris International</t>
   </si>
   <si>
-    <t>A tobacco company based in Switzerland with the business identification number CHE-105.950.151.</t>
-  </si>
-  <si>
-    <t>https://www.pmi.com/company-information</t>
-  </si>
-  <si>
-    <t>PMI</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000433</t>
-  </si>
-  <si>
-    <t>Retailer of product</t>
-  </si>
-  <si>
-    <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-  </si>
-  <si>
-    <t>Statutory child protection agency</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000434</t>
-  </si>
-  <si>
-    <t>Supplier of product</t>
-  </si>
-  <si>
-    <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-  </si>
-  <si>
     <t>The American Cancer Society</t>
   </si>
   <si>
     <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
-  </si>
-  <si>
-    <t>Tobacco Industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An industry in which the product is tobacco. </t>
-  </si>
-  <si>
-    <t>ADDICTO:0000437</t>
-  </si>
-  <si>
-    <t>Tobacco retail outlet</t>
-  </si>
-  <si>
-    <t>A tobacco retailer that has a physical outlet.</t>
-  </si>
-  <si>
-    <t>Tobacco retailer</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
-  </si>
-  <si>
-    <t>ADDICTO:0000439</t>
-  </si>
-  <si>
-    <t>Tobacconist</t>
-  </si>
-  <si>
-    <t>Curator</t>
-  </si>
-  <si>
-    <t>To be reviewed by</t>
   </si>
 </sst>
 </file>
@@ -928,9 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -953,8 +956,8 @@
     <col min="17" max="17" width="9.1640625" style="9" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="9" customWidth="1"/>
     <col min="19" max="19" width="24.6640625" style="9" customWidth="1"/>
-    <col min="20" max="21" width="9.1640625" style="9" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="9"/>
+    <col min="20" max="22" width="9.1640625" style="9" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="32" customHeight="1">
@@ -968,19 +971,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
@@ -989,55 +992,55 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1" ht="48" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1049,35 +1052,35 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1089,29 +1092,29 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1119,7 +1122,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1127,24 +1130,24 @@
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="32" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21" t="s">
@@ -1154,7 +1157,7 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -1162,109 +1165,109 @@
         <v>38</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P9" s="2"/>
       <c r="R9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="B10" s="10" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" s="21" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="21" t="s">
         <v>38</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -1278,28 +1281,28 @@
         <v>38</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -1313,28 +1316,28 @@
         <v>38</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -1348,52 +1351,52 @@
         <v>38</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="S16" s="14"/>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="16" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1401,7 +1404,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1413,27 +1416,27 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -1449,30 +1452,30 @@
         <v>38</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
@@ -1488,36 +1491,36 @@
         <v>38</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" s="16" customFormat="1" ht="32" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1531,33 +1534,33 @@
         <v>38</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="32" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -1571,29 +1574,29 @@
         <v>38</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="16" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -1609,29 +1612,29 @@
         <v>38</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="16" customHeight="1">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -1647,13 +1650,13 @@
         <v>38</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="32" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1661,7 +1664,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1675,28 +1678,28 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1709,31 +1712,31 @@
       <c r="O25" s="4"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="S25" s="2"/>
     </row>
     <row r="26" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="22"/>
@@ -1747,34 +1750,34 @@
         <v>38</v>
       </c>
       <c r="R26" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1" ht="160" customHeight="1">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
       <c r="L27" s="25" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7">
@@ -1782,39 +1785,39 @@
       </c>
       <c r="O27" s="7"/>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" s="10" customFormat="1" ht="48" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="M28" s="14"/>
       <c r="N28" s="14">
@@ -1826,30 +1829,30 @@
         <v>38</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -1866,37 +1869,37 @@
     <row r="30" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K30" s="6"/>
       <c r="R30" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" s="10" customFormat="1" ht="32" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1912,7 +1915,7 @@
     </row>
     <row r="32" spans="1:19" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1920,7 +1923,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1932,28 +1935,28 @@
       <c r="O32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:20" s="10" customFormat="1" ht="32" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -1961,7 +1964,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
@@ -1969,13 +1972,13 @@
         <v>38</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:20" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1983,7 +1986,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1995,13 +1998,13 @@
       <c r="O34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:20" s="10" customFormat="1" ht="32" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2009,11 +2012,11 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="2"/>
@@ -2023,12 +2026,12 @@
       <c r="O35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2036,7 +2039,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2048,22 +2051,22 @@
       <c r="O36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="10" customFormat="1" ht="16" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2081,32 +2084,32 @@
     </row>
     <row r="38" spans="1:20" s="10" customFormat="1" ht="64" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="7"/>
@@ -2118,53 +2121,53 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="3" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="10" customFormat="1" ht="32" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="10" customFormat="1" ht="32" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="21" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
@@ -2172,27 +2175,27 @@
         <v>38</v>
       </c>
       <c r="R40" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="21" customFormat="1" ht="32" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -2206,13 +2209,13 @@
         <v>38</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="21" customFormat="1" ht="16" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="10" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -2220,7 +2223,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -2232,37 +2235,37 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="21" customFormat="1" ht="32" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P43" s="11"/>
       <c r="Q43" s="21" t="s">
         <v>38</v>
       </c>
       <c r="R43" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="21" customFormat="1" ht="16" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="10" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -2270,7 +2273,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -2282,13 +2285,13 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="21" customFormat="1" ht="48" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="9" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -2296,7 +2299,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2312,32 +2315,32 @@
     </row>
     <row r="46" spans="1:20" s="21" customFormat="1" ht="80" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="16"/>
       <c r="L46" s="19" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M46" s="17"/>
       <c r="N46" s="17">
@@ -2349,29 +2352,29 @@
         <v>38</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="21" customFormat="1" ht="16" customHeight="1">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -2385,30 +2388,30 @@
         <v>38</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S47" s="11"/>
     </row>
     <row r="48" spans="1:20" s="21" customFormat="1" ht="16" customHeight="1">
       <c r="A48" s="17" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
@@ -2424,30 +2427,30 @@
         <v>38</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T48" s="11"/>
     </row>
     <row r="49" spans="1:18" s="21" customFormat="1" ht="16" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="17"/>
@@ -2461,29 +2464,29 @@
         <v>38</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="21" customFormat="1" ht="16" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
@@ -2499,7 +2502,7 @@
         <v>38</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="21" customFormat="1">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,27 +530,41 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,11 +582,13 @@
           <t>A foundation based in the US with the company number xxxx.</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -583,6 +599,11 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>1</t>
@@ -591,6 +612,7 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>JH</t>
@@ -601,6 +623,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,16 +651,22 @@
           <t>tobacco company</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>1</t>
@@ -646,6 +675,7 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t>SC</t>
@@ -656,101 +686,158 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>Cancer Research UK</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
+      <c r="A9" s="2" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Centers for Disease Control</t>
@@ -761,8 +848,8 @@
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>government agency</t>
@@ -778,15 +865,15 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I9" s="2" t="n"/>
+      <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
       <c r="N9" s="2" t="inlineStr">
         <is>
           <t>1</t>
@@ -795,7 +882,7 @@
       <c r="O9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="2" t="n"/>
+      <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>All</t>
@@ -806,56 +893,84 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S9" s="2" t="n"/>
+      <c r="S9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
+      <c r="A12" s="2" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Food and Drug Administration</t>
@@ -866,8 +981,8 @@
           <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr">
         <is>
           <t>government agency</t>
@@ -883,18 +998,18 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="2" t="n"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="2" t="n"/>
+      <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>All</t>
@@ -905,132 +1020,200 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n"/>
+      <c r="S12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>Irish Cancer Society</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>National Health Service</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1058,16 +1241,22 @@
           <t>tobacco company</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>1</t>
@@ -1076,6 +1265,7 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1086,47 +1276,74 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1137,6 +1354,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1164,7 +1382,7 @@
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F21" s="2" t="n"/>
+      <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1175,27 +1393,28 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
       <c r="N21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
+      <c r="P21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr"/>
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n"/>
+      <c r="S21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -1206,45 +1425,71 @@
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>cancer prevention organization</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1262,22 +1507,31 @@
           <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1288,6 +1542,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1305,22 +1560,31 @@
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1331,6 +1595,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1348,22 +1613,31 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1374,6 +1648,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1391,22 +1666,31 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1417,6 +1701,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1434,22 +1719,31 @@
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1460,6 +1754,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1477,11 +1772,13 @@
           <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1492,12 +1789,18 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
         <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1508,6 +1811,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -1525,13 +1829,13 @@
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F30" s="2" t="n"/>
+      <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1552,16 +1856,16 @@
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
       <c r="N30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P30" s="2" t="n"/>
+      <c r="P30" s="2" t="inlineStr"/>
       <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1572,7 +1876,7 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S30" s="2" t="n"/>
+      <c r="S30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1590,11 +1894,13 @@
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1605,17 +1911,22 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>E-Cig shop; E-cig Industry; E-Cig merchant</t>
-        </is>
-      </c>
+          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1626,6 +1937,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1643,11 +1955,13 @@
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1658,12 +1972,18 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1674,6 +1994,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1691,11 +2012,13 @@
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1706,12 +2029,18 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
         <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1722,6 +2051,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1739,22 +2069,31 @@
           <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1765,6 +2104,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -1782,13 +2122,13 @@
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F35" s="2" t="n"/>
+      <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1799,22 +2139,22 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="M35" s="2" t="n"/>
+      <c r="M35" s="2" t="inlineStr"/>
       <c r="N35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P35" s="2" t="n"/>
+      <c r="P35" s="2" t="inlineStr"/>
       <c r="Q35" s="2" t="inlineStr">
         <is>
           <t>All</t>
@@ -1825,7 +2165,7 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S35" s="2" t="n"/>
+      <c r="S35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -1843,13 +2183,13 @@
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F36" s="2" t="n"/>
+      <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1860,22 +2200,22 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="M36" s="2" t="n"/>
+      <c r="M36" s="2" t="inlineStr"/>
       <c r="N36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="O36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P36" s="2" t="n"/>
+      <c r="P36" s="2" t="inlineStr"/>
       <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1886,7 +2226,7 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n"/>
+      <c r="S36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1904,11 +2244,13 @@
           <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1919,12 +2261,18 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1935,372 +2283,457 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
+          <t>independent e-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>e-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000428</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>industry</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>ADDICTO:0000428</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>organisation aggregate</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>ADDICTO:0000429</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>marketer of product</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="inlineStr">
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000431</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="K41" s="2" t="n"/>
-      <c r="L41" s="2" t="n"/>
-      <c r="M41" s="2" t="n"/>
-      <c r="N41" s="2" t="n">
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2" t="n"/>
-      <c r="Q41" s="2" t="n"/>
-      <c r="R41" s="2" t="inlineStr">
+      <c r="O42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S41" s="2" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000430</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="S42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>ADDICTO:0000430</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>organisation aggregate</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>An aggregate of organisations.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>ADDICTO:0000433</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
-        </is>
-      </c>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2311,31 +2744,34 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
-        </is>
-      </c>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
-        </is>
-      </c>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2343,22 +2779,18 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2369,28 +2801,31 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
-        </is>
-      </c>
+          <t>tobacco Industry</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2401,12 +2836,26 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2417,28 +2866,31 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>tobacco retail outlet</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>tobacco company</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2449,12 +2901,18 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2465,54 +2923,121 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>ADDICTO:0000438</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>tobacco company</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>ADDICTO:0000439</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>tobacconist</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="inlineStr">
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -64,74 +64,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -530,41 +462,27 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,13 +500,11 @@
           <t>A foundation based in the US with the company number xxxx.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -599,11 +515,6 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>1</t>
@@ -612,7 +523,6 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>JH</t>
@@ -623,7 +533,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -651,22 +560,16 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>1</t>
@@ -675,7 +578,6 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t>SC</t>
@@ -686,155 +588,98 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>Cancer Research UK</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr"/>
@@ -896,78 +741,50 @@
       <c r="S9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr"/>
@@ -1023,197 +840,129 @@
       <c r="S12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>Irish Cancer Society</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>National Health Service</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1241,22 +990,16 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>1</t>
@@ -1265,7 +1008,6 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1276,74 +1018,47 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
-      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1354,7 +1069,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1414,7 +1128,6 @@
       <c r="S21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -1425,71 +1138,45 @@
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>cancer prevention organization</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1507,31 +1194,22 @@
           <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1542,7 +1220,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1560,31 +1237,22 @@
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1595,7 +1263,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1613,31 +1280,22 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1648,7 +1306,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1666,31 +1323,22 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1701,7 +1349,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1719,31 +1366,22 @@
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1754,7 +1392,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1772,13 +1409,11 @@
           <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1789,18 +1424,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
         <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1811,7 +1440,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -1894,13 +1522,11 @@
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1911,22 +1537,17 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
         <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
-      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1937,7 +1558,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1955,13 +1575,11 @@
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1972,18 +1590,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1994,7 +1606,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2012,13 +1623,11 @@
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2029,18 +1638,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
         <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2051,7 +1654,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2069,31 +1671,22 @@
           <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
-      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2104,7 +1697,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2244,13 +1836,11 @@
           <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2261,18 +1851,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
-      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
           <t>JH</t>
@@ -2283,10 +1867,13 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000829</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>independent e-cigarette retailer</t>
@@ -2297,13 +1884,11 @@
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2314,20 +1899,14 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
         <v>1</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2338,44 +1917,29 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2393,13 +1957,11 @@
           <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2410,18 +1972,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
           <t>JH</t>
@@ -2432,7 +1988,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2450,24 +2005,16 @@
           <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>1</t>
@@ -2476,7 +2023,6 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
-      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2487,7 +2033,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2570,27 +2115,17 @@
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
           <t>JH</t>
@@ -2601,7 +2136,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2619,31 +2153,22 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
-      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2654,44 +2179,29 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2709,31 +2219,22 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
-      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2744,7 +2245,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2762,13 +2262,11 @@
           <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2779,18 +2277,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
-      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2801,7 +2293,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2819,13 +2310,11 @@
           <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>tobacco Industry</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2841,21 +2330,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
-      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2866,7 +2351,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2884,13 +2368,11 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2901,18 +2383,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
-      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2923,7 +2399,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2941,13 +2416,11 @@
           <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2958,18 +2431,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
-      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2980,7 +2447,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2998,13 +2464,11 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3015,18 +2479,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>1</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
-      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3037,7 +2495,6 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -64,6 +64,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,27 +530,41 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -500,11 +582,13 @@
           <t>A foundation based in the US with the company number xxxx.</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -515,14 +599,18 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>JH</t>
@@ -533,6 +621,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,24 +649,29 @@
           <t>tobacco company</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t>SC</t>
@@ -588,98 +682,175 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>Cancer Research UK</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A charity that is focused on cancer research within the UK with a company number 4355631.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">charity </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CRUK </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="b">
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr"/>
@@ -719,10 +890,8 @@
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="N9" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>0</v>
@@ -741,50 +910,78 @@
       <c r="S9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr"/>
@@ -840,32 +1037,80 @@
       <c r="S12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>Irish Cancer Society</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">charity </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NIHR</t>
+          <t>National Health Service</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A medical and health care service that is publicly funded to provide care for people in the UK. </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">medical and health care service </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -873,96 +1118,160 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>NHS</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>National Health Service</t>
-        </is>
-      </c>
+          <t>National Institute for Health and Care Excellence</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NICE</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>National Institute for Health and Care Excellence</t>
-        </is>
-      </c>
+          <t xml:space="preserve">National Institute of Health Research </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NICE</t>
-        </is>
-      </c>
+          <t>NIHR</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -990,24 +1299,29 @@
           <t>tobacco company</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1018,47 +1332,74 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1069,6 +1410,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1128,6 +1470,7 @@
       <c r="S21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -1138,45 +1481,71 @@
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>cancer prevention organization</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1194,22 +1563,31 @@
           <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1220,6 +1598,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1237,22 +1616,31 @@
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1263,6 +1651,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1280,22 +1669,31 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1306,6 +1704,7 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1323,22 +1722,31 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1349,26 +1757,30 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000418</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>convenience store</t>
+          <t xml:space="preserve">charity </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
-        </is>
-      </c>
+          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>company</t>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Role</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1376,12 +1788,16 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="b">
         <v>1</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1392,44 +1808,49 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADDICTO:0000419</t>
+          <t>ADDICTO:0000418</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t>convenience store</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
         <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1440,146 +1861,153 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000419</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>e-cigarette company</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000420</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="n">
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr">
+      <c r="O31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S30" s="2" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000421</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>e-cigarette company</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="S31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ADDICTO:0000422</t>
+          <t>ADDICTO:0000421</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>e-cigarette shop</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
-        </is>
-      </c>
+          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
-        </is>
-      </c>
+          <t>e-cigarette company</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1590,12 +2018,22 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1606,28 +2044,31 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ADDICTO:0000423</t>
+          <t>ADDICTO:0000422</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>e-liquid company</t>
+          <t>e-cigarette shop</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
-        </is>
-      </c>
+          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>e-cigarette organisation</t>
-        </is>
-      </c>
+          <t>e-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1638,12 +2079,18 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
         <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1654,131 +2101,138 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>ADDICTO:0000423</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>e-liquid company</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>e-cigarette organisation</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>ADDICTO:0000424</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>gambling industry</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000425</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>government agency</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>A governmental organisation set up for a purpose.</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S35" s="2" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000426</t>
+          <t>ADDICTO:0000425</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>independent e-cigarette company</t>
+          <t>government agency</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+          <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
@@ -1797,7 +2251,7 @@
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr"/>
@@ -1810,431 +2264,548 @@
       <c r="P36" s="2" t="inlineStr"/>
       <c r="Q36" s="2" t="inlineStr">
         <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000426</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>independent e-cigarette company</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette company</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S36" s="2" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000427</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>independent e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="S37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>ADDICTO:0000427</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>independent e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>ADDICTO:0000829</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>independent e-cigarette retailer</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="N38" t="b">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000428</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>industry</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>ADDICTO:0000428</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>organisation aggregate</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>ADDICTO:0000429</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>marketer of product</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>medical and health care service</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000431</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="n">
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
-      <c r="R42" s="2" t="inlineStr">
+      <c r="O44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S42" s="2" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="S44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>ADDICTO:0000430</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>retailer of product</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
       <c r="R45" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ADDICTO:0000434</t>
+          <t>ADDICTO:0000433</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>supplier of product</t>
+          <t>retailer of product</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2245,102 +2816,86 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000436</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
-        </is>
-      </c>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2351,31 +2906,34 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
-        </is>
-      </c>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2383,12 +2941,18 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2399,28 +2963,31 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>tobacco company</t>
-        </is>
-      </c>
+          <t>tobacco Industry</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2431,12 +2998,26 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2447,16 +3028,17 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2464,11 +3046,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2479,12 +3063,18 @@
           <t>Organisation</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>1</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2495,6 +3085,121 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="S51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000438</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>tobacco company</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,7 +773,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">charity </t>
+          <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">charity </t>
+          <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1514,14 +1514,26 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cancer prevention organization</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t xml:space="preserve">cancer charity </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A charity which specifically raises income for the purpose of research and treatment of cancer. </t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">charity </t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1532,14 +1544,16 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1548,27 +1562,15 @@
       <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000414</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
-        </is>
-      </c>
+          <t>cancer prevention organization</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cannabis industry </t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1588,11 +1590,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1603,23 +1601,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ADDICTO:0000415</t>
+          <t>ADDICTO:0000414</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis industry </t>
+          <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>An industry in which the product is cannabis.</t>
+          <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1656,23 +1654,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ADDICTO:0000416</t>
+          <t>ADDICTO:0000415</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cannabis retail outlet</t>
+          <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
+          <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cannabis retailer</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1709,23 +1707,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADDICTO:0000417</t>
+          <t>ADDICTO:0000416</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis retailer </t>
+          <t>cannabis retail outlet</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
+          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
+          <t>cannabis retailer</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1760,29 +1758,29 @@
       <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000417</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">charity </t>
+          <t xml:space="preserve">cannabis retailer </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
+          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1793,10 +1791,12 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -1811,29 +1811,29 @@
       <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000418</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>convenience store</t>
+          <t xml:space="preserve">charity </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>company</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1844,12 +1844,10 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="N29" t="b">
         <v>1</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -1866,31 +1864,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADDICTO:0000419</t>
+          <t>ADDICTO:0000418</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t>convenience store</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>e-cigarette industry</t>
+          <t>company</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1921,151 +1915,147 @@
       <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000419</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>e-cigarette company</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000420</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="n">
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr">
+      <c r="O32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S31" s="2" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000421</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>e-cigarette company</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ADDICTO:0000422</t>
+          <t>ADDICTO:0000421</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>e-cigarette shop</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
+          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette company</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2080,7 +2070,11 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2106,23 +2100,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ADDICTO:0000423</t>
+          <t>ADDICTO:0000422</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>e-liquid company</t>
+          <t>e-cigarette shop</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>e-cigarette organisation</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2163,27 +2157,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ADDICTO:0000424</t>
+          <t>ADDICTO:0000423</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>gambling industry</t>
+          <t>e-liquid company</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>An industry in which the services provided relate to gambling activities.</t>
+          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t>e-cigarette organisation</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2195,7 +2193,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2214,86 +2212,78 @@
       <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000425</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>government agency</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>A governmental organisation set up for a purpose.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000424</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>gambling industry</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>An industry in which the services provided relate to gambling activities.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000426</t>
+          <t>ADDICTO:0000425</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>independent e-cigarette company</t>
+          <t>government agency</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+          <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
@@ -2312,7 +2302,7 @@
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr"/>
@@ -2325,99 +2315,103 @@
       <c r="P37" s="2" t="inlineStr"/>
       <c r="Q37" s="2" t="inlineStr">
         <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000426</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>independent e-cigarette company</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette company</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="inlineStr"/>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S37" s="2" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000427</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>independent e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ADDICTO:0000829</t>
+          <t>ADDICTO:0000427</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>independent e-cigarette retailer</t>
+          <t>independent e-cigarette industry</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette industry</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2426,16 +2420,12 @@
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2443,7 +2433,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -2454,35 +2444,59 @@
       <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000829</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>independent legal advisory institution</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>independent e-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>e-cigarette retailer</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2491,33 +2505,17 @@
       <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000428</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>industry</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
-        </is>
-      </c>
+          <t>independent legal advisory institution</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2535,11 +2533,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2550,27 +2544,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ADDICTO:0000429</t>
+          <t>ADDICTO:0000428</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>marketer of product</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2582,7 +2580,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2590,7 +2588,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -2601,15 +2599,19 @@
       <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000429</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>medical and health care service</t>
+          <t>marketer of product</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2619,11 +2621,7 @@
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2634,10 +2632,12 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="b">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2652,148 +2652,146 @@
       <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>medical and health care service</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000431</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="n">
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="inlineStr"/>
-      <c r="R44" s="2" t="inlineStr">
+      <c r="O45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S44" s="2" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000430</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ADDICTO:0000433</t>
+          <t>ADDICTO:0000430</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+          <t>An aggregate of organisations.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2808,7 +2806,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -2819,15 +2817,27 @@
       <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000433</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -2847,7 +2857,11 @@
         <v>0</v>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2856,27 +2870,15 @@
       <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -2896,11 +2898,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2911,31 +2909,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2968,29 +2962,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2998,21 +2992,13 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3033,23 +3019,23 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3063,10 +3049,18 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>1</v>
@@ -3090,23 +3084,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3126,7 +3120,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3147,23 +3141,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000438</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3183,7 +3177,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3200,6 +3194,63 @@
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,78 +1413,78 @@
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000411</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>alcohol industy</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of organizations that manufacture or market alcoholic beverages.</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr"/>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alcohol change UK </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alcohol charity </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>analytical laboratory</t>
+          <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
+          <t xml:space="preserve">A charity which specifically raises income for the purpose of research and treatment of alcohol related problems. </t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">charity </t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1495,14 +1495,14 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1511,64 +1511,74 @@
       <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cancer charity </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A charity which specifically raises income for the purpose of research and treatment of cancer. </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">charity </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000411</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>alcohol industy</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>An aggregate of organizations that manufacture or market alcoholic beverages.</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cancer prevention organization</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>analytical laboratory</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1599,29 +1609,29 @@
       <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000414</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
+          <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
+          <t xml:space="preserve">A charity which specifically raises income for the purpose of research and treatment of cancer. </t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis industry </t>
+          <t xml:space="preserve">charity </t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1632,12 +1642,10 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1652,27 +1660,15 @@
       <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000415</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis industry </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>An industry in which the product is cannabis.</t>
-        </is>
-      </c>
+          <t>cancer prevention organization</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -1692,11 +1688,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1707,23 +1699,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADDICTO:0000416</t>
+          <t>ADDICTO:0000414</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cannabis retail outlet</t>
+          <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
+          <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cannabis retailer</t>
+          <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1760,23 +1752,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ADDICTO:0000417</t>
+          <t>ADDICTO:0000415</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis retailer </t>
+          <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
+          <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1811,29 +1803,29 @@
       <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000416</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">charity </t>
+          <t>cannabis retail outlet</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
+          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>cannabis retailer</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1844,10 +1836,12 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -1864,23 +1858,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADDICTO:0000418</t>
+          <t>ADDICTO:0000417</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>convenience store</t>
+          <t xml:space="preserve">cannabis retailer </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>company</t>
+          <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1896,7 +1890,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -1915,25 +1909,21 @@
       <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000419</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t xml:space="preserve">charity </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>e-cigarette industry</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1952,12 +1942,10 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="N31" t="b">
         <v>1</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
@@ -1972,90 +1960,78 @@
       <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000420</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>E-Cig industry</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000418</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>convenience store</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr">
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ADDICTO:0000421</t>
+          <t>ADDICTO:0000419</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette company</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
+          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t>e-cigarette industry</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2070,11 +2046,7 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2098,82 +2070,90 @@
       <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000422</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>e-cigarette shop</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000420</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>E-Cig industry</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
+      <c r="O34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ADDICTO:0000423</t>
+          <t>ADDICTO:0000421</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>e-liquid company</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>e-cigarette organisation</t>
+          <t>e-cigarette company</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2188,7 +2168,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2214,27 +2198,31 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ADDICTO:0000424</t>
+          <t>ADDICTO:0000422</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>gambling industry</t>
+          <t>e-cigarette shop</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>An industry in which the services provided relate to gambling activities.</t>
+          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2246,7 +2234,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2265,257 +2253,265 @@
       <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000423</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>e-liquid company</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>e-cigarette organisation</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000424</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gambling industry</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>An industry in which the services provided relate to gambling activities.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000425</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>government agency</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr">
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="n">
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr">
+      <c r="O39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S37" s="2" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="S39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000426</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>independent e-cigarette company</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="n">
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr">
+      <c r="O40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R38" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="S40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>ADDICTO:0000427</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>independent e-cigarette industry</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000829</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>independent e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>independent legal advisory institution</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2533,7 +2529,11 @@
         <v>0</v>
       </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2544,23 +2544,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ADDICTO:0000428</t>
+          <t>ADDICTO:0000829</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>independent e-cigarette retailer</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
+          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>organisation aggregate</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2575,12 +2575,16 @@
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2588,7 +2592,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -2599,27 +2603,15 @@
       <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000429</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>marketer of product</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
-        </is>
-      </c>
+          <t>independent legal advisory institution</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -2633,17 +2625,13 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2652,27 +2640,31 @@
       <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000428</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>medical and health care service</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2685,128 +2677,120 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000429</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>marketer of product</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000431</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
-        </is>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="inlineStr"/>
-      <c r="R45" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S45" s="2" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000430</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>organisation aggregate</t>
+          <t>medical and health care service</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>An aggregate of organisations.</t>
+          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -2817,75 +2801,95 @@
       <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>retailer of product</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000431</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2" t="inlineStr"/>
+      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000430</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>organisation aggregate</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>An aggregate of organisations.</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2898,7 +2902,11 @@
         <v>0</v>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2909,17 +2917,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ADDICTO:0000434</t>
+          <t>ADDICTO:0000433</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>supplier of product</t>
+          <t>retailer of product</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2960,33 +2968,17 @@
       <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000436</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3004,11 +2996,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3019,51 +3007,39 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3084,29 +3060,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3120,7 +3096,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3141,23 +3117,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3171,13 +3147,21 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3198,12 +3182,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3252,6 +3236,120 @@
       </c>
       <c r="S54" t="inlineStr"/>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000438</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>tobacco company</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">A charity which specifically raises income for the purpose of research and treatment of alcohol related problems. </t>
+          <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1491,7 +1491,11 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alcohol harm prevention organisation </t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1617,7 +1621,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">A charity which specifically raises income for the purpose of research and treatment of cancer. </t>
+          <t>A charity which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1638,7 +1642,11 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cancer prevention organisation </t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1660,15 +1668,27 @@
       <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000414</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cancer prevention organization</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t xml:space="preserve">cannabis company </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cannabis industry </t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -1688,7 +1708,11 @@
         <v>0</v>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1699,23 +1723,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ADDICTO:0000414</t>
+          <t>ADDICTO:0000415</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
+          <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
+          <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis industry </t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1752,23 +1776,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ADDICTO:0000415</t>
+          <t>ADDICTO:0000416</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis industry </t>
+          <t>cannabis retail outlet</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>An industry in which the product is cannabis.</t>
+          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t>cannabis retailer</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1805,23 +1829,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADDICTO:0000416</t>
+          <t>ADDICTO:0000417</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cannabis retail outlet</t>
+          <t xml:space="preserve">cannabis retailer </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
+          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cannabis retailer</t>
+          <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1856,29 +1880,29 @@
       <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000417</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis retailer </t>
+          <t xml:space="preserve">charity </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
+          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1889,12 +1913,10 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -1909,29 +1931,29 @@
       <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000418</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">charity </t>
+          <t>convenience store</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
+          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>company</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1942,10 +1964,12 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="b">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
@@ -1962,27 +1986,31 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ADDICTO:0000418</t>
+          <t>ADDICTO:0000419</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>convenience store</t>
+          <t>e-cigarette company</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>e-cigarette industry</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2013,147 +2041,151 @@
       <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000419</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000420</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>E-Cig industry</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000421</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>e-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000420</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>E-Cig industry</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ADDICTO:0000421</t>
+          <t>ADDICTO:0000422</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette shop</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
+          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2168,11 +2200,7 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2198,23 +2226,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ADDICTO:0000422</t>
+          <t>ADDICTO:0000423</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>e-cigarette shop</t>
+          <t>e-liquid company</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
+          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette organisation</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2255,31 +2283,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ADDICTO:0000423</t>
+          <t>ADDICTO:0000424</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>e-liquid company</t>
+          <t>gambling industry</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+          <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>e-cigarette organisation</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2291,7 +2315,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2310,78 +2334,86 @@
       <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000424</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>gambling industry</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>An industry in which the services provided relate to gambling activities.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000425</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>government agency</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>A governmental organisation set up for a purpose.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="inlineStr"/>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000425</t>
+          <t>ADDICTO:0000426</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>government agency</t>
+          <t>independent e-cigarette company</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A governmental organisation set up for a purpose.</t>
+          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>e-cigarette company</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
@@ -2400,7 +2432,7 @@
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
+          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr"/>
@@ -2413,7 +2445,7 @@
       <c r="P39" s="2" t="inlineStr"/>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
@@ -2424,92 +2456,88 @@
       <c r="S39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000426</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>independent e-cigarette company</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette company</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S40" s="2" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000427</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>independent e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ADDICTO:0000427</t>
+          <t>ADDICTO:0000829</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>independent e-cigarette industry</t>
+          <t>independent e-cigarette retailer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
+          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>e-cigarette industry</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2518,12 +2546,16 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2531,7 +2563,7 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -2542,59 +2574,35 @@
       <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000829</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>independent e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
-        </is>
-      </c>
+          <t>independent legal advisory institution</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>e-cigarette retailer</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2603,17 +2611,33 @@
       <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000428</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>independent legal advisory institution</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>organisation aggregate</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2631,7 +2655,11 @@
         <v>0</v>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2642,31 +2670,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ADDICTO:0000428</t>
+          <t>ADDICTO:0000429</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>marketer of product</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
+          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>organisation aggregate</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2678,7 +2702,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2686,7 +2710,7 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -2697,19 +2721,15 @@
       <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000429</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>marketer of product</t>
+          <t>medical and health care service</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2719,7 +2739,11 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2730,12 +2754,10 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="N45" t="b">
         <v>1</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -2750,146 +2772,148 @@
       <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>medical and health care service</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="b">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000431</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+      <c r="O46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2" t="inlineStr"/>
+      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000431</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
-        </is>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2" t="inlineStr"/>
-      <c r="Q47" s="2" t="inlineStr"/>
-      <c r="R47" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S47" s="2" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000430</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>organisation aggregate</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>An aggregate of organisations.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ADDICTO:0000430</t>
+          <t>ADDICTO:0000433</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>organisation aggregate</t>
+          <t>retailer of product</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>An aggregate of organisations.</t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2904,7 +2928,7 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -2915,27 +2939,15 @@
       <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>retailer of product</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2955,11 +2967,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2968,15 +2976,27 @@
       <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000434</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>supplier of product</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
@@ -2996,7 +3016,11 @@
         <v>0</v>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3007,27 +3031,31 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ADDICTO:0000434</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>supplier of product</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3060,29 +3088,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3090,13 +3118,21 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3117,23 +3153,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3147,18 +3183,10 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
         <v>1</v>
@@ -3182,23 +3210,23 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000438</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3218,7 +3246,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3239,23 +3267,23 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000439</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacconist</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3275,7 +3303,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3292,63 +3320,6 @@
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000439</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>tobacconist</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>tobacco retailer</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1586,7 +1586,11 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1604,7 +1608,11 @@
         <v>0</v>
       </c>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1690,7 +1698,11 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1743,7 +1755,11 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1796,7 +1812,11 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1849,7 +1869,11 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1953,7 +1977,11 @@
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2303,7 +2331,11 @@
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>Organisation</t>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,7 +796,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="b">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
@@ -1446,8 +1446,12 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1499,8 +1503,12 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1658,10 +1666,12 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="b">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1937,10 +1947,12 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="b">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2309,25 +2321,21 @@
       <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000424</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gambling industry</t>
+          <t xml:space="preserve">funder of research </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>An industry in which the services provided relate to gambling activities.</t>
+          <t>A role by an organisation or individual who participates in processes through which research is funded.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2342,16 +2350,18 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2366,86 +2376,82 @@
       <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000425</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>government agency</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>A governmental organisation set up for a purpose.</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000424</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gambling industry</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>An industry in which the services provided relate to gambling activities.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000426</t>
+          <t>ADDICTO:0000425</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>independent e-cigarette company</t>
+          <t>government agency</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+          <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
@@ -2464,7 +2470,7 @@
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr"/>
@@ -2477,99 +2483,103 @@
       <c r="P39" s="2" t="inlineStr"/>
       <c r="Q39" s="2" t="inlineStr">
         <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000426</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>independent e-cigarette company</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette company</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="R39" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000427</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>independent e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ADDICTO:0000829</t>
+          <t>ADDICTO:0000427</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>independent e-cigarette retailer</t>
+          <t>independent e-cigarette industry</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette industry</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2578,16 +2588,12 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2595,7 +2601,7 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -2606,35 +2612,59 @@
       <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000829</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>independent legal advisory institution</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>independent e-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>e-cigarette retailer</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2643,33 +2673,17 @@
       <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000428</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>industry</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
-        </is>
-      </c>
+          <t>independent legal advisory institution</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2687,11 +2701,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2702,27 +2712,31 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ADDICTO:0000429</t>
+          <t>ADDICTO:0000428</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>marketer of product</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2734,7 +2748,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2742,7 +2756,7 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -2753,15 +2767,19 @@
       <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000429</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>medical and health care service</t>
+          <t>marketer of product</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2771,11 +2789,7 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2786,10 +2800,12 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="b">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -2804,148 +2820,148 @@
       <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>medical and health care service</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000431</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="n">
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="2" t="inlineStr"/>
-      <c r="Q46" s="2" t="inlineStr"/>
-      <c r="R46" s="2" t="inlineStr">
+      <c r="O47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2" t="inlineStr"/>
+      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="S46" s="2" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000430</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations.</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ADDICTO:0000433</t>
+          <t>ADDICTO:0000430</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+          <t>An aggregate of organisations.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2960,7 +2976,7 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -2971,15 +2987,27 @@
       <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000433</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2999,7 +3027,11 @@
         <v>0</v>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3008,27 +3040,15 @@
       <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
@@ -3048,11 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3063,31 +3079,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3098,8 +3110,8 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
-        <v>0</v>
+      <c r="N51" t="b">
+        <v>1</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3120,29 +3132,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3150,21 +3162,13 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3185,23 +3189,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3215,10 +3219,18 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
         <v>1</v>
@@ -3242,23 +3254,23 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3278,7 +3290,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3299,23 +3311,23 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000438</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3335,7 +3347,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3352,6 +3364,63 @@
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -669,7 +669,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>supplier of product</t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -905,7 +905,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">government agency </t>
+        </is>
+      </c>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -924,7 +928,7 @@
       <c r="Q9" s="2" t="inlineStr"/>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>All; SC</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -1039,7 +1043,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">government agency </t>
+        </is>
+      </c>
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr"/>
@@ -1054,7 +1062,7 @@
       <c r="Q12" s="2" t="inlineStr"/>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>All; SC</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
@@ -1349,7 +1357,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1623,7 +1631,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
@@ -1793,7 +1801,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1855,7 +1863,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -2093,9 +2101,17 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product </t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>shop; local shop; local store</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2151,7 +2167,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -2209,7 +2229,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
@@ -2275,7 +2299,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; retailer of product </t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2337,7 +2365,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retailer of product </t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -2395,7 +2427,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product  </t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2631,9 +2667,17 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
+        </is>
+      </c>
       <c r="L40" s="2" t="inlineStr"/>
       <c r="M40" s="2" t="inlineStr">
         <is>
@@ -2693,14 +2737,22 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vape industry; independent vape industry </t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="O41" t="b">
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -2708,7 +2760,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; SC</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2751,7 +2803,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retailer of product </t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -3337,7 +3393,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -3403,7 +3463,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retailer of product </t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -3461,7 +3525,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
@@ -3519,7 +3587,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,8 +574,8 @@
       <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="n">
-        <v>0</v>
+      <c r="P2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">funder of research </t>
+          <t>grant agency</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
@@ -746,8 +746,8 @@
       <c r="M5" s="2" t="inlineStr"/>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="n">
-        <v>0</v>
+      <c r="P5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>0</v>
@@ -786,8 +786,8 @@
       <c r="M6" s="2" t="inlineStr"/>
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="n">
-        <v>0</v>
+      <c r="P6" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q6" s="2" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">funder of research </t>
+          <t xml:space="preserve">grant agency </t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
@@ -890,8 +890,8 @@
       <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="n">
-        <v>0</v>
+      <c r="P8" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>0</v>
@@ -919,7 +919,11 @@
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">government agency </t>
+        </is>
+      </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
           <t>government agency</t>
@@ -1063,7 +1067,11 @@
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr"/>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">government agency </t>
+        </is>
+      </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
           <t>government agency</t>
@@ -1081,7 +1089,7 @@
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">government agency </t>
+          <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr"/>
@@ -1141,7 +1149,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">funder of research </t>
+          <t xml:space="preserve">grant agency </t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr"/>
@@ -1357,7 +1365,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">funder of research </t>
+          <t xml:space="preserve">grant agency </t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
@@ -1521,7 +1529,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">funder of research </t>
+          <t xml:space="preserve">grant agency </t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr"/>
@@ -1530,8 +1538,8 @@
       <c r="M20" s="2" t="inlineStr"/>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="n">
-        <v>0</v>
+      <c r="P20" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
         <v>0</v>
@@ -1681,7 +1689,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">funder of research </t>
+          <t xml:space="preserve">grant agency  </t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
@@ -2607,21 +2615,25 @@
       <c r="V37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr"/>
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000424</t>
+        </is>
+      </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">funder of research </t>
+          <t>gambling industry</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A role by an organisation or individual who participates in processes through which research is funded.</t>
+          <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
@@ -2638,16 +2650,12 @@
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
+      <c r="L38" s="2" t="inlineStr"/>
       <c r="M38" s="2" t="inlineStr"/>
       <c r="N38" s="2" t="inlineStr"/>
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
         <v>0</v>
@@ -2667,128 +2675,132 @@
       <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000424</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>gambling industry</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>An industry in which the services provided relate to gambling activities.</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000425</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>government agency</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>A governmental organisation set up for a purpose.</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr"/>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr">
+        <is>
+          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
+        </is>
+      </c>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="T39" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr"/>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>grant agency</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>An organization that provides funding support for projects such as investigations.</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0001942</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000425</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>government agency</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>A governmental organisation set up for a purpose.</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="inlineStr"/>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H40" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I40" s="3" t="inlineStr"/>
-      <c r="J40" s="3" t="inlineStr"/>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
-      <c r="M40" s="3" t="inlineStr"/>
-      <c r="N40" s="3" t="inlineStr">
-        <is>
-          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
-        </is>
-      </c>
-      <c r="O40" s="3" t="inlineStr"/>
-      <c r="P40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3" t="inlineStr"/>
-      <c r="S40" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="T40" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U40" s="3" t="inlineStr"/>
-      <c r="V40" s="3" t="inlineStr"/>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -3331,29 +3343,33 @@
       <c r="V49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="inlineStr"/>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr"/>
+          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
+        </is>
+      </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3366,12 +3382,10 @@
       <c r="M50" s="2" t="inlineStr"/>
       <c r="N50" s="2" t="inlineStr"/>
       <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="P50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2" t="inlineStr"/>
       <c r="R50" s="2" t="inlineStr"/>
       <c r="S50" s="2" t="inlineStr">
         <is>
@@ -3387,15 +3401,27 @@
       <c r="V50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000433</t>
+        </is>
+      </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr"/>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
       <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr">
@@ -3410,14 +3436,18 @@
       <c r="M51" s="2" t="inlineStr"/>
       <c r="N51" s="2" t="inlineStr"/>
       <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="n">
-        <v>0</v>
+      <c r="P51" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3427,27 +3457,15 @@
       <c r="V51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
       <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
+      <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr">
@@ -3463,17 +3481,13 @@
       <c r="N52" s="2" t="inlineStr"/>
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="S52" s="2" t="inlineStr"/>
       <c r="T52" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3485,31 +3499,27 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t>role</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3523,7 +3533,7 @@
       <c r="N53" s="2" t="inlineStr"/>
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="2" t="n">
         <v>0</v>
@@ -3545,29 +3555,29 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -3575,26 +3585,14 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr"/>
       <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="N54" s="2" t="inlineStr"/>
       <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="n">
+      <c r="P54" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q54" s="2" t="n">
@@ -3617,23 +3615,23 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3649,14 +3647,22 @@
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">retailer of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="L55" s="2" t="inlineStr"/>
       <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="n">
         <v>1</v>
@@ -3681,23 +3687,23 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3713,7 +3719,7 @@
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
@@ -3723,7 +3729,7 @@
       <c r="N56" s="2" t="inlineStr"/>
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="2" t="n">
         <v>0</v>
@@ -3745,23 +3751,23 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000438</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3786,7 +3792,7 @@
       <c r="M57" s="2" t="inlineStr"/>
       <c r="N57" s="2" t="inlineStr"/>
       <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="n">
+      <c r="P57" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q57" s="2" t="n">
@@ -3805,6 +3811,70 @@
       </c>
       <c r="U57" s="2" t="inlineStr"/>
       <c r="V57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T58" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
       <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="b">
+      <c r="P2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
@@ -746,7 +746,7 @@
       <c r="M5" s="2" t="inlineStr"/>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="b">
+      <c r="P5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="n">
@@ -786,7 +786,7 @@
       <c r="M6" s="2" t="inlineStr"/>
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="b">
+      <c r="P6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="n">
@@ -890,7 +890,7 @@
       <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="b">
+      <c r="P8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="n">
@@ -1514,7 +1514,7 @@
       <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>The American Cancer Society</t>
+          <t>Puffit</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -1527,27 +1527,19 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">grant agency </t>
-        </is>
-      </c>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr"/>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr"/>
       <c r="R20" s="2" t="inlineStr"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
@@ -1562,7 +1554,7 @@
       <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
+          <t>The American Cancer Society</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -1575,7 +1567,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grant agency </t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr"/>
@@ -1583,7 +1579,7 @@
       <c r="N21" s="2" t="inlineStr"/>
       <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>0</v>
@@ -1591,7 +1587,7 @@
       <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
@@ -1606,26 +1602,14 @@
       <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">alcohol change UK </t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
-        </is>
-      </c>
+          <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">alcohol charity </t>
-        </is>
-      </c>
+      <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1647,7 +1631,7 @@
       <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
@@ -1662,56 +1646,32 @@
       <c r="A23" s="2" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">alcohol charity </t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
-        </is>
-      </c>
+          <t>Volcano</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">charity </t>
-        </is>
-      </c>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">grant agency  </t>
-        </is>
-      </c>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">alcohol harm prevention organisation </t>
-        </is>
-      </c>
+      <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="inlineStr"/>
       <c r="N23" s="2" t="inlineStr"/>
       <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="P23" s="2" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr"/>
       <c r="R23" s="2" t="inlineStr"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
@@ -1723,87 +1683,79 @@
       <c r="V23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000411</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>alcohol industy</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>An aggregate of organizations that manufacture or market alcoholic beverages.</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product  </t>
-        </is>
-      </c>
-      <c r="J24" s="3" t="inlineStr"/>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="3" t="inlineStr"/>
-      <c r="O24" s="3" t="inlineStr"/>
-      <c r="P24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="inlineStr"/>
-      <c r="S24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alcohol change UK </t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alcohol charity </t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T24" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U24" s="3" t="inlineStr"/>
-      <c r="V24" s="3" t="inlineStr"/>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>analytical laboratory</t>
+          <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
+          <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">charity </t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
@@ -1815,10 +1767,18 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grant agency  </t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alcohol harm prevention organisation </t>
+        </is>
+      </c>
       <c r="M25" s="2" t="inlineStr"/>
       <c r="N25" s="2" t="inlineStr"/>
       <c r="O25" s="2" t="inlineStr"/>
@@ -1843,87 +1803,87 @@
       <c r="V25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr"/>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cancer charity </t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>A charity which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">charity </t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cancer prevention organisation </t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000411</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>alcohol industy</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>An aggregate of organizations that manufacture or market alcoholic beverages.</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product  </t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr"/>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr"/>
+      <c r="P26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000414</t>
-        </is>
-      </c>
+      <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
+          <t>analytical laboratory</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
+          <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cannabis industry </t>
-        </is>
-      </c>
+      <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -1935,11 +1895,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr"/>
@@ -1967,25 +1923,21 @@
       <c r="V27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000415</t>
-        </is>
-      </c>
+      <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis industry </t>
+          <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>An industry in which the product is cannabis.</t>
+          <t>A charity which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">charity </t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
@@ -1999,19 +1951,19 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product  </t>
-        </is>
-      </c>
+      <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cancer prevention organisation </t>
+        </is>
+      </c>
       <c r="M28" s="2" t="inlineStr"/>
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>0</v>
@@ -2033,23 +1985,23 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000416</t>
+          <t>ADDICTO:0000414</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>cannabis retail outlet</t>
+          <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
+          <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>cannabis retailer</t>
+          <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
@@ -2065,7 +2017,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
@@ -2097,23 +2049,23 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000417</t>
+          <t>ADDICTO:0000415</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis retailer </t>
+          <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
+          <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
@@ -2129,7 +2081,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>supplier of product</t>
+          <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
@@ -2159,27 +2111,31 @@
       <c r="V30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000416</t>
+        </is>
+      </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">charity </t>
+          <t>cannabis retail outlet</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
+          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>cannabis retailer</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2187,7 +2143,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product </t>
+        </is>
+      </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr"/>
@@ -2195,7 +2155,7 @@
       <c r="N31" s="2" t="inlineStr"/>
       <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
         <v>0</v>
@@ -2217,29 +2177,29 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000418</t>
+          <t>ADDICTO:0000417</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>convenience store</t>
+          <t xml:space="preserve">cannabis retailer </t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2249,21 +2209,17 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product </t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>shop; local shop; local store</t>
-        </is>
-      </c>
+      <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="inlineStr"/>
       <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
         <v>0</v>
@@ -2283,25 +2239,21 @@
       <c r="V32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000419</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t xml:space="preserve">charity </t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette industry</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
@@ -2315,11 +2267,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr"/>
@@ -2347,97 +2295,93 @@
       <c r="V33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000420</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
-      <c r="J34" s="3" t="inlineStr"/>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
-        </is>
-      </c>
-      <c r="L34" s="3" t="inlineStr">
-        <is>
-          <t>E-Cig industry</t>
-        </is>
-      </c>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000418</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>convenience store</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product </t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>shop; local shop; local store</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T34" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U34" s="3" t="inlineStr"/>
-      <c r="V34" s="3" t="inlineStr"/>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000421</t>
+          <t>ADDICTO:0000419</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette company</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
+          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t>e-cigarette industry</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
@@ -2453,16 +2397,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product; retailer of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
-        </is>
-      </c>
+      <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr"/>
       <c r="N35" s="2" t="inlineStr"/>
       <c r="O35" s="2" t="inlineStr"/>
@@ -2487,89 +2427,97 @@
       <c r="V35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000422</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette shop</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000420</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>E-Cig industry</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
+      <c r="P36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3" t="inlineStr"/>
+      <c r="S36" s="3" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000423</t>
+          <t>ADDICTO:0000421</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>e-liquid company</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette organisation</t>
+          <t>e-cigarette company</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
@@ -2585,12 +2533,16 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product; marketer of product  </t>
+          <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
+        </is>
+      </c>
       <c r="M37" s="2" t="inlineStr"/>
       <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr"/>
@@ -2617,29 +2569,29 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000424</t>
+          <t>ADDICTO:0000422</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>gambling industry</t>
+          <t>e-cigarette shop</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>An industry in which the services provided relate to gambling activities.</t>
+          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -2647,7 +2599,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retailer of product </t>
+        </is>
+      </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr"/>
@@ -2655,7 +2611,7 @@
       <c r="N38" s="2" t="inlineStr"/>
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="2" t="n">
         <v>0</v>
@@ -2675,89 +2631,89 @@
       <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000425</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>government agency</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>A governmental organisation set up for a purpose.</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000423</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>e-liquid company</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette organisation</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H39" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I39" s="3" t="inlineStr"/>
-      <c r="J39" s="3" t="inlineStr"/>
-      <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr"/>
-      <c r="M39" s="3" t="inlineStr"/>
-      <c r="N39" s="3" t="inlineStr">
-        <is>
-          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
-        </is>
-      </c>
-      <c r="O39" s="3" t="inlineStr"/>
-      <c r="P39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="3" t="inlineStr"/>
-      <c r="S39" s="3" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="T39" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U39" s="3" t="inlineStr"/>
-      <c r="V39" s="3" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product  </t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr"/>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000424</t>
+        </is>
+      </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>grant agency</t>
+          <t>gambling industry</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>An organization that provides funding support for projects such as investigations.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0001942</t>
-        </is>
-      </c>
+          <t>An industry in which the services provided relate to gambling activities.</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
@@ -2774,16 +2730,12 @@
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
+      <c r="L40" s="2" t="inlineStr"/>
       <c r="M40" s="2" t="inlineStr"/>
       <c r="N40" s="2" t="inlineStr"/>
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
         <v>0</v>
@@ -2805,23 +2757,23 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000426</t>
+          <t>ADDICTO:0000425</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>independent e-cigarette company</t>
+          <t>government agency</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+          <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr"/>
@@ -2835,22 +2787,14 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I41" s="3" t="inlineStr"/>
       <c r="J41" s="3" t="inlineStr"/>
       <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
-        </is>
-      </c>
+      <c r="L41" s="3" t="inlineStr"/>
       <c r="M41" s="3" t="inlineStr"/>
       <c r="N41" s="3" t="inlineStr">
         <is>
-          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+          <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
       <c r="O41" s="3" t="inlineStr"/>
@@ -2863,7 +2807,7 @@
       <c r="R41" s="3" t="inlineStr"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>All</t>
         </is>
       </c>
       <c r="T41" s="3" t="inlineStr">
@@ -2875,25 +2819,25 @@
       <c r="V41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000427</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>independent e-cigarette industry</t>
+          <t>grant agency</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
+          <t>An organization that provides funding support for projects such as investigations.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0001942</t>
+        </is>
+      </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette industry</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2907,16 +2851,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">vape industry; independent vape industry </t>
+          <t>funder</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr"/>
@@ -2931,7 +2871,7 @@
       <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>JH; SC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
@@ -2943,105 +2883,137 @@
       <c r="V42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000829</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>independent e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000426</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>independent e-cigarette company</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr"/>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>e-cigarette company</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr">
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
+        </is>
+      </c>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr">
+        <is>
+          <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
+        </is>
+      </c>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr"/>
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000427</t>
+        </is>
+      </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>independent legal advisory institution</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr"/>
+          <t>independent e-cigarette industry</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
+        </is>
+      </c>
       <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette industry</t>
+        </is>
+      </c>
       <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vape industry; independent vape industry </t>
+        </is>
+      </c>
       <c r="M44" s="2" t="inlineStr"/>
       <c r="N44" s="2" t="inlineStr"/>
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr"/>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>JH; SC</t>
+        </is>
+      </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3053,23 +3025,23 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000428</t>
+          <t>ADDICTO:0000829</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>independent e-cigarette retailer</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
+          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>organisation aggregate</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -3083,15 +3055,23 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retailer of product </t>
+        </is>
+      </c>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+        </is>
+      </c>
       <c r="M45" s="2" t="inlineStr"/>
       <c r="N45" s="2" t="inlineStr"/>
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>0</v>
@@ -3099,7 +3079,7 @@
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
@@ -3111,27 +3091,15 @@
       <c r="V45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000429</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>marketer of product</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
-        </is>
-      </c>
+          <t>independent legal advisory institution</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr"/>
       <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
+      <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr">
@@ -3147,17 +3115,13 @@
       <c r="N46" s="2" t="inlineStr"/>
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3167,27 +3131,31 @@
       <c r="V46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000428</t>
+        </is>
+      </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>medical and health care service</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3203,7 +3171,7 @@
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
@@ -3211,7 +3179,7 @@
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
@@ -3223,98 +3191,90 @@
       <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000431</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H48" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I48" s="3" t="inlineStr"/>
-      <c r="J48" s="3" t="inlineStr"/>
-      <c r="K48" s="3" t="inlineStr">
-        <is>
-          <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
-        </is>
-      </c>
-      <c r="L48" s="3" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="M48" s="3" t="inlineStr"/>
-      <c r="N48" s="3" t="inlineStr"/>
-      <c r="O48" s="3" t="inlineStr"/>
-      <c r="P48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="inlineStr"/>
-      <c r="S48" s="3" t="inlineStr"/>
-      <c r="T48" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U48" s="3" t="inlineStr"/>
-      <c r="V48" s="3" t="inlineStr"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000429</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>marketer of product</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000430</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>organisation aggregate</t>
+          <t>medical and health care service</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of organisations.</t>
+          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
@@ -3323,7 +3283,7 @@
       <c r="N49" s="2" t="inlineStr"/>
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>0</v>
@@ -3331,7 +3291,7 @@
       <c r="R49" s="2" t="inlineStr"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
@@ -3343,92 +3303,98 @@
       <c r="V49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr"/>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">regulatory agency </t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000431</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr"/>
+      <c r="G50" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="2" t="inlineStr"/>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr"/>
+      <c r="T50" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000433</t>
+          <t>ADDICTO:0000430</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+          <t>An aggregate of organisations.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+      <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
@@ -3436,8 +3402,8 @@
       <c r="M51" s="2" t="inlineStr"/>
       <c r="N51" s="2" t="inlineStr"/>
       <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="b">
-        <v>1</v>
+      <c r="P51" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
         <v>0</v>
@@ -3445,7 +3411,7 @@
       <c r="R51" s="2" t="inlineStr"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
@@ -3460,14 +3426,30 @@
       <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr"/>
+          <t xml:space="preserve">regulatory agency </t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3481,13 +3463,17 @@
       <c r="N52" s="2" t="inlineStr"/>
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
       <c r="T52" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3499,17 +3485,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000434</t>
+          <t>ADDICTO:0000433</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>supplier of product</t>
+          <t>retailer of product</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -3553,33 +3539,17 @@
       <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000436</t>
-        </is>
-      </c>
+      <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
       <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
+      <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G54" s="2" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3592,18 +3562,14 @@
       <c r="M54" s="2" t="inlineStr"/>
       <c r="N54" s="2" t="inlineStr"/>
       <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="b">
-        <v>1</v>
+      <c r="P54" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3615,54 +3581,38 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr"/>
       <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="N55" s="2" t="inlineStr"/>
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="n">
         <v>1</v>
@@ -3687,29 +3637,29 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -3717,11 +3667,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
+      <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr"/>
@@ -3751,23 +3697,23 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco Industry</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3783,16 +3729,24 @@
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="L57" s="2" t="inlineStr"/>
       <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="b">
+      <c r="P57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q57" s="2" t="n">
@@ -3815,12 +3769,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -3847,7 +3801,7 @@
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr"/>
@@ -3876,6 +3830,134 @@
       <c r="U58" s="2" t="inlineStr"/>
       <c r="V58" s="2" t="inlineStr"/>
     </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000438</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>tobacco company</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2" t="inlineStr"/>
+      <c r="S59" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T59" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,6 +25,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
@@ -39,12 +40,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
+        <fgColor rgb="FFFFE4B5"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,77 +68,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -432,13 +365,13 @@
   </sheetPr>
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="16" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
@@ -551,44 +484,44 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
+      <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="n"/>
       <c r="T2" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -606,13 +539,13 @@
           <t>A philanthropy organisation that is based in New York.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -628,19 +561,19 @@
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -651,8 +584,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -680,8 +613,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -692,23 +625,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -719,91 +652,95 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr"/>
+      <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
+      <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr"/>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000870</t>
+        </is>
+      </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Cancer Research UK</t>
@@ -814,13 +751,13 @@
           <t>A charity that is focused on cancer research within the UK with a company number 4355631.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -836,23 +773,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">CRUK </t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -863,51 +800,55 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr"/>
+      <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr"/>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000871</t>
+        </is>
+      </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Centers for Disease Control</t>
@@ -918,7 +859,7 @@
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -944,23 +885,23 @@
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
       <c r="P9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="n"/>
       <c r="S9" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -971,91 +912,95 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr"/>
-      <c r="V9" s="3" t="inlineStr"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr"/>
+      <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr"/>
+      <c r="A11" s="2" t="n"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr"/>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000872</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Food and Drug Administration</t>
@@ -1066,7 +1011,7 @@
           <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="n"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -1092,19 +1037,19 @@
           <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
       <c r="P12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="inlineStr"/>
+      <c r="R12" s="3" t="n"/>
       <c r="S12" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -1115,11 +1060,15 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr"/>
-      <c r="V12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000873</t>
+        </is>
+      </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Irish Cancer Society</t>
@@ -1130,13 +1079,13 @@
           <t>A charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1152,19 +1101,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1175,11 +1124,15 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr"/>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000874</t>
+        </is>
+      </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
           <t>JUUL labs</t>
@@ -1190,13 +1143,13 @@
           <t xml:space="preserve">An e-cigarette organisation with headquarters based in San Francisco. </t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1214,21 +1167,21 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tobacco industry </t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
+          <t xml:space="preserve">tobacco industry </t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1239,11 +1192,15 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000875</t>
+        </is>
+      </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
           <t>National Health Service</t>
@@ -1254,13 +1211,13 @@
           <t xml:space="preserve">A medical and health care service that is publicly funded to provide care for people in the UK. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">medical and health care service </t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1271,24 +1228,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>NHS</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1299,65 +1256,65 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
+      <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr"/>
+      <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">National Institute of Health Research </t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1368,23 +1325,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1395,52 +1352,52 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr"/>
+      <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1468,8 +1425,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
       <c r="H19" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1480,23 +1437,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1507,36 +1464,36 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
+      <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Puffit</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1547,21 +1504,21 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
+      <c r="A21" s="2" t="n"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
       <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1572,19 +1529,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="n"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1595,40 +1552,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr"/>
+      <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="2" t="inlineStr"/>
+      <c r="R22" s="2" t="n"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1639,36 +1596,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000856</t>
+        </is>
+      </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Volcano</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
-      <c r="R23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1679,11 +1640,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr"/>
+      <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
@@ -1694,13 +1655,13 @@
           <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1711,20 +1672,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1735,11 +1696,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="n"/>
+      <c r="V24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr"/>
+      <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
@@ -1750,13 +1711,13 @@
           <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1772,23 +1733,23 @@
           <t xml:space="preserve">grant agency  </t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="n"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1799,8 +1760,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1828,7 +1789,7 @@
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1844,19 +1805,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr"/>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
+      <c r="L26" s="3" t="n"/>
+      <c r="M26" s="3" t="n"/>
+      <c r="N26" s="3" t="n"/>
+      <c r="O26" s="3" t="n"/>
       <c r="P26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="inlineStr"/>
+      <c r="R26" s="3" t="n"/>
       <c r="S26" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1867,11 +1828,11 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="3" t="inlineStr"/>
-      <c r="V26" s="3" t="inlineStr"/>
+      <c r="U26" s="3" t="n"/>
+      <c r="V26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr"/>
+      <c r="A27" s="2" t="n"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -1882,9 +1843,9 @@
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1895,20 +1856,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1919,11 +1880,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr"/>
+      <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
@@ -1934,13 +1895,13 @@
           <t>A charity which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1951,24 +1912,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer prevention organisation </t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R28" s="2" t="inlineStr"/>
+      <c r="R28" s="2" t="n"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1979,8 +1940,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -1998,13 +1959,13 @@
           <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2020,19 +1981,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
       <c r="P29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R29" s="2" t="inlineStr"/>
+      <c r="R29" s="2" t="n"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2043,8 +2004,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2062,13 +2023,13 @@
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2084,19 +2045,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R30" s="2" t="inlineStr"/>
+      <c r="R30" s="2" t="n"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2107,8 +2068,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2126,13 +2087,13 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2148,19 +2109,19 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="n"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2171,8 +2132,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2190,13 +2151,13 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="n"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2212,19 +2173,19 @@
           <t>supplier of product</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="n"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2235,11 +2196,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr"/>
+      <c r="A33" s="2" t="n"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
@@ -2250,13 +2211,13 @@
           <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="n"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2267,20 +2228,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="n"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2291,8 +2252,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2310,13 +2271,13 @@
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2332,23 +2293,23 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>shop; local shop; local store</t>
         </is>
       </c>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="n"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2359,8 +2320,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2378,13 +2339,13 @@
           <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="n"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2400,19 +2361,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2423,8 +2384,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2442,13 +2403,13 @@
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="n"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2464,7 +2425,7 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr"/>
+      <c r="J36" s="3" t="n"/>
       <c r="K36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
@@ -2475,16 +2436,16 @@
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="n"/>
+      <c r="N36" s="3" t="n"/>
+      <c r="O36" s="3" t="n"/>
       <c r="P36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R36" s="3" t="inlineStr"/>
+      <c r="R36" s="3" t="n"/>
       <c r="S36" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2495,8 +2456,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="3" t="inlineStr"/>
-      <c r="V36" s="3" t="inlineStr"/>
+      <c r="U36" s="3" t="n"/>
+      <c r="V36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2514,13 +2475,13 @@
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2536,23 +2497,23 @@
           <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="n"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2563,8 +2524,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="n"/>
+      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2582,13 +2543,13 @@
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2604,19 +2565,19 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
       <c r="P38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R38" s="2" t="inlineStr"/>
+      <c r="R38" s="2" t="n"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2627,8 +2588,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="n"/>
+      <c r="V38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2646,13 +2607,13 @@
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="n"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2668,19 +2629,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
       <c r="P39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="n"/>
       <c r="S39" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2691,8 +2652,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="n"/>
+      <c r="V39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2710,13 +2671,13 @@
           <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="n"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="n"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2727,20 +2688,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="n"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2751,8 +2712,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="n"/>
+      <c r="V40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -2770,13 +2731,13 @@
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="n"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2787,24 +2748,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr"/>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="n"/>
       <c r="N41" s="3" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="O41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="n"/>
       <c r="P41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="inlineStr"/>
+      <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
           <t>All</t>
@@ -2815,11 +2776,15 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="3" t="inlineStr"/>
-      <c r="V41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="n"/>
+      <c r="V41" s="3" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000880</t>
+        </is>
+      </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
           <t>grant agency</t>
@@ -2840,7 +2805,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="n"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2851,24 +2816,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>funder</t>
         </is>
       </c>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
       <c r="P42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="n"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2879,8 +2844,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -2898,13 +2863,13 @@
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="n"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2920,27 +2885,27 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
       <c r="L43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="n"/>
       <c r="N43" s="3" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="n"/>
       <c r="P43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="n"/>
       <c r="S43" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2951,8 +2916,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="n"/>
+      <c r="V43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2970,13 +2935,13 @@
           <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="n"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2992,23 +2957,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">vape industry; independent vape industry </t>
         </is>
       </c>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="n"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -3019,8 +2984,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3038,13 +3003,13 @@
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3060,23 +3025,23 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="n"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3087,48 +3052,48 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr"/>
+      <c r="A46" s="2" t="n"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr"/>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
       <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="n"/>
+      <c r="S46" s="2" t="n"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3146,13 +3111,13 @@
           <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3163,20 +3128,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="n"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3187,8 +3152,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3206,33 +3171,33 @@
           <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="n"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3243,11 +3208,15 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="n"/>
+      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000881</t>
+        </is>
+      </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
           <t>medical and health care service</t>
@@ -3258,13 +3227,13 @@
           <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3275,20 +3244,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="n"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3299,8 +3268,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3328,7 +3297,7 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="n"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3339,8 +3308,8 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
       <c r="K50" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
@@ -3351,24 +3320,24 @@
           <t>Organization</t>
         </is>
       </c>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
       <c r="P50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="3" t="n"/>
       <c r="T50" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="3" t="inlineStr"/>
-      <c r="V50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="n"/>
+      <c r="V50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3386,29 +3355,29 @@
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="n"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3419,11 +3388,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr"/>
+      <c r="A52" s="2" t="n"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">regulatory agency </t>
@@ -3444,7 +3413,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3455,20 +3424,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
       <c r="P52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="n"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3479,8 +3448,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3498,33 +3467,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
       <c r="P53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q53" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R53" s="2" t="inlineStr"/>
+      <c r="R53" s="2" t="n"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3535,48 +3504,48 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="n"/>
+      <c r="V53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr"/>
+      <c r="A54" s="2" t="n"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr"/>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
       <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="n"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="n"/>
+      <c r="V54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3594,33 +3563,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
       <c r="H55" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
       <c r="P55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q55" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="n"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3631,8 +3600,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="n"/>
+      <c r="V55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3642,7 +3611,7 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t>tobacco industry</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -3650,13 +3619,13 @@
           <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="n"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3667,20 +3636,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
       <c r="P56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q56" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R56" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="n"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3691,8 +3660,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr"/>
-      <c r="V56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="n"/>
+      <c r="V56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3710,13 +3679,13 @@
           <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
           <t>tobacco Industry</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="n"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3732,27 +3701,27 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="n"/>
       <c r="K57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
       <c r="N57" s="2" t="inlineStr">
         <is>
           <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
         </is>
       </c>
-      <c r="O57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="n"/>
       <c r="P57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q57" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R57" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="n"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3763,8 +3732,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U57" s="2" t="inlineStr"/>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="n"/>
+      <c r="V57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3782,13 +3751,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="n"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3804,19 +3773,19 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
       <c r="P58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q58" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="n"/>
       <c r="S58" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3827,8 +3796,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="n"/>
+      <c r="V58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3846,13 +3815,13 @@
           <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="n"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3868,19 +3837,19 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
       <c r="P59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q59" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R59" s="2" t="inlineStr"/>
+      <c r="R59" s="2" t="n"/>
       <c r="S59" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3891,8 +3860,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="n"/>
+      <c r="V59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3910,13 +3879,13 @@
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="n"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3932,19 +3901,19 @@
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
       <c r="P60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q60" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="n"/>
       <c r="S60" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3955,8 +3924,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="n"/>
+      <c r="V60" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,8 +26,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
@@ -40,12 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4B5"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,9 +67,77 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -363,15 +430,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
@@ -484,44 +551,44 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
+      <c r="A2" s="2" t="inlineStr"/>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -539,13 +606,13 @@
           <t>A philanthropy organisation that is based in New York.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -561,19 +628,19 @@
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="n"/>
+      <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -584,8 +651,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -613,8 +680,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -625,23 +692,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="n"/>
+      <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -652,88 +719,88 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
+      <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
+      <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -751,13 +818,13 @@
           <t>A charity that is focused on cancer research within the UK with a company number 4355631.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -773,23 +840,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">CRUK </t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="2" t="n"/>
+      <c r="R7" s="2" t="inlineStr"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -800,48 +867,48 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
+      <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
+      <c r="R8" s="2" t="inlineStr"/>
+      <c r="S8" s="2" t="inlineStr"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -859,7 +926,7 @@
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -885,23 +952,23 @@
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
       <c r="P9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="n"/>
+      <c r="R9" s="3" t="inlineStr"/>
       <c r="S9" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -912,88 +979,88 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="3" t="n"/>
-      <c r="V9" s="3" t="n"/>
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
+      <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
+      <c r="R10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U10" s="2" t="n"/>
-      <c r="V10" s="2" t="n"/>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
+      <c r="A11" s="2" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
       <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1011,7 +1078,7 @@
           <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
@@ -1037,19 +1104,19 @@
           <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="n"/>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="3" t="n"/>
+      <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr"/>
       <c r="P12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="n"/>
+      <c r="R12" s="3" t="inlineStr"/>
       <c r="S12" s="3" t="inlineStr">
         <is>
           <t>All; SC</t>
@@ -1060,8 +1127,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U12" s="3" t="n"/>
-      <c r="V12" s="3" t="n"/>
+      <c r="U12" s="3" t="inlineStr"/>
+      <c r="V12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1079,13 +1146,13 @@
           <t>A charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1101,19 +1168,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R13" s="2" t="n"/>
+      <c r="R13" s="2" t="inlineStr"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1124,8 +1191,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="n"/>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1143,13 +1210,13 @@
           <t xml:space="preserve">An e-cigarette organisation with headquarters based in San Francisco. </t>
         </is>
       </c>
-      <c r="D14" s="2" t="n"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1167,21 +1234,21 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">tobacco industry </t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
+          <t>tobacco funding</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="2" t="n"/>
+      <c r="R14" s="2" t="inlineStr"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1192,8 +1259,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U14" s="2" t="n"/>
-      <c r="V14" s="2" t="n"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1211,13 +1278,13 @@
           <t xml:space="preserve">A medical and health care service that is publicly funded to provide care for people in the UK. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
+      <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">medical and health care service </t>
         </is>
       </c>
-      <c r="F15" s="2" t="n"/>
+      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1228,24 +1295,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>NHS</t>
         </is>
       </c>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="2" t="n"/>
+      <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1256,65 +1323,65 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U15" s="2" t="n"/>
-      <c r="V15" s="2" t="n"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
+      <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
+      <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">National Institute of Health Research </t>
         </is>
       </c>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1325,23 +1392,23 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="2" t="n"/>
+      <c r="R17" s="2" t="inlineStr"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1352,52 +1419,52 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
+      <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1425,8 +1492,8 @@
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1437,23 +1504,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R19" s="2" t="n"/>
+      <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1464,36 +1531,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Puffit</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1504,21 +1575,21 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
+      <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -1529,19 +1600,19 @@
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="2" t="n"/>
+      <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1552,40 +1623,40 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
+      <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="2" t="n"/>
+      <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -1596,8 +1667,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U22" s="2" t="n"/>
-      <c r="V22" s="2" t="n"/>
+      <c r="U22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1610,26 +1681,30 @@
           <t>Volcano</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="n"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
           <t>KS</t>
@@ -1640,11 +1715,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="n"/>
+      <c r="U23" s="2" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
@@ -1655,13 +1730,13 @@
           <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1672,20 +1747,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R24" s="2" t="n"/>
+      <c r="R24" s="2" t="inlineStr"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1696,11 +1771,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
+      <c r="U24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
+      <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
@@ -1711,13 +1786,13 @@
           <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F25" s="2" t="n"/>
+      <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1733,23 +1808,23 @@
           <t xml:space="preserve">grant agency  </t>
         </is>
       </c>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R25" s="2" t="n"/>
+      <c r="R25" s="2" t="inlineStr"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1760,8 +1835,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1789,7 +1864,7 @@
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F26" s="3" t="n"/>
+      <c r="F26" s="3" t="inlineStr"/>
       <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -1805,19 +1880,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J26" s="3" t="n"/>
-      <c r="K26" s="3" t="n"/>
-      <c r="L26" s="3" t="n"/>
-      <c r="M26" s="3" t="n"/>
-      <c r="N26" s="3" t="n"/>
-      <c r="O26" s="3" t="n"/>
+      <c r="J26" s="3" t="inlineStr"/>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr"/>
       <c r="P26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="n"/>
+      <c r="R26" s="3" t="inlineStr"/>
       <c r="S26" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1828,11 +1903,11 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="3" t="n"/>
-      <c r="V26" s="3" t="n"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -1843,9 +1918,9 @@
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1856,20 +1931,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R27" s="2" t="n"/>
+      <c r="R27" s="2" t="inlineStr"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1880,11 +1955,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
@@ -1895,13 +1970,13 @@
           <t>A charity which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n"/>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
         </is>
       </c>
-      <c r="F28" s="2" t="n"/>
+      <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1912,24 +1987,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer prevention organisation </t>
         </is>
       </c>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R28" s="2" t="n"/>
+      <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1940,8 +2015,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="n"/>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -1959,13 +2034,13 @@
           <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
-      <c r="F29" s="2" t="n"/>
+      <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -1981,19 +2056,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R29" s="2" t="n"/>
+      <c r="R29" s="2" t="inlineStr"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2004,8 +2079,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U29" s="2" t="n"/>
-      <c r="V29" s="2" t="n"/>
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2023,13 +2098,13 @@
           <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F30" s="2" t="n"/>
+      <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2045,19 +2120,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R30" s="2" t="n"/>
+      <c r="R30" s="2" t="inlineStr"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2068,8 +2143,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n"/>
-      <c r="V30" s="2" t="n"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2087,13 +2162,13 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F31" s="2" t="n"/>
+      <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2109,19 +2184,19 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R31" s="2" t="n"/>
+      <c r="R31" s="2" t="inlineStr"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2132,8 +2207,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2151,13 +2226,13 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F32" s="2" t="n"/>
+      <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2173,19 +2248,19 @@
           <t>supplier of product</t>
         </is>
       </c>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="n"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R32" s="2" t="n"/>
+      <c r="R32" s="2" t="inlineStr"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2196,11 +2271,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
+      <c r="A33" s="2" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
@@ -2211,13 +2286,13 @@
           <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F33" s="2" t="n"/>
+      <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2228,20 +2303,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R33" s="2" t="n"/>
+      <c r="R33" s="2" t="inlineStr"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2252,8 +2327,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2271,13 +2346,13 @@
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F34" s="2" t="n"/>
+      <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2293,23 +2368,23 @@
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>shop; local shop; local store</t>
         </is>
       </c>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R34" s="2" t="n"/>
+      <c r="R34" s="2" t="inlineStr"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2320,8 +2395,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2339,13 +2414,13 @@
           <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F35" s="2" t="n"/>
+      <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2361,19 +2436,19 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R35" s="2" t="n"/>
+      <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2384,8 +2459,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="n"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -2403,13 +2478,13 @@
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n"/>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F36" s="3" t="n"/>
+      <c r="F36" s="3" t="inlineStr"/>
       <c r="G36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2425,7 +2500,7 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J36" s="3" t="n"/>
+      <c r="J36" s="3" t="inlineStr"/>
       <c r="K36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
@@ -2436,16 +2511,16 @@
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="M36" s="3" t="n"/>
-      <c r="N36" s="3" t="n"/>
-      <c r="O36" s="3" t="n"/>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
       <c r="P36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R36" s="3" t="n"/>
+      <c r="R36" s="3" t="inlineStr"/>
       <c r="S36" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2456,8 +2531,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="3" t="n"/>
-      <c r="V36" s="3" t="n"/>
+      <c r="U36" s="3" t="inlineStr"/>
+      <c r="V36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2475,13 +2550,13 @@
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F37" s="2" t="n"/>
+      <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2497,23 +2572,23 @@
           <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R37" s="2" t="n"/>
+      <c r="R37" s="2" t="inlineStr"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2524,8 +2599,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U37" s="2" t="n"/>
-      <c r="V37" s="2" t="n"/>
+      <c r="U37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2543,13 +2618,13 @@
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n"/>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F38" s="2" t="n"/>
+      <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2565,19 +2640,19 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R38" s="2" t="n"/>
+      <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2588,8 +2663,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U38" s="2" t="n"/>
-      <c r="V38" s="2" t="n"/>
+      <c r="U38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2607,13 +2682,13 @@
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n"/>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
-      <c r="F39" s="2" t="n"/>
+      <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2629,19 +2704,19 @@
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R39" s="2" t="n"/>
+      <c r="R39" s="2" t="inlineStr"/>
       <c r="S39" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2652,8 +2727,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U39" s="2" t="n"/>
-      <c r="V39" s="2" t="n"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2671,13 +2746,13 @@
           <t>An industry in which the services provided relate to gambling activities.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n"/>
+      <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F40" s="2" t="n"/>
+      <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2688,20 +2763,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R40" s="2" t="n"/>
+      <c r="R40" s="2" t="inlineStr"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2712,8 +2787,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="n"/>
-      <c r="V40" s="2" t="n"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -2731,13 +2806,13 @@
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="n"/>
+      <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F41" s="3" t="n"/>
+      <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2748,24 +2823,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I41" s="3" t="n"/>
-      <c r="J41" s="3" t="n"/>
-      <c r="K41" s="3" t="n"/>
-      <c r="L41" s="3" t="n"/>
-      <c r="M41" s="3" t="n"/>
+      <c r="I41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr"/>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
       <c r="N41" s="3" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="O41" s="3" t="n"/>
+      <c r="O41" s="3" t="inlineStr"/>
       <c r="P41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="n"/>
+      <c r="R41" s="3" t="inlineStr"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
           <t>All</t>
@@ -2776,8 +2851,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="3" t="n"/>
-      <c r="V41" s="3" t="n"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2805,7 +2880,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F42" s="2" t="n"/>
+      <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2816,24 +2891,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>funder</t>
         </is>
       </c>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R42" s="2" t="n"/>
+      <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2844,8 +2919,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -2863,13 +2938,13 @@
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D43" s="3" t="n"/>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F43" s="3" t="n"/>
+      <c r="F43" s="3" t="inlineStr"/>
       <c r="G43" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -2885,27 +2960,27 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="n"/>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
       <c r="L43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M43" s="3" t="n"/>
+      <c r="M43" s="3" t="inlineStr"/>
       <c r="N43" s="3" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O43" s="3" t="n"/>
+      <c r="O43" s="3" t="inlineStr"/>
       <c r="P43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q43" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="n"/>
+      <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr">
         <is>
           <t>SC</t>
@@ -2916,8 +2991,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="3" t="n"/>
-      <c r="V43" s="3" t="n"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2935,13 +3010,13 @@
           <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="F44" s="2" t="n"/>
+      <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -2957,23 +3032,23 @@
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">vape industry; independent vape industry </t>
         </is>
       </c>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R44" s="2" t="n"/>
+      <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
           <t>JH; SC</t>
@@ -2984,8 +3059,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -3003,13 +3078,13 @@
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F45" s="2" t="n"/>
+      <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3025,23 +3100,23 @@
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R45" s="2" t="n"/>
+      <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3052,48 +3127,48 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
+      <c r="U45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
-      <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
-      <c r="M46" s="2" t="n"/>
-      <c r="N46" s="2" t="n"/>
-      <c r="O46" s="2" t="n"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R46" s="2" t="n"/>
-      <c r="S46" s="2" t="n"/>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="n"/>
-      <c r="V46" s="2" t="n"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3111,13 +3186,13 @@
           <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n"/>
+      <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="F47" s="2" t="n"/>
+      <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3128,20 +3203,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
-      <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R47" s="2" t="n"/>
+      <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3152,8 +3227,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="n"/>
-      <c r="V47" s="2" t="n"/>
+      <c r="U47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3171,33 +3246,33 @@
           <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n"/>
+      <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R48" s="2" t="n"/>
+      <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3208,8 +3283,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="n"/>
-      <c r="V48" s="2" t="n"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3227,13 +3302,13 @@
           <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
-      <c r="D49" s="2" t="n"/>
+      <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F49" s="2" t="n"/>
+      <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
@@ -3244,20 +3319,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R49" s="2" t="n"/>
+      <c r="R49" s="2" t="inlineStr"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3268,8 +3343,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3297,7 +3372,7 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="F50" s="3" t="n"/>
+      <c r="F50" s="3" t="inlineStr"/>
       <c r="G50" s="3" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3308,8 +3383,8 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
       <c r="K50" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
@@ -3320,24 +3395,24 @@
           <t>Organization</t>
         </is>
       </c>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
-      <c r="O50" s="3" t="n"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
       <c r="P50" s="3" t="n">
         <v>1</v>
       </c>
       <c r="Q50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="R50" s="3" t="n"/>
-      <c r="S50" s="3" t="n"/>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr"/>
       <c r="T50" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="3" t="n"/>
-      <c r="V50" s="3" t="n"/>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3355,29 +3430,29 @@
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n"/>
+      <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
-      <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R51" s="2" t="n"/>
+      <c r="R51" s="2" t="inlineStr"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3388,11 +3463,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="n"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">regulatory agency </t>
@@ -3413,7 +3488,7 @@
           <t>role</t>
         </is>
       </c>
-      <c r="F52" s="2" t="n"/>
+      <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3424,20 +3499,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I52" s="2" t="n"/>
-      <c r="J52" s="2" t="n"/>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="n"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R52" s="2" t="n"/>
+      <c r="R52" s="2" t="inlineStr"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3448,8 +3523,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U52" s="2" t="n"/>
-      <c r="V52" s="2" t="n"/>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3467,33 +3542,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n"/>
+      <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
-      <c r="M53" s="2" t="n"/>
-      <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="n"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q53" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R53" s="2" t="n"/>
+      <c r="R53" s="2" t="inlineStr"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3504,48 +3579,48 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U53" s="2" t="n"/>
-      <c r="V53" s="2" t="n"/>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="n"/>
-      <c r="L54" s="2" t="n"/>
-      <c r="M54" s="2" t="n"/>
-      <c r="N54" s="2" t="n"/>
-      <c r="O54" s="2" t="n"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R54" s="2" t="n"/>
-      <c r="S54" s="2" t="n"/>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="n"/>
-      <c r="V54" s="2" t="n"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3563,33 +3638,33 @@
           <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n"/>
+      <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="n"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
-      <c r="M55" s="2" t="n"/>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q55" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R55" s="2" t="n"/>
+      <c r="R55" s="2" t="inlineStr"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3600,35 +3675,35 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="n"/>
-      <c r="V55" s="2" t="n"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>tobacco industry</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n"/>
+          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="n"/>
+          <t>tobacco Industry</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -3636,20 +3711,32 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q56" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R56" s="2" t="n"/>
+      <c r="R56" s="2" t="inlineStr"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3660,35 +3747,31 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="n"/>
-      <c r="V56" s="2" t="n"/>
+      <c r="U56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000435</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco funding</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n"/>
+          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="n"/>
+          <t xml:space="preserve">role </t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -3696,32 +3779,18 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
-      <c r="O57" s="2" t="n"/>
-      <c r="P57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="n"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="inlineStr"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3732,35 +3801,35 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U57" s="2" t="n"/>
-      <c r="V57" s="2" t="n"/>
+      <c r="U57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco industry</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n"/>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="n"/>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3768,24 +3837,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
-      <c r="O58" s="2" t="n"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q58" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R58" s="2" t="n"/>
+      <c r="R58" s="2" t="inlineStr"/>
       <c r="S58" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3796,32 +3861,32 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U58" s="2" t="n"/>
-      <c r="V58" s="2" t="n"/>
+      <c r="U58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
+          <t>tobacco retail outlet</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>tobacco company</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="n"/>
+      <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Role</t>
@@ -3834,22 +3899,22 @@
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
-      <c r="M59" s="2" t="n"/>
-      <c r="N59" s="2" t="n"/>
-      <c r="O59" s="2" t="n"/>
+          <t xml:space="preserve">retailer of product </t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q59" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="R59" s="2" t="n"/>
+      <c r="R59" s="2" t="inlineStr"/>
       <c r="S59" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3860,72 +3925,136 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U59" s="2" t="n"/>
-      <c r="V59" s="2" t="n"/>
+      <c r="U59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
+          <t>ADDICTO:0000438</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>tobacco company</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
           <t>ADDICTO:0000439</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>tobacconist</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
-      <c r="P60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2" t="n"/>
-      <c r="S60" s="2" t="inlineStr">
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T60" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U60" s="2" t="n"/>
-      <c r="V60" s="2" t="n"/>
+      <c r="T61" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2459,7 +2459,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
@@ -2599,7 +2603,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2663,7 +2671,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
@@ -2727,7 +2739,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3059,7 +3075,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW</t>
+        </is>
+      </c>
       <c r="V44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
@@ -3127,7 +3147,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
@@ -3210,8 +3234,8 @@
       <c r="M47" s="2" t="inlineStr"/>
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="n">
-        <v>0</v>
+      <c r="P47" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
@@ -3219,7 +3243,7 @@
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>JH; SC</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
@@ -3227,7 +3251,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
@@ -3283,7 +3311,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
@@ -3579,7 +3611,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
@@ -3675,7 +3711,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
@@ -3747,7 +3787,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
@@ -3786,10 +3830,12 @@
       <c r="M57" s="2" t="inlineStr"/>
       <c r="N57" s="2" t="inlineStr"/>
       <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="R57" s="2" t="inlineStr"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
@@ -3801,7 +3847,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
@@ -3861,7 +3911,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
@@ -3925,7 +3979,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
@@ -3989,7 +4047,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
@@ -4053,7 +4115,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="inlineStr">
+        <is>
+          <t>CN; RW; JH</t>
+        </is>
+      </c>
       <c r="V61" s="2" t="inlineStr"/>
     </row>
   </sheetData>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2461,7 +2461,7 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr"/>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>CN; RW</t>
+          <t>CN; RW; JH; RW; CN</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V45" s="2" t="inlineStr"/>
@@ -3234,7 +3234,7 @@
       <c r="M47" s="2" t="inlineStr"/>
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="b">
+      <c r="P47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q47" s="2" t="n">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr"/>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr"/>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V53" s="2" t="inlineStr"/>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V55" s="2" t="inlineStr"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V56" s="2" t="inlineStr"/>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V57" s="2" t="inlineStr"/>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V58" s="2" t="inlineStr"/>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V59" s="2" t="inlineStr"/>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V60" s="2" t="inlineStr"/>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH</t>
+          <t>JH; RW; CN</t>
         </is>
       </c>
       <c r="V61" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2031,13 +2031,13 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
+          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis industry </t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
       <c r="R29" s="2" t="inlineStr"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
@@ -2411,13 +2411,13 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+          <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette industry</t>
+          <t>eorganisation</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
       <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr"/>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components  or e-liquid to consumers.</t>
+          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -2595,7 +2595,7 @@
       <c r="R37" s="2" t="inlineStr"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr"/>
@@ -2663,7 +2663,7 @@
       <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr"/>
@@ -2731,7 +2731,7 @@
       <c r="R39" s="2" t="inlineStr"/>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>CN; RW; JH; RW; CN</t>
+          <t>CN; RW;  RW; CN</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr"/>
@@ -3139,7 +3139,7 @@
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V45" s="2" t="inlineStr"/>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr"/>
@@ -3303,7 +3303,7 @@
       <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr"/>
@@ -3603,7 +3603,7 @@
       <c r="R53" s="2" t="inlineStr"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V53" s="2" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
       <c r="R55" s="2" t="inlineStr"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V55" s="2" t="inlineStr"/>
@@ -3731,13 +3731,13 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco industry that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>tobacco Industry</t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3779,7 +3779,7 @@
       <c r="R56" s="2" t="inlineStr"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V56" s="2" t="inlineStr"/>
@@ -3839,7 +3839,7 @@
       <c r="R57" s="2" t="inlineStr"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V57" s="2" t="inlineStr"/>
@@ -3903,7 +3903,7 @@
       <c r="R58" s="2" t="inlineStr"/>
       <c r="S58" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T58" s="2" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V58" s="2" t="inlineStr"/>
@@ -3971,7 +3971,7 @@
       <c r="R59" s="2" t="inlineStr"/>
       <c r="S59" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T59" s="2" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V59" s="2" t="inlineStr"/>
@@ -4039,7 +4039,7 @@
       <c r="R60" s="2" t="inlineStr"/>
       <c r="S60" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V60" s="2" t="inlineStr"/>
@@ -4107,7 +4107,7 @@
       <c r="R61" s="2" t="inlineStr"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>JH; RW; CN</t>
+          <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
       <c r="V61" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -3067,7 +3067,7 @@
       <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>JH; SC</t>
+          <t>JH; SC; CN</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>CN; RW;  RW; CN</t>
+          <t xml:space="preserve"> RW;  RW; </t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -3007,7 +3007,11 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -3081,7 +3081,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW;  RW; </t>
+          <t xml:space="preserve"> RW;  </t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2451,7 +2451,7 @@
       <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr"/>
@@ -2595,7 +2595,7 @@
       <c r="R37" s="2" t="inlineStr"/>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr"/>
@@ -2663,7 +2663,7 @@
       <c r="R38" s="2" t="inlineStr"/>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+          <t>An e-cigarette organisation that is engaged in the production, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
@@ -2731,7 +2731,7 @@
       <c r="R39" s="2" t="inlineStr"/>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr"/>
@@ -3007,11 +3007,7 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="U43" s="3" t="inlineStr"/>
       <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
@@ -3081,7 +3077,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW;  </t>
+          <t xml:space="preserve"> RW;  RW; </t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr"/>
@@ -3143,7 +3139,7 @@
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
@@ -3153,7 +3149,7 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V45" s="2" t="inlineStr"/>
@@ -3247,7 +3243,7 @@
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>JH; SC</t>
+          <t>JH; SC; CN</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
@@ -3257,7 +3253,7 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr"/>
@@ -3275,7 +3271,7 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+          <t>A role performed by an organisation or individual who participates in processes that are intended to increase the amount of a product that is sold by making people want to purchase the product.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -3307,7 +3303,7 @@
       <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
@@ -3317,7 +3313,7 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr"/>
@@ -3607,7 +3603,7 @@
       <c r="R53" s="2" t="inlineStr"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr">
@@ -3617,7 +3613,7 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V53" s="2" t="inlineStr"/>
@@ -3707,7 +3703,7 @@
       <c r="R55" s="2" t="inlineStr"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr">
@@ -3717,7 +3713,7 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V55" s="2" t="inlineStr"/>
@@ -3735,7 +3731,7 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, production, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -3783,7 +3779,7 @@
       <c r="R56" s="2" t="inlineStr"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr">
@@ -3793,7 +3789,7 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V56" s="2" t="inlineStr"/>
@@ -3807,7 +3803,7 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
+          <t xml:space="preserve">A financial support role that is provided by a tobacco company. </t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -3843,7 +3839,7 @@
       <c r="R57" s="2" t="inlineStr"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr">
@@ -3853,7 +3849,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V57" s="2" t="inlineStr"/>
@@ -3907,7 +3903,7 @@
       <c r="R58" s="2" t="inlineStr"/>
       <c r="S58" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T58" s="2" t="inlineStr">
@@ -3917,7 +3913,7 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V58" s="2" t="inlineStr"/>
@@ -3975,7 +3971,7 @@
       <c r="R59" s="2" t="inlineStr"/>
       <c r="S59" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T59" s="2" t="inlineStr">
@@ -3985,7 +3981,7 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V59" s="2" t="inlineStr"/>
@@ -4043,7 +4039,7 @@
       <c r="R60" s="2" t="inlineStr"/>
       <c r="S60" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr">
@@ -4053,7 +4049,7 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V60" s="2" t="inlineStr"/>
@@ -4100,7 +4096,11 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr"/>
       <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>should this be a synonym of 'tobacco retail outlet'?</t>
+        </is>
+      </c>
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="n">
         <v>1</v>
@@ -4111,7 +4111,7 @@
       <c r="R61" s="2" t="inlineStr"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; CN</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW; </t>
         </is>
       </c>
       <c r="V61" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3563,29 +3563,33 @@
       <c r="V52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="inlineStr"/>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">research organisation </t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr"/>
+          <t>An organisation formed with a goal to have its members conduct investigations.</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
+        </is>
+      </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3598,16 +3602,14 @@
       <c r="M53" s="2" t="inlineStr"/>
       <c r="N53" s="2" t="inlineStr"/>
       <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="P53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2" t="inlineStr"/>
       <c r="R53" s="2" t="inlineStr"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr">
@@ -3617,21 +3619,33 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t>RW; CN; JH</t>
         </is>
       </c>
       <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000433</t>
+        </is>
+      </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr"/>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
       <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr">
@@ -3647,43 +3661,39 @@
       <c r="N54" s="2" t="inlineStr"/>
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
       <c r="V54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="inlineStr"/>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
+      <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr">
@@ -3699,80 +3709,56 @@
       <c r="N55" s="2" t="inlineStr"/>
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
+      <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW; CN</t>
-        </is>
-      </c>
+      <c r="U55" s="2" t="inlineStr"/>
       <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr"/>
       <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="N56" s="2" t="inlineStr"/>
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="n">
         <v>1</v>
@@ -3799,27 +3785,31 @@
       <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000435</t>
+        </is>
+      </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>tobacco funding</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
+          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -3827,12 +3817,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="L57" s="2" t="inlineStr"/>
       <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="n">
         <v>1</v>
@@ -3859,31 +3861,27 @@
       <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000436</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="inlineStr"/>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>tobacco industry</t>
+          <t>tobacco funding</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3925,29 +3923,29 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco industry</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3955,11 +3953,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
+      <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
@@ -3993,23 +3987,23 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -4025,7 +4019,7 @@
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr"/>
@@ -4061,23 +4055,23 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000438</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -4126,6 +4120,74 @@
       </c>
       <c r="V61" s="2" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2" t="inlineStr"/>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U62" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
+      <c r="V62" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -815,7 +815,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>A charity that is focused on cancer research within the UK with a company number 4355631.</t>
+          <t>A cancer charity that is focused on cancer research within the UK with a company number 4355631.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
@@ -837,7 +837,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">grant agency </t>
+          <t xml:space="preserve">grant agency; charity  </t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
+          <t>A cancer charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">grant agency </t>
+          <t xml:space="preserve">grant agency; charity </t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr"/>
@@ -1747,7 +1747,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grant agency; charity </t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr"/>
@@ -1775,136 +1779,136 @@
       <c r="V24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr"/>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">alcohol charity </t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A charity which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">charity </t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000411</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>alcohol industy</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>An aggregate of organizations that manufacture or market alcoholic beverages.</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product  </t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr"/>
+      <c r="K25" s="3" t="inlineStr"/>
+      <c r="L25" s="3" t="inlineStr"/>
+      <c r="M25" s="3" t="inlineStr"/>
+      <c r="N25" s="3" t="inlineStr"/>
+      <c r="O25" s="3" t="inlineStr"/>
+      <c r="P25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3" t="inlineStr"/>
+      <c r="S25" s="3" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T25" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="U25" s="3" t="inlineStr"/>
+      <c r="V25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alcohol organistion </t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An organisation which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">grant agency  </t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>grant agency</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000411</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>alcohol industy</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>An aggregate of organizations that manufacture or market alcoholic beverages.</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">industry </t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product  </t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr"/>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr"/>
-      <c r="P26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="inlineStr"/>
-      <c r="S26" s="3" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="T26" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U26" s="3" t="inlineStr"/>
-      <c r="V26" s="3" t="inlineStr"/>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr"/>
@@ -1967,13 +1971,13 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A charity which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
+          <t>An organisation which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">charity </t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
@@ -1987,7 +1991,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>charity</t>
+        </is>
+      </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
@@ -2283,13 +2291,13 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is established for charitable for purpose. </t>
+          <t xml:space="preserve">A role played by an organisation that raises distributes income for charitable purposes. </t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>role</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
@@ -2327,7 +2335,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>RW; JH; CN</t>
+        </is>
+      </c>
       <c r="V33" s="2" t="inlineStr"/>
     </row>
     <row r="34">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -70,74 +70,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -3873,7 +3805,11 @@
       <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr"/>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000918</t>
+        </is>
+      </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
           <t>tobacco funding</t>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -70,6 +70,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2361,7 +2429,7 @@
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>eorganisation</t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
@@ -3546,10 +3614,12 @@
       <c r="M53" s="2" t="inlineStr"/>
       <c r="N53" s="2" t="inlineStr"/>
       <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="R53" s="2" t="inlineStr"/>
       <c r="S53" s="2" t="inlineStr">
         <is>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1719,211 +1719,207 @@
       <c r="V23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr"/>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_005379</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">advocacy organisation </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Organizations that use various forms of advocacy in order to influence public opinion and ultimately policy.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_005379</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr"/>
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency; charity </t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000411</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>alcohol industy</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>An aggregate of organizations that manufacture or market alcoholic beverages.</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>see http://purl.obolibrary.org/obo/OMIT_0028826</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr"/>
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="inlineStr">
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr"/>
-      <c r="K25" s="3" t="inlineStr"/>
-      <c r="L25" s="3" t="inlineStr"/>
-      <c r="M25" s="3" t="inlineStr"/>
-      <c r="N25" s="3" t="inlineStr"/>
-      <c r="O25" s="3" t="inlineStr"/>
-      <c r="P25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3" t="inlineStr"/>
-      <c r="S25" s="3" t="inlineStr">
+      <c r="J26" s="3" t="inlineStr"/>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr"/>
+      <c r="P26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="inlineStr"/>
+      <c r="S26" s="3" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T25" s="3" t="inlineStr">
+      <c r="T26" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U25" s="3" t="inlineStr"/>
-      <c r="V25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr"/>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">alcohol organistion </t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An organisation which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>grant agency</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">alcohol harm prevention organisation </t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>analytical laboratory</t>
+          <t xml:space="preserve">alcohol organistion </t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
+          <t xml:space="preserve">An organisation which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -1935,10 +1931,18 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>grant agency</t>
+        </is>
+      </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alcohol harm prevention organisation </t>
+        </is>
+      </c>
       <c r="M27" s="2" t="inlineStr"/>
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
@@ -1966,20 +1970,16 @@
       <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cancer charity </t>
+          <t>analytical laboratory</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>An organisation which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
+          <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
+      <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
@@ -1991,23 +1991,15 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>charity</t>
-        </is>
-      </c>
+      <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cancer prevention organisation </t>
-        </is>
-      </c>
+      <c r="L28" s="2" t="inlineStr"/>
       <c r="M28" s="2" t="inlineStr"/>
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>0</v>
@@ -2027,25 +2019,21 @@
       <c r="V28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000414</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
+          <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
+          <t>An organisation which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
@@ -2061,17 +2049,21 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
+          <t>charity</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cancer prevention organisation </t>
+        </is>
+      </c>
       <c r="M29" s="2" t="inlineStr"/>
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="2" t="n">
         <v>0</v>
@@ -2079,7 +2071,7 @@
       <c r="R29" s="2" t="inlineStr"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
@@ -2093,23 +2085,23 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000415</t>
+          <t>ADDICTO:0000414</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis industry </t>
+          <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>An industry in which the product is cannabis.</t>
+          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
@@ -2125,7 +2117,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product; marketer of product  </t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
@@ -2143,7 +2135,7 @@
       <c r="R30" s="2" t="inlineStr"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
@@ -2157,23 +2149,23 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000416</t>
+          <t>ADDICTO:0000415</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>cannabis retail outlet</t>
+          <t xml:space="preserve">cannabis industry </t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
+          <t>An industry in which the product is cannabis.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>cannabis retailer</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
@@ -2189,7 +2181,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
@@ -2221,23 +2213,23 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000417</t>
+          <t>ADDICTO:0000416</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis retailer </t>
+          <t>cannabis retail outlet</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
+          <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">cannabis company </t>
+          <t>cannabis retailer</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
@@ -2253,7 +2245,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>supplier of product</t>
+          <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
@@ -2283,27 +2275,31 @@
       <c r="V32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr"/>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000417</t>
+        </is>
+      </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">charity </t>
+          <t xml:space="preserve">cannabis retailer </t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role played by an organisation that raises distributes income for charitable purposes. </t>
+          <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2311,7 +2307,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>supplier of product</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr"/>
@@ -2319,7 +2319,7 @@
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2" t="n">
         <v>0</v>
@@ -2335,33 +2335,25 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH; CN</t>
-        </is>
-      </c>
+      <c r="U33" s="2" t="inlineStr"/>
       <c r="V33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000418</t>
-        </is>
-      </c>
+      <c r="A34" s="2" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>convenience store</t>
+          <t xml:space="preserve">charity </t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
+          <t xml:space="preserve">A role played by an organisation that raises distributes income for charitable purposes. </t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
@@ -2375,18 +2367,10 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product </t>
-        </is>
-      </c>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>shop; local shop; local store</t>
-        </is>
-      </c>
+      <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr"/>
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
@@ -2407,29 +2391,33 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>RW; JH; CN</t>
+        </is>
+      </c>
       <c r="V34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000419</t>
+          <t>ADDICTO:0000418</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette company</t>
+          <t>convenience store</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+          <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>company</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
@@ -2445,12 +2433,16 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
+          <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>shop; local shop; local store</t>
+        </is>
+      </c>
       <c r="M35" s="2" t="inlineStr"/>
       <c r="N35" s="2" t="inlineStr"/>
       <c r="O35" s="2" t="inlineStr"/>
@@ -2463,185 +2455,177 @@
       <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000419</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette company</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U35" s="2" t="inlineStr">
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V35" s="2" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="V36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000420</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>e-cigarette industry</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>An industry in which the product is electronic cigarettes or e-liquid.</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr"/>
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">industry </t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H36" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I36" s="3" t="inlineStr">
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr"/>
-      <c r="K36" s="3" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr"/>
+      <c r="K37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
         </is>
       </c>
-      <c r="L36" s="3" t="inlineStr">
+      <c r="L37" s="3" t="inlineStr">
         <is>
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
-      <c r="P36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3" t="inlineStr"/>
-      <c r="S36" s="3" t="inlineStr">
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr"/>
+      <c r="P37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T36" s="3" t="inlineStr">
+      <c r="T37" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="3" t="inlineStr"/>
-      <c r="V36" s="3" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000421</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette retailer</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette company</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; retailer of product </t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW; CN</t>
-        </is>
-      </c>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr"/>
+      <c r="V37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000422</t>
+          <t>ADDICTO:0000421</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette shop</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
+          <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette company</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
@@ -2657,12 +2641,16 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">retailer of product </t>
+          <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
+        </is>
+      </c>
       <c r="M38" s="2" t="inlineStr"/>
       <c r="N38" s="2" t="inlineStr"/>
       <c r="O38" s="2" t="inlineStr"/>
@@ -2693,23 +2681,23 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000423</t>
+          <t>ADDICTO:0000422</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>e-liquid company</t>
+          <t>e-cigarette shop</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
+          <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette organisation</t>
+          <t>e-cigarette retailer</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
@@ -2725,7 +2713,7 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">supplier of product; marketer of product  </t>
+          <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
@@ -2761,29 +2749,29 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000424</t>
+          <t>ADDICTO:0000423</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>gambling industry</t>
+          <t>e-liquid company</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>An industry in which the services provided relate to gambling activities.</t>
+          <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t>e-cigarette organisation</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -2791,7 +2779,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product  </t>
+        </is>
+      </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr"/>
@@ -2799,7 +2791,7 @@
       <c r="N40" s="2" t="inlineStr"/>
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="2" t="n">
         <v>0</v>
@@ -2807,323 +2799,315 @@
       <c r="R40" s="2" t="inlineStr"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000424</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>gambling industry</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>An industry in which the services provided relate to gambling activities.</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">industry </t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000425</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>government agency</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr"/>
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr"/>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr">
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr"/>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="O41" s="3" t="inlineStr"/>
-      <c r="P41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="inlineStr"/>
-      <c r="S41" s="3" t="inlineStr">
+      <c r="O42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="T41" s="3" t="inlineStr">
+      <c r="T42" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="3" t="inlineStr"/>
-      <c r="V41" s="3" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000880</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>grant agency</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>An organization that provides funding support for projects such as investigations.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0001942</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>funder</t>
         </is>
       </c>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr">
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T42" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000426</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>independent e-cigarette company</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr"/>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr"/>
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H43" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I43" s="3" t="inlineStr">
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr">
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr">
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr">
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T43" s="3" t="inlineStr">
+      <c r="T44" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="3" t="inlineStr">
+      <c r="U44" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="V43" s="3" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000427</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>independent e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vape industry; independent vape industry </t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>JH; SC; CN</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW;  </t>
-        </is>
-      </c>
-      <c r="V44" s="2" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000829</t>
+          <t>ADDICTO:0000427</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>independent e-cigarette retailer</t>
+          <t>independent e-cigarette industry</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette industry</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3133,14 +3117,14 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">retailer of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+          <t xml:space="preserve">vape industry; independent vape industry </t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr"/>
@@ -3155,7 +3139,7 @@
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>JH; SC; CN</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
@@ -3165,79 +3149,95 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW;  </t>
         </is>
       </c>
       <c r="V45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000829</t>
+        </is>
+      </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>independent legal advisory institution</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr"/>
+          <t>independent e-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
       <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette retailer</t>
+        </is>
+      </c>
       <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retailer of product </t>
+        </is>
+      </c>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+        </is>
+      </c>
       <c r="M46" s="2" t="inlineStr"/>
       <c r="N46" s="2" t="inlineStr"/>
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
       <c r="V46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000428</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>industry</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
-        </is>
-      </c>
+          <t>independent legal advisory institution</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
       <c r="D47" s="2" t="inlineStr"/>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
+      <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3251,53 +3251,49 @@
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>JH; SC</t>
-        </is>
-      </c>
+      <c r="S47" s="2" t="inlineStr"/>
       <c r="T47" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW; CN</t>
-        </is>
-      </c>
+      <c r="U47" s="2" t="inlineStr"/>
       <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000429</t>
+          <t>ADDICTO:0000428</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>marketer of product</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3319,7 +3315,7 @@
       <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>JH; SC</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
@@ -3337,31 +3333,27 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000881</t>
+          <t>ADDICTO:0000429</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>medical and health care service</t>
+          <t>marketer of product</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>role</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3383,170 +3375,174 @@
       <c r="R49" s="2" t="inlineStr"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
+      <c r="V49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000881</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>medical and health care service</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000431</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="F51" s="3" t="inlineStr"/>
+      <c r="G51" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H50" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
-      <c r="K50" s="3" t="inlineStr">
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr"/>
+      <c r="K51" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
         </is>
       </c>
-      <c r="L50" s="3" t="inlineStr">
+      <c r="L51" s="3" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr"/>
-      <c r="T50" s="3" t="inlineStr">
+      <c r="M51" s="3" t="inlineStr"/>
+      <c r="N51" s="3" t="inlineStr"/>
+      <c r="O51" s="3" t="inlineStr"/>
+      <c r="P51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3" t="inlineStr"/>
+      <c r="S51" s="3" t="inlineStr"/>
+      <c r="T51" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="3" t="inlineStr"/>
-      <c r="V50" s="3" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="U51" s="3" t="inlineStr"/>
+      <c r="V51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000430</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T51" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr"/>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">regulatory agency </t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
       <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+      <c r="G52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
@@ -3555,7 +3551,7 @@
       <c r="N52" s="2" t="inlineStr"/>
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
         <v>0</v>
@@ -3563,7 +3559,7 @@
       <c r="R52" s="2" t="inlineStr"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr">
@@ -3578,22 +3574,22 @@
       <c r="A53" s="2" t="inlineStr"/>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">research organisation </t>
+          <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>An organisation formed with a goal to have its members conduct investigations.</t>
+          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>role</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3631,37 +3627,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U53" s="2" t="inlineStr">
-        <is>
-          <t>RW; CN; JH</t>
-        </is>
-      </c>
+      <c r="U53" s="2" t="inlineStr"/>
       <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
+      <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">research organisation </t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr"/>
+          <t>An organisation formed with a goal to have its members conduct investigations.</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
+        </is>
+      </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3683,7 +3679,7 @@
       <c r="R54" s="2" t="inlineStr"/>
       <c r="S54" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T54" s="2" t="inlineStr">
@@ -3693,21 +3689,33 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t>RW; CN; JH</t>
         </is>
       </c>
       <c r="V54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000433</t>
+        </is>
+      </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr"/>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
       <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr">
@@ -3723,43 +3731,39 @@
       <c r="N55" s="2" t="inlineStr"/>
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
       <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="inlineStr"/>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
+      <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr">
@@ -3775,80 +3779,56 @@
       <c r="N56" s="2" t="inlineStr"/>
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
+      <c r="S56" s="2" t="inlineStr"/>
       <c r="T56" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW; CN</t>
-        </is>
-      </c>
+      <c r="U56" s="2" t="inlineStr"/>
       <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
       <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="N57" s="2" t="inlineStr"/>
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="n">
         <v>1</v>
@@ -3877,29 +3857,29 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000918</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>tobacco funding</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
+          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -3907,12 +3887,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="L58" s="2" t="inlineStr"/>
       <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="n">
         <v>1</v>
@@ -3941,29 +3933,29 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000918</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>tobacco industry</t>
+          <t>tobacco funding</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -4005,29 +3997,29 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco industry</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -4035,11 +4027,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
+      <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr"/>
@@ -4073,23 +4061,23 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -4105,7 +4093,7 @@
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr"/>
@@ -4141,23 +4129,23 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000438</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -4206,6 +4194,74 @@
       </c>
       <c r="V62" s="2" t="inlineStr"/>
     </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2" t="inlineStr"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
+      <c r="V63" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1758,7 +1758,9 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
@@ -3451,158 +3453,156 @@
       <c r="V50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_004615</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>non-profit organisation</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>An organization dedicated to furthering a particular social cause or advocating for a shared point of view. In economic terms, it is an organization that uses its surplus of the revenues to further achieve its ultimate objective, rather than distributing its income to the organization's shareholders, leaders, or members.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_004615</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000431</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr"/>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr"/>
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H51" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I51" s="3" t="inlineStr"/>
-      <c r="J51" s="3" t="inlineStr"/>
-      <c r="K51" s="3" t="inlineStr">
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr"/>
+      <c r="J52" s="3" t="inlineStr"/>
+      <c r="K52" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
         </is>
       </c>
-      <c r="L51" s="3" t="inlineStr">
+      <c r="L52" s="3" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="3" t="inlineStr"/>
-      <c r="O51" s="3" t="inlineStr"/>
-      <c r="P51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="3" t="inlineStr"/>
-      <c r="S51" s="3" t="inlineStr"/>
-      <c r="T51" s="3" t="inlineStr">
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="inlineStr"/>
+      <c r="S52" s="3" t="inlineStr"/>
+      <c r="T52" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U51" s="3" t="inlineStr"/>
-      <c r="V51" s="3" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="U52" s="3" t="inlineStr"/>
+      <c r="V52" s="3" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000430</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T52" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr"/>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">regulatory agency </t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
       <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
@@ -3611,7 +3611,7 @@
       <c r="N53" s="2" t="inlineStr"/>
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
         <v>0</v>
@@ -3619,7 +3619,7 @@
       <c r="R53" s="2" t="inlineStr"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">research organisation </t>
+          <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>An organisation formed with a goal to have its members conduct investigations.</t>
+          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>role</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3687,37 +3687,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>RW; CN; JH</t>
-        </is>
-      </c>
+      <c r="U54" s="2" t="inlineStr"/>
       <c r="V54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="inlineStr"/>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">research organisation </t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr"/>
+          <t>An organisation formed with a goal to have its members conduct investigations.</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
+        </is>
+      </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3739,7 +3739,7 @@
       <c r="R55" s="2" t="inlineStr"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr">
@@ -3749,21 +3749,33 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t>RW; CN; JH</t>
         </is>
       </c>
       <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000433</t>
+        </is>
+      </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr"/>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
       <c r="D56" s="2" t="inlineStr"/>
-      <c r="E56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr">
@@ -3779,43 +3791,39 @@
       <c r="N56" s="2" t="inlineStr"/>
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
       <c r="T56" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
       <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
       <c r="D57" s="2" t="inlineStr"/>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
+      <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr">
@@ -3831,80 +3839,56 @@
       <c r="N57" s="2" t="inlineStr"/>
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
+      <c r="S57" s="2" t="inlineStr"/>
       <c r="T57" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW; CN</t>
-        </is>
-      </c>
+      <c r="U57" s="2" t="inlineStr"/>
       <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr"/>
       <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="N58" s="2" t="inlineStr"/>
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="n">
         <v>1</v>
@@ -3933,29 +3917,29 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000918</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>tobacco funding</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
+          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -3963,12 +3947,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="L59" s="2" t="inlineStr"/>
       <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="n">
         <v>1</v>
@@ -3997,29 +3993,29 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000918</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>tobacco industry</t>
+          <t>tobacco funding</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -4061,29 +4057,29 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco industry</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -4091,11 +4087,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
+      <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr"/>
@@ -4129,23 +4121,23 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -4161,7 +4153,7 @@
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr"/>
@@ -4197,23 +4189,23 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000438</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -4262,6 +4254,74 @@
       </c>
       <c r="V63" s="2" t="inlineStr"/>
     </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="2" t="inlineStr"/>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U64" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
+      <c r="V64" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3009,179 +3009,165 @@
       <c r="V43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_007328</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">health organisation </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Organizations which provide health services.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_007328</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>organisations</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000426</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>independent e-cigarette company</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr"/>
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H44" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I44" s="3" t="inlineStr">
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr">
+      <c r="J45" s="3" t="inlineStr"/>
+      <c r="K45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M44" s="3" t="inlineStr"/>
-      <c r="N44" s="3" t="inlineStr">
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr">
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T44" s="3" t="inlineStr">
+      <c r="T45" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U44" s="3" t="inlineStr">
+      <c r="U45" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="V44" s="3" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000427</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>independent e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vape industry; independent vape industry </t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr">
-        <is>
-          <t>JH; SC; CN</t>
-        </is>
-      </c>
-      <c r="T45" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW;  </t>
-        </is>
-      </c>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000829</t>
+          <t>ADDICTO:0000427</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>independent e-cigarette retailer</t>
+          <t>independent e-cigarette industry</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette industry</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -3191,14 +3177,14 @@
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">retailer of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+          <t xml:space="preserve">vape industry; independent vape industry </t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr"/>
@@ -3213,7 +3199,7 @@
       <c r="R46" s="2" t="inlineStr"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>JH; SC; CN</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
@@ -3223,79 +3209,95 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW;  </t>
         </is>
       </c>
       <c r="V46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000829</t>
+        </is>
+      </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>independent legal advisory institution</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr"/>
+          <t>independent e-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
       <c r="D47" s="2" t="inlineStr"/>
-      <c r="E47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette retailer</t>
+        </is>
+      </c>
       <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retailer of product </t>
+        </is>
+      </c>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+        </is>
+      </c>
       <c r="M47" s="2" t="inlineStr"/>
       <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
       <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000428</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>industry</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
-        </is>
-      </c>
+          <t>independent legal advisory institution</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr"/>
       <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
+      <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3309,53 +3311,49 @@
       <c r="N48" s="2" t="inlineStr"/>
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>JH; SC</t>
-        </is>
-      </c>
+      <c r="S48" s="2" t="inlineStr"/>
       <c r="T48" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW; CN</t>
-        </is>
-      </c>
+      <c r="U48" s="2" t="inlineStr"/>
       <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000429</t>
+          <t>ADDICTO:0000428</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>marketer of product</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3377,7 +3375,7 @@
       <c r="R49" s="2" t="inlineStr"/>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>JH; SC</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
@@ -3395,31 +3393,27 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000881</t>
+          <t>ADDICTO:0000429</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>medical and health care service</t>
+          <t>marketer of product</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>role</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G50" s="2" t="inlineStr"/>
       <c r="H50" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3441,228 +3435,232 @@
       <c r="R50" s="2" t="inlineStr"/>
       <c r="S50" s="2" t="inlineStr">
         <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
+      <c r="V50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000881</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>medical and health care service</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T50" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="T51" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/GSSO_004615</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>non-profit organisation</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>An organization dedicated to furthering a particular social cause or advocating for a shared point of view. In economic terms, it is an organization that uses its surplus of the revenues to further achieve its ultimate objective, rather than distributing its income to the organization's shareholders, leaders, or members.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/GSSO_004615</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000431</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr"/>
-      <c r="G52" s="3" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H52" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I52" s="3" t="inlineStr"/>
-      <c r="J52" s="3" t="inlineStr"/>
-      <c r="K52" s="3" t="inlineStr">
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr"/>
+      <c r="K53" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
         </is>
       </c>
-      <c r="L52" s="3" t="inlineStr">
+      <c r="L53" s="3" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="M52" s="3" t="inlineStr"/>
-      <c r="N52" s="3" t="inlineStr"/>
-      <c r="O52" s="3" t="inlineStr"/>
-      <c r="P52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="inlineStr"/>
-      <c r="S52" s="3" t="inlineStr"/>
-      <c r="T52" s="3" t="inlineStr">
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr"/>
+      <c r="T53" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U52" s="3" t="inlineStr"/>
-      <c r="V52" s="3" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="U53" s="3" t="inlineStr"/>
+      <c r="V53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000430</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T53" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr"/>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">regulatory agency </t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
       <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
@@ -3671,7 +3669,7 @@
       <c r="N54" s="2" t="inlineStr"/>
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
         <v>0</v>
@@ -3679,7 +3677,7 @@
       <c r="R54" s="2" t="inlineStr"/>
       <c r="S54" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T54" s="2" t="inlineStr">
@@ -3694,22 +3692,22 @@
       <c r="A55" s="2" t="inlineStr"/>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">research organisation </t>
+          <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>An organisation formed with a goal to have its members conduct investigations.</t>
+          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>role</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3747,37 +3745,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr">
-        <is>
-          <t>RW; CN; JH</t>
-        </is>
-      </c>
+      <c r="U55" s="2" t="inlineStr"/>
       <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">research organisation </t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr"/>
+          <t>An organisation formed with a goal to have its members conduct investigations.</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
+        </is>
+      </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3799,7 +3797,7 @@
       <c r="R56" s="2" t="inlineStr"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr">
@@ -3809,21 +3807,33 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t>RW; CN; JH</t>
         </is>
       </c>
       <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000433</t>
+        </is>
+      </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr"/>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
       <c r="D57" s="2" t="inlineStr"/>
-      <c r="E57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr">
@@ -3839,43 +3849,39 @@
       <c r="N57" s="2" t="inlineStr"/>
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
       <c r="T57" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
       <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="inlineStr"/>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
+      <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr">
@@ -3891,80 +3897,56 @@
       <c r="N58" s="2" t="inlineStr"/>
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
+      <c r="S58" s="2" t="inlineStr"/>
       <c r="T58" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW; CN</t>
-        </is>
-      </c>
+      <c r="U58" s="2" t="inlineStr"/>
       <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
       <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="N59" s="2" t="inlineStr"/>
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="n">
         <v>1</v>
@@ -3993,29 +3975,29 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000918</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>tobacco funding</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
+          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -4023,12 +4005,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="L60" s="2" t="inlineStr"/>
       <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="n">
         <v>1</v>
@@ -4057,29 +4051,29 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000918</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>tobacco industry</t>
+          <t>tobacco funding</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -4121,29 +4115,29 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco industry</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4151,11 +4145,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
+      <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr"/>
@@ -4189,23 +4179,23 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -4221,7 +4211,7 @@
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
       <c r="J63" s="2" t="inlineStr"/>
@@ -4257,23 +4247,23 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000438</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -4322,6 +4312,74 @@
       </c>
       <c r="V64" s="2" t="inlineStr"/>
     </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
+      <c r="L65" s="2" t="inlineStr"/>
+      <c r="M65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="inlineStr"/>
+      <c r="O65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="2" t="inlineStr"/>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U65" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
+      <c r="V65" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>organisations</t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3067,179 +3067,165 @@
       <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_003501</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">human rights organisation </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Organizations which support or otherwise advocate for human rights.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GSSO_003501</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000426</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>independent e-cigarette company</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr"/>
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H45" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I45" s="3" t="inlineStr">
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr"/>
-      <c r="K45" s="3" t="inlineStr"/>
-      <c r="L45" s="3" t="inlineStr">
+      <c r="J46" s="3" t="inlineStr"/>
+      <c r="K46" s="3" t="inlineStr"/>
+      <c r="L46" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M45" s="3" t="inlineStr"/>
-      <c r="N45" s="3" t="inlineStr">
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="inlineStr"/>
-      <c r="S45" s="3" t="inlineStr">
+      <c r="O46" s="3" t="inlineStr"/>
+      <c r="P46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T45" s="3" t="inlineStr">
+      <c r="T46" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U45" s="3" t="inlineStr">
+      <c r="U46" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="V45" s="3" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000427</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>independent e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>e-cigarette industry</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">vape industry; independent vape industry </t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>JH; SC; CN</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW;  </t>
-        </is>
-      </c>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000829</t>
+          <t>ADDICTO:0000427</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>independent e-cigarette retailer</t>
+          <t>independent e-cigarette industry</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+          <t>An e-cigarette industry that has only independent e-cigarette companies as a part.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>e-cigarette retailer</t>
+          <t>e-cigarette industry</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3249,14 +3235,14 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">retailer of product </t>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+          <t xml:space="preserve">vape industry; independent vape industry </t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr"/>
@@ -3271,7 +3257,7 @@
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>JH; SC; CN</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
@@ -3281,79 +3267,95 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t xml:space="preserve"> RW;  </t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000829</t>
+        </is>
+      </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>independent legal advisory institution</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr"/>
+          <t>independent e-cigarette retailer</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
+        </is>
+      </c>
       <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>e-cigarette retailer</t>
+        </is>
+      </c>
       <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">retailer of product </t>
+        </is>
+      </c>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
+        </is>
+      </c>
       <c r="M48" s="2" t="inlineStr"/>
       <c r="N48" s="2" t="inlineStr"/>
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
       <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000428</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>industry</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
-        </is>
-      </c>
+          <t>independent legal advisory institution</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
+      <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3367,53 +3369,49 @@
       <c r="N49" s="2" t="inlineStr"/>
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>JH; SC</t>
-        </is>
-      </c>
+      <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW; CN</t>
-        </is>
-      </c>
+      <c r="U49" s="2" t="inlineStr"/>
       <c r="V49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000429</t>
+          <t>ADDICTO:0000428</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>marketer of product</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
+          <t>An aggregate of organisations that manufacture, prepare for sale, distribute, market or promote products or services.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>organisation aggregate</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3435,7 +3433,7 @@
       <c r="R50" s="2" t="inlineStr"/>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>JH; SC</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
@@ -3453,31 +3451,27 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000881</t>
+          <t>ADDICTO:0000429</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>medical and health care service</t>
+          <t>marketer of product</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>role</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Role </t>
-        </is>
-      </c>
+      <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3499,228 +3493,232 @@
       <c r="R51" s="2" t="inlineStr"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000881</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>medical and health care service</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Role </t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T51" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="T52" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/GSSO_004615</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>non-profit organisation</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>An organization dedicated to furthering a particular social cause or advocating for a shared point of view. In economic terms, it is an organization that uses its surplus of the revenues to further achieve its ultimate objective, rather than distributing its income to the organization's shareholders, leaders, or members.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/GSSO_004615</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000431</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr"/>
+      <c r="G54" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H53" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I53" s="3" t="inlineStr"/>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr">
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr"/>
+      <c r="K54" s="3" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
         </is>
       </c>
-      <c r="L53" s="3" t="inlineStr">
+      <c r="L54" s="3" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
-      <c r="O53" s="3" t="inlineStr"/>
-      <c r="P53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="3" t="inlineStr"/>
-      <c r="S53" s="3" t="inlineStr"/>
-      <c r="T53" s="3" t="inlineStr">
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="inlineStr"/>
+      <c r="S54" s="3" t="inlineStr"/>
+      <c r="T54" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U53" s="3" t="inlineStr"/>
-      <c r="V53" s="3" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="U54" s="3" t="inlineStr"/>
+      <c r="V54" s="3" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000430</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr"/>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">regulatory agency </t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
       <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
@@ -3729,7 +3727,7 @@
       <c r="N55" s="2" t="inlineStr"/>
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2" t="n">
         <v>0</v>
@@ -3737,7 +3735,7 @@
       <c r="R55" s="2" t="inlineStr"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr">
@@ -3752,22 +3750,22 @@
       <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">research organisation </t>
+          <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>An organisation formed with a goal to have its members conduct investigations.</t>
+          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>role</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3805,37 +3803,37 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr">
-        <is>
-          <t>RW; CN; JH</t>
-        </is>
-      </c>
+      <c r="U56" s="2" t="inlineStr"/>
       <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000433</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">research organisation </t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr"/>
+          <t>An organisation formed with a goal to have its members conduct investigations.</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
+        </is>
+      </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">organisation </t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -3857,7 +3855,7 @@
       <c r="R57" s="2" t="inlineStr"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr">
@@ -3867,21 +3865,33 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RW; CN</t>
+          <t>RW; CN; JH</t>
         </is>
       </c>
       <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr"/>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000433</t>
+        </is>
+      </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>statutory child protection agency</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr"/>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is sold.</t>
+        </is>
+      </c>
       <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr">
@@ -3897,43 +3907,39 @@
       <c r="N58" s="2" t="inlineStr"/>
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
       <c r="T58" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
       <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000434</t>
-        </is>
-      </c>
+      <c r="A59" s="2" t="inlineStr"/>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
-        </is>
-      </c>
+          <t>statutory child protection agency</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
       <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
+      <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr">
@@ -3949,80 +3955,56 @@
       <c r="N59" s="2" t="inlineStr"/>
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
+      <c r="S59" s="2" t="inlineStr"/>
       <c r="T59" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> RW; CN</t>
-        </is>
-      </c>
+      <c r="U59" s="2" t="inlineStr"/>
       <c r="V59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000435</t>
+          <t>ADDICTO:0000434</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>supplier of product</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
+          <t>A role performed by an organisation or individual who participates in processes through which a product is obtained or brought to the retailer or user.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+      <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr"/>
       <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr">
-        <is>
-          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
-        </is>
-      </c>
+      <c r="N60" s="2" t="inlineStr"/>
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="n">
         <v>1</v>
@@ -4051,29 +4033,29 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000918</t>
+          <t>ADDICTO:0000435</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>tobacco funding</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
+          <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">role </t>
+          <t>Role</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -4081,12 +4063,24 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">supplier of product; marketer of product </t>
+        </is>
+      </c>
       <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="L61" s="2" t="inlineStr"/>
       <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
+        </is>
+      </c>
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="n">
         <v>1</v>
@@ -4115,29 +4109,29 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000436</t>
+          <t>ADDICTO:0000918</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>tobacco industry</t>
+          <t>tobacco funding</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An industry in which the product is tobacco. </t>
+          <t xml:space="preserve">A role that is provided by a tobacco company. </t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">industry </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t xml:space="preserve">role </t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -4179,29 +4173,29 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000437</t>
+          <t>ADDICTO:0000436</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>tobacco retail outlet</t>
+          <t>tobacco industry</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">An industry in which the product is tobacco. </t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t xml:space="preserve">industry </t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -4209,11 +4203,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
+      <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr"/>
@@ -4247,23 +4237,23 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000438</t>
+          <t>ADDICTO:0000437</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco retail outlet</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
+          <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>tobacco company</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -4279,7 +4269,7 @@
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>retailer of product</t>
+          <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr"/>
@@ -4315,23 +4305,23 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000439</t>
+          <t>ADDICTO:0000438</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>tobacconist</t>
+          <t>tobacco retailer</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>tobacco company</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -4380,6 +4370,74 @@
       </c>
       <c r="V65" s="2" t="inlineStr"/>
     </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000439</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>tobacconist</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>A tobacco retailer that has a physical outlet.</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>tobacco retailer</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>retailer of product</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
+      <c r="M66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2" t="inlineStr"/>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>SC; JH</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U66" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RW; CN</t>
+        </is>
+      </c>
+      <c r="V66" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1841,7 +1841,11 @@
       <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr"/>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000974</t>
+        </is>
+      </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
@@ -1977,7 +1981,11 @@
       <c r="V26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000975</t>
+        </is>
+      </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol organistion </t>
@@ -2045,7 +2053,11 @@
       <c r="V27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000976</t>
+        </is>
+      </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
@@ -2105,7 +2117,11 @@
       <c r="V28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr"/>
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000977</t>
+        </is>
+      </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
@@ -2443,7 +2459,11 @@
       <c r="V33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000978</t>
+        </is>
+      </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">charity </t>
@@ -3915,7 +3935,11 @@
       <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000979</t>
+        </is>
+      </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">regulatory agency </t>
@@ -3977,7 +4001,11 @@
       <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000980</t>
+        </is>
+      </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">research organisation </t>
@@ -4573,7 +4601,7 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t>A tobacco retailer that has a physical outlet where tobacco products are the major part of their product range.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -4615,7 +4643,7 @@
       <c r="R66" s="2" t="inlineStr"/>
       <c r="S66" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; KS</t>
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3174CB15-60EF-884D-AF40-F0BAC0CFD18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9599D7E-9F94-B64A-AAC3-EEA709C5FBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1080" yWindow="-16840" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="268">
   <si>
     <t>ID</t>
   </si>
@@ -334,9 +334,6 @@
     <t>External</t>
   </si>
   <si>
-    <t>ADDICTO:0000974</t>
-  </si>
-  <si>
     <t xml:space="preserve">alcohol change UK </t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t xml:space="preserve">supplier of product; marketer of product  </t>
   </si>
   <si>
-    <t>ADDICTO:0000975</t>
-  </si>
-  <si>
     <t xml:space="preserve">alcohol organistion </t>
   </si>
   <si>
@@ -376,18 +370,12 @@
     <t xml:space="preserve">alcohol harm prevention organisation </t>
   </si>
   <si>
-    <t>ADDICTO:0000976</t>
-  </si>
-  <si>
     <t>analytical laboratory</t>
   </si>
   <si>
     <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
   </si>
   <si>
-    <t>ADDICTO:0000977</t>
-  </si>
-  <si>
     <t>An organisation which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
   </si>
   <si>
@@ -448,9 +436,6 @@
     <t>supplier of product</t>
   </si>
   <si>
-    <t>ADDICTO:0000978</t>
-  </si>
-  <si>
     <t xml:space="preserve">charity </t>
   </si>
   <si>
@@ -712,18 +697,12 @@
     <t>object aggregate</t>
   </si>
   <si>
-    <t>ADDICTO:0000979</t>
-  </si>
-  <si>
     <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000450</t>
   </si>
   <si>
-    <t>ADDICTO:0000980</t>
-  </si>
-  <si>
     <t xml:space="preserve">research organisation </t>
   </si>
   <si>
@@ -812,13 +791,46 @@
   </si>
   <si>
     <t>Sub-ontology</t>
+  </si>
+  <si>
+    <t>ADDICTO:0001097</t>
+  </si>
+  <si>
+    <t>ADDICTO:0001098</t>
+  </si>
+  <si>
+    <t>ADDICTO:0001099</t>
+  </si>
+  <si>
+    <t>ADDICTO:0001100</t>
+  </si>
+  <si>
+    <t>ADDICTO:0001101</t>
+  </si>
+  <si>
+    <t>ADDICTO:0001102</t>
+  </si>
+  <si>
+    <t>ADDICTO:0001103</t>
+  </si>
+  <si>
+    <t>GSSO:003501</t>
+  </si>
+  <si>
+    <t>GSSO:004615</t>
+  </si>
+  <si>
+    <t>GSSO:005379</t>
+  </si>
+  <si>
+    <t>GSSO:007328</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +842,12 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1171,11 +1189,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16">
       <c r="A1" s="1" t="s">
@@ -1200,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1246,38 +1267,52 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
@@ -1374,33 +1409,45 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2">
-        <v>1</v>
+      <c r="P5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="T5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1408,33 +1455,45 @@
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2">
-        <v>1</v>
+      <c r="P6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="T6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1443,38 +1502,36 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2">
-        <v>1</v>
+      <c r="P7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>23</v>
@@ -1490,33 +1547,45 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2">
-        <v>1</v>
+      <c r="P8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="T8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1524,194 +1593,224 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
-        <v>23</v>
+      <c r="P10" s="2">
+        <v>1</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="T10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1727,27 +1826,29 @@
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="2"/>
+      <c r="U13" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
@@ -1757,11 +1858,9 @@
         <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1775,29 +1874,29 @@
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="U14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
@@ -1809,14 +1908,12 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2">
-        <v>1</v>
+      <c r="P15" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>23</v>
@@ -1832,146 +1929,178 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2" t="s">
+      <c r="A17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="T17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="V17" s="3"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2" t="s">
-        <v>23</v>
+      <c r="P18" s="2">
+        <v>1</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="T18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="2"/>
+      <c r="U18" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1983,22 +2112,30 @@
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="2"/>
+      <c r="U19" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
@@ -2011,53 +2148,59 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
-        <v>23</v>
+      <c r="P20" s="2">
+        <v>1</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U20" s="2"/>
+      <c r="U20" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2">
-        <v>1</v>
+      <c r="P21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>24</v>
@@ -2066,72 +2209,94 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2" t="s">
-        <v>23</v>
+      <c r="P23" s="2">
+        <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>24</v>
@@ -2140,144 +2305,158 @@
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" t="s">
-        <v>39</v>
-      </c>
-      <c r="T24" t="s">
-        <v>103</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2" t="s">
-        <v>23</v>
+      <c r="P25" s="2">
+        <v>1</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U25" s="2"/>
+      <c r="U25" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="A26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="2" t="s">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>116</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
@@ -2286,106 +2465,106 @@
       <c r="H27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
-        <v>23</v>
+      <c r="P27" s="2">
+        <v>1</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U27" s="2"/>
+      <c r="U27" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="2" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2" t="s">
-        <v>23</v>
+      <c r="P28" s="2">
+        <v>1</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="2"/>
+      <c r="U28" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="2" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2397,37 +2576,39 @@
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="2"/>
+      <c r="U29" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V29" s="2"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="2" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2435,92 +2616,90 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2" t="s">
-        <v>23</v>
+      <c r="P30" s="2">
+        <v>1</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U30" s="2"/>
+      <c r="U30" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="2" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2" t="s">
-        <v>23</v>
+      <c r="P31" s="2">
+        <v>1</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U31" s="2"/>
+      <c r="U31" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="2" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2535,7 +2714,7 @@
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>24</v>
@@ -2545,36 +2724,38 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="2" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2" t="s">
-        <v>23</v>
+      <c r="P33" s="2">
+        <v>1</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>23</v>
@@ -2590,122 +2771,126 @@
       <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="V34" s="2"/>
+      <c r="H34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
+      <c r="A35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
+      <c r="H35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="2" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2721,94 +2906,90 @@
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U36" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="J37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="2" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -2821,43 +3002,43 @@
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2869,40 +3050,36 @@
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U39" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="2" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2917,33 +3094,31 @@
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U40" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="2" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>22</v>
@@ -2955,83 +3130,83 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2" t="s">
-        <v>23</v>
+      <c r="P41" s="2">
+        <v>1</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
+      <c r="T42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="2" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
@@ -3040,24 +3215,26 @@
       <c r="H43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="2">
-        <v>1</v>
+      <c r="P43" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="T43" s="2" t="s">
         <v>24</v>
@@ -3066,150 +3243,170 @@
       <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="A44" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="P44" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T44" t="s">
-        <v>103</v>
-      </c>
+      <c r="T44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" t="s">
-        <v>22</v>
-      </c>
-      <c r="P45" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="A45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T45" t="s">
-        <v>103</v>
-      </c>
+      <c r="T45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
+      <c r="A46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3" t="s">
+      <c r="H46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="V46" s="3"/>
+      <c r="T46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="2" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2" t="s">
-        <v>200</v>
-      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -3221,29 +3418,29 @@
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U47" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="2" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
@@ -3252,14 +3449,10 @@
       <c r="H48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -3271,278 +3464,220 @@
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="T48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P49" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49" t="s">
+        <v>39</v>
+      </c>
+      <c r="T49" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="V50" s="2"/>
+      <c r="A50" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="P50" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50" t="s">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="V51" s="2"/>
+      <c r="A51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="P51" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T51" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2" t="s">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="P52" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52" t="s">
         <v>39</v>
       </c>
-      <c r="T52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
+      <c r="T52" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B53" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" t="s">
-        <v>218</v>
-      </c>
-      <c r="E53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" t="s">
-        <v>22</v>
-      </c>
-      <c r="P53" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" t="s">
-        <v>39</v>
-      </c>
-      <c r="T53" t="s">
-        <v>103</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
@@ -3555,16 +3690,14 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2" t="s">
-        <v>23</v>
+      <c r="P55" s="2">
+        <v>1</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R55" s="2"/>
-      <c r="S55" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="S55" s="2"/>
       <c r="T55" s="2" t="s">
         <v>24</v>
       </c>
@@ -3572,25 +3705,15 @@
       <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
         <v>22</v>
       </c>
@@ -3608,9 +3731,7 @@
         <v>23</v>
       </c>
       <c r="R56" s="2"/>
-      <c r="S56" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="S56" s="2"/>
       <c r="T56" s="2" t="s">
         <v>24</v>
       </c>
@@ -3618,25 +3739,15 @@
       <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="2" t="s">
-        <v>233</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
         <v>22</v>
       </c>
@@ -3647,38 +3758,28 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="2">
-        <v>1</v>
+      <c r="P57" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R57" s="2"/>
-      <c r="S57" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="S57" s="2"/>
       <c r="T57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U57" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
@@ -3698,21 +3799,17 @@
         <v>23</v>
       </c>
       <c r="R58" s="2"/>
-      <c r="S58" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="S58" s="2"/>
       <c r="T58" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U58" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U58" s="2"/>
       <c r="V58" s="2"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3725,12 +3822,14 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="2" t="s">
-        <v>23</v>
+      <c r="P59" s="2">
+        <v>1</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>23</v>
@@ -3744,28 +3843,26 @@
       <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>243</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -3777,86 +3874,60 @@
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="T60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U60" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U60" s="2"/>
       <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="L61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
-      <c r="P61" s="2">
-        <v>1</v>
+      <c r="P61" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R61" s="2"/>
-      <c r="S61" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="S61" s="2"/>
       <c r="T61" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U61" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U61" s="2"/>
       <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>250</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>250</v>
-      </c>
+      <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
         <v>22</v>
       </c>
@@ -3867,46 +3938,38 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
-      <c r="P62" s="2">
-        <v>1</v>
+      <c r="P62" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="T62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U62" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U62" s="2"/>
       <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3921,161 +3984,123 @@
       </c>
       <c r="R63" s="2"/>
       <c r="S63" s="2" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U63" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U63" s="2"/>
       <c r="V63" s="2"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>256</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="2">
-        <v>1</v>
+      <c r="P64" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R64" s="2"/>
       <c r="S64" s="2" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="T64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U64" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U64" s="2"/>
       <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>259</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="2">
-        <v>1</v>
+      <c r="P65" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R65" s="2"/>
-      <c r="S65" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="S65" s="2"/>
       <c r="T65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U65" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U65" s="2"/>
       <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>262</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="2">
-        <v>1</v>
+      <c r="P66" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R66" s="2"/>
-      <c r="S66" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="S66" s="2"/>
       <c r="T66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U66" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="U66" s="2"/>
       <c r="V66" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:V66">
+    <sortCondition ref="A2:A66"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role played by an organisation that raises distributes income for charitable purposes. </t>
+          <t xml:space="preserve">A role played by an organisation that raises and distributes income for charitable purposes. </t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -2509,7 +2509,7 @@
       <c r="R34" s="2" t="inlineStr"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>RW; JH; CN</t>
+          <t>RW; CN</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr"/>
@@ -4055,7 +4055,7 @@
       <c r="R57" s="2" t="inlineStr"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; JH</t>
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>RW; CN; JH</t>
+          <t>RW; CN</t>
         </is>
       </c>
       <c r="V57" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -3805,134 +3805,136 @@
       <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000431</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>organisation</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000430</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>organisation aggregate</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>An aggregate of organisations.</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>A material entity which can play roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members.</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr"/>
-      <c r="G54" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="H54" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I54" s="3" t="inlineStr"/>
-      <c r="J54" s="3" t="inlineStr"/>
-      <c r="K54" s="3" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
         </is>
       </c>
-      <c r="L54" s="3" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr"/>
-      <c r="O54" s="3" t="inlineStr"/>
-      <c r="P54" s="3" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="n">
         <v>1</v>
       </c>
-      <c r="Q54" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" s="3" t="inlineStr"/>
-      <c r="S54" s="3" t="inlineStr"/>
-      <c r="T54" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U54" s="3" t="inlineStr"/>
-      <c r="V54" s="3" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000430</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>organisation aggregate</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>An aggregate of organisations.</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr"/>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ebfad0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -551,112 +557,112 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr"/>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>American Cancer Society</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="n">
+      <c r="C2" s="4" t="inlineStr"/>
+      <c r="D2" s="4" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="4" t="inlineStr"/>
+      <c r="G2" s="4" t="inlineStr"/>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr"/>
+      <c r="J2" s="4" t="inlineStr"/>
+      <c r="K2" s="4" t="inlineStr"/>
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="inlineStr"/>
+      <c r="N2" s="4" t="inlineStr"/>
+      <c r="O2" s="4" t="inlineStr"/>
+      <c r="P2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" s="4" t="inlineStr"/>
+      <c r="S2" s="4" t="inlineStr"/>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U2" s="4" t="inlineStr"/>
+      <c r="V2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000412</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Bloomberg Philanthropies</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>A philanthropy organisation that is based in New York.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr"/>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="n">
+      <c r="J3" s="4" t="inlineStr"/>
+      <c r="K3" s="4" t="inlineStr"/>
+      <c r="L3" s="4" t="inlineStr"/>
+      <c r="M3" s="4" t="inlineStr"/>
+      <c r="N3" s="4" t="inlineStr"/>
+      <c r="O3" s="4" t="inlineStr"/>
+      <c r="P3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" s="4" t="inlineStr"/>
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>JH; SC</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr"/>
+      <c r="V3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -729,88 +735,88 @@
       <c r="V4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr"/>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr"/>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Canadian Cancer Society</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="n">
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr"/>
+      <c r="P5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr"/>
+      <c r="V5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr"/>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Cancer Council Australia</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="n">
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr"/>
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr"/>
+      <c r="N6" s="4" t="inlineStr"/>
+      <c r="O6" s="4" t="inlineStr"/>
+      <c r="P6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr"/>
+      <c r="S6" s="4" t="inlineStr"/>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr"/>
+      <c r="V6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -883,46 +889,46 @@
       <c r="V7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr"/>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr"/>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Cancer Society New Zealand</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="n">
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr"/>
+      <c r="K8" s="4" t="inlineStr"/>
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="inlineStr"/>
+      <c r="N8" s="4" t="inlineStr"/>
+      <c r="O8" s="4" t="inlineStr"/>
+      <c r="P8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr"/>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr"/>
+      <c r="S8" s="4" t="inlineStr"/>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="inlineStr"/>
+      <c r="V8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -999,90 +1005,90 @@
       <c r="V9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr"/>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Christchurch Health</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr"/>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
+      <c r="G10" s="4" t="inlineStr"/>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr"/>
+      <c r="K10" s="4" t="inlineStr"/>
+      <c r="L10" s="4" t="inlineStr"/>
+      <c r="M10" s="4" t="inlineStr"/>
+      <c r="N10" s="4" t="inlineStr"/>
+      <c r="O10" s="4" t="inlineStr"/>
+      <c r="P10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="4" t="inlineStr"/>
+      <c r="S10" s="4" t="inlineStr"/>
+      <c r="T10" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U10" s="4" t="inlineStr"/>
+      <c r="V10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr"/>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>European Medicines Monitoring Agency</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="n">
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr"/>
+      <c r="S11" s="4" t="inlineStr"/>
+      <c r="T11" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U11" s="4" t="inlineStr"/>
+      <c r="V11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1361,152 +1367,152 @@
       <c r="V15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr"/>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>National Institute for Health and Care Excellence</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>NICE</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="n">
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr"/>
+      <c r="P16" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr"/>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">National Institute of Health Research </t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr"/>
+      <c r="K17" s="4" t="inlineStr"/>
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>NIHR</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="n">
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr"/>
+      <c r="O17" s="4" t="inlineStr"/>
+      <c r="P17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr"/>
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="T17" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U17" s="4" t="inlineStr"/>
+      <c r="V17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr"/>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr"/>
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Organization for Economic Co-operaion and Development</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr"/>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>OECD</t>
         </is>
       </c>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
+      <c r="O18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1579,202 +1585,202 @@
       <c r="V19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Puffit</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr"/>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr"/>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr"/>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="4" t="inlineStr"/>
+      <c r="S20" s="4" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="T20" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>The American Cancer Society</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency </t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="n">
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr">
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr"/>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr"/>
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>The Psychoactive Surveillance Consortium and Analysis Network (PSCAN)</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr"/>
+      <c r="J22" s="4" t="inlineStr"/>
+      <c r="K22" s="4" t="inlineStr"/>
+      <c r="L22" s="4" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr"/>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="4" t="inlineStr"/>
+      <c r="S22" s="4" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr"/>
+      <c r="T22" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U22" s="4" t="inlineStr"/>
+      <c r="V22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000856</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Volcano</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr"/>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr"/>
+      <c r="K23" s="4" t="inlineStr"/>
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr"/>
+      <c r="P23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q23" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" s="4" t="inlineStr"/>
+      <c r="S23" s="4" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr"/>
+      <c r="T23" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U23" s="4" t="inlineStr"/>
+      <c r="V23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1802,20 +1808,11 @@
           <t>organisation</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>true</t>
@@ -1826,7 +1823,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1837,76 +1833,74 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001097</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol change UK </t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A British alcohol charity and campaign group that was founded in 1984 whose aim is to reduce the harm caused by alcohol. </t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol charity </t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency; charity </t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1981,278 +1975,278 @@
       <c r="V26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001098</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol organistion </t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An organisation which specifically raises income for the purpose of the prevention and treatment of alcohol related problems. </t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr"/>
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
         <is>
           <t>grant agency</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="J27" s="4" t="inlineStr"/>
+      <c r="K27" s="4" t="inlineStr"/>
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
+      <c r="M27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr"/>
+      <c r="O27" s="4" t="inlineStr"/>
+      <c r="P27" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="T27" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001099</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>analytical laboratory</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>An organisation that undertakes assays of presence or amounts of defined chemicals in specifmens</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
+      <c r="K28" s="4" t="inlineStr"/>
+      <c r="L28" s="4" t="inlineStr"/>
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr"/>
+      <c r="O28" s="4" t="inlineStr"/>
+      <c r="P28" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q28" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="4" t="inlineStr"/>
+      <c r="S28" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
+      <c r="T28" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U28" s="4" t="inlineStr"/>
+      <c r="V28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001100</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>An organisation which specifically raises income for the purpose of the prevention and treatment of cancer.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
         <is>
           <t>charity</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="J29" s="4" t="inlineStr"/>
+      <c r="K29" s="4" t="inlineStr"/>
+      <c r="L29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer prevention organisation </t>
         </is>
       </c>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="n">
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr"/>
+      <c r="O29" s="4" t="inlineStr"/>
+      <c r="P29" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
+      <c r="T29" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U29" s="4" t="inlineStr"/>
+      <c r="V29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000414</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
+      <c r="J30" s="4" t="inlineStr"/>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
+      <c r="M30" s="4" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr"/>
+      <c r="O30" s="4" t="inlineStr"/>
+      <c r="P30" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="4" t="inlineStr"/>
+      <c r="S30" s="4" t="inlineStr">
         <is>
           <t>SC; JH; KS</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
+      <c r="T30" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U30" s="4" t="inlineStr"/>
+      <c r="V30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2525,144 +2519,144 @@
       <c r="V34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000418</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>convenience store</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A conveinance store is a retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>company</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="J35" s="4" t="inlineStr"/>
+      <c r="K35" s="4" t="inlineStr"/>
+      <c r="L35" s="4" t="inlineStr">
         <is>
           <t>shop; local shop; local store</t>
         </is>
       </c>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="n">
+      <c r="M35" s="4" t="inlineStr"/>
+      <c r="N35" s="4" t="inlineStr"/>
+      <c r="O35" s="4" t="inlineStr"/>
+      <c r="P35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr">
+      <c r="Q35" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R35" s="4" t="inlineStr"/>
+      <c r="S35" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="T35" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U35" s="4" t="inlineStr"/>
+      <c r="V35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000419</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr"/>
+      <c r="E36" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr"/>
+      <c r="G36" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="n">
+      <c r="J36" s="4" t="inlineStr"/>
+      <c r="K36" s="4" t="inlineStr"/>
+      <c r="L36" s="4" t="inlineStr"/>
+      <c r="M36" s="4" t="inlineStr"/>
+      <c r="N36" s="4" t="inlineStr"/>
+      <c r="O36" s="4" t="inlineStr"/>
+      <c r="P36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
+      <c r="Q36" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" s="4" t="inlineStr"/>
+      <c r="S36" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
+      <c r="T36" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U36" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="V36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -2883,74 +2877,74 @@
       <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000423</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>e-liquid company</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr">
         <is>
           <t>e-cigarette organisation</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product  </t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="n">
+      <c r="J40" s="4" t="inlineStr"/>
+      <c r="K40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" s="4" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr"/>
+      <c r="P40" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
+      <c r="Q40" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R40" s="4" t="inlineStr"/>
+      <c r="S40" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="inlineStr">
+      <c r="T40" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="V40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -3017,70 +3011,70 @@
       <c r="V41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000425</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>government agency</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>A governmental organisation set up for a purpose.</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr"/>
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H42" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I42" s="3" t="inlineStr"/>
-      <c r="J42" s="3" t="inlineStr"/>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr">
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I42" s="4" t="inlineStr"/>
+      <c r="J42" s="4" t="inlineStr"/>
+      <c r="K42" s="4" t="inlineStr"/>
+      <c r="L42" s="4" t="inlineStr"/>
+      <c r="M42" s="4" t="inlineStr"/>
+      <c r="N42" s="4" t="inlineStr">
         <is>
           <t>These are set up for purposes such as management of resources, financial oversight of industries, or national security issues. These organizations are typically created by legislative action, but may initially be set up by presidential order as well. The directors of these agencies are typically selected by Presidential appointment</t>
         </is>
       </c>
-      <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="n">
+      <c r="O42" s="4" t="inlineStr"/>
+      <c r="P42" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" s="3" t="inlineStr"/>
-      <c r="S42" s="3" t="inlineStr">
+      <c r="Q42" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R42" s="4" t="inlineStr"/>
+      <c r="S42" s="4" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="T42" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr"/>
+      <c r="T42" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U42" s="4" t="inlineStr"/>
+      <c r="V42" s="4" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -3178,20 +3172,11 @@
           <t>organisation</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>true</t>
@@ -3202,7 +3187,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -3213,8 +3197,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3242,20 +3224,11 @@
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>true</t>
@@ -3266,7 +3239,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3277,8 +3249,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -3507,48 +3477,48 @@
       <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr"/>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr"/>
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>independent legal advisory institution</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr"/>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
-      <c r="T49" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="C49" s="4" t="inlineStr"/>
+      <c r="D49" s="4" t="inlineStr"/>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr"/>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr"/>
+      <c r="K49" s="4" t="inlineStr"/>
+      <c r="L49" s="4" t="inlineStr"/>
+      <c r="M49" s="4" t="inlineStr"/>
+      <c r="N49" s="4" t="inlineStr"/>
+      <c r="O49" s="4" t="inlineStr"/>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr"/>
+      <c r="T49" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3679,66 +3649,66 @@
       <c r="V51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000881</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>medical and health care service</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An organisation which is involved in the prevention, diagnosis, treatment and care of people. </t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr"/>
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="n">
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr"/>
+      <c r="K52" s="4" t="inlineStr"/>
+      <c r="L52" s="4" t="inlineStr"/>
+      <c r="M52" s="4" t="inlineStr"/>
+      <c r="N52" s="4" t="inlineStr"/>
+      <c r="O52" s="4" t="inlineStr"/>
+      <c r="P52" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
+      <c r="Q52" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R52" s="4" t="inlineStr"/>
+      <c r="S52" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T52" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr"/>
+      <c r="T52" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U52" s="4" t="inlineStr"/>
+      <c r="V52" s="4" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3766,20 +3736,11 @@
           <t>organisation</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>true</t>
@@ -3790,7 +3751,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
           <t>SC</t>
@@ -3801,8 +3761,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3890,7 +3848,6 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>material entity</t>
@@ -3901,8 +3858,6 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>The definition from OBI has been slightly changed to refer to 'material entity' rather than 'continuant entity'</t>
@@ -3913,16 +3868,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
         <v>1</v>
       </c>
       <c r="Q55" t="b">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3933,8 +3884,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -4003,74 +3952,74 @@
       <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001103</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">research organisation </t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>An organisation formed with a goal to have its members conduct investigations.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0000828</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="n">
+      <c r="H57" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I57" s="4" t="inlineStr"/>
+      <c r="J57" s="4" t="inlineStr"/>
+      <c r="K57" s="4" t="inlineStr"/>
+      <c r="L57" s="4" t="inlineStr"/>
+      <c r="M57" s="4" t="inlineStr"/>
+      <c r="N57" s="4" t="inlineStr"/>
+      <c r="O57" s="4" t="inlineStr"/>
+      <c r="P57" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr">
+      <c r="Q57" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R57" s="4" t="inlineStr"/>
+      <c r="S57" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T57" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U57" s="2" t="inlineStr">
+      <c r="T57" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U57" s="4" t="inlineStr">
         <is>
           <t>RW; CN</t>
         </is>
       </c>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="V57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -4135,48 +4084,48 @@
       <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr"/>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr"/>
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>statutory child protection agency</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr"/>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr"/>
-      <c r="T59" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
+      <c r="C59" s="4" t="inlineStr"/>
+      <c r="D59" s="4" t="inlineStr"/>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr"/>
+      <c r="H59" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr"/>
+      <c r="K59" s="4" t="inlineStr"/>
+      <c r="L59" s="4" t="inlineStr"/>
+      <c r="M59" s="4" t="inlineStr"/>
+      <c r="N59" s="4" t="inlineStr"/>
+      <c r="O59" s="4" t="inlineStr"/>
+      <c r="P59" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q59" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R59" s="4" t="inlineStr"/>
+      <c r="S59" s="4" t="inlineStr"/>
+      <c r="T59" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U59" s="4" t="inlineStr"/>
+      <c r="V59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -4241,82 +4190,82 @@
       <c r="V60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000435</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of tobacco and products that include tobacco. </t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr"/>
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t>organisation</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
+      <c r="H61" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr">
+      <c r="J61" s="4" t="inlineStr"/>
+      <c r="K61" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr"/>
+      <c r="M61" s="4" t="inlineStr"/>
+      <c r="N61" s="4" t="inlineStr">
         <is>
           <t>This excludes law firms acting for the TI. It also excludes NRT manufacturers and e-cig manufacturers even though nicotine is derived from tobacco.</t>
         </is>
       </c>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="n">
+      <c r="O61" s="4" t="inlineStr"/>
+      <c r="P61" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr">
+      <c r="Q61" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R61" s="4" t="inlineStr"/>
+      <c r="S61" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T61" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U61" s="2" t="inlineStr">
+      <c r="T61" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="V61" s="4" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -665,74 +665,74 @@
       <c r="V3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000413</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>British American Tobacco P.L.C.</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>A tobacco company based in London with the company number 03407696.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>https://www.bat.com/group/sites/uk__9d9kcy.nsf/vwPagesWebLive/DO89KHEK</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr"/>
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>BAT</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="n">
+      <c r="M4" s="4" t="inlineStr"/>
+      <c r="N4" s="4" t="inlineStr"/>
+      <c r="O4" s="4" t="inlineStr"/>
+      <c r="P4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr"/>
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr"/>
+      <c r="V4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr"/>
@@ -819,74 +819,74 @@
       <c r="V6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000870</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Cancer Research UK</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>A cancer charity that is focused on cancer research within the UK with a company number 4355631.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency; charity  </t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr"/>
+      <c r="K7" s="4" t="inlineStr"/>
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CRUK </t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="n">
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="inlineStr"/>
+      <c r="V7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr"/>
@@ -931,78 +931,78 @@
       <c r="V8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000871</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Centers for Disease Control</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>The US government agency that has responsibility for health protection.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>government agency</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>CDC</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr"/>
-      <c r="P9" s="3" t="n">
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" s="4" t="inlineStr"/>
+      <c r="O9" s="4" t="inlineStr"/>
+      <c r="P9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr"/>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr"/>
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>All; SC</t>
         </is>
       </c>
-      <c r="T9" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U9" s="3" t="inlineStr"/>
-      <c r="V9" s="3" t="inlineStr"/>
+      <c r="T9" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U9" s="4" t="inlineStr"/>
+      <c r="V9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr"/>
@@ -1091,280 +1091,280 @@
       <c r="V11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000872</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Food and Drug Administration</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>The US government agency that has statutary responsibility for regulation of medicinal products.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">government agency </t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>government agency</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">regulatory agency </t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="n">
+      <c r="J12" s="4" t="inlineStr"/>
+      <c r="K12" s="4" t="inlineStr"/>
+      <c r="L12" s="4" t="inlineStr"/>
+      <c r="M12" s="4" t="inlineStr"/>
+      <c r="N12" s="4" t="inlineStr"/>
+      <c r="O12" s="4" t="inlineStr"/>
+      <c r="P12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr"/>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr"/>
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>All; SC</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U12" s="3" t="inlineStr"/>
-      <c r="V12" s="3" t="inlineStr"/>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U12" s="4" t="inlineStr"/>
+      <c r="V12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000873</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Irish Cancer Society</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>A cancer charity that is focused on cancer research and care in Ireland with a the charity number CHY5863.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr"/>
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer charity </t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">grant agency; charity </t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="n">
+      <c r="J13" s="4" t="inlineStr"/>
+      <c r="K13" s="4" t="inlineStr"/>
+      <c r="L13" s="4" t="inlineStr"/>
+      <c r="M13" s="4" t="inlineStr"/>
+      <c r="N13" s="4" t="inlineStr"/>
+      <c r="O13" s="4" t="inlineStr"/>
+      <c r="P13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr"/>
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="T13" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U13" s="4" t="inlineStr"/>
+      <c r="V13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000874</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>JUUL labs</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette organisation with headquarters based in San Francisco. </t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>tobacco funding</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="n">
+      <c r="K14" s="4" t="inlineStr"/>
+      <c r="L14" s="4" t="inlineStr"/>
+      <c r="M14" s="4" t="inlineStr"/>
+      <c r="N14" s="4" t="inlineStr"/>
+      <c r="O14" s="4" t="inlineStr"/>
+      <c r="P14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr"/>
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>SC; KS</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U14" s="4" t="inlineStr"/>
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>KS - I don't think we should specify location, as they could move their labs, but the entity would still remain the same</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000875</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>National Health Service</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A medical and health care service that is publicly funded to provide care for people in the UK. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">medical and health care service </t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t>NHS</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="n">
+      <c r="M15" s="4" t="inlineStr"/>
+      <c r="N15" s="4" t="inlineStr"/>
+      <c r="O15" s="4" t="inlineStr"/>
+      <c r="P15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr">
+      <c r="Q15" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" s="4" t="inlineStr"/>
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
+      <c r="T15" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr"/>
@@ -1515,74 +1515,74 @@
       <c r="V18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000432</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Philip Morris International</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>A tobacco company based in Switzerland with the business identification number CHE-105.950.151.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>https://www.pmi.com/company-information</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>PMI</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="n">
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr"/>
+      <c r="O19" s="4" t="inlineStr"/>
+      <c r="P19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr"/>
@@ -2385,72 +2385,72 @@
       <c r="V32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000417</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis retailer </t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr"/>
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
         <is>
           <t>supplier of product</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr">
+      <c r="J33" s="4" t="inlineStr"/>
+      <c r="K33" s="4" t="inlineStr"/>
+      <c r="L33" s="4" t="inlineStr"/>
+      <c r="M33" s="4" t="inlineStr"/>
+      <c r="N33" s="4" t="inlineStr"/>
+      <c r="O33" s="4" t="inlineStr"/>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr"/>
+      <c r="S33" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="T33" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U33" s="4" t="inlineStr"/>
+      <c r="V33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2733,78 +2733,78 @@
       <c r="V37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000421</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr"/>
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; retailer of product </t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="J38" s="4" t="inlineStr"/>
+      <c r="K38" s="4" t="inlineStr"/>
+      <c r="L38" s="4" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="n">
+      <c r="M38" s="4" t="inlineStr"/>
+      <c r="N38" s="4" t="inlineStr"/>
+      <c r="O38" s="4" t="inlineStr"/>
+      <c r="P38" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
+      <c r="Q38" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R38" s="4" t="inlineStr"/>
+      <c r="S38" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="inlineStr">
+      <c r="T38" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="V38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -3251,82 +3251,82 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000426</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>independent e-cigarette company</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette company that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr"/>
+      <c r="E46" s="4" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H46" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I46" s="3" t="inlineStr">
+      <c r="H46" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product; marketer of product </t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr"/>
-      <c r="K46" s="3" t="inlineStr"/>
-      <c r="L46" s="3" t="inlineStr">
+      <c r="J46" s="4" t="inlineStr"/>
+      <c r="K46" s="4" t="inlineStr"/>
+      <c r="L46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent vape company; Independent vape business; vape company </t>
         </is>
       </c>
-      <c r="M46" s="3" t="inlineStr"/>
-      <c r="N46" s="3" t="inlineStr">
+      <c r="M46" s="4" t="inlineStr"/>
+      <c r="N46" s="4" t="inlineStr">
         <is>
           <t>(Note: This is intended to include ownership, investment or sharing of resources.)</t>
         </is>
       </c>
-      <c r="O46" s="3" t="inlineStr"/>
-      <c r="P46" s="3" t="n">
+      <c r="O46" s="4" t="inlineStr"/>
+      <c r="P46" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr">
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr"/>
+      <c r="S46" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T46" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="U46" s="3" t="inlineStr">
+      <c r="T46" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U46" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="V46" s="3" t="inlineStr"/>
+      <c r="V46" s="4" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -4470,74 +4470,74 @@
       <c r="V64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000438</t>
         </is>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A tobacco company that predominantly sells tobacco products. </t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="D65" s="4" t="inlineStr"/>
+      <c r="E65" s="4" t="inlineStr">
         <is>
           <t>tobacco company</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
+      <c r="H65" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I65" s="4" t="inlineStr">
         <is>
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="n">
+      <c r="J65" s="4" t="inlineStr"/>
+      <c r="K65" s="4" t="inlineStr"/>
+      <c r="L65" s="4" t="inlineStr"/>
+      <c r="M65" s="4" t="inlineStr"/>
+      <c r="N65" s="4" t="inlineStr"/>
+      <c r="O65" s="4" t="inlineStr"/>
+      <c r="P65" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R65" s="2" t="inlineStr"/>
-      <c r="S65" s="2" t="inlineStr">
+      <c r="Q65" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R65" s="4" t="inlineStr"/>
+      <c r="S65" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T65" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U65" s="2" t="inlineStr">
+      <c r="T65" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U65" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V65" s="2" t="inlineStr"/>
+      <c r="V65" s="4" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -2317,72 +2317,72 @@
       <c r="V31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000416</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>cannabis retail outlet</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr"/>
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">supplier of product </t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
+      <c r="J32" s="4" t="inlineStr"/>
+      <c r="K32" s="4" t="inlineStr"/>
+      <c r="L32" s="4" t="inlineStr"/>
+      <c r="M32" s="4" t="inlineStr"/>
+      <c r="N32" s="4" t="inlineStr"/>
+      <c r="O32" s="4" t="inlineStr"/>
+      <c r="P32" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q32" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="4" t="inlineStr"/>
+      <c r="S32" s="4" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="T32" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U32" s="4" t="inlineStr"/>
+      <c r="V32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -2807,74 +2807,74 @@
       <c r="V38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000422</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>e-cigarette shop</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="n">
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr"/>
+      <c r="P39" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" s="4" t="inlineStr"/>
+      <c r="S39" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="inlineStr">
+      <c r="T39" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -3403,78 +3403,78 @@
       <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000829</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>independent e-cigarette retailer</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An e-cigarette retailer that has no commercial or financial association with a tobacco company. </t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr"/>
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
+      <c r="H48" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="J48" s="4" t="inlineStr"/>
+      <c r="K48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Independent e-cig shop; Independent vape shop; vape retailer; independent vape retailer </t>
         </is>
       </c>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="n">
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T48" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U48" s="2" t="inlineStr">
+      <c r="T48" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr"/>
@@ -4400,74 +4400,74 @@
       <c r="V63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000437</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>tobacco retail outlet</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>A tobacco retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr"/>
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr">
+      <c r="F64" s="4" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="inlineStr">
+      <c r="H64" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I64" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">retailer of product </t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="n">
+      <c r="J64" s="4" t="inlineStr"/>
+      <c r="K64" s="4" t="inlineStr"/>
+      <c r="L64" s="4" t="inlineStr"/>
+      <c r="M64" s="4" t="inlineStr"/>
+      <c r="N64" s="4" t="inlineStr"/>
+      <c r="O64" s="4" t="inlineStr"/>
+      <c r="P64" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="inlineStr">
+      <c r="Q64" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R64" s="4" t="inlineStr"/>
+      <c r="S64" s="4" t="inlineStr">
         <is>
           <t>SC; JH</t>
         </is>
       </c>
-      <c r="T64" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U64" s="2" t="inlineStr">
+      <c r="T64" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U64" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V64" s="2" t="inlineStr"/>
+      <c r="V64" s="4" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -4540,74 +4540,74 @@
       <c r="V65" s="4" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000439</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t>tobacconist</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" s="4" t="inlineStr">
         <is>
           <t>A tobacco retailer that has a physical outlet where tobacco products are the major part of their product range.</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="D66" s="4" t="inlineStr"/>
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t>tobacco retailer</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr">
+      <c r="F66" s="4" t="inlineStr"/>
+      <c r="G66" s="4" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="inlineStr">
+      <c r="H66" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I66" s="4" t="inlineStr">
         <is>
           <t>retailer of product</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="inlineStr"/>
-      <c r="N66" s="2" t="inlineStr"/>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="n">
+      <c r="J66" s="4" t="inlineStr"/>
+      <c r="K66" s="4" t="inlineStr"/>
+      <c r="L66" s="4" t="inlineStr"/>
+      <c r="M66" s="4" t="inlineStr"/>
+      <c r="N66" s="4" t="inlineStr"/>
+      <c r="O66" s="4" t="inlineStr"/>
+      <c r="P66" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q66" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R66" s="2" t="inlineStr"/>
-      <c r="S66" s="2" t="inlineStr">
+      <c r="Q66" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R66" s="4" t="inlineStr"/>
+      <c r="S66" s="4" t="inlineStr">
         <is>
           <t>SC; JH; KS</t>
         </is>
       </c>
-      <c r="T66" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U66" s="2" t="inlineStr">
+      <c r="T66" s="4" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U66" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V66" s="2" t="inlineStr"/>
+      <c r="V66" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -581,7 +581,7 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -617,7 +617,7 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; RW</t>
         </is>
       </c>
       <c r="T2" s="2" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>An industry that is realised in the manufacture or sale of alcoholic beverages.</t>
+          <t>An industry that is realised in the manufacture and sale of alcoholic beverages.</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr"/>
@@ -911,7 +911,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>An industry that is realised in the manufacture or sale of cannabis.</t>
+          <t>An industry that is realised in the manufacture and sale of cannabis.</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>An industry that is realised in the manufacture or sale of e-cigarettes, e-cigarette components or e-liquid.</t>
+          <t>An industry that is realised in the manufacture and sale of e-cigarettes, e-cigarette components and e-liquid.</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -589,11 +595,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>grant agency</t>
-        </is>
-      </c>
+      <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr">
@@ -661,11 +663,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product  </t>
-        </is>
-      </c>
+      <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
@@ -1127,7 +1125,7 @@
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
@@ -1153,7 +1151,7 @@
       <c r="R10" s="4" t="inlineStr"/>
       <c r="S10" s="4" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; RW</t>
         </is>
       </c>
       <c r="T10" s="4" t="inlineStr">
@@ -1865,66 +1863,70 @@
       <c r="V20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000429</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>marketer of product</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>A role performed by an organisation or individual who participates in processes which are intended to increase the amount of a product that is sold by making people want the product.</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr"/>
-      <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr"/>
-      <c r="P21" s="4" t="n">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>A process undertaken by an organisation with the aim of increasing use of a product or service.</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr"/>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="inlineStr"/>
+      <c r="M21" s="3" t="inlineStr"/>
+      <c r="N21" s="3" t="inlineStr"/>
+      <c r="O21" s="3" t="inlineStr"/>
+      <c r="P21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
-      <c r="T21" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr"/>
+      <c r="S21" s="3" t="inlineStr">
+        <is>
+          <t>SC; JH; RW</t>
+        </is>
+      </c>
+      <c r="T21" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="U21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V21" s="4" t="inlineStr"/>
+      <c r="V21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1989,128 +1991,132 @@
       <c r="V22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GSSO:004615</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001360</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>non-profit organisation</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>An organization dedicated to furthering a particular social cause or advocating for a shared point of view. In economic terms, it is an organization that uses its surplus of the revenues to further achieve its ultimate objective, rather than distributing its income to the organization's shareholders, leaders, or members.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/GSSO_004615</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>SC; RW</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000430</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>organisation aggregate</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>An aggregate of organisations.</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr"/>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr"/>
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr"/>
-      <c r="G24" s="4" t="inlineStr"/>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr"/>
-      <c r="J24" s="4" t="inlineStr"/>
-      <c r="K24" s="4" t="inlineStr"/>
-      <c r="L24" s="4" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr"/>
-      <c r="O24" s="4" t="inlineStr"/>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R24" s="4" t="inlineStr"/>
-      <c r="S24" s="4" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="T24" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U24" s="4" t="inlineStr"/>
-      <c r="V24" s="4" t="inlineStr"/>
+      <c r="F24" s="5" t="inlineStr"/>
+      <c r="G24" s="5" t="inlineStr"/>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="J24" s="5" t="inlineStr"/>
+      <c r="K24" s="5" t="inlineStr"/>
+      <c r="L24" s="5" t="inlineStr"/>
+      <c r="M24" s="5" t="inlineStr"/>
+      <c r="N24" s="5" t="inlineStr"/>
+      <c r="O24" s="5" t="inlineStr"/>
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q24" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" s="5" t="inlineStr"/>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="T24" s="5" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="U24" s="5" t="inlineStr"/>
+      <c r="V24" s="5" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2199,7 +2205,7 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>A regulatory agency is a organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
+          <t>An organization that has responsibility over or for the legislation (acts and regulations) for a given sector of the government.</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -2209,13 +2215,13 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
@@ -2241,7 +2247,7 @@
       <c r="R26" s="4" t="inlineStr"/>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SC; RW</t>
         </is>
       </c>
       <c r="T26" s="4" t="inlineStr">
@@ -2277,7 +2283,7 @@
       <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
@@ -2307,7 +2313,7 @@
       <c r="R27" s="4" t="inlineStr"/>
       <c r="S27" s="4" t="inlineStr">
         <is>
-          <t>SC; KS</t>
+          <t>SC; KS; RW</t>
         </is>
       </c>
       <c r="T27" s="4" t="inlineStr">
@@ -2347,7 +2353,7 @@
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -2373,7 +2379,7 @@
       <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; RW</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
@@ -2401,7 +2407,7 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>An organisation that sells some product.</t>
+          <t>An organisation that sells some product directly to users of that product.</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr"/>
@@ -2411,7 +2417,11 @@
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
           <t>Organisation</t>
@@ -2435,7 +2445,7 @@
       <c r="R29" s="4" t="inlineStr"/>
       <c r="S29" s="4" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; RW</t>
         </is>
       </c>
       <c r="T29" s="4" t="inlineStr">
@@ -2475,7 +2485,7 @@
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -2509,7 +2519,7 @@
       <c r="R30" s="2" t="inlineStr"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; RW</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
@@ -2603,19 +2613,19 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A tobacco retailer that has a physical outlet.</t>
+          <t>A facility that retails tobacco.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>tobacco retailer</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2623,11 +2633,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
+      <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr"/>
@@ -2645,7 +2651,7 @@
       <c r="R32" s="2" t="inlineStr"/>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; RW</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
@@ -2685,7 +2691,7 @@
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2693,11 +2699,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>retailer of product</t>
-        </is>
-      </c>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr"/>
@@ -2715,7 +2717,7 @@
       <c r="R33" s="2" t="inlineStr"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>SC; JH</t>
+          <t>SC; JH; RW</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -791,11 +791,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>charity</t>
-        </is>
-      </c>
+      <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
@@ -861,11 +857,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr"/>
       <c r="L6" s="2" t="inlineStr"/>
@@ -929,11 +921,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product  </t>
-        </is>
-      </c>
+      <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr"/>
       <c r="K7" s="4" t="inlineStr"/>
       <c r="L7" s="4" t="inlineStr"/>
@@ -997,11 +985,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product </t>
-        </is>
-      </c>
+      <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
@@ -1065,11 +1049,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>supplier of product</t>
-        </is>
-      </c>
+      <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
@@ -1199,11 +1179,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="inlineStr"/>
       <c r="L11" s="2" t="inlineStr"/>
@@ -1343,11 +1319,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; retailer of product </t>
-        </is>
-      </c>
+      <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr">
@@ -1417,11 +1389,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">retailer of product </t>
-        </is>
-      </c>
+      <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
@@ -1747,11 +1715,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
@@ -2493,11 +2457,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1245,11 +1245,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product </t>
-        </is>
-      </c>
+      <c r="I12" s="3" t="inlineStr"/>
       <c r="J12" s="3" t="inlineStr"/>
       <c r="K12" s="3" t="inlineStr">
         <is>
@@ -1455,11 +1451,7 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">supplier of product; marketer of product  </t>
-        </is>
-      </c>
+      <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr"/>
       <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -1615,64 +1615,68 @@
       <c r="V17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001359</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">healthcare organisation </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>An organisation that provide healthcare.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>An organisation that provides healthcare.</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
+      <c r="O18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>SC; JH</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr">
+        <is>
+          <t>SC; JH; RW</t>
+        </is>
+      </c>
+      <c r="T18" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">

--- a/inputs/AddictO_Organisation_Defs.xlsx
+++ b/inputs/AddictO_Organisation_Defs.xlsx
@@ -468,14 +468,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Definition source</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
@@ -483,14 +483,14 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>BFO entity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>REL 'has role'</t>
@@ -508,32 +508,32 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Fuzzy set</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Examples of usage</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>E-CigO</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Fuzzy set</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -578,45 +578,45 @@
           <t>A charity that provides funding for research, prevention, treatment or care relating to alcohol use.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">alcohol harm prevention organisation </t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>SC; RW</t>
@@ -627,8 +627,8 @@
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -646,41 +646,41 @@
           <t>An industry that is realised in the manufacture and sale of alcoholic beverages.</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>industry</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
           <t>realizable entity</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="inlineStr"/>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
       <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr"/>
+      <c r="R3" s="3" t="n"/>
       <c r="S3" s="3" t="inlineStr">
         <is>
           <t>SC; RW</t>
@@ -691,8 +691,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr"/>
-      <c r="V3" s="3" t="inlineStr"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -710,41 +710,41 @@
           <t>An organisation that undertakes assays for presence or amounts of chemicals in specimens</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -755,8 +755,8 @@
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -774,43 +774,43 @@
           <t>A charity that provides funding for cancer-related research, prevention, treatment or care.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organization </t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cancer prevention organisation </t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="n">
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -821,8 +821,8 @@
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -840,41 +840,41 @@
           <t xml:space="preserve">An organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of cannabis products. </t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
       <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="n"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
           <t>SC; JH; KS</t>
@@ -885,8 +885,8 @@
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -904,41 +904,41 @@
           <t>An industry that is realised in the manufacture and sale of cannabis.</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>industry</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
       <c r="G7" s="4" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
           <t>realizable entity</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr"/>
-      <c r="K7" s="4" t="inlineStr"/>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="inlineStr"/>
-      <c r="N7" s="4" t="inlineStr"/>
-      <c r="O7" s="4" t="inlineStr"/>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+      <c r="M7" s="4" t="n"/>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="n"/>
+      <c r="P7" s="4" t="n"/>
       <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="n"/>
       <c r="S7" s="4" t="inlineStr">
         <is>
           <t>SC; RW</t>
@@ -949,8 +949,8 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr"/>
-      <c r="V7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="n"/>
+      <c r="V7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -968,41 +968,41 @@
           <t xml:space="preserve">A cannabis retailer that has a physical outlet. </t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>cannabis retailer</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="n"/>
       <c r="S8" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1013,8 +1013,8 @@
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1032,41 +1032,41 @@
           <t xml:space="preserve">A cannabis company that predominantly sells cannabis products and related merchandise. </t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">cannabis company </t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Role </t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="n"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
           <t>SC</t>
@@ -1077,8 +1077,8 @@
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1093,42 +1093,42 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">An organisation that raises and distributesfunds for charitable purposes. </t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr"/>
+          <t xml:space="preserve">An organisation that raises and distributes funds for charitable purposes. </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>organisation</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="n"/>
       <c r="G10" s="4" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I10" s="4" t="inlineStr"/>
-      <c r="J10" s="4" t="inlineStr"/>
-      <c r="K10" s="4" t="inlineStr"/>
-      <c r="L10" s="4" t="inlineStr"/>
-      <c r="M10" s="4" t="inlineStr"/>
-      <c r="N10" s="4" t="inlineStr"/>
-      <c r="O10" s="4" t="inlineStr"/>
-      <c r="P10" s="4" t="n">
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="4" t="n"/>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" s="4" t="n"/>
+      <c r="P10" s="4" t="n"/>
+      <c r="Q10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="4" t="inlineStr"/>
+      <c r="R10" s="4" t="n"/>
       <c r="S10" s="4" t="inlineStr">
         <is>
           <t>SC; JH; RW</t>
@@ -1144,7 +1144,7 @@
           <t>RW; CN</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr"/>
+      <c r="V10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1162,39 +1162,39 @@
           <t>An organisation that is engaged in the manufacture, preparation for sale, marketing or distribution of electronic cigarettes, components that are used primarily in electronic cigarettes, and e-liquid.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="n">
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="n"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -1210,7 +1210,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1228,47 +1228,47 @@
           <t>An industry that is realised in the manufacture and sale of e-cigarettes, e-cigarette components and e-liquid.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>industry</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
           <t>realizable entity</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
       <c r="K12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">I have added here promotion of - this sets industry apart from manufactureres of but also includes these types of company. </t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t>E-Cig industry</t>
         </is>
       </c>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="n">
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr"/>
+      <c r="R12" s="3" t="n"/>
       <c r="S12" s="3" t="inlineStr">
         <is>
           <t>SC; RW</t>
@@ -1279,8 +1279,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr"/>
-      <c r="V12" s="3" t="inlineStr"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1298,43 +1298,43 @@
           <t>A e-cigarette company that predominantly sells e-cigarettes, e-cigarette components or e-liquid to consumers.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>e-cigarette company</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="inlineStr">
         <is>
           <t>E-Cig shop; E-cig Industry; E-Cig merchant; vape shop; vape retailer</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="n">
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -1350,7 +1350,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1368,39 +1368,39 @@
           <t>An e-cigarette shop is an e-cigarette retailer that has a physical outlet.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>e-cigarette retailer</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="n">
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -1416,7 +1416,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1434,39 +1434,39 @@
           <t>An e-cigarette organisation that is engaged in the growth, manufacture, preparation for sale, shipment, advertisement, or distribution of e-liquid.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>e-cigarette organization</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Organisation</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="n">
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="n"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
           <t>SC; JH</t>
@@ -1482,7 +1482,7 @@
           <t xml:space="preserve"> RW; CN</t>
         </is>
       </c>
-      <c r="V15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16